--- a/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>UMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1255200</v>
+        <v>1409600</v>
       </c>
       <c r="E8" s="3">
-        <v>1198400</v>
+        <v>1395700</v>
       </c>
       <c r="F8" s="3">
-        <v>1083700</v>
+        <v>1258600</v>
       </c>
       <c r="G8" s="3">
-        <v>1181300</v>
+        <v>1201600</v>
       </c>
       <c r="H8" s="3">
-        <v>1310000</v>
+        <v>1086600</v>
       </c>
       <c r="I8" s="3">
+        <v>1184500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1313500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1292200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1247200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1187200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1221800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1216600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1220200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1249200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1244500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1041200</v>
+        <v>1138800</v>
       </c>
       <c r="E9" s="3">
-        <v>1010400</v>
+        <v>1163300</v>
       </c>
       <c r="F9" s="3">
-        <v>1008500</v>
+        <v>1044100</v>
       </c>
       <c r="G9" s="3">
-        <v>1028300</v>
+        <v>1013100</v>
       </c>
       <c r="H9" s="3">
-        <v>1079800</v>
+        <v>1011200</v>
       </c>
       <c r="I9" s="3">
+        <v>1031000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1082700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1070200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1092800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>983100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1008100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>998200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>978000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>963500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>213900</v>
+        <v>270900</v>
       </c>
       <c r="E10" s="3">
-        <v>188000</v>
+        <v>232400</v>
       </c>
       <c r="F10" s="3">
-        <v>75200</v>
+        <v>214500</v>
       </c>
       <c r="G10" s="3">
-        <v>153000</v>
+        <v>188500</v>
       </c>
       <c r="H10" s="3">
-        <v>230200</v>
+        <v>75400</v>
       </c>
       <c r="I10" s="3">
+        <v>153500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>230800</v>
+      </c>
+      <c r="K10" s="3">
         <v>222000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>154400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>204100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>213700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>218400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>242200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>285600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>270700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>106200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>115200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>93800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>93000</v>
+      </c>
+      <c r="H12" s="3">
         <v>93600</v>
       </c>
-      <c r="E12" s="3">
-        <v>92700</v>
-      </c>
-      <c r="F12" s="3">
-        <v>93400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>124600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>110700</v>
-      </c>
       <c r="I12" s="3">
+        <v>124900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>111000</v>
+      </c>
+      <c r="K12" s="3">
         <v>100700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>97300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>100100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>108400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>105200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>130100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>124700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -978,43 +1017,49 @@
         <v>91</v>
       </c>
       <c r="E14" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="3">
         <v>2800</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>8200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>9700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>3400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>9400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>34900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1171700</v>
+        <v>1295800</v>
       </c>
       <c r="E17" s="3">
-        <v>1139800</v>
+        <v>1323500</v>
       </c>
       <c r="F17" s="3">
-        <v>1136800</v>
+        <v>1174900</v>
       </c>
       <c r="G17" s="3">
-        <v>1202400</v>
+        <v>1142900</v>
       </c>
       <c r="H17" s="3">
-        <v>1229000</v>
+        <v>1139900</v>
       </c>
       <c r="I17" s="3">
+        <v>1205700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1232300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1186400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1221600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1133800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1178700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1165900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1184800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1209800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1198300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>83400</v>
+        <v>113900</v>
       </c>
       <c r="E18" s="3">
-        <v>58600</v>
+        <v>72200</v>
       </c>
       <c r="F18" s="3">
-        <v>-53100</v>
+        <v>83700</v>
       </c>
       <c r="G18" s="3">
-        <v>-21100</v>
+        <v>58700</v>
       </c>
       <c r="H18" s="3">
-        <v>81000</v>
+        <v>-53300</v>
       </c>
       <c r="I18" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>81200</v>
+      </c>
+      <c r="K18" s="3">
         <v>105800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>25600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>53400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>43100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>50700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>35400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>39300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>50600</v>
+      </c>
+      <c r="F20" s="3">
         <v>7200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>4800</v>
       </c>
-      <c r="F20" s="3">
-        <v>65100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-41900</v>
-      </c>
       <c r="H20" s="3">
+        <v>65300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-30300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-12800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>58400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>25000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>70200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>36700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>16600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>11300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>491400</v>
+        <v>464800</v>
       </c>
       <c r="E21" s="3">
-        <v>468600</v>
+        <v>548800</v>
       </c>
       <c r="F21" s="3">
-        <v>423700</v>
+        <v>492800</v>
       </c>
       <c r="G21" s="3">
-        <v>349900</v>
+        <v>469900</v>
       </c>
       <c r="H21" s="3">
-        <v>482200</v>
+        <v>424900</v>
       </c>
       <c r="I21" s="3">
+        <v>350800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>483500</v>
+      </c>
+      <c r="K21" s="3">
         <v>537800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>526000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>507000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>550400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>511800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>485400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>486800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>496600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F22" s="3">
         <v>24900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>25300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
+        <v>23700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>23100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K22" s="3">
         <v>23600</v>
       </c>
-      <c r="G22" s="3">
-        <v>23000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>23200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>23600</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>22300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>21700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>20400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>18800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>17200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>15800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>65800</v>
+        <v>27400</v>
       </c>
       <c r="E23" s="3">
-        <v>38000</v>
+        <v>98900</v>
       </c>
       <c r="F23" s="3">
-        <v>-11600</v>
+        <v>65900</v>
       </c>
       <c r="G23" s="3">
-        <v>-86000</v>
+        <v>38100</v>
       </c>
       <c r="H23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-86300</v>
+      </c>
+      <c r="J23" s="3">
         <v>27600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>69400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>61800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>56700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>92900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>68600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>34800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>34800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>63600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>6700</v>
       </c>
-      <c r="F24" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="G24" s="3">
-        <v>13700</v>
-      </c>
       <c r="H24" s="3">
-        <v>21000</v>
+        <v>-14800</v>
       </c>
       <c r="I24" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-11000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-39000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>18000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>13000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>20700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-14000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>20100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>64500</v>
+        <v>41000</v>
       </c>
       <c r="E26" s="3">
-        <v>31300</v>
+        <v>105200</v>
       </c>
       <c r="F26" s="3">
+        <v>64600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>31400</v>
+      </c>
+      <c r="H26" s="3">
         <v>3100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-99800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>6500</v>
-      </c>
       <c r="I26" s="3">
+        <v>-100100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K26" s="3">
         <v>80400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>100800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>38700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>79900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>47900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>48800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>14600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>97400</v>
+        <v>73600</v>
       </c>
       <c r="E27" s="3">
-        <v>57900</v>
+        <v>128000</v>
       </c>
       <c r="F27" s="3">
-        <v>40000</v>
+        <v>97700</v>
       </c>
       <c r="G27" s="3">
-        <v>-56800</v>
+        <v>58000</v>
       </c>
       <c r="H27" s="3">
-        <v>57200</v>
+        <v>40100</v>
       </c>
       <c r="I27" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K27" s="3">
         <v>121700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>113100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>57400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>112500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>68000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>74500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>83100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-4800</v>
       </c>
-      <c r="F32" s="3">
-        <v>-65100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>41900</v>
-      </c>
       <c r="H32" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>42000</v>
+      </c>
+      <c r="J32" s="3">
         <v>30300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>12800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-58400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-25000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-70200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-36700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-16600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-11300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>97400</v>
+        <v>73600</v>
       </c>
       <c r="E33" s="3">
-        <v>57900</v>
+        <v>128000</v>
       </c>
       <c r="F33" s="3">
-        <v>40000</v>
+        <v>97700</v>
       </c>
       <c r="G33" s="3">
-        <v>-56800</v>
+        <v>58000</v>
       </c>
       <c r="H33" s="3">
-        <v>57200</v>
+        <v>40100</v>
       </c>
       <c r="I33" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K33" s="3">
         <v>121700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>113100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>57400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>112500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>68000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>74500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>83100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>97400</v>
+        <v>73600</v>
       </c>
       <c r="E35" s="3">
-        <v>57900</v>
+        <v>128000</v>
       </c>
       <c r="F35" s="3">
-        <v>40000</v>
+        <v>97700</v>
       </c>
       <c r="G35" s="3">
-        <v>-56800</v>
+        <v>58000</v>
       </c>
       <c r="H35" s="3">
-        <v>57200</v>
+        <v>40100</v>
       </c>
       <c r="I35" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K35" s="3">
         <v>121700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>113100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>57400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>112500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>68000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>74500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>83100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1967,404 +2138,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2885500</v>
+        <v>3173800</v>
       </c>
       <c r="E41" s="3">
-        <v>3005200</v>
+        <v>3184700</v>
       </c>
       <c r="F41" s="3">
-        <v>2951400</v>
+        <v>2893300</v>
       </c>
       <c r="G41" s="3">
-        <v>2782600</v>
+        <v>3013400</v>
       </c>
       <c r="H41" s="3">
-        <v>2711400</v>
+        <v>2959400</v>
       </c>
       <c r="I41" s="3">
+        <v>2790100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2718700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2500900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2565800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2647100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2266700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2208200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1983100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1877700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1802200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F42" s="3">
         <v>21100</v>
       </c>
-      <c r="E42" s="3">
-        <v>20400</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
+        <v>20500</v>
+      </c>
+      <c r="H42" s="3">
         <v>18400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>17600</v>
       </c>
-      <c r="H42" s="3">
-        <v>14000</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K42" s="3">
         <v>15600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>17400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>23200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>27400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>25900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>28300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>23300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>808400</v>
+        <v>1003800</v>
       </c>
       <c r="E43" s="3">
-        <v>854800</v>
+        <v>887900</v>
       </c>
       <c r="F43" s="3">
-        <v>789300</v>
+        <v>810600</v>
       </c>
       <c r="G43" s="3">
-        <v>821400</v>
+        <v>857100</v>
       </c>
       <c r="H43" s="3">
-        <v>906400</v>
+        <v>791400</v>
       </c>
       <c r="I43" s="3">
+        <v>823600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>908900</v>
+      </c>
+      <c r="K43" s="3">
         <v>959500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>886600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>734300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>785600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>748200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>705300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>782700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>761800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>664900</v>
+        <v>737900</v>
       </c>
       <c r="E44" s="3">
-        <v>652900</v>
+        <v>724200</v>
       </c>
       <c r="F44" s="3">
-        <v>627700</v>
+        <v>666700</v>
       </c>
       <c r="G44" s="3">
-        <v>605400</v>
+        <v>654600</v>
       </c>
       <c r="H44" s="3">
-        <v>585000</v>
+        <v>629400</v>
       </c>
       <c r="I44" s="3">
+        <v>607100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>586600</v>
+      </c>
+      <c r="K44" s="3">
         <v>587300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>570000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>591700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>554300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>527800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>530300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>554300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>559800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1057900</v>
+        <v>381900</v>
       </c>
       <c r="E45" s="3">
-        <v>472600</v>
+        <v>306900</v>
       </c>
       <c r="F45" s="3">
-        <v>495600</v>
+        <v>1060800</v>
       </c>
       <c r="G45" s="3">
-        <v>469100</v>
+        <v>473800</v>
       </c>
       <c r="H45" s="3">
-        <v>444700</v>
+        <v>496900</v>
       </c>
       <c r="I45" s="3">
+        <v>470400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>445900</v>
+      </c>
+      <c r="K45" s="3">
         <v>496100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>497500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>513800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>407900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>381500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>390200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>364400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>340000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5437700</v>
+        <v>5322500</v>
       </c>
       <c r="E46" s="3">
-        <v>5005900</v>
+        <v>5127800</v>
       </c>
       <c r="F46" s="3">
-        <v>4882400</v>
+        <v>5452400</v>
       </c>
       <c r="G46" s="3">
-        <v>4696100</v>
+        <v>5019400</v>
       </c>
       <c r="H46" s="3">
-        <v>4661500</v>
+        <v>4895600</v>
       </c>
       <c r="I46" s="3">
+        <v>4708800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4674100</v>
+      </c>
+      <c r="K46" s="3">
         <v>4559400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4537400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4510200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4041800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3891700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3637200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3602400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3488300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1341600</v>
+        <v>1195800</v>
       </c>
       <c r="E47" s="3">
-        <v>1258700</v>
+        <v>1378800</v>
       </c>
       <c r="F47" s="3">
-        <v>1237800</v>
+        <v>1345300</v>
       </c>
       <c r="G47" s="3">
-        <v>1114400</v>
+        <v>1262100</v>
       </c>
       <c r="H47" s="3">
-        <v>1206000</v>
+        <v>1241200</v>
       </c>
       <c r="I47" s="3">
+        <v>1117400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1209300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1241200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1199400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1102700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1125500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1163800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1138100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1133700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1232600</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>5232600</v>
+        <v>4989500</v>
       </c>
       <c r="E48" s="3">
-        <v>5567400</v>
+        <v>5298800</v>
       </c>
       <c r="F48" s="3">
-        <v>5870400</v>
+        <v>5246800</v>
       </c>
       <c r="G48" s="3">
-        <v>5770900</v>
+        <v>5582400</v>
       </c>
       <c r="H48" s="3">
-        <v>5953500</v>
+        <v>5886300</v>
       </c>
       <c r="I48" s="3">
+        <v>5786500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5969600</v>
+      </c>
+      <c r="K48" s="3">
         <v>6308800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6577800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6677400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6764100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6921700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>7101400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>7375100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>7060600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>121200</v>
+        <v>159300</v>
       </c>
       <c r="E49" s="3">
-        <v>138100</v>
+        <v>173400</v>
       </c>
       <c r="F49" s="3">
-        <v>111500</v>
+        <v>121500</v>
       </c>
       <c r="G49" s="3">
-        <v>99500</v>
+        <v>138500</v>
       </c>
       <c r="H49" s="3">
-        <v>106700</v>
+        <v>111800</v>
       </c>
       <c r="I49" s="3">
+        <v>99800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>106900</v>
+      </c>
+      <c r="K49" s="3">
         <v>119100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>122700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>122800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>125500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>123900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>120300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>133300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>307600</v>
+        <v>354200</v>
       </c>
       <c r="E52" s="3">
-        <v>334000</v>
+        <v>367000</v>
       </c>
       <c r="F52" s="3">
-        <v>341700</v>
+        <v>308500</v>
       </c>
       <c r="G52" s="3">
-        <v>445900</v>
+        <v>335000</v>
       </c>
       <c r="H52" s="3">
-        <v>467300</v>
+        <v>342600</v>
       </c>
       <c r="I52" s="3">
+        <v>447100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>468600</v>
+      </c>
+      <c r="K52" s="3">
         <v>439900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>386500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>359800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>394100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>403200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>374500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>364200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>307400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>12440700</v>
+        <v>12021200</v>
       </c>
       <c r="E54" s="3">
-        <v>12304000</v>
+        <v>12345700</v>
       </c>
       <c r="F54" s="3">
-        <v>12443800</v>
+        <v>12474400</v>
       </c>
       <c r="G54" s="3">
-        <v>12126800</v>
+        <v>12337300</v>
       </c>
       <c r="H54" s="3">
-        <v>12395000</v>
+        <v>12477500</v>
       </c>
       <c r="I54" s="3">
+        <v>12159600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>12428500</v>
+      </c>
+      <c r="K54" s="3">
         <v>12668400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>12823700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>12772800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12451000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12504300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>12371600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>12608800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>12227400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>220400</v>
+        <v>297600</v>
       </c>
       <c r="E57" s="3">
-        <v>229900</v>
+        <v>296100</v>
       </c>
       <c r="F57" s="3">
-        <v>225500</v>
+        <v>221000</v>
       </c>
       <c r="G57" s="3">
-        <v>226200</v>
+        <v>230500</v>
       </c>
       <c r="H57" s="3">
-        <v>229000</v>
+        <v>226100</v>
       </c>
       <c r="I57" s="3">
+        <v>226800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>229600</v>
+      </c>
+      <c r="K57" s="3">
         <v>246400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>232700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>211800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>214200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>215400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>210000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>223500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>219900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1348700</v>
+        <v>864600</v>
       </c>
       <c r="E58" s="3">
-        <v>1326500</v>
+        <v>1246600</v>
       </c>
       <c r="F58" s="3">
-        <v>791600</v>
+        <v>1352300</v>
       </c>
       <c r="G58" s="3">
-        <v>606200</v>
+        <v>1330000</v>
       </c>
       <c r="H58" s="3">
-        <v>676100</v>
+        <v>793800</v>
       </c>
       <c r="I58" s="3">
+        <v>607800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>677900</v>
+      </c>
+      <c r="K58" s="3">
         <v>573100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1330300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1711600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1579800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1561900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1185000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1012600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1534200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>769900</v>
+        <v>875600</v>
       </c>
       <c r="E59" s="3">
-        <v>1006500</v>
+        <v>882300</v>
       </c>
       <c r="F59" s="3">
-        <v>733900</v>
+        <v>772000</v>
       </c>
       <c r="G59" s="3">
-        <v>827300</v>
+        <v>1009200</v>
       </c>
       <c r="H59" s="3">
-        <v>805600</v>
+        <v>735900</v>
       </c>
       <c r="I59" s="3">
+        <v>829500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>807700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1148500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>850600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>930700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>875200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1064900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>785700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1111100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>967000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2339000</v>
+        <v>2037800</v>
       </c>
       <c r="E60" s="3">
-        <v>2562800</v>
+        <v>2425000</v>
       </c>
       <c r="F60" s="3">
-        <v>1751000</v>
+        <v>2345300</v>
       </c>
       <c r="G60" s="3">
-        <v>1659700</v>
+        <v>2569800</v>
       </c>
       <c r="H60" s="3">
-        <v>1710700</v>
+        <v>1755700</v>
       </c>
       <c r="I60" s="3">
+        <v>1664100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1715300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1968000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2413600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2854100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2669200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2842200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2180600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2347200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2721000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>2011800</v>
+        <v>1764800</v>
       </c>
       <c r="E61" s="3">
-        <v>1689200</v>
+        <v>1779200</v>
       </c>
       <c r="F61" s="3">
-        <v>2345300</v>
+        <v>2017300</v>
       </c>
       <c r="G61" s="3">
-        <v>2231200</v>
+        <v>1693800</v>
       </c>
       <c r="H61" s="3">
-        <v>2243700</v>
+        <v>2351700</v>
       </c>
       <c r="I61" s="3">
+        <v>2237200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2249800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2253800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1749900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1728100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1696900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1660600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2032000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1980400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1294100</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1270100</v>
+        <v>1187800</v>
       </c>
       <c r="E62" s="3">
-        <v>1330300</v>
+        <v>1230900</v>
       </c>
       <c r="F62" s="3">
-        <v>1369100</v>
+        <v>1273600</v>
       </c>
       <c r="G62" s="3">
-        <v>1366500</v>
+        <v>1333900</v>
       </c>
       <c r="H62" s="3">
-        <v>1370900</v>
+        <v>1372800</v>
       </c>
       <c r="I62" s="3">
+        <v>1370200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1374600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1435900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1469000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1253700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1135100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1091800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1092900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1148100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1070700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>5634400</v>
+        <v>4992700</v>
       </c>
       <c r="E66" s="3">
-        <v>5596700</v>
+        <v>5448800</v>
       </c>
       <c r="F66" s="3">
-        <v>5480500</v>
+        <v>5649700</v>
       </c>
       <c r="G66" s="3">
-        <v>5272900</v>
+        <v>5611800</v>
       </c>
       <c r="H66" s="3">
-        <v>5341700</v>
+        <v>5495300</v>
       </c>
       <c r="I66" s="3">
+        <v>5287100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5356200</v>
+      </c>
+      <c r="K66" s="3">
         <v>5678100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5639300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5866800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5535000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5624800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5336500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5546200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5138300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1922100</v>
+        <v>2222800</v>
       </c>
       <c r="E72" s="3">
-        <v>1842100</v>
+        <v>2039400</v>
       </c>
       <c r="F72" s="3">
-        <v>2041700</v>
+        <v>1927300</v>
       </c>
       <c r="G72" s="3">
-        <v>2048400</v>
+        <v>1847100</v>
       </c>
       <c r="H72" s="3">
-        <v>2152900</v>
+        <v>2047200</v>
       </c>
       <c r="I72" s="3">
+        <v>2054000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2158800</v>
+      </c>
+      <c r="K72" s="3">
         <v>2129100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2307700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1557800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1529000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1457800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1603500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1554000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1561100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>6806300</v>
+        <v>7028600</v>
       </c>
       <c r="E76" s="3">
-        <v>6707400</v>
+        <v>6896900</v>
       </c>
       <c r="F76" s="3">
-        <v>6963400</v>
+        <v>6824700</v>
       </c>
       <c r="G76" s="3">
-        <v>6853900</v>
+        <v>6725500</v>
       </c>
       <c r="H76" s="3">
-        <v>7053300</v>
+        <v>6982200</v>
       </c>
       <c r="I76" s="3">
+        <v>6872400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>7072400</v>
+      </c>
+      <c r="K76" s="3">
         <v>6990300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7184400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6905900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6916000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6879500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>7035100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>7062700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>7089100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>97400</v>
+        <v>73600</v>
       </c>
       <c r="E81" s="3">
-        <v>57900</v>
+        <v>128000</v>
       </c>
       <c r="F81" s="3">
-        <v>40000</v>
+        <v>97700</v>
       </c>
       <c r="G81" s="3">
-        <v>-56800</v>
+        <v>58000</v>
       </c>
       <c r="H81" s="3">
-        <v>57200</v>
+        <v>40100</v>
       </c>
       <c r="I81" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K81" s="3">
         <v>121700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>113100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>57400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>112500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>68000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>74500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>83100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>400800</v>
+        <v>416800</v>
       </c>
       <c r="E83" s="3">
-        <v>405300</v>
+        <v>426000</v>
       </c>
       <c r="F83" s="3">
-        <v>411800</v>
+        <v>401900</v>
       </c>
       <c r="G83" s="3">
+        <v>406400</v>
+      </c>
+      <c r="H83" s="3">
         <v>412900</v>
       </c>
-      <c r="H83" s="3">
-        <v>431500</v>
-      </c>
       <c r="I83" s="3">
+        <v>414000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>432700</v>
+      </c>
+      <c r="K83" s="3">
         <v>444800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>442000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>428700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>437100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>424300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>433500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>436200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>420700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-102400</v>
+        <v>491300</v>
       </c>
       <c r="E89" s="3">
-        <v>408000</v>
+        <v>1251700</v>
       </c>
       <c r="F89" s="3">
-        <v>272200</v>
+        <v>-102700</v>
       </c>
       <c r="G89" s="3">
-        <v>403200</v>
+        <v>409100</v>
       </c>
       <c r="H89" s="3">
-        <v>524600</v>
+        <v>272900</v>
       </c>
       <c r="I89" s="3">
+        <v>404300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>526000</v>
+      </c>
+      <c r="K89" s="3">
         <v>474400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>291900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>418100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>371000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>480200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>434100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>507000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-118100</v>
+        <v>-121100</v>
       </c>
       <c r="E91" s="3">
-        <v>-129800</v>
+        <v>-116800</v>
       </c>
       <c r="F91" s="3">
-        <v>-185000</v>
+        <v>-118400</v>
       </c>
       <c r="G91" s="3">
-        <v>-145000</v>
+        <v>-130200</v>
       </c>
       <c r="H91" s="3">
-        <v>-186700</v>
+        <v>-185500</v>
       </c>
       <c r="I91" s="3">
+        <v>-145400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-187200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-129700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-190100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-355300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-236200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-270100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-588000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-724600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-666200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-132000</v>
+        <v>-303800</v>
       </c>
       <c r="E94" s="3">
-        <v>-139300</v>
+        <v>-595100</v>
       </c>
       <c r="F94" s="3">
-        <v>-189000</v>
+        <v>-132300</v>
       </c>
       <c r="G94" s="3">
-        <v>-153400</v>
+        <v>-139700</v>
       </c>
       <c r="H94" s="3">
-        <v>-182100</v>
+        <v>-189500</v>
       </c>
       <c r="I94" s="3">
+        <v>-153900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-182600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-202100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>22200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-195500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-161500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-262700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-531300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-597400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-502200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4157,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4175,14 +4642,14 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4190,10 +4657,16 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-225200</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-195100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-324000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>138000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-215700</v>
+      </c>
+      <c r="H100" s="3">
+        <v>72700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-190900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-108500</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-359000</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-456100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>169000</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-149200</v>
+      </c>
+      <c r="O100" s="3">
+        <v>22900</v>
+      </c>
+      <c r="P100" s="3">
+        <v>255800</v>
+      </c>
+      <c r="Q100" s="3">
         <v>137600</v>
       </c>
-      <c r="E100" s="3">
-        <v>-215100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>72500</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-190400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-108200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-359000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-456100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>169000</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-149200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>22900</v>
-      </c>
-      <c r="N100" s="3">
-        <v>255800</v>
-      </c>
-      <c r="O100" s="3">
-        <v>137600</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-23000</v>
+        <v>-3300</v>
       </c>
       <c r="E101" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>13200</v>
       </c>
-      <c r="G101" s="3">
-        <v>11800</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-23800</v>
-      </c>
       <c r="I101" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="K101" s="3">
         <v>21900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-8700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-11100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-3100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-53200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>28300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-49900</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-119800</v>
+        <v>-10900</v>
       </c>
       <c r="E102" s="3">
-        <v>54000</v>
+        <v>291300</v>
       </c>
       <c r="F102" s="3">
-        <v>168800</v>
+        <v>-120200</v>
       </c>
       <c r="G102" s="3">
-        <v>71200</v>
+        <v>54100</v>
       </c>
       <c r="H102" s="3">
-        <v>210400</v>
+        <v>169300</v>
       </c>
       <c r="I102" s="3">
+        <v>71400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>211000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-64900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-150700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>380400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>58500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>237300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>105400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>75400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>190500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>UMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1409600</v>
+        <v>1512200</v>
       </c>
       <c r="E8" s="3">
-        <v>1395700</v>
+        <v>1440100</v>
       </c>
       <c r="F8" s="3">
-        <v>1258600</v>
+        <v>1425800</v>
       </c>
       <c r="G8" s="3">
-        <v>1201600</v>
+        <v>1285700</v>
       </c>
       <c r="H8" s="3">
-        <v>1086600</v>
+        <v>1227600</v>
       </c>
       <c r="I8" s="3">
-        <v>1184500</v>
+        <v>1110100</v>
       </c>
       <c r="J8" s="3">
+        <v>1210100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1313500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1292200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1247200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1187200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1221800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1216600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1220200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1249200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1244500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1138800</v>
+        <v>1162800</v>
       </c>
       <c r="E9" s="3">
         <v>1163300</v>
       </c>
       <c r="F9" s="3">
-        <v>1044100</v>
+        <v>1188400</v>
       </c>
       <c r="G9" s="3">
-        <v>1013100</v>
+        <v>1066600</v>
       </c>
       <c r="H9" s="3">
-        <v>1011200</v>
+        <v>1035000</v>
       </c>
       <c r="I9" s="3">
-        <v>1031000</v>
+        <v>1033000</v>
       </c>
       <c r="J9" s="3">
+        <v>1053300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1082700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1070200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1092800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>983100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1008100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>998200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>978000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>963500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>270900</v>
+        <v>349500</v>
       </c>
       <c r="E10" s="3">
-        <v>232400</v>
+        <v>276700</v>
       </c>
       <c r="F10" s="3">
-        <v>214500</v>
+        <v>237400</v>
       </c>
       <c r="G10" s="3">
-        <v>188500</v>
+        <v>219200</v>
       </c>
       <c r="H10" s="3">
-        <v>75400</v>
+        <v>192600</v>
       </c>
       <c r="I10" s="3">
-        <v>153500</v>
+        <v>77100</v>
       </c>
       <c r="J10" s="3">
+        <v>156800</v>
+      </c>
+      <c r="K10" s="3">
         <v>230800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>222000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>154400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>204100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>213700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>218400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>242200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>285600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>270700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>106200</v>
+        <v>109100</v>
       </c>
       <c r="E12" s="3">
-        <v>115200</v>
+        <v>108500</v>
       </c>
       <c r="F12" s="3">
-        <v>93800</v>
+        <v>117600</v>
       </c>
       <c r="G12" s="3">
-        <v>93000</v>
+        <v>95800</v>
       </c>
       <c r="H12" s="3">
-        <v>93600</v>
+        <v>95000</v>
       </c>
       <c r="I12" s="3">
-        <v>124900</v>
+        <v>95600</v>
       </c>
       <c r="J12" s="3">
+        <v>127600</v>
+      </c>
+      <c r="K12" s="3">
         <v>111000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>97300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>108400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>105200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>130100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>124700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,31 +1025,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="3">
-        <v>2800</v>
+      <c r="F14" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1041,25 +1061,28 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>8200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>34900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1295800</v>
+        <v>1313100</v>
       </c>
       <c r="E17" s="3">
-        <v>1323500</v>
+        <v>1323700</v>
       </c>
       <c r="F17" s="3">
-        <v>1174900</v>
+        <v>1352100</v>
       </c>
       <c r="G17" s="3">
-        <v>1142900</v>
+        <v>1200300</v>
       </c>
       <c r="H17" s="3">
-        <v>1139900</v>
+        <v>1167600</v>
       </c>
       <c r="I17" s="3">
-        <v>1205700</v>
+        <v>1164500</v>
       </c>
       <c r="J17" s="3">
+        <v>1231700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1232300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1186400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1221600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1133800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1178700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1165900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1184800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1209800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1198300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>113900</v>
+        <v>199200</v>
       </c>
       <c r="E18" s="3">
-        <v>72200</v>
+        <v>116300</v>
       </c>
       <c r="F18" s="3">
-        <v>83700</v>
+        <v>73700</v>
       </c>
       <c r="G18" s="3">
-        <v>58700</v>
+        <v>85500</v>
       </c>
       <c r="H18" s="3">
-        <v>-53300</v>
+        <v>60000</v>
       </c>
       <c r="I18" s="3">
-        <v>-21200</v>
+        <v>-54400</v>
       </c>
       <c r="J18" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="K18" s="3">
         <v>81200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>105800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>25600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>53400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>43100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>50700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>35400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>39300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-65800</v>
+        <v>45600</v>
       </c>
       <c r="E20" s="3">
-        <v>50600</v>
+        <v>-67200</v>
       </c>
       <c r="F20" s="3">
-        <v>7200</v>
+        <v>51700</v>
       </c>
       <c r="G20" s="3">
-        <v>4800</v>
+        <v>7400</v>
       </c>
       <c r="H20" s="3">
-        <v>65300</v>
+        <v>4900</v>
       </c>
       <c r="I20" s="3">
-        <v>-42000</v>
+        <v>66700</v>
       </c>
       <c r="J20" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-30300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>58400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>25000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>70200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>36700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>16600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>11300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>464800</v>
+        <v>662100</v>
       </c>
       <c r="E21" s="3">
-        <v>548800</v>
+        <v>474900</v>
       </c>
       <c r="F21" s="3">
-        <v>492800</v>
+        <v>560600</v>
       </c>
       <c r="G21" s="3">
-        <v>469900</v>
+        <v>503400</v>
       </c>
       <c r="H21" s="3">
-        <v>424900</v>
+        <v>480000</v>
       </c>
       <c r="I21" s="3">
-        <v>350800</v>
+        <v>434000</v>
       </c>
       <c r="J21" s="3">
+        <v>358400</v>
+      </c>
+      <c r="K21" s="3">
         <v>483500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>537800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>526000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>507000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>550400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>511800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>485400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>486800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>496600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>20600</v>
+        <v>17800</v>
       </c>
       <c r="E22" s="3">
-        <v>23900</v>
+        <v>21100</v>
       </c>
       <c r="F22" s="3">
-        <v>24900</v>
+        <v>24400</v>
       </c>
       <c r="G22" s="3">
-        <v>25300</v>
+        <v>25500</v>
       </c>
       <c r="H22" s="3">
-        <v>23700</v>
+        <v>25900</v>
       </c>
       <c r="I22" s="3">
-        <v>23100</v>
+        <v>24200</v>
       </c>
       <c r="J22" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K22" s="3">
         <v>23300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>22300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>21700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>18800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>27400</v>
+        <v>227000</v>
       </c>
       <c r="E23" s="3">
-        <v>98900</v>
+        <v>28000</v>
       </c>
       <c r="F23" s="3">
-        <v>65900</v>
+        <v>101000</v>
       </c>
       <c r="G23" s="3">
-        <v>38100</v>
+        <v>67400</v>
       </c>
       <c r="H23" s="3">
-        <v>-11700</v>
+        <v>39000</v>
       </c>
       <c r="I23" s="3">
-        <v>-86300</v>
+        <v>-11900</v>
       </c>
       <c r="J23" s="3">
+        <v>-88100</v>
+      </c>
+      <c r="K23" s="3">
         <v>27600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>69400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>61800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>56700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>92900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>68600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>34800</v>
       </c>
       <c r="Q23" s="3">
         <v>34800</v>
       </c>
       <c r="R23" s="3">
+        <v>34800</v>
+      </c>
+      <c r="S23" s="3">
         <v>63600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-13600</v>
+        <v>20900</v>
       </c>
       <c r="E24" s="3">
-        <v>-6400</v>
+        <v>-13900</v>
       </c>
       <c r="F24" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
-        <v>6700</v>
-      </c>
       <c r="H24" s="3">
-        <v>-14800</v>
+        <v>6900</v>
       </c>
       <c r="I24" s="3">
-        <v>13800</v>
+        <v>-15100</v>
       </c>
       <c r="J24" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K24" s="3">
         <v>21100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-39000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>41000</v>
+        <v>206200</v>
       </c>
       <c r="E26" s="3">
-        <v>105200</v>
+        <v>41900</v>
       </c>
       <c r="F26" s="3">
-        <v>64600</v>
+        <v>107500</v>
       </c>
       <c r="G26" s="3">
-        <v>31400</v>
+        <v>66000</v>
       </c>
       <c r="H26" s="3">
-        <v>3100</v>
+        <v>32100</v>
       </c>
       <c r="I26" s="3">
-        <v>-100100</v>
+        <v>3200</v>
       </c>
       <c r="J26" s="3">
+        <v>-102200</v>
+      </c>
+      <c r="K26" s="3">
         <v>6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>80400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>38700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>79900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>47900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>48800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>14600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>73600</v>
+        <v>227600</v>
       </c>
       <c r="E27" s="3">
-        <v>128000</v>
+        <v>75200</v>
       </c>
       <c r="F27" s="3">
-        <v>97700</v>
+        <v>130700</v>
       </c>
       <c r="G27" s="3">
-        <v>58000</v>
+        <v>99800</v>
       </c>
       <c r="H27" s="3">
-        <v>40100</v>
+        <v>59300</v>
       </c>
       <c r="I27" s="3">
-        <v>-56900</v>
+        <v>40900</v>
       </c>
       <c r="J27" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="K27" s="3">
         <v>57400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>121700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>113100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>57400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>112500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>68000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>74500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>83100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>65800</v>
+        <v>-45600</v>
       </c>
       <c r="E32" s="3">
-        <v>-50600</v>
+        <v>67200</v>
       </c>
       <c r="F32" s="3">
-        <v>-7200</v>
+        <v>-51700</v>
       </c>
       <c r="G32" s="3">
-        <v>-4800</v>
+        <v>-7400</v>
       </c>
       <c r="H32" s="3">
-        <v>-65300</v>
+        <v>-4900</v>
       </c>
       <c r="I32" s="3">
-        <v>42000</v>
+        <v>-66700</v>
       </c>
       <c r="J32" s="3">
+        <v>42900</v>
+      </c>
+      <c r="K32" s="3">
         <v>30300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-58400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-25000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-70200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-36700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-11300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>73600</v>
+        <v>227600</v>
       </c>
       <c r="E33" s="3">
-        <v>128000</v>
+        <v>75200</v>
       </c>
       <c r="F33" s="3">
-        <v>97700</v>
+        <v>130700</v>
       </c>
       <c r="G33" s="3">
-        <v>58000</v>
+        <v>99800</v>
       </c>
       <c r="H33" s="3">
-        <v>40100</v>
+        <v>59300</v>
       </c>
       <c r="I33" s="3">
-        <v>-56900</v>
+        <v>40900</v>
       </c>
       <c r="J33" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="K33" s="3">
         <v>57400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>121700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>113100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>57400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>112500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>68000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>74500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>83100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>73600</v>
+        <v>227600</v>
       </c>
       <c r="E35" s="3">
-        <v>128000</v>
+        <v>75200</v>
       </c>
       <c r="F35" s="3">
-        <v>97700</v>
+        <v>130700</v>
       </c>
       <c r="G35" s="3">
-        <v>58000</v>
+        <v>99800</v>
       </c>
       <c r="H35" s="3">
-        <v>40100</v>
+        <v>59300</v>
       </c>
       <c r="I35" s="3">
-        <v>-56900</v>
+        <v>40900</v>
       </c>
       <c r="J35" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="K35" s="3">
         <v>57400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>121700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>113100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>57400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>112500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>68000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>74500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>83100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3173800</v>
+        <v>3402600</v>
       </c>
       <c r="E41" s="3">
-        <v>3184700</v>
+        <v>3242300</v>
       </c>
       <c r="F41" s="3">
-        <v>2893300</v>
+        <v>3253400</v>
       </c>
       <c r="G41" s="3">
-        <v>3013400</v>
+        <v>2955700</v>
       </c>
       <c r="H41" s="3">
-        <v>2959400</v>
+        <v>3078400</v>
       </c>
       <c r="I41" s="3">
-        <v>2790100</v>
+        <v>3023300</v>
       </c>
       <c r="J41" s="3">
+        <v>2850400</v>
+      </c>
+      <c r="K41" s="3">
         <v>2718700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2500900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2565800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2647100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2266700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2208200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1983100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1877700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1802200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>25100</v>
+        <v>34500</v>
       </c>
       <c r="E42" s="3">
-        <v>24100</v>
+        <v>25600</v>
       </c>
       <c r="F42" s="3">
-        <v>21100</v>
+        <v>24600</v>
       </c>
       <c r="G42" s="3">
-        <v>20500</v>
+        <v>21600</v>
       </c>
       <c r="H42" s="3">
-        <v>18400</v>
+        <v>20900</v>
       </c>
       <c r="I42" s="3">
-        <v>17600</v>
+        <v>18800</v>
       </c>
       <c r="J42" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K42" s="3">
         <v>14100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>15600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>17400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>23200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>27400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>25900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>28300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>23300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1003800</v>
+        <v>967700</v>
       </c>
       <c r="E43" s="3">
-        <v>887900</v>
+        <v>1025500</v>
       </c>
       <c r="F43" s="3">
-        <v>810600</v>
+        <v>907100</v>
       </c>
       <c r="G43" s="3">
-        <v>857100</v>
+        <v>828100</v>
       </c>
       <c r="H43" s="3">
-        <v>791400</v>
+        <v>875600</v>
       </c>
       <c r="I43" s="3">
-        <v>823600</v>
+        <v>808500</v>
       </c>
       <c r="J43" s="3">
+        <v>841400</v>
+      </c>
+      <c r="K43" s="3">
         <v>908900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>959500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>886600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>734300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>785600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>748200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>705300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>782700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>761800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>737900</v>
+        <v>795300</v>
       </c>
       <c r="E44" s="3">
-        <v>724200</v>
+        <v>753800</v>
       </c>
       <c r="F44" s="3">
-        <v>666700</v>
+        <v>739800</v>
       </c>
       <c r="G44" s="3">
-        <v>654600</v>
+        <v>681100</v>
       </c>
       <c r="H44" s="3">
-        <v>629400</v>
+        <v>668800</v>
       </c>
       <c r="I44" s="3">
-        <v>607100</v>
+        <v>643000</v>
       </c>
       <c r="J44" s="3">
+        <v>620200</v>
+      </c>
+      <c r="K44" s="3">
         <v>586600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>587300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>570000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>591700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>554300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>527800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>530300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>554300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>559800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>381900</v>
+        <v>522000</v>
       </c>
       <c r="E45" s="3">
-        <v>306900</v>
+        <v>390200</v>
       </c>
       <c r="F45" s="3">
-        <v>1060800</v>
+        <v>313600</v>
       </c>
       <c r="G45" s="3">
-        <v>473800</v>
+        <v>1083700</v>
       </c>
       <c r="H45" s="3">
-        <v>496900</v>
+        <v>484100</v>
       </c>
       <c r="I45" s="3">
-        <v>470400</v>
+        <v>507700</v>
       </c>
       <c r="J45" s="3">
+        <v>480500</v>
+      </c>
+      <c r="K45" s="3">
         <v>445900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>496100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>497500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>513800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>407900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>381500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>390200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>364400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>340000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5322500</v>
+        <v>5722200</v>
       </c>
       <c r="E46" s="3">
+        <v>5437400</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5238500</v>
+      </c>
+      <c r="G46" s="3">
+        <v>5570100</v>
+      </c>
+      <c r="H46" s="3">
         <v>5127800</v>
       </c>
-      <c r="F46" s="3">
-        <v>5452400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>5019400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>4895600</v>
-      </c>
       <c r="I46" s="3">
-        <v>4708800</v>
+        <v>5001300</v>
       </c>
       <c r="J46" s="3">
+        <v>4810500</v>
+      </c>
+      <c r="K46" s="3">
         <v>4674100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4559400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4537400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4510200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4041800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3891700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3637200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3602400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3488300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1195800</v>
+        <v>1428700</v>
       </c>
       <c r="E47" s="3">
-        <v>1378800</v>
+        <v>1221600</v>
       </c>
       <c r="F47" s="3">
-        <v>1345300</v>
+        <v>1408600</v>
       </c>
       <c r="G47" s="3">
-        <v>1262100</v>
+        <v>1374300</v>
       </c>
       <c r="H47" s="3">
+        <v>1289300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1268000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1141500</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1209300</v>
+      </c>
+      <c r="L47" s="3">
         <v>1241200</v>
       </c>
-      <c r="I47" s="3">
-        <v>1117400</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1209300</v>
-      </c>
-      <c r="K47" s="3">
-        <v>1241200</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1199400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1102700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1125500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1163800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1138100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1133700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1232600</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>4989500</v>
+        <v>4811300</v>
       </c>
       <c r="E48" s="3">
-        <v>5298800</v>
+        <v>5097200</v>
       </c>
       <c r="F48" s="3">
-        <v>5246800</v>
+        <v>5413200</v>
       </c>
       <c r="G48" s="3">
-        <v>5582400</v>
+        <v>5360000</v>
       </c>
       <c r="H48" s="3">
-        <v>5886300</v>
+        <v>5703000</v>
       </c>
       <c r="I48" s="3">
-        <v>5786500</v>
+        <v>6013400</v>
       </c>
       <c r="J48" s="3">
+        <v>5911400</v>
+      </c>
+      <c r="K48" s="3">
         <v>5969600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6308800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6577800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6677400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6764100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6921700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7101400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7375100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7060600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>159300</v>
+        <v>164900</v>
       </c>
       <c r="E49" s="3">
-        <v>173400</v>
+        <v>162700</v>
       </c>
       <c r="F49" s="3">
-        <v>121500</v>
+        <v>177100</v>
       </c>
       <c r="G49" s="3">
-        <v>138500</v>
+        <v>124100</v>
       </c>
       <c r="H49" s="3">
-        <v>111800</v>
+        <v>141500</v>
       </c>
       <c r="I49" s="3">
-        <v>99800</v>
+        <v>114200</v>
       </c>
       <c r="J49" s="3">
+        <v>101900</v>
+      </c>
+      <c r="K49" s="3">
         <v>106900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>119100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>122700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>122800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>125500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>123900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>120300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>133300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>354200</v>
+        <v>395100</v>
       </c>
       <c r="E52" s="3">
-        <v>367000</v>
+        <v>361900</v>
       </c>
       <c r="F52" s="3">
-        <v>308500</v>
+        <v>374900</v>
       </c>
       <c r="G52" s="3">
-        <v>335000</v>
+        <v>315100</v>
       </c>
       <c r="H52" s="3">
-        <v>342600</v>
+        <v>342200</v>
       </c>
       <c r="I52" s="3">
-        <v>447100</v>
+        <v>350000</v>
       </c>
       <c r="J52" s="3">
+        <v>456800</v>
+      </c>
+      <c r="K52" s="3">
         <v>468600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>439900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>386500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>359800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>394100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>403200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>374500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>364200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>307400</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>12021200</v>
+        <v>12522200</v>
       </c>
       <c r="E54" s="3">
-        <v>12345700</v>
+        <v>12280800</v>
       </c>
       <c r="F54" s="3">
-        <v>12474400</v>
+        <v>12612300</v>
       </c>
       <c r="G54" s="3">
-        <v>12337300</v>
+        <v>12743700</v>
       </c>
       <c r="H54" s="3">
-        <v>12477500</v>
+        <v>12603700</v>
       </c>
       <c r="I54" s="3">
-        <v>12159600</v>
+        <v>12746900</v>
       </c>
       <c r="J54" s="3">
+        <v>12422100</v>
+      </c>
+      <c r="K54" s="3">
         <v>12428500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12668400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12823700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12772800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12451000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12504300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12371600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12608800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12227400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>297600</v>
+        <v>291500</v>
       </c>
       <c r="E57" s="3">
-        <v>296100</v>
+        <v>304000</v>
       </c>
       <c r="F57" s="3">
-        <v>221000</v>
+        <v>302400</v>
       </c>
       <c r="G57" s="3">
-        <v>230500</v>
+        <v>225800</v>
       </c>
       <c r="H57" s="3">
-        <v>226100</v>
+        <v>235500</v>
       </c>
       <c r="I57" s="3">
-        <v>226800</v>
+        <v>230900</v>
       </c>
       <c r="J57" s="3">
+        <v>231700</v>
+      </c>
+      <c r="K57" s="3">
         <v>229600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>246400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>232700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>211800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>214200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>215400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>210000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>223500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>219900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>864600</v>
+        <v>609600</v>
       </c>
       <c r="E58" s="3">
-        <v>1246600</v>
+        <v>883300</v>
       </c>
       <c r="F58" s="3">
-        <v>1352300</v>
+        <v>1273600</v>
       </c>
       <c r="G58" s="3">
-        <v>1330000</v>
+        <v>1381500</v>
       </c>
       <c r="H58" s="3">
-        <v>793800</v>
+        <v>1358800</v>
       </c>
       <c r="I58" s="3">
-        <v>607800</v>
+        <v>810900</v>
       </c>
       <c r="J58" s="3">
+        <v>620900</v>
+      </c>
+      <c r="K58" s="3">
         <v>677900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>573100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1330300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1711600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1579800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1561900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1185000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1012600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1534200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>875600</v>
+        <v>1317100</v>
       </c>
       <c r="E59" s="3">
-        <v>882300</v>
+        <v>894500</v>
       </c>
       <c r="F59" s="3">
-        <v>772000</v>
+        <v>901400</v>
       </c>
       <c r="G59" s="3">
-        <v>1009200</v>
+        <v>788600</v>
       </c>
       <c r="H59" s="3">
-        <v>735900</v>
+        <v>1031000</v>
       </c>
       <c r="I59" s="3">
-        <v>829500</v>
+        <v>751800</v>
       </c>
       <c r="J59" s="3">
+        <v>847400</v>
+      </c>
+      <c r="K59" s="3">
         <v>807700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1148500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>850600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>930700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>875200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1064900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>785700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1111100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>967000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2037800</v>
+        <v>2218200</v>
       </c>
       <c r="E60" s="3">
-        <v>2425000</v>
+        <v>2081800</v>
       </c>
       <c r="F60" s="3">
-        <v>2345300</v>
+        <v>2477400</v>
       </c>
       <c r="G60" s="3">
-        <v>2569800</v>
+        <v>2396000</v>
       </c>
       <c r="H60" s="3">
-        <v>1755700</v>
+        <v>2625200</v>
       </c>
       <c r="I60" s="3">
-        <v>1664100</v>
+        <v>1793600</v>
       </c>
       <c r="J60" s="3">
+        <v>1700100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1715300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1968000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2413600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2854100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2669200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2842200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2180600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2347200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2721000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1764800</v>
+        <v>2006000</v>
       </c>
       <c r="E61" s="3">
-        <v>1779200</v>
+        <v>1802900</v>
       </c>
       <c r="F61" s="3">
-        <v>2017300</v>
+        <v>1817600</v>
       </c>
       <c r="G61" s="3">
-        <v>1693800</v>
+        <v>2060800</v>
       </c>
       <c r="H61" s="3">
-        <v>2351700</v>
+        <v>1730400</v>
       </c>
       <c r="I61" s="3">
-        <v>2237200</v>
+        <v>2402500</v>
       </c>
       <c r="J61" s="3">
+        <v>2285500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2249800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2253800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1749900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1728100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1696900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1660600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2032000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1980400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1294100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1187800</v>
+        <v>1170500</v>
       </c>
       <c r="E62" s="3">
-        <v>1230900</v>
+        <v>1213400</v>
       </c>
       <c r="F62" s="3">
-        <v>1273600</v>
+        <v>1257500</v>
       </c>
       <c r="G62" s="3">
-        <v>1333900</v>
+        <v>1301100</v>
       </c>
       <c r="H62" s="3">
-        <v>1372800</v>
+        <v>1362700</v>
       </c>
       <c r="I62" s="3">
-        <v>1370200</v>
+        <v>1402400</v>
       </c>
       <c r="J62" s="3">
+        <v>1399800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1374600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1435900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1469000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1253700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1135100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1091800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1092900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1148100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1070700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>4992700</v>
+        <v>5397300</v>
       </c>
       <c r="E66" s="3">
-        <v>5448800</v>
+        <v>5100500</v>
       </c>
       <c r="F66" s="3">
-        <v>5649700</v>
+        <v>5566500</v>
       </c>
       <c r="G66" s="3">
-        <v>5611800</v>
+        <v>5771600</v>
       </c>
       <c r="H66" s="3">
-        <v>5495300</v>
+        <v>5733000</v>
       </c>
       <c r="I66" s="3">
-        <v>5287100</v>
+        <v>5613900</v>
       </c>
       <c r="J66" s="3">
+        <v>5401300</v>
+      </c>
+      <c r="K66" s="3">
         <v>5356200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5678100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5639300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5866800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5535000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5624800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5336500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5546200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5138300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2222800</v>
+        <v>2075100</v>
       </c>
       <c r="E72" s="3">
-        <v>2039400</v>
+        <v>2270700</v>
       </c>
       <c r="F72" s="3">
-        <v>1927300</v>
+        <v>2083500</v>
       </c>
       <c r="G72" s="3">
-        <v>1847100</v>
+        <v>1968900</v>
       </c>
       <c r="H72" s="3">
-        <v>2047200</v>
+        <v>1887000</v>
       </c>
       <c r="I72" s="3">
-        <v>2054000</v>
+        <v>2091400</v>
       </c>
       <c r="J72" s="3">
+        <v>2098300</v>
+      </c>
+      <c r="K72" s="3">
         <v>2158800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2129100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2307700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1557800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1529000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1457800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1603500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1554000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1561100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>7028600</v>
+        <v>7125000</v>
       </c>
       <c r="E76" s="3">
-        <v>6896900</v>
+        <v>7180300</v>
       </c>
       <c r="F76" s="3">
-        <v>6824700</v>
+        <v>7045800</v>
       </c>
       <c r="G76" s="3">
-        <v>6725500</v>
+        <v>6972000</v>
       </c>
       <c r="H76" s="3">
-        <v>6982200</v>
+        <v>6870700</v>
       </c>
       <c r="I76" s="3">
-        <v>6872400</v>
+        <v>7132900</v>
       </c>
       <c r="J76" s="3">
+        <v>7020800</v>
+      </c>
+      <c r="K76" s="3">
         <v>7072400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6990300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7184400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6905900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6916000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6879500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7035100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7062700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7089100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>73600</v>
+        <v>227600</v>
       </c>
       <c r="E81" s="3">
-        <v>128000</v>
+        <v>75200</v>
       </c>
       <c r="F81" s="3">
-        <v>97700</v>
+        <v>130700</v>
       </c>
       <c r="G81" s="3">
-        <v>58000</v>
+        <v>99800</v>
       </c>
       <c r="H81" s="3">
-        <v>40100</v>
+        <v>59300</v>
       </c>
       <c r="I81" s="3">
-        <v>-56900</v>
+        <v>40900</v>
       </c>
       <c r="J81" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="K81" s="3">
         <v>57400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>121700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>113100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>57400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>112500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>68000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>74500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>83100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>416800</v>
+        <v>417300</v>
       </c>
       <c r="E83" s="3">
-        <v>426000</v>
+        <v>425800</v>
       </c>
       <c r="F83" s="3">
-        <v>401900</v>
+        <v>435200</v>
       </c>
       <c r="G83" s="3">
-        <v>406400</v>
+        <v>410500</v>
       </c>
       <c r="H83" s="3">
-        <v>412900</v>
+        <v>415100</v>
       </c>
       <c r="I83" s="3">
-        <v>414000</v>
+        <v>421800</v>
       </c>
       <c r="J83" s="3">
+        <v>422900</v>
+      </c>
+      <c r="K83" s="3">
         <v>432700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>444800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>442000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>428700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>437100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>424300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>433500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>436200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>420700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>491300</v>
+        <v>558800</v>
       </c>
       <c r="E89" s="3">
-        <v>1251700</v>
+        <v>501900</v>
       </c>
       <c r="F89" s="3">
-        <v>-102700</v>
+        <v>1278700</v>
       </c>
       <c r="G89" s="3">
-        <v>409100</v>
+        <v>-104900</v>
       </c>
       <c r="H89" s="3">
-        <v>272900</v>
+        <v>418000</v>
       </c>
       <c r="I89" s="3">
-        <v>404300</v>
+        <v>278800</v>
       </c>
       <c r="J89" s="3">
+        <v>413000</v>
+      </c>
+      <c r="K89" s="3">
         <v>526000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>474400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>291900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>418100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>371000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>480200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>434100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>507000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-121100</v>
+        <v>-145500</v>
       </c>
       <c r="E91" s="3">
-        <v>-116800</v>
+        <v>-123700</v>
       </c>
       <c r="F91" s="3">
-        <v>-118400</v>
+        <v>-119300</v>
       </c>
       <c r="G91" s="3">
-        <v>-130200</v>
+        <v>-121000</v>
       </c>
       <c r="H91" s="3">
-        <v>-185500</v>
+        <v>-133000</v>
       </c>
       <c r="I91" s="3">
-        <v>-145400</v>
+        <v>-189500</v>
       </c>
       <c r="J91" s="3">
+        <v>-148600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-187200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-129700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-190100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-355300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-236200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-270100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-588000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-724600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-666200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-303800</v>
+        <v>-268400</v>
       </c>
       <c r="E94" s="3">
-        <v>-595100</v>
+        <v>-310400</v>
       </c>
       <c r="F94" s="3">
-        <v>-132300</v>
+        <v>-607900</v>
       </c>
       <c r="G94" s="3">
-        <v>-139700</v>
+        <v>-135200</v>
       </c>
       <c r="H94" s="3">
-        <v>-189500</v>
+        <v>-142700</v>
       </c>
       <c r="I94" s="3">
-        <v>-153900</v>
+        <v>-193600</v>
       </c>
       <c r="J94" s="3">
+        <v>-157200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-182600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-202100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>22200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-195500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-161500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-262700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-531300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-597400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-502200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4624,11 +4858,11 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>100</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -4648,11 +4882,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4663,10 +4897,13 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-225200</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-195100</v>
+        <v>-100400</v>
       </c>
       <c r="E100" s="3">
-        <v>-324000</v>
+        <v>-199300</v>
       </c>
       <c r="F100" s="3">
-        <v>138000</v>
+        <v>-331000</v>
       </c>
       <c r="G100" s="3">
-        <v>-215700</v>
+        <v>140900</v>
       </c>
       <c r="H100" s="3">
-        <v>72700</v>
+        <v>-220300</v>
       </c>
       <c r="I100" s="3">
-        <v>-190900</v>
+        <v>74300</v>
       </c>
       <c r="J100" s="3">
+        <v>-195000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-108500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-359000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-456100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>169000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-149200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>22900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>255800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>137600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-3300</v>
+        <v>-29700</v>
       </c>
       <c r="E101" s="3">
-        <v>-41300</v>
+        <v>-3400</v>
       </c>
       <c r="F101" s="3">
-        <v>-23100</v>
+        <v>-42200</v>
       </c>
       <c r="G101" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
-        <v>13200</v>
-      </c>
       <c r="I101" s="3">
-        <v>11900</v>
+        <v>13500</v>
       </c>
       <c r="J101" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-23900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>21900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-11100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-53200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>28300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-49900</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-10900</v>
+        <v>160300</v>
       </c>
       <c r="E102" s="3">
-        <v>291300</v>
+        <v>-11100</v>
       </c>
       <c r="F102" s="3">
-        <v>-120200</v>
+        <v>297600</v>
       </c>
       <c r="G102" s="3">
-        <v>54100</v>
+        <v>-122800</v>
       </c>
       <c r="H102" s="3">
-        <v>169300</v>
+        <v>55300</v>
       </c>
       <c r="I102" s="3">
-        <v>71400</v>
+        <v>173000</v>
       </c>
       <c r="J102" s="3">
+        <v>73000</v>
+      </c>
+      <c r="K102" s="3">
         <v>211000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-64900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-150700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>380400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>58500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>237300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>105400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>75400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>190500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1512200</v>
+        <v>1557100</v>
       </c>
       <c r="E8" s="3">
-        <v>1440100</v>
+        <v>1482800</v>
       </c>
       <c r="F8" s="3">
-        <v>1425800</v>
+        <v>1468100</v>
       </c>
       <c r="G8" s="3">
-        <v>1285700</v>
+        <v>1323900</v>
       </c>
       <c r="H8" s="3">
-        <v>1227600</v>
+        <v>1264000</v>
       </c>
       <c r="I8" s="3">
-        <v>1110100</v>
+        <v>1143000</v>
       </c>
       <c r="J8" s="3">
-        <v>1210100</v>
+        <v>1245900</v>
       </c>
       <c r="K8" s="3">
         <v>1313500</v>
@@ -801,25 +801,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1162800</v>
+        <v>1197200</v>
       </c>
       <c r="E9" s="3">
-        <v>1163300</v>
+        <v>1197800</v>
       </c>
       <c r="F9" s="3">
-        <v>1188400</v>
+        <v>1223600</v>
       </c>
       <c r="G9" s="3">
-        <v>1066600</v>
+        <v>1098200</v>
       </c>
       <c r="H9" s="3">
-        <v>1035000</v>
+        <v>1065700</v>
       </c>
       <c r="I9" s="3">
-        <v>1033000</v>
+        <v>1063700</v>
       </c>
       <c r="J9" s="3">
-        <v>1053300</v>
+        <v>1084500</v>
       </c>
       <c r="K9" s="3">
         <v>1082700</v>
@@ -854,25 +854,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>349500</v>
+        <v>359800</v>
       </c>
       <c r="E10" s="3">
-        <v>276700</v>
+        <v>284900</v>
       </c>
       <c r="F10" s="3">
-        <v>237400</v>
+        <v>244500</v>
       </c>
       <c r="G10" s="3">
-        <v>219200</v>
+        <v>225700</v>
       </c>
       <c r="H10" s="3">
-        <v>192600</v>
+        <v>198300</v>
       </c>
       <c r="I10" s="3">
-        <v>77100</v>
+        <v>79400</v>
       </c>
       <c r="J10" s="3">
-        <v>156800</v>
+        <v>161400</v>
       </c>
       <c r="K10" s="3">
         <v>230800</v>
@@ -928,25 +928,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>109100</v>
+        <v>112300</v>
       </c>
       <c r="E12" s="3">
-        <v>108500</v>
+        <v>111700</v>
       </c>
       <c r="F12" s="3">
-        <v>117600</v>
+        <v>121100</v>
       </c>
       <c r="G12" s="3">
-        <v>95800</v>
+        <v>98700</v>
       </c>
       <c r="H12" s="3">
-        <v>95000</v>
+        <v>97800</v>
       </c>
       <c r="I12" s="3">
-        <v>95600</v>
+        <v>98500</v>
       </c>
       <c r="J12" s="3">
-        <v>127600</v>
+        <v>131400</v>
       </c>
       <c r="K12" s="3">
         <v>111000</v>
@@ -1040,7 +1040,7 @@
         <v>91</v>
       </c>
       <c r="F14" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>91</v>
@@ -1158,25 +1158,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1313100</v>
+        <v>1352000</v>
       </c>
       <c r="E17" s="3">
-        <v>1323700</v>
+        <v>1363000</v>
       </c>
       <c r="F17" s="3">
-        <v>1352100</v>
+        <v>1392200</v>
       </c>
       <c r="G17" s="3">
-        <v>1200300</v>
+        <v>1235900</v>
       </c>
       <c r="H17" s="3">
-        <v>1167600</v>
+        <v>1202200</v>
       </c>
       <c r="I17" s="3">
-        <v>1164500</v>
+        <v>1199000</v>
       </c>
       <c r="J17" s="3">
-        <v>1231700</v>
+        <v>1268200</v>
       </c>
       <c r="K17" s="3">
         <v>1232300</v>
@@ -1211,25 +1211,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>199200</v>
+        <v>205100</v>
       </c>
       <c r="E18" s="3">
-        <v>116300</v>
+        <v>119800</v>
       </c>
       <c r="F18" s="3">
-        <v>73700</v>
+        <v>75900</v>
       </c>
       <c r="G18" s="3">
-        <v>85500</v>
+        <v>88000</v>
       </c>
       <c r="H18" s="3">
-        <v>60000</v>
+        <v>61800</v>
       </c>
       <c r="I18" s="3">
-        <v>-54400</v>
+        <v>-56000</v>
       </c>
       <c r="J18" s="3">
-        <v>-21600</v>
+        <v>-22300</v>
       </c>
       <c r="K18" s="3">
         <v>81200</v>
@@ -1285,25 +1285,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>45600</v>
+        <v>47000</v>
       </c>
       <c r="E20" s="3">
-        <v>-67200</v>
+        <v>-69200</v>
       </c>
       <c r="F20" s="3">
-        <v>51700</v>
+        <v>53200</v>
       </c>
       <c r="G20" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="H20" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I20" s="3">
-        <v>66700</v>
+        <v>68700</v>
       </c>
       <c r="J20" s="3">
-        <v>-42900</v>
+        <v>-44200</v>
       </c>
       <c r="K20" s="3">
         <v>-30300</v>
@@ -1338,25 +1338,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>662100</v>
+        <v>681700</v>
       </c>
       <c r="E21" s="3">
-        <v>474900</v>
+        <v>488900</v>
       </c>
       <c r="F21" s="3">
-        <v>560600</v>
+        <v>577200</v>
       </c>
       <c r="G21" s="3">
-        <v>503400</v>
+        <v>518300</v>
       </c>
       <c r="H21" s="3">
-        <v>480000</v>
+        <v>494200</v>
       </c>
       <c r="I21" s="3">
-        <v>434000</v>
+        <v>446900</v>
       </c>
       <c r="J21" s="3">
-        <v>358400</v>
+        <v>369000</v>
       </c>
       <c r="K21" s="3">
         <v>483500</v>
@@ -1391,25 +1391,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>17800</v>
+        <v>18300</v>
       </c>
       <c r="E22" s="3">
-        <v>21100</v>
+        <v>21700</v>
       </c>
       <c r="F22" s="3">
-        <v>24400</v>
+        <v>25100</v>
       </c>
       <c r="G22" s="3">
-        <v>25500</v>
+        <v>26200</v>
       </c>
       <c r="H22" s="3">
-        <v>25900</v>
+        <v>26700</v>
       </c>
       <c r="I22" s="3">
-        <v>24200</v>
+        <v>24900</v>
       </c>
       <c r="J22" s="3">
-        <v>23600</v>
+        <v>24300</v>
       </c>
       <c r="K22" s="3">
         <v>23300</v>
@@ -1444,25 +1444,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>227000</v>
+        <v>233800</v>
       </c>
       <c r="E23" s="3">
-        <v>28000</v>
+        <v>28800</v>
       </c>
       <c r="F23" s="3">
-        <v>101000</v>
+        <v>104000</v>
       </c>
       <c r="G23" s="3">
-        <v>67400</v>
+        <v>69400</v>
       </c>
       <c r="H23" s="3">
-        <v>39000</v>
+        <v>40100</v>
       </c>
       <c r="I23" s="3">
-        <v>-11900</v>
+        <v>-12300</v>
       </c>
       <c r="J23" s="3">
-        <v>-88100</v>
+        <v>-90700</v>
       </c>
       <c r="K23" s="3">
         <v>27600</v>
@@ -1497,25 +1497,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>20900</v>
+        <v>21500</v>
       </c>
       <c r="E24" s="3">
-        <v>-13900</v>
+        <v>-14300</v>
       </c>
       <c r="F24" s="3">
-        <v>-6500</v>
+        <v>-6700</v>
       </c>
       <c r="G24" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H24" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="I24" s="3">
-        <v>-15100</v>
+        <v>-15500</v>
       </c>
       <c r="J24" s="3">
-        <v>14100</v>
+        <v>14500</v>
       </c>
       <c r="K24" s="3">
         <v>21100</v>
@@ -1603,25 +1603,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>206200</v>
+        <v>212300</v>
       </c>
       <c r="E26" s="3">
-        <v>41900</v>
+        <v>43200</v>
       </c>
       <c r="F26" s="3">
-        <v>107500</v>
+        <v>110700</v>
       </c>
       <c r="G26" s="3">
-        <v>66000</v>
+        <v>68000</v>
       </c>
       <c r="H26" s="3">
-        <v>32100</v>
+        <v>33100</v>
       </c>
       <c r="I26" s="3">
         <v>3200</v>
       </c>
       <c r="J26" s="3">
-        <v>-102200</v>
+        <v>-105200</v>
       </c>
       <c r="K26" s="3">
         <v>6600</v>
@@ -1656,25 +1656,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>227600</v>
+        <v>234400</v>
       </c>
       <c r="E27" s="3">
-        <v>75200</v>
+        <v>77400</v>
       </c>
       <c r="F27" s="3">
-        <v>130700</v>
+        <v>134600</v>
       </c>
       <c r="G27" s="3">
-        <v>99800</v>
+        <v>102700</v>
       </c>
       <c r="H27" s="3">
-        <v>59300</v>
+        <v>61100</v>
       </c>
       <c r="I27" s="3">
-        <v>40900</v>
+        <v>42100</v>
       </c>
       <c r="J27" s="3">
-        <v>-58100</v>
+        <v>-59900</v>
       </c>
       <c r="K27" s="3">
         <v>57400</v>
@@ -1921,25 +1921,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-45600</v>
+        <v>-47000</v>
       </c>
       <c r="E32" s="3">
-        <v>67200</v>
+        <v>69200</v>
       </c>
       <c r="F32" s="3">
-        <v>-51700</v>
+        <v>-53200</v>
       </c>
       <c r="G32" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="H32" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="I32" s="3">
-        <v>-66700</v>
+        <v>-68700</v>
       </c>
       <c r="J32" s="3">
-        <v>42900</v>
+        <v>44200</v>
       </c>
       <c r="K32" s="3">
         <v>30300</v>
@@ -1974,25 +1974,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>227600</v>
+        <v>234400</v>
       </c>
       <c r="E33" s="3">
-        <v>75200</v>
+        <v>77400</v>
       </c>
       <c r="F33" s="3">
-        <v>130700</v>
+        <v>134600</v>
       </c>
       <c r="G33" s="3">
-        <v>99800</v>
+        <v>102700</v>
       </c>
       <c r="H33" s="3">
-        <v>59300</v>
+        <v>61100</v>
       </c>
       <c r="I33" s="3">
-        <v>40900</v>
+        <v>42100</v>
       </c>
       <c r="J33" s="3">
-        <v>-58100</v>
+        <v>-59900</v>
       </c>
       <c r="K33" s="3">
         <v>57400</v>
@@ -2080,25 +2080,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>227600</v>
+        <v>234400</v>
       </c>
       <c r="E35" s="3">
-        <v>75200</v>
+        <v>77400</v>
       </c>
       <c r="F35" s="3">
-        <v>130700</v>
+        <v>134600</v>
       </c>
       <c r="G35" s="3">
-        <v>99800</v>
+        <v>102700</v>
       </c>
       <c r="H35" s="3">
-        <v>59300</v>
+        <v>61100</v>
       </c>
       <c r="I35" s="3">
-        <v>40900</v>
+        <v>42100</v>
       </c>
       <c r="J35" s="3">
-        <v>-58100</v>
+        <v>-59900</v>
       </c>
       <c r="K35" s="3">
         <v>57400</v>
@@ -2233,25 +2233,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3402600</v>
+        <v>3503500</v>
       </c>
       <c r="E41" s="3">
-        <v>3242300</v>
+        <v>3338400</v>
       </c>
       <c r="F41" s="3">
-        <v>3253400</v>
+        <v>3349900</v>
       </c>
       <c r="G41" s="3">
-        <v>2955700</v>
+        <v>3043400</v>
       </c>
       <c r="H41" s="3">
-        <v>3078400</v>
+        <v>3169700</v>
       </c>
       <c r="I41" s="3">
-        <v>3023300</v>
+        <v>3112900</v>
       </c>
       <c r="J41" s="3">
-        <v>2850400</v>
+        <v>2934900</v>
       </c>
       <c r="K41" s="3">
         <v>2718700</v>
@@ -2286,25 +2286,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>34500</v>
+        <v>35600</v>
       </c>
       <c r="E42" s="3">
-        <v>25600</v>
+        <v>26400</v>
       </c>
       <c r="F42" s="3">
-        <v>24600</v>
+        <v>25400</v>
       </c>
       <c r="G42" s="3">
-        <v>21600</v>
+        <v>22200</v>
       </c>
       <c r="H42" s="3">
-        <v>20900</v>
+        <v>21500</v>
       </c>
       <c r="I42" s="3">
-        <v>18800</v>
+        <v>19400</v>
       </c>
       <c r="J42" s="3">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="K42" s="3">
         <v>14100</v>
@@ -2339,25 +2339,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>967700</v>
+        <v>996400</v>
       </c>
       <c r="E43" s="3">
-        <v>1025500</v>
+        <v>1055900</v>
       </c>
       <c r="F43" s="3">
-        <v>907100</v>
+        <v>934000</v>
       </c>
       <c r="G43" s="3">
-        <v>828100</v>
+        <v>852600</v>
       </c>
       <c r="H43" s="3">
-        <v>875600</v>
+        <v>901600</v>
       </c>
       <c r="I43" s="3">
-        <v>808500</v>
+        <v>832500</v>
       </c>
       <c r="J43" s="3">
-        <v>841400</v>
+        <v>866400</v>
       </c>
       <c r="K43" s="3">
         <v>908900</v>
@@ -2392,25 +2392,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>795300</v>
+        <v>818800</v>
       </c>
       <c r="E44" s="3">
-        <v>753800</v>
+        <v>776200</v>
       </c>
       <c r="F44" s="3">
-        <v>739800</v>
+        <v>761800</v>
       </c>
       <c r="G44" s="3">
-        <v>681100</v>
+        <v>701200</v>
       </c>
       <c r="H44" s="3">
-        <v>668800</v>
+        <v>688600</v>
       </c>
       <c r="I44" s="3">
-        <v>643000</v>
+        <v>662100</v>
       </c>
       <c r="J44" s="3">
-        <v>620200</v>
+        <v>638600</v>
       </c>
       <c r="K44" s="3">
         <v>586600</v>
@@ -2445,25 +2445,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>522000</v>
+        <v>537500</v>
       </c>
       <c r="E45" s="3">
-        <v>390200</v>
+        <v>401700</v>
       </c>
       <c r="F45" s="3">
-        <v>313600</v>
+        <v>322900</v>
       </c>
       <c r="G45" s="3">
-        <v>1083700</v>
+        <v>1115800</v>
       </c>
       <c r="H45" s="3">
-        <v>484100</v>
+        <v>498400</v>
       </c>
       <c r="I45" s="3">
-        <v>507700</v>
+        <v>522700</v>
       </c>
       <c r="J45" s="3">
-        <v>480500</v>
+        <v>494800</v>
       </c>
       <c r="K45" s="3">
         <v>445900</v>
@@ -2498,25 +2498,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5722200</v>
+        <v>5891800</v>
       </c>
       <c r="E46" s="3">
-        <v>5437400</v>
+        <v>5598600</v>
       </c>
       <c r="F46" s="3">
-        <v>5238500</v>
+        <v>5393800</v>
       </c>
       <c r="G46" s="3">
-        <v>5570100</v>
+        <v>5735200</v>
       </c>
       <c r="H46" s="3">
-        <v>5127800</v>
+        <v>5279800</v>
       </c>
       <c r="I46" s="3">
-        <v>5001300</v>
+        <v>5149600</v>
       </c>
       <c r="J46" s="3">
-        <v>4810500</v>
+        <v>4953100</v>
       </c>
       <c r="K46" s="3">
         <v>4674100</v>
@@ -2551,25 +2551,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1428700</v>
+        <v>1471100</v>
       </c>
       <c r="E47" s="3">
-        <v>1221600</v>
+        <v>1257900</v>
       </c>
       <c r="F47" s="3">
-        <v>1408600</v>
+        <v>1450300</v>
       </c>
       <c r="G47" s="3">
-        <v>1374300</v>
+        <v>1415100</v>
       </c>
       <c r="H47" s="3">
-        <v>1289300</v>
+        <v>1327600</v>
       </c>
       <c r="I47" s="3">
-        <v>1268000</v>
+        <v>1305600</v>
       </c>
       <c r="J47" s="3">
-        <v>1141500</v>
+        <v>1175400</v>
       </c>
       <c r="K47" s="3">
         <v>1209300</v>
@@ -2604,25 +2604,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>4811300</v>
+        <v>4953900</v>
       </c>
       <c r="E48" s="3">
-        <v>5097200</v>
+        <v>5248300</v>
       </c>
       <c r="F48" s="3">
-        <v>5413200</v>
+        <v>5573600</v>
       </c>
       <c r="G48" s="3">
-        <v>5360000</v>
+        <v>5518900</v>
       </c>
       <c r="H48" s="3">
-        <v>5703000</v>
+        <v>5872000</v>
       </c>
       <c r="I48" s="3">
-        <v>6013400</v>
+        <v>6191600</v>
       </c>
       <c r="J48" s="3">
-        <v>5911400</v>
+        <v>6086700</v>
       </c>
       <c r="K48" s="3">
         <v>5969600</v>
@@ -2657,25 +2657,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>164900</v>
+        <v>169800</v>
       </c>
       <c r="E49" s="3">
-        <v>162700</v>
+        <v>167500</v>
       </c>
       <c r="F49" s="3">
-        <v>177100</v>
+        <v>182400</v>
       </c>
       <c r="G49" s="3">
-        <v>124100</v>
+        <v>127800</v>
       </c>
       <c r="H49" s="3">
-        <v>141500</v>
+        <v>145600</v>
       </c>
       <c r="I49" s="3">
-        <v>114200</v>
+        <v>117600</v>
       </c>
       <c r="J49" s="3">
-        <v>101900</v>
+        <v>105000</v>
       </c>
       <c r="K49" s="3">
         <v>106900</v>
@@ -2816,25 +2816,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>395100</v>
+        <v>406800</v>
       </c>
       <c r="E52" s="3">
-        <v>361900</v>
+        <v>372600</v>
       </c>
       <c r="F52" s="3">
-        <v>374900</v>
+        <v>386000</v>
       </c>
       <c r="G52" s="3">
-        <v>315100</v>
+        <v>324500</v>
       </c>
       <c r="H52" s="3">
-        <v>342200</v>
+        <v>352300</v>
       </c>
       <c r="I52" s="3">
-        <v>350000</v>
+        <v>360400</v>
       </c>
       <c r="J52" s="3">
-        <v>456800</v>
+        <v>470300</v>
       </c>
       <c r="K52" s="3">
         <v>468600</v>
@@ -2922,25 +2922,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>12522200</v>
+        <v>12893400</v>
       </c>
       <c r="E54" s="3">
-        <v>12280800</v>
+        <v>12644800</v>
       </c>
       <c r="F54" s="3">
-        <v>12612300</v>
+        <v>12986200</v>
       </c>
       <c r="G54" s="3">
-        <v>12743700</v>
+        <v>13121500</v>
       </c>
       <c r="H54" s="3">
-        <v>12603700</v>
+        <v>12977300</v>
       </c>
       <c r="I54" s="3">
-        <v>12746900</v>
+        <v>13124700</v>
       </c>
       <c r="J54" s="3">
-        <v>12422100</v>
+        <v>12790300</v>
       </c>
       <c r="K54" s="3">
         <v>12428500</v>
@@ -3017,25 +3017,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>291500</v>
+        <v>300200</v>
       </c>
       <c r="E57" s="3">
-        <v>304000</v>
+        <v>313000</v>
       </c>
       <c r="F57" s="3">
-        <v>302400</v>
+        <v>311400</v>
       </c>
       <c r="G57" s="3">
-        <v>225800</v>
+        <v>232500</v>
       </c>
       <c r="H57" s="3">
-        <v>235500</v>
+        <v>242500</v>
       </c>
       <c r="I57" s="3">
-        <v>230900</v>
+        <v>237800</v>
       </c>
       <c r="J57" s="3">
-        <v>231700</v>
+        <v>238600</v>
       </c>
       <c r="K57" s="3">
         <v>229600</v>
@@ -3070,25 +3070,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>609600</v>
+        <v>627700</v>
       </c>
       <c r="E58" s="3">
-        <v>883300</v>
+        <v>909500</v>
       </c>
       <c r="F58" s="3">
-        <v>1273600</v>
+        <v>1311300</v>
       </c>
       <c r="G58" s="3">
-        <v>1381500</v>
+        <v>1422500</v>
       </c>
       <c r="H58" s="3">
-        <v>1358800</v>
+        <v>1399000</v>
       </c>
       <c r="I58" s="3">
-        <v>810900</v>
+        <v>834900</v>
       </c>
       <c r="J58" s="3">
-        <v>620900</v>
+        <v>639300</v>
       </c>
       <c r="K58" s="3">
         <v>677900</v>
@@ -3123,25 +3123,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1317100</v>
+        <v>1356100</v>
       </c>
       <c r="E59" s="3">
-        <v>894500</v>
+        <v>921000</v>
       </c>
       <c r="F59" s="3">
-        <v>901400</v>
+        <v>928100</v>
       </c>
       <c r="G59" s="3">
-        <v>788600</v>
+        <v>812000</v>
       </c>
       <c r="H59" s="3">
-        <v>1031000</v>
+        <v>1061500</v>
       </c>
       <c r="I59" s="3">
-        <v>751800</v>
+        <v>774100</v>
       </c>
       <c r="J59" s="3">
-        <v>847400</v>
+        <v>872500</v>
       </c>
       <c r="K59" s="3">
         <v>807700</v>
@@ -3176,25 +3176,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2218200</v>
+        <v>2284000</v>
       </c>
       <c r="E60" s="3">
-        <v>2081800</v>
+        <v>2143500</v>
       </c>
       <c r="F60" s="3">
-        <v>2477400</v>
+        <v>2550800</v>
       </c>
       <c r="G60" s="3">
-        <v>2396000</v>
+        <v>2467000</v>
       </c>
       <c r="H60" s="3">
-        <v>2625200</v>
+        <v>2703100</v>
       </c>
       <c r="I60" s="3">
-        <v>1793600</v>
+        <v>1846800</v>
       </c>
       <c r="J60" s="3">
-        <v>1700100</v>
+        <v>1750500</v>
       </c>
       <c r="K60" s="3">
         <v>1715300</v>
@@ -3229,25 +3229,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>2006000</v>
+        <v>2065400</v>
       </c>
       <c r="E61" s="3">
-        <v>1802900</v>
+        <v>1856300</v>
       </c>
       <c r="F61" s="3">
-        <v>1817600</v>
+        <v>1871500</v>
       </c>
       <c r="G61" s="3">
-        <v>2060800</v>
+        <v>2121900</v>
       </c>
       <c r="H61" s="3">
-        <v>1730400</v>
+        <v>1781700</v>
       </c>
       <c r="I61" s="3">
-        <v>2402500</v>
+        <v>2473700</v>
       </c>
       <c r="J61" s="3">
-        <v>2285500</v>
+        <v>2353300</v>
       </c>
       <c r="K61" s="3">
         <v>2249800</v>
@@ -3282,25 +3282,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1170500</v>
+        <v>1205200</v>
       </c>
       <c r="E62" s="3">
-        <v>1213400</v>
+        <v>1249400</v>
       </c>
       <c r="F62" s="3">
-        <v>1257500</v>
+        <v>1294800</v>
       </c>
       <c r="G62" s="3">
-        <v>1301100</v>
+        <v>1339600</v>
       </c>
       <c r="H62" s="3">
-        <v>1362700</v>
+        <v>1403100</v>
       </c>
       <c r="I62" s="3">
-        <v>1402400</v>
+        <v>1444000</v>
       </c>
       <c r="J62" s="3">
-        <v>1399800</v>
+        <v>1441300</v>
       </c>
       <c r="K62" s="3">
         <v>1374600</v>
@@ -3494,25 +3494,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>5397300</v>
+        <v>5557300</v>
       </c>
       <c r="E66" s="3">
-        <v>5100500</v>
+        <v>5251700</v>
       </c>
       <c r="F66" s="3">
-        <v>5566500</v>
+        <v>5731500</v>
       </c>
       <c r="G66" s="3">
-        <v>5771600</v>
+        <v>5942700</v>
       </c>
       <c r="H66" s="3">
-        <v>5733000</v>
+        <v>5903000</v>
       </c>
       <c r="I66" s="3">
-        <v>5613900</v>
+        <v>5780400</v>
       </c>
       <c r="J66" s="3">
-        <v>5401300</v>
+        <v>5561400</v>
       </c>
       <c r="K66" s="3">
         <v>5356200</v>
@@ -3780,25 +3780,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2075100</v>
+        <v>2136600</v>
       </c>
       <c r="E72" s="3">
-        <v>2270700</v>
+        <v>2338100</v>
       </c>
       <c r="F72" s="3">
-        <v>2083500</v>
+        <v>2145200</v>
       </c>
       <c r="G72" s="3">
-        <v>1968900</v>
+        <v>2027200</v>
       </c>
       <c r="H72" s="3">
-        <v>1887000</v>
+        <v>1942900</v>
       </c>
       <c r="I72" s="3">
-        <v>2091400</v>
+        <v>2153400</v>
       </c>
       <c r="J72" s="3">
-        <v>2098300</v>
+        <v>2160500</v>
       </c>
       <c r="K72" s="3">
         <v>2158800</v>
@@ -3992,25 +3992,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>7125000</v>
+        <v>7336200</v>
       </c>
       <c r="E76" s="3">
-        <v>7180300</v>
+        <v>7393200</v>
       </c>
       <c r="F76" s="3">
-        <v>7045800</v>
+        <v>7254700</v>
       </c>
       <c r="G76" s="3">
-        <v>6972000</v>
+        <v>7178700</v>
       </c>
       <c r="H76" s="3">
-        <v>6870700</v>
+        <v>7074400</v>
       </c>
       <c r="I76" s="3">
-        <v>7132900</v>
+        <v>7344400</v>
       </c>
       <c r="J76" s="3">
-        <v>7020800</v>
+        <v>7228900</v>
       </c>
       <c r="K76" s="3">
         <v>7072400</v>
@@ -4156,25 +4156,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>227600</v>
+        <v>234400</v>
       </c>
       <c r="E81" s="3">
-        <v>75200</v>
+        <v>77400</v>
       </c>
       <c r="F81" s="3">
-        <v>130700</v>
+        <v>134600</v>
       </c>
       <c r="G81" s="3">
-        <v>99800</v>
+        <v>102700</v>
       </c>
       <c r="H81" s="3">
-        <v>59300</v>
+        <v>61100</v>
       </c>
       <c r="I81" s="3">
-        <v>40900</v>
+        <v>42100</v>
       </c>
       <c r="J81" s="3">
-        <v>-58100</v>
+        <v>-59900</v>
       </c>
       <c r="K81" s="3">
         <v>57400</v>
@@ -4230,25 +4230,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>417300</v>
+        <v>429700</v>
       </c>
       <c r="E83" s="3">
-        <v>425800</v>
+        <v>438400</v>
       </c>
       <c r="F83" s="3">
-        <v>435200</v>
+        <v>448100</v>
       </c>
       <c r="G83" s="3">
-        <v>410500</v>
+        <v>422700</v>
       </c>
       <c r="H83" s="3">
-        <v>415100</v>
+        <v>427400</v>
       </c>
       <c r="I83" s="3">
-        <v>421800</v>
+        <v>434300</v>
       </c>
       <c r="J83" s="3">
-        <v>422900</v>
+        <v>435500</v>
       </c>
       <c r="K83" s="3">
         <v>432700</v>
@@ -4548,25 +4548,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>558800</v>
+        <v>575400</v>
       </c>
       <c r="E89" s="3">
-        <v>501900</v>
+        <v>516800</v>
       </c>
       <c r="F89" s="3">
-        <v>1278700</v>
+        <v>1316600</v>
       </c>
       <c r="G89" s="3">
-        <v>-104900</v>
+        <v>-108000</v>
       </c>
       <c r="H89" s="3">
-        <v>418000</v>
+        <v>430400</v>
       </c>
       <c r="I89" s="3">
-        <v>278800</v>
+        <v>287100</v>
       </c>
       <c r="J89" s="3">
-        <v>413000</v>
+        <v>425300</v>
       </c>
       <c r="K89" s="3">
         <v>526000</v>
@@ -4622,25 +4622,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-145500</v>
+        <v>-149800</v>
       </c>
       <c r="E91" s="3">
-        <v>-123700</v>
+        <v>-127400</v>
       </c>
       <c r="F91" s="3">
-        <v>-119300</v>
+        <v>-122800</v>
       </c>
       <c r="G91" s="3">
-        <v>-121000</v>
+        <v>-124500</v>
       </c>
       <c r="H91" s="3">
-        <v>-133000</v>
+        <v>-136900</v>
       </c>
       <c r="I91" s="3">
-        <v>-189500</v>
+        <v>-195100</v>
       </c>
       <c r="J91" s="3">
-        <v>-148600</v>
+        <v>-153000</v>
       </c>
       <c r="K91" s="3">
         <v>-187200</v>
@@ -4781,25 +4781,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-268400</v>
+        <v>-276300</v>
       </c>
       <c r="E94" s="3">
-        <v>-310400</v>
+        <v>-319600</v>
       </c>
       <c r="F94" s="3">
-        <v>-607900</v>
+        <v>-626000</v>
       </c>
       <c r="G94" s="3">
-        <v>-135200</v>
+        <v>-139200</v>
       </c>
       <c r="H94" s="3">
-        <v>-142700</v>
+        <v>-146900</v>
       </c>
       <c r="I94" s="3">
-        <v>-193600</v>
+        <v>-199400</v>
       </c>
       <c r="J94" s="3">
-        <v>-157200</v>
+        <v>-161800</v>
       </c>
       <c r="K94" s="3">
         <v>-182600</v>
@@ -5067,25 +5067,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-100400</v>
+        <v>-103400</v>
       </c>
       <c r="E100" s="3">
-        <v>-199300</v>
+        <v>-205200</v>
       </c>
       <c r="F100" s="3">
-        <v>-331000</v>
+        <v>-340800</v>
       </c>
       <c r="G100" s="3">
-        <v>140900</v>
+        <v>145100</v>
       </c>
       <c r="H100" s="3">
-        <v>-220300</v>
+        <v>-226900</v>
       </c>
       <c r="I100" s="3">
-        <v>74300</v>
+        <v>76500</v>
       </c>
       <c r="J100" s="3">
-        <v>-195000</v>
+        <v>-200800</v>
       </c>
       <c r="K100" s="3">
         <v>-108500</v>
@@ -5120,25 +5120,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-29700</v>
+        <v>-30600</v>
       </c>
       <c r="E101" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="F101" s="3">
-        <v>-42200</v>
+        <v>-43400</v>
       </c>
       <c r="G101" s="3">
-        <v>-23600</v>
+        <v>-24300</v>
       </c>
       <c r="H101" s="3">
         <v>300</v>
       </c>
       <c r="I101" s="3">
-        <v>13500</v>
+        <v>13900</v>
       </c>
       <c r="J101" s="3">
-        <v>12100</v>
+        <v>12500</v>
       </c>
       <c r="K101" s="3">
         <v>-23900</v>
@@ -5173,25 +5173,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>160300</v>
+        <v>165100</v>
       </c>
       <c r="E102" s="3">
-        <v>-11100</v>
+        <v>-11400</v>
       </c>
       <c r="F102" s="3">
-        <v>297600</v>
+        <v>306400</v>
       </c>
       <c r="G102" s="3">
-        <v>-122800</v>
+        <v>-126400</v>
       </c>
       <c r="H102" s="3">
-        <v>55300</v>
+        <v>56900</v>
       </c>
       <c r="I102" s="3">
-        <v>173000</v>
+        <v>178100</v>
       </c>
       <c r="J102" s="3">
-        <v>73000</v>
+        <v>75100</v>
       </c>
       <c r="K102" s="3">
         <v>211000</v>

--- a/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>UMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,269 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1557100</v>
+        <v>1583100</v>
       </c>
       <c r="E8" s="3">
-        <v>1482800</v>
+        <v>1568200</v>
       </c>
       <c r="F8" s="3">
-        <v>1468100</v>
+        <v>1551300</v>
       </c>
       <c r="G8" s="3">
-        <v>1323900</v>
+        <v>1477300</v>
       </c>
       <c r="H8" s="3">
-        <v>1264000</v>
+        <v>1462600</v>
       </c>
       <c r="I8" s="3">
+        <v>1319000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1259300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1143000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1245900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1313500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1292200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1247200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1187200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1221800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1216600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1220200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1249200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1244500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1197200</v>
+        <v>1204000</v>
       </c>
       <c r="E9" s="3">
-        <v>1197800</v>
+        <v>1226800</v>
       </c>
       <c r="F9" s="3">
-        <v>1223600</v>
+        <v>1192800</v>
       </c>
       <c r="G9" s="3">
-        <v>1098200</v>
+        <v>1193400</v>
       </c>
       <c r="H9" s="3">
-        <v>1065700</v>
+        <v>1219100</v>
       </c>
       <c r="I9" s="3">
+        <v>1094100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1061800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1063700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1084500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1082700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1070200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1092800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>983100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1008100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>998200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>978000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>963500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>359800</v>
+        <v>379100</v>
       </c>
       <c r="E10" s="3">
-        <v>284900</v>
+        <v>341400</v>
       </c>
       <c r="F10" s="3">
-        <v>244500</v>
+        <v>358500</v>
       </c>
       <c r="G10" s="3">
-        <v>225700</v>
+        <v>283900</v>
       </c>
       <c r="H10" s="3">
-        <v>198300</v>
+        <v>243500</v>
       </c>
       <c r="I10" s="3">
+        <v>224800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>197500</v>
+      </c>
+      <c r="K10" s="3">
         <v>79400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>161400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>230800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>222000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>154400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>204100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>213700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>218400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>242200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>285600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>270700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +947,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>112300</v>
+        <v>111600</v>
       </c>
       <c r="E12" s="3">
-        <v>111700</v>
+        <v>115800</v>
       </c>
       <c r="F12" s="3">
-        <v>121100</v>
+        <v>111900</v>
       </c>
       <c r="G12" s="3">
-        <v>98700</v>
+        <v>111300</v>
       </c>
       <c r="H12" s="3">
-        <v>97800</v>
+        <v>120700</v>
       </c>
       <c r="I12" s="3">
+        <v>98300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>97400</v>
+      </c>
+      <c r="K12" s="3">
         <v>98500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>131400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>111000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>100700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>97300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>100100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>108400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>105200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>130100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>124700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,61 +1061,73 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>91</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="3">
-        <v>-4900</v>
+      <c r="F14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+        <v>-4800</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>8200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>9700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>3400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>9400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>34900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1352000</v>
+        <v>1386900</v>
       </c>
       <c r="E17" s="3">
-        <v>1363000</v>
+        <v>1318900</v>
       </c>
       <c r="F17" s="3">
-        <v>1392200</v>
+        <v>1347000</v>
       </c>
       <c r="G17" s="3">
-        <v>1235900</v>
+        <v>1357900</v>
       </c>
       <c r="H17" s="3">
-        <v>1202200</v>
+        <v>1387000</v>
       </c>
       <c r="I17" s="3">
+        <v>1231300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1197700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1199000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1268200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1232300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1186400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1221600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1133800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1178700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1165900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1184800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1209800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1198300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>205100</v>
+        <v>196200</v>
       </c>
       <c r="E18" s="3">
-        <v>119800</v>
+        <v>249300</v>
       </c>
       <c r="F18" s="3">
-        <v>75900</v>
+        <v>204300</v>
       </c>
       <c r="G18" s="3">
-        <v>88000</v>
+        <v>119300</v>
       </c>
       <c r="H18" s="3">
-        <v>61800</v>
+        <v>75600</v>
       </c>
       <c r="I18" s="3">
+        <v>87700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>61500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-56000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-22300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>81200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>105800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>25600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>53400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>43100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>50700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>35400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>39300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,273 +1344,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>47000</v>
+        <v>210500</v>
       </c>
       <c r="E20" s="3">
-        <v>-69200</v>
+        <v>88500</v>
       </c>
       <c r="F20" s="3">
-        <v>53200</v>
+        <v>46800</v>
       </c>
       <c r="G20" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>53000</v>
+      </c>
+      <c r="I20" s="3">
         <v>7600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>5000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>68700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-44200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-30300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-12800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>58400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>25000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>70200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>36700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>16600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>11300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>681700</v>
+        <v>825900</v>
       </c>
       <c r="E21" s="3">
-        <v>488900</v>
+        <v>763100</v>
       </c>
       <c r="F21" s="3">
-        <v>577200</v>
+        <v>679200</v>
       </c>
       <c r="G21" s="3">
-        <v>518300</v>
+        <v>487100</v>
       </c>
       <c r="H21" s="3">
-        <v>494200</v>
+        <v>575100</v>
       </c>
       <c r="I21" s="3">
+        <v>516400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>492400</v>
+      </c>
+      <c r="K21" s="3">
         <v>446900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>369000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>483500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>537800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>526000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>507000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>550400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>511800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>485400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>486800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>496600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>18300</v>
+        <v>14200</v>
       </c>
       <c r="E22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>18200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>21600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>26100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K22" s="3">
+        <v>24900</v>
+      </c>
+      <c r="L22" s="3">
+        <v>24300</v>
+      </c>
+      <c r="M22" s="3">
+        <v>23300</v>
+      </c>
+      <c r="N22" s="3">
+        <v>23600</v>
+      </c>
+      <c r="O22" s="3">
+        <v>22300</v>
+      </c>
+      <c r="P22" s="3">
         <v>21700</v>
       </c>
-      <c r="F22" s="3">
-        <v>25100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>26200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>26700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>24900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>24300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>23300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>23600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>22300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>21700</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>20400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>18800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>17200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>15800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>233800</v>
+        <v>392600</v>
       </c>
       <c r="E23" s="3">
-        <v>28800</v>
+        <v>321800</v>
       </c>
       <c r="F23" s="3">
-        <v>104000</v>
+        <v>232900</v>
       </c>
       <c r="G23" s="3">
+        <v>28700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>103600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>69100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-90700</v>
+      </c>
+      <c r="M23" s="3">
+        <v>27600</v>
+      </c>
+      <c r="N23" s="3">
         <v>69400</v>
       </c>
-      <c r="H23" s="3">
-        <v>40100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-90700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>27600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>69400</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>61800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>56700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>92900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>68600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>34800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>34800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>63600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>21500</v>
+        <v>12000</v>
       </c>
       <c r="E24" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F24" s="3">
+        <v>21400</v>
+      </c>
+      <c r="G24" s="3">
         <v>-14300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-6700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
-        <v>7100</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-15500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>14500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>21100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-11000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-39000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>18000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>13000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>20700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-14000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>20100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>212300</v>
+        <v>380600</v>
       </c>
       <c r="E26" s="3">
-        <v>43200</v>
+        <v>314900</v>
       </c>
       <c r="F26" s="3">
-        <v>110700</v>
+        <v>211500</v>
       </c>
       <c r="G26" s="3">
-        <v>68000</v>
+        <v>43000</v>
       </c>
       <c r="H26" s="3">
-        <v>33100</v>
+        <v>110300</v>
       </c>
       <c r="I26" s="3">
+        <v>67700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K26" s="3">
         <v>3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-105200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>6600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>80400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>100800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>38700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>79900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>47900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>48800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>14600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>234400</v>
+        <v>391300</v>
       </c>
       <c r="E27" s="3">
-        <v>77400</v>
+        <v>318300</v>
       </c>
       <c r="F27" s="3">
-        <v>134600</v>
+        <v>233500</v>
       </c>
       <c r="G27" s="3">
-        <v>102700</v>
+        <v>77100</v>
       </c>
       <c r="H27" s="3">
-        <v>61100</v>
+        <v>134100</v>
       </c>
       <c r="I27" s="3">
+        <v>102400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K27" s="3">
         <v>42100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-59900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>57400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>121700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>113100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>57400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>112500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>68000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>74500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>83100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1915,114 +2048,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-47000</v>
+        <v>-210500</v>
       </c>
       <c r="E32" s="3">
-        <v>69200</v>
+        <v>-88500</v>
       </c>
       <c r="F32" s="3">
-        <v>-53200</v>
+        <v>-46800</v>
       </c>
       <c r="G32" s="3">
+        <v>69000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-7600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-5000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-68700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>44200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>30300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>12800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-58400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-25000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-70200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-36700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-16600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-11300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>234400</v>
+        <v>391300</v>
       </c>
       <c r="E33" s="3">
-        <v>77400</v>
+        <v>318300</v>
       </c>
       <c r="F33" s="3">
-        <v>134600</v>
+        <v>233500</v>
       </c>
       <c r="G33" s="3">
-        <v>102700</v>
+        <v>77100</v>
       </c>
       <c r="H33" s="3">
-        <v>61100</v>
+        <v>134100</v>
       </c>
       <c r="I33" s="3">
+        <v>102400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K33" s="3">
         <v>42100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-59900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>57400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>121700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>113100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>57400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>112500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>68000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>74500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>83100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>234400</v>
+        <v>391300</v>
       </c>
       <c r="E35" s="3">
-        <v>77400</v>
+        <v>318300</v>
       </c>
       <c r="F35" s="3">
-        <v>134600</v>
+        <v>233500</v>
       </c>
       <c r="G35" s="3">
-        <v>102700</v>
+        <v>77100</v>
       </c>
       <c r="H35" s="3">
-        <v>61100</v>
+        <v>134100</v>
       </c>
       <c r="I35" s="3">
+        <v>102400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K35" s="3">
         <v>42100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-59900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>57400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>121700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>113100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>57400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>112500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>68000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>74500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>83100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2227,485 +2398,541 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3503500</v>
+        <v>3287000</v>
       </c>
       <c r="E41" s="3">
-        <v>3338400</v>
+        <v>3454400</v>
       </c>
       <c r="F41" s="3">
-        <v>3349900</v>
+        <v>3490500</v>
       </c>
       <c r="G41" s="3">
-        <v>3043400</v>
+        <v>3326100</v>
       </c>
       <c r="H41" s="3">
-        <v>3169700</v>
+        <v>3337500</v>
       </c>
       <c r="I41" s="3">
+        <v>3032100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3157900</v>
+      </c>
+      <c r="K41" s="3">
         <v>3112900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2934900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2718700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2500900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2565800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2647100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2266700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2208200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1983100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1877700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1802200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>35600</v>
+        <v>42500</v>
       </c>
       <c r="E42" s="3">
-        <v>26400</v>
+        <v>32000</v>
       </c>
       <c r="F42" s="3">
-        <v>25400</v>
+        <v>35400</v>
       </c>
       <c r="G42" s="3">
+        <v>26300</v>
+      </c>
+      <c r="H42" s="3">
+        <v>25300</v>
+      </c>
+      <c r="I42" s="3">
         <v>22200</v>
       </c>
-      <c r="H42" s="3">
-        <v>21500</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K42" s="3">
         <v>19400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>18500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>14100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>15600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>17400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>23200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>27400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>25900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>28300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>23300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>996400</v>
+        <v>1021900</v>
       </c>
       <c r="E43" s="3">
-        <v>1055900</v>
+        <v>981400</v>
       </c>
       <c r="F43" s="3">
-        <v>934000</v>
+        <v>992700</v>
       </c>
       <c r="G43" s="3">
-        <v>852600</v>
+        <v>1052000</v>
       </c>
       <c r="H43" s="3">
-        <v>901600</v>
+        <v>930500</v>
       </c>
       <c r="I43" s="3">
+        <v>849500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>898200</v>
+      </c>
+      <c r="K43" s="3">
         <v>832500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>866400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>908900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>959500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>886600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>734300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>785600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>748200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>705300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>782700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>761800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>818800</v>
+        <v>788200</v>
       </c>
       <c r="E44" s="3">
-        <v>776200</v>
+        <v>799100</v>
       </c>
       <c r="F44" s="3">
-        <v>761800</v>
+        <v>815800</v>
       </c>
       <c r="G44" s="3">
-        <v>701200</v>
+        <v>773300</v>
       </c>
       <c r="H44" s="3">
-        <v>688600</v>
+        <v>758900</v>
       </c>
       <c r="I44" s="3">
+        <v>698600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>686000</v>
+      </c>
+      <c r="K44" s="3">
         <v>662100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>638600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>586600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>587300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>570000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>591700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>554300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>527800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>530300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>554300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>559800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>537500</v>
+        <v>602900</v>
       </c>
       <c r="E45" s="3">
-        <v>401700</v>
+        <v>446600</v>
       </c>
       <c r="F45" s="3">
-        <v>322900</v>
+        <v>535500</v>
       </c>
       <c r="G45" s="3">
-        <v>1115800</v>
+        <v>400200</v>
       </c>
       <c r="H45" s="3">
-        <v>498400</v>
+        <v>321700</v>
       </c>
       <c r="I45" s="3">
+        <v>1111700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>496600</v>
+      </c>
+      <c r="K45" s="3">
         <v>522700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>494800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>445900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>496100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>497500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>513800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>407900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>381500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>390200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>364400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>340000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5891800</v>
+        <v>5742500</v>
       </c>
       <c r="E46" s="3">
-        <v>5598600</v>
+        <v>5713500</v>
       </c>
       <c r="F46" s="3">
-        <v>5393800</v>
+        <v>5870000</v>
       </c>
       <c r="G46" s="3">
-        <v>5735200</v>
+        <v>5577800</v>
       </c>
       <c r="H46" s="3">
-        <v>5279800</v>
+        <v>5373800</v>
       </c>
       <c r="I46" s="3">
+        <v>5714000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5260200</v>
+      </c>
+      <c r="K46" s="3">
         <v>5149600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4953100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4674100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4559400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4537400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4510200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4041800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3891700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3637200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3602400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3488300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1471100</v>
+        <v>1977400</v>
       </c>
       <c r="E47" s="3">
-        <v>1257900</v>
+        <v>1640400</v>
       </c>
       <c r="F47" s="3">
-        <v>1450300</v>
+        <v>1465600</v>
       </c>
       <c r="G47" s="3">
-        <v>1415100</v>
+        <v>1253200</v>
       </c>
       <c r="H47" s="3">
-        <v>1327600</v>
+        <v>1445000</v>
       </c>
       <c r="I47" s="3">
+        <v>1409800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1322600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1305600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1175400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1209300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1241200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1199400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1102700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1125500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1163800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1138100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1133700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1232600</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>4953900</v>
+        <v>4931800</v>
       </c>
       <c r="E48" s="3">
-        <v>5248300</v>
+        <v>4941200</v>
       </c>
       <c r="F48" s="3">
-        <v>5573600</v>
+        <v>4935500</v>
       </c>
       <c r="G48" s="3">
-        <v>5518900</v>
+        <v>5228800</v>
       </c>
       <c r="H48" s="3">
-        <v>5872000</v>
+        <v>5553000</v>
       </c>
       <c r="I48" s="3">
+        <v>5498500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5850300</v>
+      </c>
+      <c r="K48" s="3">
         <v>6191600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6086700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5969600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6308800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6577800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6677400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6764100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6921700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>7101400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>7375100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>7060600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>169800</v>
+        <v>170500</v>
       </c>
       <c r="E49" s="3">
-        <v>167500</v>
+        <v>173100</v>
       </c>
       <c r="F49" s="3">
-        <v>182400</v>
+        <v>169200</v>
       </c>
       <c r="G49" s="3">
-        <v>127800</v>
+        <v>166900</v>
       </c>
       <c r="H49" s="3">
-        <v>145600</v>
+        <v>181700</v>
       </c>
       <c r="I49" s="3">
+        <v>127300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>145100</v>
+      </c>
+      <c r="K49" s="3">
         <v>117600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>105000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>106900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>119100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>122700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>122800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>125500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>123900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>120300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>133300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2810,61 +3043,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>406800</v>
+        <v>372100</v>
       </c>
       <c r="E52" s="3">
-        <v>372600</v>
+        <v>402000</v>
       </c>
       <c r="F52" s="3">
-        <v>386000</v>
+        <v>405300</v>
       </c>
       <c r="G52" s="3">
-        <v>324500</v>
+        <v>371200</v>
       </c>
       <c r="H52" s="3">
-        <v>352300</v>
+        <v>384600</v>
       </c>
       <c r="I52" s="3">
+        <v>323300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>351000</v>
+      </c>
+      <c r="K52" s="3">
         <v>360400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>470300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>468600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>439900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>386500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>359800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>394100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>403200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>374500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>364200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>307400</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>12893400</v>
+        <v>13194200</v>
       </c>
       <c r="E54" s="3">
-        <v>12644800</v>
+        <v>12870100</v>
       </c>
       <c r="F54" s="3">
-        <v>12986200</v>
+        <v>12845700</v>
       </c>
       <c r="G54" s="3">
-        <v>13121500</v>
+        <v>12598000</v>
       </c>
       <c r="H54" s="3">
-        <v>12977300</v>
+        <v>12938000</v>
       </c>
       <c r="I54" s="3">
+        <v>13072900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>12929200</v>
+      </c>
+      <c r="K54" s="3">
         <v>13124700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>12790300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>12428500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12668400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12823700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>12772800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>12451000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>12504300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>12371600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>12608800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>12227400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3011,326 +3270,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>300200</v>
+        <v>274800</v>
       </c>
       <c r="E57" s="3">
-        <v>313000</v>
+        <v>269100</v>
       </c>
       <c r="F57" s="3">
-        <v>311400</v>
+        <v>299000</v>
       </c>
       <c r="G57" s="3">
-        <v>232500</v>
+        <v>311900</v>
       </c>
       <c r="H57" s="3">
-        <v>242500</v>
+        <v>310300</v>
       </c>
       <c r="I57" s="3">
+        <v>231600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>241600</v>
+      </c>
+      <c r="K57" s="3">
         <v>237800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>238600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>229600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>246400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>232700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>211800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>214200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>215400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>210000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>223500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>219900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>627700</v>
+        <v>1348800</v>
       </c>
       <c r="E58" s="3">
-        <v>909500</v>
+        <v>592400</v>
       </c>
       <c r="F58" s="3">
-        <v>1311300</v>
+        <v>625400</v>
       </c>
       <c r="G58" s="3">
-        <v>1422500</v>
+        <v>906100</v>
       </c>
       <c r="H58" s="3">
-        <v>1399000</v>
+        <v>1306500</v>
       </c>
       <c r="I58" s="3">
+        <v>1417200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1393900</v>
+      </c>
+      <c r="K58" s="3">
         <v>834900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>639300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>677900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>573100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1330300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1711600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1579800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1561900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1185000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1012600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1534200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1356100</v>
+        <v>1111000</v>
       </c>
       <c r="E59" s="3">
-        <v>921000</v>
+        <v>1205900</v>
       </c>
       <c r="F59" s="3">
-        <v>928100</v>
+        <v>1351100</v>
       </c>
       <c r="G59" s="3">
-        <v>812000</v>
+        <v>917600</v>
       </c>
       <c r="H59" s="3">
-        <v>1061500</v>
+        <v>924700</v>
       </c>
       <c r="I59" s="3">
+        <v>809000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1057600</v>
+      </c>
+      <c r="K59" s="3">
         <v>774100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>872500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>807700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1148500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>850600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>930700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>875200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1064900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>785700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1111100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>967000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2284000</v>
+        <v>2734600</v>
       </c>
       <c r="E60" s="3">
-        <v>2143500</v>
+        <v>2067300</v>
       </c>
       <c r="F60" s="3">
-        <v>2550800</v>
+        <v>2275500</v>
       </c>
       <c r="G60" s="3">
-        <v>2467000</v>
+        <v>2135600</v>
       </c>
       <c r="H60" s="3">
-        <v>2703100</v>
+        <v>2541400</v>
       </c>
       <c r="I60" s="3">
+        <v>2457900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2693100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1846800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1750500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1715300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1968000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2413600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2854100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2669200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2842200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2180600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2347200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2721000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>2065400</v>
+        <v>1041400</v>
       </c>
       <c r="E61" s="3">
-        <v>1856300</v>
+        <v>1909700</v>
       </c>
       <c r="F61" s="3">
-        <v>1871500</v>
+        <v>2057800</v>
       </c>
       <c r="G61" s="3">
-        <v>2121900</v>
+        <v>1849400</v>
       </c>
       <c r="H61" s="3">
-        <v>1781700</v>
+        <v>1864500</v>
       </c>
       <c r="I61" s="3">
+        <v>2114000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1775100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2473700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2353300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2249800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2253800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1749900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1728100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1696900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1660600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2032000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1980400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1294100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1205200</v>
+        <v>1177900</v>
       </c>
       <c r="E62" s="3">
-        <v>1249400</v>
+        <v>1172200</v>
       </c>
       <c r="F62" s="3">
-        <v>1294800</v>
+        <v>1200700</v>
       </c>
       <c r="G62" s="3">
-        <v>1339600</v>
+        <v>1244800</v>
       </c>
       <c r="H62" s="3">
-        <v>1403100</v>
+        <v>1290000</v>
       </c>
       <c r="I62" s="3">
+        <v>1334700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1397900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1444000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1441300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1374600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1435900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1469000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1253700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1135100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1091800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1092900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1148100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1070700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>5557300</v>
+        <v>4957900</v>
       </c>
       <c r="E66" s="3">
-        <v>5251700</v>
+        <v>5154500</v>
       </c>
       <c r="F66" s="3">
-        <v>5731500</v>
+        <v>5536700</v>
       </c>
       <c r="G66" s="3">
-        <v>5942700</v>
+        <v>5232200</v>
       </c>
       <c r="H66" s="3">
-        <v>5903000</v>
+        <v>5710200</v>
       </c>
       <c r="I66" s="3">
+        <v>5920700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5881100</v>
+      </c>
+      <c r="K66" s="3">
         <v>5780400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5561400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5356200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5678100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5639300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5866800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5535000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5624800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5336500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5546200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5138300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2136600</v>
+        <v>2802200</v>
       </c>
       <c r="E72" s="3">
-        <v>2338100</v>
+        <v>2444900</v>
       </c>
       <c r="F72" s="3">
-        <v>2145200</v>
+        <v>2128700</v>
       </c>
       <c r="G72" s="3">
-        <v>2027200</v>
+        <v>2329400</v>
       </c>
       <c r="H72" s="3">
-        <v>1942900</v>
+        <v>2137300</v>
       </c>
       <c r="I72" s="3">
+        <v>2019700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1935700</v>
+      </c>
+      <c r="K72" s="3">
         <v>2153400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2160500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2158800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2129100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2307700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1557800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1529000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1457800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1603500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1554000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1561100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>7336200</v>
+        <v>8236300</v>
       </c>
       <c r="E76" s="3">
-        <v>7393200</v>
+        <v>7715600</v>
       </c>
       <c r="F76" s="3">
-        <v>7254700</v>
+        <v>7309000</v>
       </c>
       <c r="G76" s="3">
-        <v>7178700</v>
+        <v>7365800</v>
       </c>
       <c r="H76" s="3">
-        <v>7074400</v>
+        <v>7227800</v>
       </c>
       <c r="I76" s="3">
+        <v>7152100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>7048200</v>
+      </c>
+      <c r="K76" s="3">
         <v>7344400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7228900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7072400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6990300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>7184400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6905900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6916000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6879500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>7035100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>7062700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7089100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>234400</v>
+        <v>391300</v>
       </c>
       <c r="E81" s="3">
-        <v>77400</v>
+        <v>318300</v>
       </c>
       <c r="F81" s="3">
-        <v>134600</v>
+        <v>233500</v>
       </c>
       <c r="G81" s="3">
-        <v>102700</v>
+        <v>77100</v>
       </c>
       <c r="H81" s="3">
-        <v>61100</v>
+        <v>134100</v>
       </c>
       <c r="I81" s="3">
+        <v>102400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K81" s="3">
         <v>42100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-59900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>57400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>121700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>113100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>57400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>112500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>68000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>74500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>83100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4224,61 +4619,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>429700</v>
+        <v>419200</v>
       </c>
       <c r="E83" s="3">
-        <v>438400</v>
+        <v>425300</v>
       </c>
       <c r="F83" s="3">
-        <v>448100</v>
+        <v>428100</v>
       </c>
       <c r="G83" s="3">
-        <v>422700</v>
+        <v>436800</v>
       </c>
       <c r="H83" s="3">
-        <v>427400</v>
+        <v>446500</v>
       </c>
       <c r="I83" s="3">
+        <v>421100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>425900</v>
+      </c>
+      <c r="K83" s="3">
         <v>434300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>435500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>432700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>444800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>442000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>428700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>437100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>424300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>433500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>436200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>420700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>575400</v>
+        <v>561700</v>
       </c>
       <c r="E89" s="3">
-        <v>516800</v>
+        <v>647900</v>
       </c>
       <c r="F89" s="3">
-        <v>1316600</v>
+        <v>573300</v>
       </c>
       <c r="G89" s="3">
-        <v>-108000</v>
+        <v>514900</v>
       </c>
       <c r="H89" s="3">
-        <v>430400</v>
+        <v>1311800</v>
       </c>
       <c r="I89" s="3">
+        <v>-107600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>428800</v>
+      </c>
+      <c r="K89" s="3">
         <v>287100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>425300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>526000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>474400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>291900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>418100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>371000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>480200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>434100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>507000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4616,61 +5055,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-149800</v>
+        <v>-410200</v>
       </c>
       <c r="E91" s="3">
-        <v>-127400</v>
+        <v>-234400</v>
       </c>
       <c r="F91" s="3">
-        <v>-122800</v>
+        <v>-149200</v>
       </c>
       <c r="G91" s="3">
-        <v>-124500</v>
+        <v>-126900</v>
       </c>
       <c r="H91" s="3">
-        <v>-136900</v>
+        <v>-122400</v>
       </c>
       <c r="I91" s="3">
+        <v>-124100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-136400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-195100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-153000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-187200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-129700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-190100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-355300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-236200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-270100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-588000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-724600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-666200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4775,61 +5228,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-276300</v>
+        <v>-609400</v>
       </c>
       <c r="E94" s="3">
-        <v>-319600</v>
+        <v>-198700</v>
       </c>
       <c r="F94" s="3">
-        <v>-626000</v>
+        <v>-275300</v>
       </c>
       <c r="G94" s="3">
-        <v>-139200</v>
+        <v>-318400</v>
       </c>
       <c r="H94" s="3">
-        <v>-146900</v>
+        <v>-623600</v>
       </c>
       <c r="I94" s="3">
+        <v>-138700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-146400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-199400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-161800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-182600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-202100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>22200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-195500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-161500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-262700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-531300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-597400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-502200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4861,14 +5328,14 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>100</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4885,14 +5352,14 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -4900,10 +5367,16 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-225200</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5061,163 +5546,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-103400</v>
+        <v>-110200</v>
       </c>
       <c r="E100" s="3">
-        <v>-205200</v>
+        <v>-477200</v>
       </c>
       <c r="F100" s="3">
-        <v>-340800</v>
+        <v>-103000</v>
       </c>
       <c r="G100" s="3">
-        <v>145100</v>
+        <v>-204400</v>
       </c>
       <c r="H100" s="3">
-        <v>-226900</v>
+        <v>-339600</v>
       </c>
       <c r="I100" s="3">
+        <v>144600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-226000</v>
+      </c>
+      <c r="K100" s="3">
         <v>76500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-200800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-108500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-359000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-456100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>169000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-149200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>22900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>255800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>137600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-30600</v>
+        <v>-9600</v>
       </c>
       <c r="E101" s="3">
-        <v>-3500</v>
+        <v>-8100</v>
       </c>
       <c r="F101" s="3">
-        <v>-43400</v>
+        <v>-30500</v>
       </c>
       <c r="G101" s="3">
-        <v>-24300</v>
+        <v>-3400</v>
       </c>
       <c r="H101" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>13900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>12500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-23900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>21900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-8700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-11100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-53200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>28300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-49900</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>165100</v>
+        <v>-167400</v>
       </c>
       <c r="E102" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>164400</v>
+      </c>
+      <c r="G102" s="3">
         <v>-11400</v>
       </c>
-      <c r="F102" s="3">
-        <v>306400</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-126400</v>
-      </c>
       <c r="H102" s="3">
-        <v>56900</v>
+        <v>305300</v>
       </c>
       <c r="I102" s="3">
+        <v>-125900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>56700</v>
+      </c>
+      <c r="K102" s="3">
         <v>178100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>75100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>211000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-64900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-150700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>380400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>58500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>237300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>105400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>75400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>190500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>UMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1583100</v>
+        <v>1688900</v>
       </c>
       <c r="E8" s="3">
-        <v>1568200</v>
+        <v>1624300</v>
       </c>
       <c r="F8" s="3">
-        <v>1551300</v>
+        <v>1609100</v>
       </c>
       <c r="G8" s="3">
-        <v>1477300</v>
+        <v>1591700</v>
       </c>
       <c r="H8" s="3">
-        <v>1462600</v>
+        <v>1515700</v>
       </c>
       <c r="I8" s="3">
-        <v>1319000</v>
+        <v>1500700</v>
       </c>
       <c r="J8" s="3">
+        <v>1353300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1259300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1143000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1245900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1313500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1292200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1247200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1187200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1221800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1216600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1220200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1249200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1244500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1204000</v>
+        <v>1240900</v>
       </c>
       <c r="E9" s="3">
-        <v>1226800</v>
+        <v>1235300</v>
       </c>
       <c r="F9" s="3">
-        <v>1192800</v>
+        <v>1258700</v>
       </c>
       <c r="G9" s="3">
-        <v>1193400</v>
+        <v>1223900</v>
       </c>
       <c r="H9" s="3">
-        <v>1219100</v>
+        <v>1224500</v>
       </c>
       <c r="I9" s="3">
-        <v>1094100</v>
+        <v>1250800</v>
       </c>
       <c r="J9" s="3">
+        <v>1122600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1061800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1063700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1084500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1082700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1070200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1092800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>983100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1008100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>998200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>978000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>963500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>379100</v>
+        <v>448000</v>
       </c>
       <c r="E10" s="3">
-        <v>341400</v>
+        <v>389000</v>
       </c>
       <c r="F10" s="3">
-        <v>358500</v>
+        <v>350300</v>
       </c>
       <c r="G10" s="3">
-        <v>283900</v>
+        <v>367800</v>
       </c>
       <c r="H10" s="3">
-        <v>243500</v>
+        <v>291300</v>
       </c>
       <c r="I10" s="3">
-        <v>224800</v>
+        <v>249900</v>
       </c>
       <c r="J10" s="3">
+        <v>230700</v>
+      </c>
+      <c r="K10" s="3">
         <v>197500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>79400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>161400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>230800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>222000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>154400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>204100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>213700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>218400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>242200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>285600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>270700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>111600</v>
+        <v>109300</v>
       </c>
       <c r="E12" s="3">
-        <v>115800</v>
+        <v>114500</v>
       </c>
       <c r="F12" s="3">
-        <v>111900</v>
+        <v>118800</v>
       </c>
       <c r="G12" s="3">
-        <v>111300</v>
+        <v>114800</v>
       </c>
       <c r="H12" s="3">
-        <v>120700</v>
+        <v>114200</v>
       </c>
       <c r="I12" s="3">
-        <v>98300</v>
+        <v>123800</v>
       </c>
       <c r="J12" s="3">
+        <v>100900</v>
+      </c>
+      <c r="K12" s="3">
         <v>97400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>98500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>131400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>111000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>100700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>97300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>100100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>108400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>105200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>130100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>124700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,16 +1084,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>91</v>
@@ -1084,24 +1104,24 @@
       <c r="G14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1109,25 +1129,28 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>8200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>34900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1386900</v>
+        <v>1415600</v>
       </c>
       <c r="E17" s="3">
-        <v>1318900</v>
+        <v>1423000</v>
       </c>
       <c r="F17" s="3">
-        <v>1347000</v>
+        <v>1353300</v>
       </c>
       <c r="G17" s="3">
-        <v>1357900</v>
+        <v>1382100</v>
       </c>
       <c r="H17" s="3">
-        <v>1387000</v>
+        <v>1393300</v>
       </c>
       <c r="I17" s="3">
-        <v>1231300</v>
+        <v>1423100</v>
       </c>
       <c r="J17" s="3">
+        <v>1263300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1197700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1199000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1268200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1232300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1186400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1221600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1133800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1178700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1165900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1184800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1209800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1198300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>196200</v>
+        <v>273300</v>
       </c>
       <c r="E18" s="3">
-        <v>249300</v>
+        <v>201300</v>
       </c>
       <c r="F18" s="3">
-        <v>204300</v>
+        <v>255800</v>
       </c>
       <c r="G18" s="3">
-        <v>119300</v>
+        <v>209600</v>
       </c>
       <c r="H18" s="3">
-        <v>75600</v>
+        <v>122400</v>
       </c>
       <c r="I18" s="3">
-        <v>87700</v>
+        <v>77600</v>
       </c>
       <c r="J18" s="3">
+        <v>90000</v>
+      </c>
+      <c r="K18" s="3">
         <v>61500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-56000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-22300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>81200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>105800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>25600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>53400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>43100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>50700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>35400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>39300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>210500</v>
+        <v>134500</v>
       </c>
       <c r="E20" s="3">
-        <v>88500</v>
+        <v>216000</v>
       </c>
       <c r="F20" s="3">
-        <v>46800</v>
+        <v>90800</v>
       </c>
       <c r="G20" s="3">
-        <v>-69000</v>
+        <v>48000</v>
       </c>
       <c r="H20" s="3">
-        <v>53000</v>
+        <v>-70800</v>
       </c>
       <c r="I20" s="3">
-        <v>7600</v>
+        <v>54400</v>
       </c>
       <c r="J20" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K20" s="3">
         <v>5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>68700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-44200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-30300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>58400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>25000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>70200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>36700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>16600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>11300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>825900</v>
+        <v>832100</v>
       </c>
       <c r="E21" s="3">
-        <v>763100</v>
+        <v>847400</v>
       </c>
       <c r="F21" s="3">
-        <v>679200</v>
+        <v>783000</v>
       </c>
       <c r="G21" s="3">
-        <v>487100</v>
+        <v>696900</v>
       </c>
       <c r="H21" s="3">
-        <v>575100</v>
+        <v>499800</v>
       </c>
       <c r="I21" s="3">
-        <v>516400</v>
+        <v>590100</v>
       </c>
       <c r="J21" s="3">
+        <v>529800</v>
+      </c>
+      <c r="K21" s="3">
         <v>492400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>446900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>369000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>483500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>537800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>526000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>507000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>550400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>511800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>485400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>486800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>496600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>14200</v>
+        <v>13900</v>
       </c>
       <c r="E22" s="3">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="F22" s="3">
-        <v>18200</v>
+        <v>16500</v>
       </c>
       <c r="G22" s="3">
-        <v>21600</v>
+        <v>18700</v>
       </c>
       <c r="H22" s="3">
-        <v>25000</v>
+        <v>22200</v>
       </c>
       <c r="I22" s="3">
-        <v>26100</v>
+        <v>25700</v>
       </c>
       <c r="J22" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K22" s="3">
         <v>26600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>22300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>21700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>20400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>18800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>17200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>15800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>392600</v>
+        <v>393900</v>
       </c>
       <c r="E23" s="3">
-        <v>321800</v>
+        <v>402800</v>
       </c>
       <c r="F23" s="3">
-        <v>232900</v>
+        <v>330100</v>
       </c>
       <c r="G23" s="3">
-        <v>28700</v>
+        <v>239000</v>
       </c>
       <c r="H23" s="3">
-        <v>103600</v>
+        <v>29500</v>
       </c>
       <c r="I23" s="3">
-        <v>69100</v>
+        <v>106300</v>
       </c>
       <c r="J23" s="3">
+        <v>70900</v>
+      </c>
+      <c r="K23" s="3">
         <v>40000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-90700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>27600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>69400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>61800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>56700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>92900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>68600</v>
-      </c>
-      <c r="S23" s="3">
-        <v>34800</v>
       </c>
       <c r="T23" s="3">
         <v>34800</v>
       </c>
       <c r="U23" s="3">
+        <v>34800</v>
+      </c>
+      <c r="V23" s="3">
         <v>63600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>12000</v>
+        <v>39200</v>
       </c>
       <c r="E24" s="3">
-        <v>6900</v>
+        <v>12300</v>
       </c>
       <c r="F24" s="3">
-        <v>21400</v>
+        <v>7100</v>
       </c>
       <c r="G24" s="3">
-        <v>-14300</v>
+        <v>22000</v>
       </c>
       <c r="H24" s="3">
-        <v>-6700</v>
+        <v>-14600</v>
       </c>
       <c r="I24" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-15500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-11000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-39000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-14000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>380600</v>
+        <v>354600</v>
       </c>
       <c r="E26" s="3">
-        <v>314900</v>
+        <v>390500</v>
       </c>
       <c r="F26" s="3">
-        <v>211500</v>
+        <v>323100</v>
       </c>
       <c r="G26" s="3">
-        <v>43000</v>
+        <v>217000</v>
       </c>
       <c r="H26" s="3">
-        <v>110300</v>
+        <v>44100</v>
       </c>
       <c r="I26" s="3">
-        <v>67700</v>
+        <v>113200</v>
       </c>
       <c r="J26" s="3">
+        <v>69500</v>
+      </c>
+      <c r="K26" s="3">
         <v>32900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-105200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>80400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>38700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>79900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>47900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>48800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>14600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>391300</v>
+        <v>373900</v>
       </c>
       <c r="E27" s="3">
-        <v>318300</v>
+        <v>401500</v>
       </c>
       <c r="F27" s="3">
-        <v>233500</v>
+        <v>326600</v>
       </c>
       <c r="G27" s="3">
-        <v>77100</v>
+        <v>239600</v>
       </c>
       <c r="H27" s="3">
-        <v>134100</v>
+        <v>79100</v>
       </c>
       <c r="I27" s="3">
-        <v>102400</v>
+        <v>137600</v>
       </c>
       <c r="J27" s="3">
+        <v>105000</v>
+      </c>
+      <c r="K27" s="3">
         <v>60800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>42100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-59900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>57400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>121700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>113100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>57400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>112500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>68000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>74500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>83100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-210500</v>
+        <v>-134500</v>
       </c>
       <c r="E32" s="3">
-        <v>-88500</v>
+        <v>-216000</v>
       </c>
       <c r="F32" s="3">
-        <v>-46800</v>
+        <v>-90800</v>
       </c>
       <c r="G32" s="3">
-        <v>69000</v>
+        <v>-48000</v>
       </c>
       <c r="H32" s="3">
-        <v>-53000</v>
+        <v>70800</v>
       </c>
       <c r="I32" s="3">
-        <v>-7600</v>
+        <v>-54400</v>
       </c>
       <c r="J32" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-68700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>44200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>30300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-58400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-70200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-36700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-16600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-11300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>391300</v>
+        <v>373900</v>
       </c>
       <c r="E33" s="3">
-        <v>318300</v>
+        <v>401500</v>
       </c>
       <c r="F33" s="3">
-        <v>233500</v>
+        <v>326600</v>
       </c>
       <c r="G33" s="3">
-        <v>77100</v>
+        <v>239600</v>
       </c>
       <c r="H33" s="3">
-        <v>134100</v>
+        <v>79100</v>
       </c>
       <c r="I33" s="3">
-        <v>102400</v>
+        <v>137600</v>
       </c>
       <c r="J33" s="3">
+        <v>105000</v>
+      </c>
+      <c r="K33" s="3">
         <v>60800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>42100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-59900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>57400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>121700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>113100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>57400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>112500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>68000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>74500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>83100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>391300</v>
+        <v>373900</v>
       </c>
       <c r="E35" s="3">
-        <v>318300</v>
+        <v>401500</v>
       </c>
       <c r="F35" s="3">
-        <v>233500</v>
+        <v>326600</v>
       </c>
       <c r="G35" s="3">
-        <v>77100</v>
+        <v>239600</v>
       </c>
       <c r="H35" s="3">
-        <v>134100</v>
+        <v>79100</v>
       </c>
       <c r="I35" s="3">
-        <v>102400</v>
+        <v>137600</v>
       </c>
       <c r="J35" s="3">
+        <v>105000</v>
+      </c>
+      <c r="K35" s="3">
         <v>60800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>42100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-59900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>57400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>121700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>113100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>57400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>112500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>68000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>74500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>83100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2400,539 +2486,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3287000</v>
+        <v>3847200</v>
       </c>
       <c r="E41" s="3">
-        <v>3454400</v>
+        <v>3372600</v>
       </c>
       <c r="F41" s="3">
-        <v>3490500</v>
+        <v>3544400</v>
       </c>
       <c r="G41" s="3">
-        <v>3326100</v>
+        <v>3581400</v>
       </c>
       <c r="H41" s="3">
-        <v>3337500</v>
+        <v>3412700</v>
       </c>
       <c r="I41" s="3">
-        <v>3032100</v>
+        <v>3424400</v>
       </c>
       <c r="J41" s="3">
+        <v>3111000</v>
+      </c>
+      <c r="K41" s="3">
         <v>3157900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3112900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2934900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2718700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2500900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2565800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2647100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2266700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2208200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1983100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1877700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1802200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>42500</v>
+        <v>37000</v>
       </c>
       <c r="E42" s="3">
-        <v>32000</v>
+        <v>43600</v>
       </c>
       <c r="F42" s="3">
-        <v>35400</v>
+        <v>32900</v>
       </c>
       <c r="G42" s="3">
-        <v>26300</v>
+        <v>36400</v>
       </c>
       <c r="H42" s="3">
-        <v>25300</v>
+        <v>27000</v>
       </c>
       <c r="I42" s="3">
-        <v>22200</v>
+        <v>25900</v>
       </c>
       <c r="J42" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K42" s="3">
         <v>21400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>18500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>15600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>17400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>23200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>27400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>25900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>28300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>23300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1021900</v>
+        <v>1112100</v>
       </c>
       <c r="E43" s="3">
-        <v>981400</v>
+        <v>1048500</v>
       </c>
       <c r="F43" s="3">
-        <v>992700</v>
+        <v>1006900</v>
       </c>
       <c r="G43" s="3">
-        <v>1052000</v>
+        <v>1018600</v>
       </c>
       <c r="H43" s="3">
-        <v>930500</v>
+        <v>1079400</v>
       </c>
       <c r="I43" s="3">
-        <v>849500</v>
+        <v>954700</v>
       </c>
       <c r="J43" s="3">
+        <v>871600</v>
+      </c>
+      <c r="K43" s="3">
         <v>898200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>832500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>866400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>908900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>959500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>886600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>734300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>785600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>748200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>705300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>782700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>761800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>788200</v>
+        <v>797000</v>
       </c>
       <c r="E44" s="3">
-        <v>799100</v>
+        <v>808700</v>
       </c>
       <c r="F44" s="3">
-        <v>815800</v>
+        <v>819900</v>
       </c>
       <c r="G44" s="3">
-        <v>773300</v>
+        <v>837000</v>
       </c>
       <c r="H44" s="3">
-        <v>758900</v>
+        <v>793400</v>
       </c>
       <c r="I44" s="3">
-        <v>698600</v>
+        <v>778700</v>
       </c>
       <c r="J44" s="3">
+        <v>716800</v>
+      </c>
+      <c r="K44" s="3">
         <v>686000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>662100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>638600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>586600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>587300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>570000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>591700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>554300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>527800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>530300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>554300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>559800</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>602900</v>
+        <v>628500</v>
       </c>
       <c r="E45" s="3">
-        <v>446600</v>
+        <v>618600</v>
       </c>
       <c r="F45" s="3">
-        <v>535500</v>
+        <v>458200</v>
       </c>
       <c r="G45" s="3">
-        <v>400200</v>
+        <v>549500</v>
       </c>
       <c r="H45" s="3">
-        <v>321700</v>
+        <v>410700</v>
       </c>
       <c r="I45" s="3">
-        <v>1111700</v>
+        <v>330000</v>
       </c>
       <c r="J45" s="3">
+        <v>1140600</v>
+      </c>
+      <c r="K45" s="3">
         <v>496600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>522700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>494800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>445900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>496100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>497500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>513800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>407900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>381500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>390200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>364400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>340000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5742500</v>
+        <v>6421900</v>
       </c>
       <c r="E46" s="3">
-        <v>5713500</v>
+        <v>5892000</v>
       </c>
       <c r="F46" s="3">
-        <v>5870000</v>
+        <v>5862300</v>
       </c>
       <c r="G46" s="3">
-        <v>5577800</v>
+        <v>6022800</v>
       </c>
       <c r="H46" s="3">
-        <v>5373800</v>
+        <v>5723100</v>
       </c>
       <c r="I46" s="3">
-        <v>5714000</v>
+        <v>5513700</v>
       </c>
       <c r="J46" s="3">
+        <v>5862800</v>
+      </c>
+      <c r="K46" s="3">
         <v>5260200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5149600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4953100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4674100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4559400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4537400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4510200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4041800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3891700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3637200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3602400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3488300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1977400</v>
+        <v>2325000</v>
       </c>
       <c r="E47" s="3">
-        <v>1640400</v>
+        <v>2028900</v>
       </c>
       <c r="F47" s="3">
-        <v>1465600</v>
+        <v>1683100</v>
       </c>
       <c r="G47" s="3">
-        <v>1253200</v>
+        <v>1503800</v>
       </c>
       <c r="H47" s="3">
-        <v>1445000</v>
+        <v>1285800</v>
       </c>
       <c r="I47" s="3">
-        <v>1409800</v>
+        <v>1482600</v>
       </c>
       <c r="J47" s="3">
+        <v>1446500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1322600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1305600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1175400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1209300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1241200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1199400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1102700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1125500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1163800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1138100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1133700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1232600</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>4931800</v>
+        <v>4878900</v>
       </c>
       <c r="E48" s="3">
-        <v>4941200</v>
+        <v>5060200</v>
       </c>
       <c r="F48" s="3">
-        <v>4935500</v>
+        <v>5069800</v>
       </c>
       <c r="G48" s="3">
-        <v>5228800</v>
+        <v>5064000</v>
       </c>
       <c r="H48" s="3">
-        <v>5553000</v>
+        <v>5365000</v>
       </c>
       <c r="I48" s="3">
-        <v>5498500</v>
+        <v>5697600</v>
       </c>
       <c r="J48" s="3">
+        <v>5641600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5850300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6191600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6086700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5969600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6308800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6577800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6677400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6764100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6921700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7101400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7375100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7060600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>170500</v>
+        <v>167000</v>
       </c>
       <c r="E49" s="3">
-        <v>173100</v>
+        <v>174900</v>
       </c>
       <c r="F49" s="3">
-        <v>169200</v>
+        <v>177600</v>
       </c>
       <c r="G49" s="3">
-        <v>166900</v>
+        <v>173600</v>
       </c>
       <c r="H49" s="3">
-        <v>181700</v>
+        <v>171200</v>
       </c>
       <c r="I49" s="3">
-        <v>127300</v>
+        <v>186400</v>
       </c>
       <c r="J49" s="3">
+        <v>130600</v>
+      </c>
+      <c r="K49" s="3">
         <v>145100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>117600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>105000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>106900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>119100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>122700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>122800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>125500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>123900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>120300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>133300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>372100</v>
+        <v>345400</v>
       </c>
       <c r="E52" s="3">
-        <v>402000</v>
+        <v>381800</v>
       </c>
       <c r="F52" s="3">
-        <v>405300</v>
+        <v>412500</v>
       </c>
       <c r="G52" s="3">
-        <v>371200</v>
+        <v>415900</v>
       </c>
       <c r="H52" s="3">
-        <v>384600</v>
+        <v>380900</v>
       </c>
       <c r="I52" s="3">
-        <v>323300</v>
+        <v>394600</v>
       </c>
       <c r="J52" s="3">
+        <v>331700</v>
+      </c>
+      <c r="K52" s="3">
         <v>351000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>360400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>470300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>468600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>439900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>386500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>359800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>394100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>403200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>374500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>364200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>307400</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>13194200</v>
+        <v>14138200</v>
       </c>
       <c r="E54" s="3">
-        <v>12870100</v>
+        <v>13537700</v>
       </c>
       <c r="F54" s="3">
-        <v>12845700</v>
+        <v>13205200</v>
       </c>
       <c r="G54" s="3">
-        <v>12598000</v>
+        <v>13180100</v>
       </c>
       <c r="H54" s="3">
-        <v>12938000</v>
+        <v>12926000</v>
       </c>
       <c r="I54" s="3">
-        <v>13072900</v>
+        <v>13274900</v>
       </c>
       <c r="J54" s="3">
+        <v>13413200</v>
+      </c>
+      <c r="K54" s="3">
         <v>12929200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13124700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12790300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12428500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12668400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12823700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12772800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12451000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12504300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12371600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12608800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12227400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>274800</v>
+        <v>296200</v>
       </c>
       <c r="E57" s="3">
-        <v>269100</v>
+        <v>281900</v>
       </c>
       <c r="F57" s="3">
-        <v>299000</v>
+        <v>276100</v>
       </c>
       <c r="G57" s="3">
-        <v>311900</v>
+        <v>306800</v>
       </c>
       <c r="H57" s="3">
-        <v>310300</v>
+        <v>320000</v>
       </c>
       <c r="I57" s="3">
-        <v>231600</v>
+        <v>318300</v>
       </c>
       <c r="J57" s="3">
+        <v>237700</v>
+      </c>
+      <c r="K57" s="3">
         <v>241600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>237800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>238600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>229600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>246400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>232700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>211800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>214200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>215400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>210000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>223500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>219900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1348800</v>
+        <v>1356800</v>
       </c>
       <c r="E58" s="3">
-        <v>592400</v>
+        <v>1383900</v>
       </c>
       <c r="F58" s="3">
-        <v>625400</v>
+        <v>607800</v>
       </c>
       <c r="G58" s="3">
-        <v>906100</v>
+        <v>641700</v>
       </c>
       <c r="H58" s="3">
-        <v>1306500</v>
+        <v>929700</v>
       </c>
       <c r="I58" s="3">
-        <v>1417200</v>
+        <v>1340500</v>
       </c>
       <c r="J58" s="3">
+        <v>1454100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1393900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>834900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>639300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>677900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>573100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1330300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1711600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1579800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1561900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1185000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1012600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1534200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1111000</v>
+        <v>1163000</v>
       </c>
       <c r="E59" s="3">
-        <v>1205900</v>
+        <v>1140000</v>
       </c>
       <c r="F59" s="3">
-        <v>1351100</v>
+        <v>1237300</v>
       </c>
       <c r="G59" s="3">
-        <v>917600</v>
+        <v>1386300</v>
       </c>
       <c r="H59" s="3">
-        <v>924700</v>
+        <v>941500</v>
       </c>
       <c r="I59" s="3">
-        <v>809000</v>
+        <v>948700</v>
       </c>
       <c r="J59" s="3">
+        <v>830100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1057600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>774100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>872500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>807700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1148500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>850600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>930700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>875200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1064900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>785700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1111100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>967000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2734600</v>
+        <v>2816100</v>
       </c>
       <c r="E60" s="3">
-        <v>2067300</v>
+        <v>2805800</v>
       </c>
       <c r="F60" s="3">
-        <v>2275500</v>
+        <v>2121100</v>
       </c>
       <c r="G60" s="3">
-        <v>2135600</v>
+        <v>2334800</v>
       </c>
       <c r="H60" s="3">
-        <v>2541400</v>
+        <v>2191200</v>
       </c>
       <c r="I60" s="3">
-        <v>2457900</v>
+        <v>2607500</v>
       </c>
       <c r="J60" s="3">
+        <v>2521900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2693100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1846800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1750500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1715300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1968000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2413600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2854100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2669200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2842200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2180600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2347200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2721000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1041400</v>
+        <v>1170000</v>
       </c>
       <c r="E61" s="3">
-        <v>1909700</v>
+        <v>1068600</v>
       </c>
       <c r="F61" s="3">
-        <v>2057800</v>
+        <v>1959400</v>
       </c>
       <c r="G61" s="3">
-        <v>1849400</v>
+        <v>2111400</v>
       </c>
       <c r="H61" s="3">
-        <v>1864500</v>
+        <v>1897600</v>
       </c>
       <c r="I61" s="3">
-        <v>2114000</v>
+        <v>1913100</v>
       </c>
       <c r="J61" s="3">
+        <v>2169100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1775100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2473700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2353300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2249800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2253800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1749900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1728100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1696900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1660600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2032000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1980400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1294100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1177900</v>
+        <v>1198800</v>
       </c>
       <c r="E62" s="3">
-        <v>1172200</v>
+        <v>1208500</v>
       </c>
       <c r="F62" s="3">
-        <v>1200700</v>
+        <v>1202700</v>
       </c>
       <c r="G62" s="3">
-        <v>1244800</v>
+        <v>1232000</v>
       </c>
       <c r="H62" s="3">
-        <v>1290000</v>
+        <v>1277200</v>
       </c>
       <c r="I62" s="3">
-        <v>1334700</v>
+        <v>1323600</v>
       </c>
       <c r="J62" s="3">
+        <v>1369400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1397900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1444000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1441300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1374600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1435900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1469000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1253700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1135100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1091800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1092900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1148100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1070700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>4957900</v>
+        <v>5188400</v>
       </c>
       <c r="E66" s="3">
-        <v>5154500</v>
+        <v>5087000</v>
       </c>
       <c r="F66" s="3">
-        <v>5536700</v>
+        <v>5288700</v>
       </c>
       <c r="G66" s="3">
-        <v>5232200</v>
+        <v>5680800</v>
       </c>
       <c r="H66" s="3">
-        <v>5710200</v>
+        <v>5368400</v>
       </c>
       <c r="I66" s="3">
-        <v>5920700</v>
+        <v>5858900</v>
       </c>
       <c r="J66" s="3">
+        <v>6074900</v>
+      </c>
+      <c r="K66" s="3">
         <v>5881100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5780400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5561400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5356200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5678100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5639300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5866800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5535000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5624800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5336500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5546200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5138300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2802200</v>
+        <v>3239700</v>
       </c>
       <c r="E72" s="3">
-        <v>2444900</v>
+        <v>2875100</v>
       </c>
       <c r="F72" s="3">
-        <v>2128700</v>
+        <v>2508500</v>
       </c>
       <c r="G72" s="3">
-        <v>2329400</v>
+        <v>2184100</v>
       </c>
       <c r="H72" s="3">
-        <v>2137300</v>
+        <v>2390000</v>
       </c>
       <c r="I72" s="3">
-        <v>2019700</v>
+        <v>2192900</v>
       </c>
       <c r="J72" s="3">
+        <v>2072300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1935700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2153400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2160500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2158800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2129100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2307700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1557800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1529000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1457800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1603500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1554000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1561100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>8236300</v>
+        <v>8949800</v>
       </c>
       <c r="E76" s="3">
-        <v>7715600</v>
+        <v>8450800</v>
       </c>
       <c r="F76" s="3">
-        <v>7309000</v>
+        <v>7916500</v>
       </c>
       <c r="G76" s="3">
-        <v>7365800</v>
+        <v>7499300</v>
       </c>
       <c r="H76" s="3">
-        <v>7227800</v>
+        <v>7557500</v>
       </c>
       <c r="I76" s="3">
-        <v>7152100</v>
+        <v>7416000</v>
       </c>
       <c r="J76" s="3">
+        <v>7338400</v>
+      </c>
+      <c r="K76" s="3">
         <v>7048200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7344400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7228900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7072400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6990300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7184400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6905900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6916000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6879500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7035100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7062700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7089100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>391300</v>
+        <v>373900</v>
       </c>
       <c r="E81" s="3">
-        <v>318300</v>
+        <v>401500</v>
       </c>
       <c r="F81" s="3">
-        <v>233500</v>
+        <v>326600</v>
       </c>
       <c r="G81" s="3">
-        <v>77100</v>
+        <v>239600</v>
       </c>
       <c r="H81" s="3">
-        <v>134100</v>
+        <v>79100</v>
       </c>
       <c r="I81" s="3">
-        <v>102400</v>
+        <v>137600</v>
       </c>
       <c r="J81" s="3">
+        <v>105000</v>
+      </c>
+      <c r="K81" s="3">
         <v>60800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>42100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-59900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>57400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>121700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>113100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>57400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>112500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>68000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>74500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>83100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>419200</v>
+        <v>424300</v>
       </c>
       <c r="E83" s="3">
-        <v>425300</v>
+        <v>430100</v>
       </c>
       <c r="F83" s="3">
-        <v>428100</v>
+        <v>436400</v>
       </c>
       <c r="G83" s="3">
-        <v>436800</v>
+        <v>439200</v>
       </c>
       <c r="H83" s="3">
-        <v>446500</v>
+        <v>448100</v>
       </c>
       <c r="I83" s="3">
-        <v>421100</v>
+        <v>458100</v>
       </c>
       <c r="J83" s="3">
+        <v>432100</v>
+      </c>
+      <c r="K83" s="3">
         <v>425900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>434300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>435500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>432700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>444800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>442000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>428700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>437100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>424300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>433500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>436200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>420700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>561700</v>
+        <v>655500</v>
       </c>
       <c r="E89" s="3">
-        <v>647900</v>
+        <v>576400</v>
       </c>
       <c r="F89" s="3">
-        <v>573300</v>
+        <v>664800</v>
       </c>
       <c r="G89" s="3">
-        <v>514900</v>
+        <v>588200</v>
       </c>
       <c r="H89" s="3">
-        <v>1311800</v>
+        <v>528300</v>
       </c>
       <c r="I89" s="3">
-        <v>-107600</v>
+        <v>1345900</v>
       </c>
       <c r="J89" s="3">
+        <v>-110400</v>
+      </c>
+      <c r="K89" s="3">
         <v>428800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>287100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>425300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>526000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>474400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>291900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>418100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>371000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>480200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>434100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>507000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-410200</v>
+        <v>-263600</v>
       </c>
       <c r="E91" s="3">
-        <v>-234400</v>
+        <v>-420900</v>
       </c>
       <c r="F91" s="3">
-        <v>-149200</v>
+        <v>-240500</v>
       </c>
       <c r="G91" s="3">
-        <v>-126900</v>
+        <v>-153100</v>
       </c>
       <c r="H91" s="3">
-        <v>-122400</v>
+        <v>-130200</v>
       </c>
       <c r="I91" s="3">
-        <v>-124100</v>
+        <v>-125600</v>
       </c>
       <c r="J91" s="3">
+        <v>-127300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-136400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-195100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-153000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-187200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-129700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-190100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-355300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-236200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-270100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-588000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-724600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-666200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-609400</v>
+        <v>-255300</v>
       </c>
       <c r="E94" s="3">
-        <v>-198700</v>
+        <v>-625300</v>
       </c>
       <c r="F94" s="3">
-        <v>-275300</v>
+        <v>-203900</v>
       </c>
       <c r="G94" s="3">
-        <v>-318400</v>
+        <v>-282500</v>
       </c>
       <c r="H94" s="3">
-        <v>-623600</v>
+        <v>-326700</v>
       </c>
       <c r="I94" s="3">
-        <v>-138700</v>
+        <v>-639900</v>
       </c>
       <c r="J94" s="3">
+        <v>-142300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-146400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-199400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-161800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-182600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-202100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>22200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-195500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-161500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-262700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-531300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-597400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-502200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5334,11 +5568,11 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>100</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -5358,11 +5592,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -5373,10 +5607,13 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-225200</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-110200</v>
+        <v>92500</v>
       </c>
       <c r="E100" s="3">
-        <v>-477200</v>
+        <v>-113000</v>
       </c>
       <c r="F100" s="3">
-        <v>-103000</v>
+        <v>-489600</v>
       </c>
       <c r="G100" s="3">
-        <v>-204400</v>
+        <v>-105700</v>
       </c>
       <c r="H100" s="3">
-        <v>-339600</v>
+        <v>-209700</v>
       </c>
       <c r="I100" s="3">
-        <v>144600</v>
+        <v>-348400</v>
       </c>
       <c r="J100" s="3">
+        <v>148300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-226000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>76500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-108500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-359000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-456100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>169000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-149200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>22900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>255800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>137600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-9600</v>
+        <v>-18000</v>
       </c>
       <c r="E101" s="3">
-        <v>-8100</v>
+        <v>-9800</v>
       </c>
       <c r="F101" s="3">
-        <v>-30500</v>
+        <v>-8300</v>
       </c>
       <c r="G101" s="3">
-        <v>-3400</v>
+        <v>-31300</v>
       </c>
       <c r="H101" s="3">
-        <v>-43300</v>
+        <v>-3500</v>
       </c>
       <c r="I101" s="3">
-        <v>-24200</v>
+        <v>-44400</v>
       </c>
       <c r="J101" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>12500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-23900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>21900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-8700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-53200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>28300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-49900</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-167400</v>
+        <v>474700</v>
       </c>
       <c r="E102" s="3">
-        <v>-36100</v>
+        <v>-171800</v>
       </c>
       <c r="F102" s="3">
-        <v>164400</v>
+        <v>-37000</v>
       </c>
       <c r="G102" s="3">
-        <v>-11400</v>
+        <v>168700</v>
       </c>
       <c r="H102" s="3">
-        <v>305300</v>
+        <v>-11700</v>
       </c>
       <c r="I102" s="3">
-        <v>-125900</v>
+        <v>313200</v>
       </c>
       <c r="J102" s="3">
+        <v>-129200</v>
+      </c>
+      <c r="K102" s="3">
         <v>56700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>178100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>75100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>211000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-64900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-150700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>380400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>58500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>237300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>105400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>75400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>190500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>UMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1688900</v>
+        <v>1816400</v>
       </c>
       <c r="E8" s="3">
-        <v>1624300</v>
+        <v>1680400</v>
       </c>
       <c r="F8" s="3">
-        <v>1609100</v>
+        <v>1616200</v>
       </c>
       <c r="G8" s="3">
-        <v>1591700</v>
+        <v>1601000</v>
       </c>
       <c r="H8" s="3">
-        <v>1515700</v>
+        <v>1583700</v>
       </c>
       <c r="I8" s="3">
-        <v>1500700</v>
+        <v>1508100</v>
       </c>
       <c r="J8" s="3">
+        <v>1493200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1353300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1259300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1143000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1245900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1313500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1292200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1247200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1187200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1221800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1216600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1220200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1249200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1244500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1240900</v>
+        <v>1248800</v>
       </c>
       <c r="E9" s="3">
-        <v>1235300</v>
+        <v>1234600</v>
       </c>
       <c r="F9" s="3">
-        <v>1258700</v>
+        <v>1229100</v>
       </c>
       <c r="G9" s="3">
-        <v>1223900</v>
+        <v>1252400</v>
       </c>
       <c r="H9" s="3">
-        <v>1224500</v>
+        <v>1217700</v>
       </c>
       <c r="I9" s="3">
-        <v>1250800</v>
+        <v>1218300</v>
       </c>
       <c r="J9" s="3">
+        <v>1244500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1122600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1061800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1063700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1084500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1082700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1070200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1092800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>983100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1008100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>998200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>978000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>963500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>448000</v>
+        <v>567600</v>
       </c>
       <c r="E10" s="3">
-        <v>389000</v>
+        <v>445800</v>
       </c>
       <c r="F10" s="3">
-        <v>350300</v>
+        <v>387100</v>
       </c>
       <c r="G10" s="3">
-        <v>367800</v>
+        <v>348600</v>
       </c>
       <c r="H10" s="3">
-        <v>291300</v>
+        <v>366000</v>
       </c>
       <c r="I10" s="3">
-        <v>249900</v>
+        <v>289800</v>
       </c>
       <c r="J10" s="3">
+        <v>248600</v>
+      </c>
+      <c r="K10" s="3">
         <v>230700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>197500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>79400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>161400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>230800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>222000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>154400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>204100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>213700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>218400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>242200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>285600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>270700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>109300</v>
+        <v>113000</v>
       </c>
       <c r="E12" s="3">
-        <v>114500</v>
+        <v>108800</v>
       </c>
       <c r="F12" s="3">
-        <v>118800</v>
+        <v>114000</v>
       </c>
       <c r="G12" s="3">
-        <v>114800</v>
+        <v>118300</v>
       </c>
       <c r="H12" s="3">
-        <v>114200</v>
+        <v>114300</v>
       </c>
       <c r="I12" s="3">
-        <v>123800</v>
+        <v>113600</v>
       </c>
       <c r="J12" s="3">
+        <v>123200</v>
+      </c>
+      <c r="K12" s="3">
         <v>100900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>97400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>98500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>131400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>111000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>100700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>97300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>100100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>108400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>105200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>130100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>124700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,19 +1104,22 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>91</v>
@@ -1107,24 +1127,24 @@
       <c r="H14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1132,25 +1152,28 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>8200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>34900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1415600</v>
+        <v>1412700</v>
       </c>
       <c r="E17" s="3">
-        <v>1423000</v>
+        <v>1408500</v>
       </c>
       <c r="F17" s="3">
-        <v>1353300</v>
+        <v>1415800</v>
       </c>
       <c r="G17" s="3">
-        <v>1382100</v>
+        <v>1346500</v>
       </c>
       <c r="H17" s="3">
-        <v>1393300</v>
+        <v>1375100</v>
       </c>
       <c r="I17" s="3">
-        <v>1423100</v>
+        <v>1386300</v>
       </c>
       <c r="J17" s="3">
+        <v>1416000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1263300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1197700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1199000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1268200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1232300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1186400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1221600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1133800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1178700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1165900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1184800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1209800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1198300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>273300</v>
+        <v>403600</v>
       </c>
       <c r="E18" s="3">
-        <v>201300</v>
+        <v>271900</v>
       </c>
       <c r="F18" s="3">
-        <v>255800</v>
+        <v>200300</v>
       </c>
       <c r="G18" s="3">
-        <v>209600</v>
+        <v>254500</v>
       </c>
       <c r="H18" s="3">
-        <v>122400</v>
+        <v>208600</v>
       </c>
       <c r="I18" s="3">
-        <v>77600</v>
+        <v>121800</v>
       </c>
       <c r="J18" s="3">
+        <v>77200</v>
+      </c>
+      <c r="K18" s="3">
         <v>90000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>61500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-56000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-22300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>81200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>105800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>25600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>53400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>43100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>50700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>35400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>39300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>134500</v>
+        <v>83600</v>
       </c>
       <c r="E20" s="3">
-        <v>216000</v>
+        <v>133800</v>
       </c>
       <c r="F20" s="3">
-        <v>90800</v>
+        <v>214900</v>
       </c>
       <c r="G20" s="3">
-        <v>48000</v>
+        <v>90400</v>
       </c>
       <c r="H20" s="3">
-        <v>-70800</v>
+        <v>47800</v>
       </c>
       <c r="I20" s="3">
-        <v>54400</v>
+        <v>-70400</v>
       </c>
       <c r="J20" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K20" s="3">
         <v>7800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>68700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-44200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-30300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>58400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>25000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>70200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>36700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>16600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>11300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>832100</v>
+        <v>903700</v>
       </c>
       <c r="E21" s="3">
-        <v>847400</v>
+        <v>828000</v>
       </c>
       <c r="F21" s="3">
-        <v>783000</v>
+        <v>843200</v>
       </c>
       <c r="G21" s="3">
-        <v>696900</v>
+        <v>779100</v>
       </c>
       <c r="H21" s="3">
-        <v>499800</v>
+        <v>693400</v>
       </c>
       <c r="I21" s="3">
-        <v>590100</v>
+        <v>497300</v>
       </c>
       <c r="J21" s="3">
+        <v>587100</v>
+      </c>
+      <c r="K21" s="3">
         <v>529800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>492400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>446900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>369000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>483500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>537800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>526000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>507000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>550400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>511800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>485400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>486800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>496600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E22" s="3">
         <v>13900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14500</v>
       </c>
-      <c r="F22" s="3">
-        <v>16500</v>
-      </c>
       <c r="G22" s="3">
-        <v>18700</v>
+        <v>16400</v>
       </c>
       <c r="H22" s="3">
-        <v>22200</v>
+        <v>18600</v>
       </c>
       <c r="I22" s="3">
-        <v>25700</v>
+        <v>22100</v>
       </c>
       <c r="J22" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K22" s="3">
         <v>26800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>24300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>22300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>21700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>20400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>18800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>17200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>15800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>393900</v>
+        <v>470800</v>
       </c>
       <c r="E23" s="3">
-        <v>402800</v>
+        <v>391900</v>
       </c>
       <c r="F23" s="3">
-        <v>330100</v>
+        <v>400800</v>
       </c>
       <c r="G23" s="3">
-        <v>239000</v>
+        <v>328500</v>
       </c>
       <c r="H23" s="3">
-        <v>29500</v>
+        <v>237800</v>
       </c>
       <c r="I23" s="3">
-        <v>106300</v>
+        <v>29300</v>
       </c>
       <c r="J23" s="3">
+        <v>105800</v>
+      </c>
+      <c r="K23" s="3">
         <v>70900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>40000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-90700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>27600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>69400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>61800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>56700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>92900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>68600</v>
-      </c>
-      <c r="T23" s="3">
-        <v>34800</v>
       </c>
       <c r="U23" s="3">
         <v>34800</v>
       </c>
       <c r="V23" s="3">
+        <v>34800</v>
+      </c>
+      <c r="W23" s="3">
         <v>63600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>39200</v>
+        <v>47400</v>
       </c>
       <c r="E24" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F24" s="3">
         <v>12300</v>
       </c>
-      <c r="F24" s="3">
-        <v>7100</v>
-      </c>
       <c r="G24" s="3">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="H24" s="3">
+        <v>21900</v>
+      </c>
+      <c r="I24" s="3">
         <v>-14600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-6800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-15500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-11000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-14000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>20100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>354600</v>
+        <v>423400</v>
       </c>
       <c r="E26" s="3">
-        <v>390500</v>
+        <v>352800</v>
       </c>
       <c r="F26" s="3">
-        <v>323100</v>
+        <v>388500</v>
       </c>
       <c r="G26" s="3">
-        <v>217000</v>
+        <v>321500</v>
       </c>
       <c r="H26" s="3">
-        <v>44100</v>
+        <v>215900</v>
       </c>
       <c r="I26" s="3">
-        <v>113200</v>
+        <v>43900</v>
       </c>
       <c r="J26" s="3">
+        <v>112600</v>
+      </c>
+      <c r="K26" s="3">
         <v>69500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>32900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-105200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>80400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>38700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>79900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>47900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>48800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>14600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>373900</v>
+        <v>426100</v>
       </c>
       <c r="E27" s="3">
-        <v>401500</v>
+        <v>372100</v>
       </c>
       <c r="F27" s="3">
-        <v>326600</v>
+        <v>399500</v>
       </c>
       <c r="G27" s="3">
-        <v>239600</v>
+        <v>324900</v>
       </c>
       <c r="H27" s="3">
-        <v>79100</v>
+        <v>238400</v>
       </c>
       <c r="I27" s="3">
-        <v>137600</v>
+        <v>78700</v>
       </c>
       <c r="J27" s="3">
+        <v>136900</v>
+      </c>
+      <c r="K27" s="3">
         <v>105000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>60800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>42100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-59900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>57400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>121700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>113100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>57400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>112500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>68000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>74500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>83100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-134500</v>
+        <v>-83600</v>
       </c>
       <c r="E32" s="3">
-        <v>-216000</v>
+        <v>-133800</v>
       </c>
       <c r="F32" s="3">
-        <v>-90800</v>
+        <v>-214900</v>
       </c>
       <c r="G32" s="3">
-        <v>-48000</v>
+        <v>-90400</v>
       </c>
       <c r="H32" s="3">
-        <v>70800</v>
+        <v>-47800</v>
       </c>
       <c r="I32" s="3">
-        <v>-54400</v>
+        <v>70400</v>
       </c>
       <c r="J32" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-68700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>44200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>30300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-58400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-25000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-70200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-36700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-16600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-11300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>373900</v>
+        <v>426100</v>
       </c>
       <c r="E33" s="3">
-        <v>401500</v>
+        <v>372100</v>
       </c>
       <c r="F33" s="3">
-        <v>326600</v>
+        <v>399500</v>
       </c>
       <c r="G33" s="3">
-        <v>239600</v>
+        <v>324900</v>
       </c>
       <c r="H33" s="3">
-        <v>79100</v>
+        <v>238400</v>
       </c>
       <c r="I33" s="3">
-        <v>137600</v>
+        <v>78700</v>
       </c>
       <c r="J33" s="3">
+        <v>136900</v>
+      </c>
+      <c r="K33" s="3">
         <v>105000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>60800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>42100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-59900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>57400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>121700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>113100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>57400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>112500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>68000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>74500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>83100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>373900</v>
+        <v>426100</v>
       </c>
       <c r="E35" s="3">
-        <v>401500</v>
+        <v>372100</v>
       </c>
       <c r="F35" s="3">
-        <v>326600</v>
+        <v>399500</v>
       </c>
       <c r="G35" s="3">
-        <v>239600</v>
+        <v>324900</v>
       </c>
       <c r="H35" s="3">
-        <v>79100</v>
+        <v>238400</v>
       </c>
       <c r="I35" s="3">
-        <v>137600</v>
+        <v>78700</v>
       </c>
       <c r="J35" s="3">
+        <v>136900</v>
+      </c>
+      <c r="K35" s="3">
         <v>105000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>60800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>42100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-59900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>57400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>121700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>113100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>57400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>112500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>68000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>74500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>83100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2487,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3847200</v>
+        <v>4424300</v>
       </c>
       <c r="E41" s="3">
-        <v>3372600</v>
+        <v>3827900</v>
       </c>
       <c r="F41" s="3">
-        <v>3544400</v>
+        <v>3355600</v>
       </c>
       <c r="G41" s="3">
-        <v>3581400</v>
+        <v>3526600</v>
       </c>
       <c r="H41" s="3">
-        <v>3412700</v>
+        <v>3563400</v>
       </c>
       <c r="I41" s="3">
-        <v>3424400</v>
+        <v>3395500</v>
       </c>
       <c r="J41" s="3">
+        <v>3407200</v>
+      </c>
+      <c r="K41" s="3">
         <v>3111000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3157900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3112900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2934900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2718700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2500900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2565800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2647100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2266700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2208200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1983100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1877700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1802200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>37000</v>
+        <v>36400</v>
       </c>
       <c r="E42" s="3">
-        <v>43600</v>
+        <v>36800</v>
       </c>
       <c r="F42" s="3">
-        <v>32900</v>
+        <v>43400</v>
       </c>
       <c r="G42" s="3">
-        <v>36400</v>
+        <v>32700</v>
       </c>
       <c r="H42" s="3">
-        <v>27000</v>
+        <v>36200</v>
       </c>
       <c r="I42" s="3">
+        <v>26800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K42" s="3">
+        <v>22700</v>
+      </c>
+      <c r="L42" s="3">
+        <v>21400</v>
+      </c>
+      <c r="M42" s="3">
+        <v>19400</v>
+      </c>
+      <c r="N42" s="3">
+        <v>18500</v>
+      </c>
+      <c r="O42" s="3">
+        <v>14100</v>
+      </c>
+      <c r="P42" s="3">
+        <v>15600</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>17400</v>
+      </c>
+      <c r="R42" s="3">
+        <v>23200</v>
+      </c>
+      <c r="S42" s="3">
+        <v>27400</v>
+      </c>
+      <c r="T42" s="3">
         <v>25900</v>
       </c>
-      <c r="J42" s="3">
-        <v>22700</v>
-      </c>
-      <c r="K42" s="3">
-        <v>21400</v>
-      </c>
-      <c r="L42" s="3">
-        <v>19400</v>
-      </c>
-      <c r="M42" s="3">
-        <v>18500</v>
-      </c>
-      <c r="N42" s="3">
-        <v>14100</v>
-      </c>
-      <c r="O42" s="3">
-        <v>15600</v>
-      </c>
-      <c r="P42" s="3">
-        <v>17400</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>23200</v>
-      </c>
-      <c r="R42" s="3">
-        <v>27400</v>
-      </c>
-      <c r="S42" s="3">
-        <v>25900</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>28300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>23300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1112100</v>
+        <v>1128300</v>
       </c>
       <c r="E43" s="3">
-        <v>1048500</v>
+        <v>1106600</v>
       </c>
       <c r="F43" s="3">
-        <v>1006900</v>
+        <v>1043200</v>
       </c>
       <c r="G43" s="3">
-        <v>1018600</v>
+        <v>1001900</v>
       </c>
       <c r="H43" s="3">
-        <v>1079400</v>
+        <v>1013500</v>
       </c>
       <c r="I43" s="3">
-        <v>954700</v>
+        <v>1073900</v>
       </c>
       <c r="J43" s="3">
+        <v>949900</v>
+      </c>
+      <c r="K43" s="3">
         <v>871600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>898200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>832500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>866400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>908900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>959500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>886600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>734300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>785600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>748200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>705300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>782700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>761800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>797000</v>
+        <v>800600</v>
       </c>
       <c r="E44" s="3">
-        <v>808700</v>
+        <v>793000</v>
       </c>
       <c r="F44" s="3">
-        <v>819900</v>
+        <v>804700</v>
       </c>
       <c r="G44" s="3">
-        <v>837000</v>
+        <v>815800</v>
       </c>
       <c r="H44" s="3">
-        <v>793400</v>
+        <v>832800</v>
       </c>
       <c r="I44" s="3">
-        <v>778700</v>
+        <v>789400</v>
       </c>
       <c r="J44" s="3">
+        <v>774800</v>
+      </c>
+      <c r="K44" s="3">
         <v>716800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>686000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>662100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>638600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>586600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>587300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>570000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>591700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>554300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>527800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>530300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>554300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>559800</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>628500</v>
+        <v>1025800</v>
       </c>
       <c r="E45" s="3">
-        <v>618600</v>
+        <v>625400</v>
       </c>
       <c r="F45" s="3">
-        <v>458200</v>
+        <v>615500</v>
       </c>
       <c r="G45" s="3">
-        <v>549500</v>
+        <v>455900</v>
       </c>
       <c r="H45" s="3">
-        <v>410700</v>
+        <v>546700</v>
       </c>
       <c r="I45" s="3">
-        <v>330000</v>
+        <v>408600</v>
       </c>
       <c r="J45" s="3">
+        <v>328400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1140600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>496600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>522700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>494800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>445900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>496100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>497500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>513800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>407900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>381500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>390200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>364400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>340000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>6421900</v>
+        <v>7415500</v>
       </c>
       <c r="E46" s="3">
-        <v>5892000</v>
+        <v>6389700</v>
       </c>
       <c r="F46" s="3">
-        <v>5862300</v>
+        <v>5862400</v>
       </c>
       <c r="G46" s="3">
-        <v>6022800</v>
+        <v>5832900</v>
       </c>
       <c r="H46" s="3">
-        <v>5723100</v>
+        <v>5992600</v>
       </c>
       <c r="I46" s="3">
-        <v>5513700</v>
+        <v>5694300</v>
       </c>
       <c r="J46" s="3">
+        <v>5486100</v>
+      </c>
+      <c r="K46" s="3">
         <v>5862800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5260200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5149600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4953100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4674100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4559400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4537400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4510200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4041800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3891700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3637200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3602400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3488300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2325000</v>
+        <v>2374700</v>
       </c>
       <c r="E47" s="3">
-        <v>2028900</v>
+        <v>2313300</v>
       </c>
       <c r="F47" s="3">
-        <v>1683100</v>
+        <v>2018700</v>
       </c>
       <c r="G47" s="3">
-        <v>1503800</v>
+        <v>1674600</v>
       </c>
       <c r="H47" s="3">
-        <v>1285800</v>
+        <v>1496200</v>
       </c>
       <c r="I47" s="3">
-        <v>1482600</v>
+        <v>1279400</v>
       </c>
       <c r="J47" s="3">
+        <v>1475200</v>
+      </c>
+      <c r="K47" s="3">
         <v>1446500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1322600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1305600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1175400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1209300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1241200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1199400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1102700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1125500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1163800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1138100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1133700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1232600</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>4878900</v>
+        <v>4786600</v>
       </c>
       <c r="E48" s="3">
-        <v>5060200</v>
+        <v>4854400</v>
       </c>
       <c r="F48" s="3">
-        <v>5069800</v>
+        <v>5034800</v>
       </c>
       <c r="G48" s="3">
-        <v>5064000</v>
+        <v>5044400</v>
       </c>
       <c r="H48" s="3">
-        <v>5365000</v>
+        <v>5038600</v>
       </c>
       <c r="I48" s="3">
-        <v>5697600</v>
+        <v>5338000</v>
       </c>
       <c r="J48" s="3">
+        <v>5669000</v>
+      </c>
+      <c r="K48" s="3">
         <v>5641600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5850300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6191600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6086700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5969600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6308800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6577800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6677400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6764100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6921700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7101400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7375100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7060600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>167000</v>
+        <v>166200</v>
       </c>
       <c r="E49" s="3">
-        <v>174900</v>
+        <v>166200</v>
       </c>
       <c r="F49" s="3">
-        <v>177600</v>
+        <v>174000</v>
       </c>
       <c r="G49" s="3">
-        <v>173600</v>
+        <v>176700</v>
       </c>
       <c r="H49" s="3">
-        <v>171200</v>
+        <v>172700</v>
       </c>
       <c r="I49" s="3">
-        <v>186400</v>
+        <v>170400</v>
       </c>
       <c r="J49" s="3">
+        <v>185500</v>
+      </c>
+      <c r="K49" s="3">
         <v>130600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>145100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>117600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>105000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>106900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>119100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>122700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>122800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>125500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>123900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>120300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>133300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>345400</v>
+        <v>302500</v>
       </c>
       <c r="E52" s="3">
-        <v>381800</v>
+        <v>343700</v>
       </c>
       <c r="F52" s="3">
-        <v>412500</v>
+        <v>379800</v>
       </c>
       <c r="G52" s="3">
-        <v>415900</v>
+        <v>410400</v>
       </c>
       <c r="H52" s="3">
-        <v>380900</v>
+        <v>413800</v>
       </c>
       <c r="I52" s="3">
-        <v>394600</v>
+        <v>379000</v>
       </c>
       <c r="J52" s="3">
+        <v>392600</v>
+      </c>
+      <c r="K52" s="3">
         <v>331700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>351000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>360400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>470300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>468600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>439900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>386500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>359800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>394100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>403200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>374500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>364200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>307400</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>14138200</v>
+        <v>15045400</v>
       </c>
       <c r="E54" s="3">
-        <v>13537700</v>
+        <v>14067300</v>
       </c>
       <c r="F54" s="3">
-        <v>13205200</v>
+        <v>13469800</v>
       </c>
       <c r="G54" s="3">
-        <v>13180100</v>
+        <v>13138900</v>
       </c>
       <c r="H54" s="3">
-        <v>12926000</v>
+        <v>13114000</v>
       </c>
       <c r="I54" s="3">
-        <v>13274900</v>
+        <v>12861100</v>
       </c>
       <c r="J54" s="3">
+        <v>13208300</v>
+      </c>
+      <c r="K54" s="3">
         <v>13413200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12929200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13124700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12790300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12428500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12668400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12823700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12772800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12451000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12504300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12371600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12608800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12227400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>296200</v>
+        <v>300500</v>
       </c>
       <c r="E57" s="3">
-        <v>281900</v>
+        <v>294700</v>
       </c>
       <c r="F57" s="3">
-        <v>276100</v>
+        <v>280500</v>
       </c>
       <c r="G57" s="3">
-        <v>306800</v>
+        <v>274700</v>
       </c>
       <c r="H57" s="3">
-        <v>320000</v>
+        <v>305300</v>
       </c>
       <c r="I57" s="3">
-        <v>318300</v>
+        <v>318400</v>
       </c>
       <c r="J57" s="3">
+        <v>316700</v>
+      </c>
+      <c r="K57" s="3">
         <v>237700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>241600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>237800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>238600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>229600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>246400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>232700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>211800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>214200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>215400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>210000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>223500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>219900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1356800</v>
+        <v>720900</v>
       </c>
       <c r="E58" s="3">
-        <v>1383900</v>
+        <v>1350000</v>
       </c>
       <c r="F58" s="3">
-        <v>607800</v>
+        <v>1377000</v>
       </c>
       <c r="G58" s="3">
-        <v>641700</v>
+        <v>604800</v>
       </c>
       <c r="H58" s="3">
-        <v>929700</v>
+        <v>638400</v>
       </c>
       <c r="I58" s="3">
-        <v>1340500</v>
+        <v>925100</v>
       </c>
       <c r="J58" s="3">
+        <v>1333700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1454100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1393900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>834900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>639300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>677900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>573100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1330300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1711600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1579800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1561900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1185000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1012600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1534200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1163000</v>
+        <v>2011700</v>
       </c>
       <c r="E59" s="3">
-        <v>1140000</v>
+        <v>1157200</v>
       </c>
       <c r="F59" s="3">
-        <v>1237300</v>
+        <v>1134200</v>
       </c>
       <c r="G59" s="3">
-        <v>1386300</v>
+        <v>1231000</v>
       </c>
       <c r="H59" s="3">
-        <v>941500</v>
+        <v>1379300</v>
       </c>
       <c r="I59" s="3">
-        <v>948700</v>
+        <v>936800</v>
       </c>
       <c r="J59" s="3">
+        <v>944000</v>
+      </c>
+      <c r="K59" s="3">
         <v>830100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1057600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>774100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>872500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>807700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1148500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>850600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>930700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>875200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1064900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>785700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1111100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>967000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2816100</v>
+        <v>3033000</v>
       </c>
       <c r="E60" s="3">
-        <v>2805800</v>
+        <v>2802000</v>
       </c>
       <c r="F60" s="3">
-        <v>2121100</v>
+        <v>2791700</v>
       </c>
       <c r="G60" s="3">
-        <v>2334800</v>
+        <v>2110500</v>
       </c>
       <c r="H60" s="3">
-        <v>2191200</v>
+        <v>2323100</v>
       </c>
       <c r="I60" s="3">
-        <v>2607500</v>
+        <v>2180200</v>
       </c>
       <c r="J60" s="3">
+        <v>2594400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2521900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2693100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1846800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1750500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1715300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1968000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2413600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2854100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2669200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2842200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2180600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2347200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2721000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1170000</v>
+        <v>1988700</v>
       </c>
       <c r="E61" s="3">
-        <v>1068600</v>
+        <v>1164100</v>
       </c>
       <c r="F61" s="3">
-        <v>1959400</v>
+        <v>1063200</v>
       </c>
       <c r="G61" s="3">
-        <v>2111400</v>
+        <v>1949600</v>
       </c>
       <c r="H61" s="3">
-        <v>1897600</v>
+        <v>2100800</v>
       </c>
       <c r="I61" s="3">
-        <v>1913100</v>
+        <v>1888100</v>
       </c>
       <c r="J61" s="3">
+        <v>1903500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2169100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1775100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2473700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2353300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2249800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2253800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1749900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1728100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1696900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1660600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2032000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1980400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1294100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1198800</v>
+        <v>1453700</v>
       </c>
       <c r="E62" s="3">
-        <v>1208500</v>
+        <v>1192800</v>
       </c>
       <c r="F62" s="3">
-        <v>1202700</v>
+        <v>1202500</v>
       </c>
       <c r="G62" s="3">
-        <v>1232000</v>
+        <v>1196600</v>
       </c>
       <c r="H62" s="3">
-        <v>1277200</v>
+        <v>1225800</v>
       </c>
       <c r="I62" s="3">
-        <v>1323600</v>
+        <v>1270800</v>
       </c>
       <c r="J62" s="3">
+        <v>1316900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1369400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1397900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1444000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1441300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1374600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1435900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1469000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1253700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1135100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1091800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1092900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1148100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1070700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>5188400</v>
+        <v>6479200</v>
       </c>
       <c r="E66" s="3">
-        <v>5087000</v>
+        <v>5162400</v>
       </c>
       <c r="F66" s="3">
-        <v>5288700</v>
+        <v>5061400</v>
       </c>
       <c r="G66" s="3">
-        <v>5680800</v>
+        <v>5262200</v>
       </c>
       <c r="H66" s="3">
-        <v>5368400</v>
+        <v>5652300</v>
       </c>
       <c r="I66" s="3">
-        <v>5858900</v>
+        <v>5341500</v>
       </c>
       <c r="J66" s="3">
+        <v>5829500</v>
+      </c>
+      <c r="K66" s="3">
         <v>6074900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5881100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5780400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5561400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5356200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5678100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5639300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5866800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5535000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5624800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5336500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5546200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5138300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>3239700</v>
+        <v>2938700</v>
       </c>
       <c r="E72" s="3">
-        <v>2875100</v>
+        <v>3223500</v>
       </c>
       <c r="F72" s="3">
-        <v>2508500</v>
+        <v>2860700</v>
       </c>
       <c r="G72" s="3">
-        <v>2184100</v>
+        <v>2495900</v>
       </c>
       <c r="H72" s="3">
-        <v>2390000</v>
+        <v>2173100</v>
       </c>
       <c r="I72" s="3">
-        <v>2192900</v>
+        <v>2378000</v>
       </c>
       <c r="J72" s="3">
+        <v>2181900</v>
+      </c>
+      <c r="K72" s="3">
         <v>2072300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1935700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2153400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2160500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2158800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2129100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2307700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1557800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1529000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1457800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1603500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1554000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1561100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>8949800</v>
+        <v>8566300</v>
       </c>
       <c r="E76" s="3">
-        <v>8450800</v>
+        <v>8904900</v>
       </c>
       <c r="F76" s="3">
-        <v>7916500</v>
+        <v>8408300</v>
       </c>
       <c r="G76" s="3">
-        <v>7499300</v>
+        <v>7876800</v>
       </c>
       <c r="H76" s="3">
-        <v>7557500</v>
+        <v>7461600</v>
       </c>
       <c r="I76" s="3">
-        <v>7416000</v>
+        <v>7519600</v>
       </c>
       <c r="J76" s="3">
+        <v>7378800</v>
+      </c>
+      <c r="K76" s="3">
         <v>7338400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7048200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7344400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7228900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7072400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6990300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7184400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6905900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6916000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6879500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7035100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7062700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7089100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>373900</v>
+        <v>426100</v>
       </c>
       <c r="E81" s="3">
-        <v>401500</v>
+        <v>372100</v>
       </c>
       <c r="F81" s="3">
-        <v>326600</v>
+        <v>399500</v>
       </c>
       <c r="G81" s="3">
-        <v>239600</v>
+        <v>324900</v>
       </c>
       <c r="H81" s="3">
-        <v>79100</v>
+        <v>238400</v>
       </c>
       <c r="I81" s="3">
-        <v>137600</v>
+        <v>78700</v>
       </c>
       <c r="J81" s="3">
+        <v>136900</v>
+      </c>
+      <c r="K81" s="3">
         <v>105000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>60800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>42100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-59900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>57400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>121700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>113100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>57400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>112500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>68000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>74500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>83100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>416400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>422200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>427900</v>
+      </c>
+      <c r="G83" s="3">
+        <v>434200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>437000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>445900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>455800</v>
+      </c>
+      <c r="K83" s="3">
+        <v>432100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>425900</v>
+      </c>
+      <c r="M83" s="3">
+        <v>434300</v>
+      </c>
+      <c r="N83" s="3">
+        <v>435500</v>
+      </c>
+      <c r="O83" s="3">
+        <v>432700</v>
+      </c>
+      <c r="P83" s="3">
+        <v>444800</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>442000</v>
+      </c>
+      <c r="R83" s="3">
+        <v>428700</v>
+      </c>
+      <c r="S83" s="3">
+        <v>437100</v>
+      </c>
+      <c r="T83" s="3">
         <v>424300</v>
       </c>
-      <c r="E83" s="3">
-        <v>430100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>436400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>439200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>448100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>458100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>432100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>425900</v>
-      </c>
-      <c r="L83" s="3">
-        <v>434300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>435500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>432700</v>
-      </c>
-      <c r="O83" s="3">
-        <v>444800</v>
-      </c>
-      <c r="P83" s="3">
-        <v>442000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>428700</v>
-      </c>
-      <c r="R83" s="3">
-        <v>437100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>424300</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>433500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>436200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>420700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>655500</v>
+        <v>825000</v>
       </c>
       <c r="E89" s="3">
-        <v>576400</v>
+        <v>652300</v>
       </c>
       <c r="F89" s="3">
-        <v>664800</v>
+        <v>573500</v>
       </c>
       <c r="G89" s="3">
-        <v>588200</v>
+        <v>661400</v>
       </c>
       <c r="H89" s="3">
-        <v>528300</v>
+        <v>585300</v>
       </c>
       <c r="I89" s="3">
-        <v>1345900</v>
+        <v>525600</v>
       </c>
       <c r="J89" s="3">
+        <v>1339200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-110400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>428800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>287100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>425300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>526000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>474400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>291900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>418100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>371000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>480200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>434100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>507000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-263600</v>
+        <v>-304000</v>
       </c>
       <c r="E91" s="3">
-        <v>-420900</v>
+        <v>-262300</v>
       </c>
       <c r="F91" s="3">
-        <v>-240500</v>
+        <v>-418800</v>
       </c>
       <c r="G91" s="3">
-        <v>-153100</v>
+        <v>-239300</v>
       </c>
       <c r="H91" s="3">
-        <v>-130200</v>
+        <v>-152300</v>
       </c>
       <c r="I91" s="3">
-        <v>-125600</v>
+        <v>-129600</v>
       </c>
       <c r="J91" s="3">
+        <v>-124900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-127300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-136400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-195100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-153000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-187200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-129700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-190100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-355300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-236200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-270100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-588000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-724600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-666200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-255300</v>
+        <v>-659400</v>
       </c>
       <c r="E94" s="3">
-        <v>-625300</v>
+        <v>-254000</v>
       </c>
       <c r="F94" s="3">
-        <v>-203900</v>
+        <v>-622200</v>
       </c>
       <c r="G94" s="3">
-        <v>-282500</v>
+        <v>-202900</v>
       </c>
       <c r="H94" s="3">
-        <v>-326700</v>
+        <v>-281100</v>
       </c>
       <c r="I94" s="3">
-        <v>-639900</v>
+        <v>-325100</v>
       </c>
       <c r="J94" s="3">
+        <v>-636700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-142300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-146400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-199400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-161800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-182600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-202100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>22200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-195500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-161500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-262700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-531300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-597400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-502200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5571,11 +5805,11 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>100</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -5595,11 +5829,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -5610,10 +5844,13 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-225200</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>92500</v>
+        <v>472300</v>
       </c>
       <c r="E100" s="3">
-        <v>-113000</v>
+        <v>92000</v>
       </c>
       <c r="F100" s="3">
-        <v>-489600</v>
+        <v>-112500</v>
       </c>
       <c r="G100" s="3">
-        <v>-105700</v>
+        <v>-487100</v>
       </c>
       <c r="H100" s="3">
-        <v>-209700</v>
+        <v>-105200</v>
       </c>
       <c r="I100" s="3">
-        <v>-348400</v>
+        <v>-208700</v>
       </c>
       <c r="J100" s="3">
+        <v>-346700</v>
+      </c>
+      <c r="K100" s="3">
         <v>148300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-226000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>76500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-108500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-359000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-456100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>169000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-149200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>22900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>255800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>137600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-18000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8300</v>
       </c>
-      <c r="G101" s="3">
-        <v>-31300</v>
-      </c>
       <c r="H101" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-3500</v>
       </c>
-      <c r="I101" s="3">
-        <v>-44400</v>
-      </c>
       <c r="J101" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-24800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>12500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-23900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>21900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-11100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-53200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>28300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-49900</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>474700</v>
+        <v>596400</v>
       </c>
       <c r="E102" s="3">
-        <v>-171800</v>
+        <v>472300</v>
       </c>
       <c r="F102" s="3">
-        <v>-37000</v>
+        <v>-170900</v>
       </c>
       <c r="G102" s="3">
-        <v>168700</v>
+        <v>-36800</v>
       </c>
       <c r="H102" s="3">
-        <v>-11700</v>
+        <v>167900</v>
       </c>
       <c r="I102" s="3">
-        <v>313200</v>
+        <v>-11600</v>
       </c>
       <c r="J102" s="3">
+        <v>311700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-129200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>56700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>178100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>75100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>211000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-64900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-150700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>380400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>58500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>237300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>105400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>75400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>190500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>UMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1816400</v>
+        <v>2013800</v>
       </c>
       <c r="E8" s="3">
-        <v>1680400</v>
+        <v>1833700</v>
       </c>
       <c r="F8" s="3">
+        <v>1696400</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1631600</v>
+      </c>
+      <c r="H8" s="3">
         <v>1616200</v>
       </c>
-      <c r="G8" s="3">
-        <v>1601000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1583700</v>
-      </c>
       <c r="I8" s="3">
-        <v>1508100</v>
+        <v>1598800</v>
       </c>
       <c r="J8" s="3">
+        <v>1522500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1493200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1353300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1259300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1143000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1245900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1313500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1292200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1247200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1187200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1221800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1216600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1220200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1249200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1244500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1248800</v>
+        <v>1273800</v>
       </c>
       <c r="E9" s="3">
-        <v>1234600</v>
+        <v>1260700</v>
       </c>
       <c r="F9" s="3">
-        <v>1229100</v>
+        <v>1246400</v>
       </c>
       <c r="G9" s="3">
-        <v>1252400</v>
+        <v>1240800</v>
       </c>
       <c r="H9" s="3">
-        <v>1217700</v>
+        <v>1264300</v>
       </c>
       <c r="I9" s="3">
-        <v>1218300</v>
+        <v>1229300</v>
       </c>
       <c r="J9" s="3">
+        <v>1229900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1244500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1122600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1061800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1063700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1084500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1082700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1070200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1092800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>983100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1008100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>998200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>978000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>963500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>567600</v>
+        <v>740000</v>
       </c>
       <c r="E10" s="3">
-        <v>445800</v>
+        <v>573000</v>
       </c>
       <c r="F10" s="3">
-        <v>387100</v>
+        <v>450000</v>
       </c>
       <c r="G10" s="3">
-        <v>348600</v>
+        <v>390700</v>
       </c>
       <c r="H10" s="3">
-        <v>366000</v>
+        <v>351900</v>
       </c>
       <c r="I10" s="3">
-        <v>289800</v>
+        <v>369500</v>
       </c>
       <c r="J10" s="3">
+        <v>292600</v>
+      </c>
+      <c r="K10" s="3">
         <v>248600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>230700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>197500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>79400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>161400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>230800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>222000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>154400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>204100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>213700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>218400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>242200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>285600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>270700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>113000</v>
+        <v>119000</v>
       </c>
       <c r="E12" s="3">
-        <v>108800</v>
+        <v>114100</v>
       </c>
       <c r="F12" s="3">
-        <v>114000</v>
+        <v>109800</v>
       </c>
       <c r="G12" s="3">
-        <v>118300</v>
+        <v>115000</v>
       </c>
       <c r="H12" s="3">
-        <v>114300</v>
+        <v>119400</v>
       </c>
       <c r="I12" s="3">
-        <v>113600</v>
+        <v>115400</v>
       </c>
       <c r="J12" s="3">
+        <v>114700</v>
+      </c>
+      <c r="K12" s="3">
         <v>123200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>97400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>98500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>131400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>111000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>100700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>97300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>100100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>108400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>105200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>130100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>124700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1118,11 +1138,11 @@
       <c r="E14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>91</v>
@@ -1130,24 +1150,24 @@
       <c r="I14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="3">
         <v>-4900</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1600</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1155,25 +1175,28 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>8200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>34900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1412700</v>
+        <v>1468600</v>
       </c>
       <c r="E17" s="3">
-        <v>1408500</v>
+        <v>1426200</v>
       </c>
       <c r="F17" s="3">
-        <v>1415800</v>
+        <v>1421900</v>
       </c>
       <c r="G17" s="3">
-        <v>1346500</v>
+        <v>1429300</v>
       </c>
       <c r="H17" s="3">
-        <v>1375100</v>
+        <v>1359300</v>
       </c>
       <c r="I17" s="3">
-        <v>1386300</v>
+        <v>1388200</v>
       </c>
       <c r="J17" s="3">
+        <v>1399500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1416000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1263300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1197700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1199000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1268200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1232300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1186400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1221600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1133800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1178700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1165900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1184800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1209800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1198300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>403600</v>
+        <v>545200</v>
       </c>
       <c r="E18" s="3">
-        <v>271900</v>
+        <v>407500</v>
       </c>
       <c r="F18" s="3">
-        <v>200300</v>
+        <v>274500</v>
       </c>
       <c r="G18" s="3">
-        <v>254500</v>
+        <v>202200</v>
       </c>
       <c r="H18" s="3">
-        <v>208600</v>
+        <v>256900</v>
       </c>
       <c r="I18" s="3">
-        <v>121800</v>
+        <v>210600</v>
       </c>
       <c r="J18" s="3">
+        <v>123000</v>
+      </c>
+      <c r="K18" s="3">
         <v>77200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>90000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>61500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-56000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-22300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>81200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>105800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>25600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>53400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>43100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>50700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>35400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>39300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>83600</v>
+        <v>174200</v>
       </c>
       <c r="E20" s="3">
-        <v>133800</v>
+        <v>84400</v>
       </c>
       <c r="F20" s="3">
-        <v>214900</v>
+        <v>135100</v>
       </c>
       <c r="G20" s="3">
-        <v>90400</v>
+        <v>217000</v>
       </c>
       <c r="H20" s="3">
-        <v>47800</v>
+        <v>91200</v>
       </c>
       <c r="I20" s="3">
-        <v>-70400</v>
+        <v>48300</v>
       </c>
       <c r="J20" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="K20" s="3">
         <v>54100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>68700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-44200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-30300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>58400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>25000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>70200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>36700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>16600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>11300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>903700</v>
+        <v>1142700</v>
       </c>
       <c r="E21" s="3">
-        <v>828000</v>
+        <v>912300</v>
       </c>
       <c r="F21" s="3">
-        <v>843200</v>
+        <v>835800</v>
       </c>
       <c r="G21" s="3">
-        <v>779100</v>
+        <v>851200</v>
       </c>
       <c r="H21" s="3">
-        <v>693400</v>
+        <v>786500</v>
       </c>
       <c r="I21" s="3">
-        <v>497300</v>
+        <v>700000</v>
       </c>
       <c r="J21" s="3">
+        <v>502000</v>
+      </c>
+      <c r="K21" s="3">
         <v>587100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>529800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>492400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>446900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>369000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>483500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>537800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>526000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>507000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>550400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>511800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>485400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>486800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>496600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>14600</v>
+      </c>
+      <c r="H22" s="3">
         <v>16500</v>
       </c>
-      <c r="E22" s="3">
-        <v>13900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>14500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>16400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>18600</v>
-      </c>
       <c r="I22" s="3">
-        <v>22100</v>
+        <v>18800</v>
       </c>
       <c r="J22" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K22" s="3">
         <v>25500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>26600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>24900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>24300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>23600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>22300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>21700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>20400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>18800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>17200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>15800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>470800</v>
+        <v>700700</v>
       </c>
       <c r="E23" s="3">
-        <v>391900</v>
+        <v>475300</v>
       </c>
       <c r="F23" s="3">
-        <v>400800</v>
+        <v>395600</v>
       </c>
       <c r="G23" s="3">
-        <v>328500</v>
+        <v>404600</v>
       </c>
       <c r="H23" s="3">
-        <v>237800</v>
+        <v>331600</v>
       </c>
       <c r="I23" s="3">
-        <v>29300</v>
+        <v>240000</v>
       </c>
       <c r="J23" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K23" s="3">
         <v>105800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>70900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>40000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-90700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>27600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>69400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>61800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>56700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>92900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>68600</v>
-      </c>
-      <c r="U23" s="3">
-        <v>34800</v>
       </c>
       <c r="V23" s="3">
         <v>34800</v>
       </c>
       <c r="W23" s="3">
+        <v>34800</v>
+      </c>
+      <c r="X23" s="3">
         <v>63600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>47400</v>
+        <v>75600</v>
       </c>
       <c r="E24" s="3">
-        <v>39000</v>
+        <v>47800</v>
       </c>
       <c r="F24" s="3">
-        <v>12300</v>
+        <v>39400</v>
       </c>
       <c r="G24" s="3">
+        <v>12400</v>
+      </c>
+      <c r="H24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>22100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M24" s="3">
         <v>7000</v>
       </c>
-      <c r="H24" s="3">
-        <v>21900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>7000</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-15500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-39000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-14000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>20100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>423400</v>
+        <v>625000</v>
       </c>
       <c r="E26" s="3">
-        <v>352800</v>
+        <v>427400</v>
       </c>
       <c r="F26" s="3">
-        <v>388500</v>
+        <v>356200</v>
       </c>
       <c r="G26" s="3">
-        <v>321500</v>
+        <v>392200</v>
       </c>
       <c r="H26" s="3">
-        <v>215900</v>
+        <v>324500</v>
       </c>
       <c r="I26" s="3">
-        <v>43900</v>
+        <v>218000</v>
       </c>
       <c r="J26" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K26" s="3">
         <v>112600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>69500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>32900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-105200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>80400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>38700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>79900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>47900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>48800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>14600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>426100</v>
+        <v>628900</v>
       </c>
       <c r="E27" s="3">
-        <v>372100</v>
+        <v>430200</v>
       </c>
       <c r="F27" s="3">
-        <v>399500</v>
+        <v>375600</v>
       </c>
       <c r="G27" s="3">
-        <v>324900</v>
+        <v>403300</v>
       </c>
       <c r="H27" s="3">
-        <v>238400</v>
+        <v>328000</v>
       </c>
       <c r="I27" s="3">
-        <v>78700</v>
+        <v>240600</v>
       </c>
       <c r="J27" s="3">
+        <v>79500</v>
+      </c>
+      <c r="K27" s="3">
         <v>136900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>105000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>60800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>42100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-59900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>57400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>121700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>113100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>57400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>112500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>68000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>74500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>83100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-83600</v>
+        <v>-174200</v>
       </c>
       <c r="E32" s="3">
-        <v>-133800</v>
+        <v>-84400</v>
       </c>
       <c r="F32" s="3">
-        <v>-214900</v>
+        <v>-135100</v>
       </c>
       <c r="G32" s="3">
-        <v>-90400</v>
+        <v>-217000</v>
       </c>
       <c r="H32" s="3">
-        <v>-47800</v>
+        <v>-91200</v>
       </c>
       <c r="I32" s="3">
-        <v>70400</v>
+        <v>-48300</v>
       </c>
       <c r="J32" s="3">
+        <v>71100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-54100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-68700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>44200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>30300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-58400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-25000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-70200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-36700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-16600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-11300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>426100</v>
+        <v>628900</v>
       </c>
       <c r="E33" s="3">
-        <v>372100</v>
+        <v>430200</v>
       </c>
       <c r="F33" s="3">
-        <v>399500</v>
+        <v>375600</v>
       </c>
       <c r="G33" s="3">
-        <v>324900</v>
+        <v>403300</v>
       </c>
       <c r="H33" s="3">
-        <v>238400</v>
+        <v>328000</v>
       </c>
       <c r="I33" s="3">
-        <v>78700</v>
+        <v>240600</v>
       </c>
       <c r="J33" s="3">
+        <v>79500</v>
+      </c>
+      <c r="K33" s="3">
         <v>136900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>105000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>60800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>42100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-59900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>57400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>121700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>113100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>57400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>112500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>68000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>74500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>83100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>426100</v>
+        <v>628900</v>
       </c>
       <c r="E35" s="3">
-        <v>372100</v>
+        <v>430200</v>
       </c>
       <c r="F35" s="3">
-        <v>399500</v>
+        <v>375600</v>
       </c>
       <c r="G35" s="3">
-        <v>324900</v>
+        <v>403300</v>
       </c>
       <c r="H35" s="3">
-        <v>238400</v>
+        <v>328000</v>
       </c>
       <c r="I35" s="3">
-        <v>78700</v>
+        <v>240600</v>
       </c>
       <c r="J35" s="3">
+        <v>79500</v>
+      </c>
+      <c r="K35" s="3">
         <v>136900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>105000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>60800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>42100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-59900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>57400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>121700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>113100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>57400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>112500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>68000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>74500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>83100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4424300</v>
+        <v>4074000</v>
       </c>
       <c r="E41" s="3">
-        <v>3827900</v>
+        <v>4466500</v>
       </c>
       <c r="F41" s="3">
-        <v>3355600</v>
+        <v>3864400</v>
       </c>
       <c r="G41" s="3">
-        <v>3526600</v>
+        <v>3387600</v>
       </c>
       <c r="H41" s="3">
-        <v>3563400</v>
+        <v>3560200</v>
       </c>
       <c r="I41" s="3">
-        <v>3395500</v>
+        <v>3597400</v>
       </c>
       <c r="J41" s="3">
+        <v>3427900</v>
+      </c>
+      <c r="K41" s="3">
         <v>3407200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3111000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3157900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3112900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2934900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2718700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2500900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2565800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2647100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2266700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2208200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1983100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1877700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1802200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>36400</v>
+        <v>266200</v>
       </c>
       <c r="E42" s="3">
         <v>36800</v>
       </c>
       <c r="F42" s="3">
-        <v>43400</v>
+        <v>37200</v>
       </c>
       <c r="G42" s="3">
-        <v>32700</v>
+        <v>43800</v>
       </c>
       <c r="H42" s="3">
-        <v>36200</v>
+        <v>33000</v>
       </c>
       <c r="I42" s="3">
-        <v>26800</v>
+        <v>36500</v>
       </c>
       <c r="J42" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K42" s="3">
         <v>25800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>21400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>18500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>15600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>17400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>23200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>27400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>25900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>28300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>23300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1128300</v>
+        <v>1238300</v>
       </c>
       <c r="E43" s="3">
-        <v>1106600</v>
+        <v>1139000</v>
       </c>
       <c r="F43" s="3">
-        <v>1043200</v>
+        <v>1117100</v>
       </c>
       <c r="G43" s="3">
-        <v>1001900</v>
+        <v>1053100</v>
       </c>
       <c r="H43" s="3">
-        <v>1013500</v>
+        <v>1011400</v>
       </c>
       <c r="I43" s="3">
-        <v>1073900</v>
+        <v>1023100</v>
       </c>
       <c r="J43" s="3">
+        <v>1084200</v>
+      </c>
+      <c r="K43" s="3">
         <v>949900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>871600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>898200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>832500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>866400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>908900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>959500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>886600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>734300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>785600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>748200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>705300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>782700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>761800</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>833900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>808300</v>
+      </c>
+      <c r="F44" s="3">
         <v>800600</v>
       </c>
-      <c r="E44" s="3">
-        <v>793000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>804700</v>
-      </c>
       <c r="G44" s="3">
-        <v>815800</v>
+        <v>812300</v>
       </c>
       <c r="H44" s="3">
-        <v>832800</v>
+        <v>823500</v>
       </c>
       <c r="I44" s="3">
-        <v>789400</v>
+        <v>840800</v>
       </c>
       <c r="J44" s="3">
+        <v>797000</v>
+      </c>
+      <c r="K44" s="3">
         <v>774800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>716800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>686000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>662100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>638600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>586600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>587300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>570000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>591700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>554300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>527800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>530300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>554300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>559800</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1025800</v>
+        <v>1209500</v>
       </c>
       <c r="E45" s="3">
-        <v>625400</v>
+        <v>1035600</v>
       </c>
       <c r="F45" s="3">
-        <v>615500</v>
+        <v>631300</v>
       </c>
       <c r="G45" s="3">
-        <v>455900</v>
+        <v>621400</v>
       </c>
       <c r="H45" s="3">
-        <v>546700</v>
+        <v>460300</v>
       </c>
       <c r="I45" s="3">
-        <v>408600</v>
+        <v>551900</v>
       </c>
       <c r="J45" s="3">
+        <v>412500</v>
+      </c>
+      <c r="K45" s="3">
         <v>328400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1140600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>496600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>522700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>494800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>445900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>496100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>497500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>513800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>407900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>381500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>390200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>364400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>340000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7415500</v>
+        <v>7622000</v>
       </c>
       <c r="E46" s="3">
-        <v>6389700</v>
+        <v>7486200</v>
       </c>
       <c r="F46" s="3">
-        <v>5862400</v>
+        <v>6450600</v>
       </c>
       <c r="G46" s="3">
-        <v>5832900</v>
+        <v>5918300</v>
       </c>
       <c r="H46" s="3">
-        <v>5992600</v>
+        <v>5888400</v>
       </c>
       <c r="I46" s="3">
-        <v>5694300</v>
+        <v>6049700</v>
       </c>
       <c r="J46" s="3">
+        <v>5748600</v>
+      </c>
+      <c r="K46" s="3">
         <v>5486100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5862800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5260200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5149600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4953100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4674100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4559400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4537400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4510200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4041800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3891700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3637200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3602400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3488300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2374700</v>
+        <v>2262700</v>
       </c>
       <c r="E47" s="3">
-        <v>2313300</v>
+        <v>2397300</v>
       </c>
       <c r="F47" s="3">
-        <v>2018700</v>
+        <v>2335400</v>
       </c>
       <c r="G47" s="3">
-        <v>1674600</v>
+        <v>2037900</v>
       </c>
       <c r="H47" s="3">
-        <v>1496200</v>
+        <v>1690600</v>
       </c>
       <c r="I47" s="3">
-        <v>1279400</v>
+        <v>1510500</v>
       </c>
       <c r="J47" s="3">
+        <v>1291600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1475200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1446500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1322600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1305600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1175400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1209300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1241200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1199400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1102700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1125500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1163800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1138100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1133700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1232600</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>4786600</v>
+        <v>5060200</v>
       </c>
       <c r="E48" s="3">
-        <v>4854400</v>
+        <v>4832200</v>
       </c>
       <c r="F48" s="3">
-        <v>5034800</v>
+        <v>4900600</v>
       </c>
       <c r="G48" s="3">
-        <v>5044400</v>
+        <v>5082700</v>
       </c>
       <c r="H48" s="3">
-        <v>5038600</v>
+        <v>5092400</v>
       </c>
       <c r="I48" s="3">
-        <v>5338000</v>
+        <v>5086600</v>
       </c>
       <c r="J48" s="3">
+        <v>5388900</v>
+      </c>
+      <c r="K48" s="3">
         <v>5669000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5641600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5850300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6191600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6086700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5969600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6308800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6577800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6677400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6764100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6921700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7101400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7375100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7060600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>166200</v>
+        <v>151000</v>
       </c>
       <c r="E49" s="3">
-        <v>166200</v>
+        <v>167800</v>
       </c>
       <c r="F49" s="3">
-        <v>174000</v>
+        <v>167800</v>
       </c>
       <c r="G49" s="3">
-        <v>176700</v>
+        <v>175700</v>
       </c>
       <c r="H49" s="3">
-        <v>172700</v>
+        <v>178400</v>
       </c>
       <c r="I49" s="3">
-        <v>170400</v>
+        <v>174400</v>
       </c>
       <c r="J49" s="3">
+        <v>172000</v>
+      </c>
+      <c r="K49" s="3">
         <v>185500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>130600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>145100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>117600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>105000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>106900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>119100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>122700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>122800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>125500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>123900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>120300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>133300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>302500</v>
+        <v>349300</v>
       </c>
       <c r="E52" s="3">
-        <v>343700</v>
+        <v>305400</v>
       </c>
       <c r="F52" s="3">
-        <v>379800</v>
+        <v>347000</v>
       </c>
       <c r="G52" s="3">
-        <v>410400</v>
+        <v>383500</v>
       </c>
       <c r="H52" s="3">
-        <v>413800</v>
+        <v>414300</v>
       </c>
       <c r="I52" s="3">
-        <v>379000</v>
+        <v>417700</v>
       </c>
       <c r="J52" s="3">
+        <v>382600</v>
+      </c>
+      <c r="K52" s="3">
         <v>392600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>331700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>351000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>360400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>470300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>468600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>439900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>386500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>359800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>394100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>403200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>374500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>364200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>307400</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>15045400</v>
+        <v>15445100</v>
       </c>
       <c r="E54" s="3">
-        <v>14067300</v>
+        <v>15188800</v>
       </c>
       <c r="F54" s="3">
-        <v>13469800</v>
+        <v>14201300</v>
       </c>
       <c r="G54" s="3">
-        <v>13138900</v>
+        <v>13598100</v>
       </c>
       <c r="H54" s="3">
-        <v>13114000</v>
+        <v>13264100</v>
       </c>
       <c r="I54" s="3">
-        <v>12861100</v>
+        <v>13238900</v>
       </c>
       <c r="J54" s="3">
+        <v>12983600</v>
+      </c>
+      <c r="K54" s="3">
         <v>13208300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13413200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12929200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13124700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12790300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12428500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12668400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12823700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12772800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12451000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12504300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12371600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12608800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12227400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>300500</v>
+        <v>297600</v>
       </c>
       <c r="E57" s="3">
-        <v>294700</v>
+        <v>303300</v>
       </c>
       <c r="F57" s="3">
-        <v>280500</v>
+        <v>297600</v>
       </c>
       <c r="G57" s="3">
-        <v>274700</v>
+        <v>283200</v>
       </c>
       <c r="H57" s="3">
-        <v>305300</v>
+        <v>277300</v>
       </c>
       <c r="I57" s="3">
-        <v>318400</v>
+        <v>308200</v>
       </c>
       <c r="J57" s="3">
+        <v>321400</v>
+      </c>
+      <c r="K57" s="3">
         <v>316700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>237700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>241600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>237800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>238600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>229600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>246400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>232700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>211800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>214200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>215400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>210000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>223500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>219900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>720900</v>
+        <v>893700</v>
       </c>
       <c r="E58" s="3">
-        <v>1350000</v>
+        <v>727700</v>
       </c>
       <c r="F58" s="3">
-        <v>1377000</v>
+        <v>1362900</v>
       </c>
       <c r="G58" s="3">
-        <v>604800</v>
+        <v>1390100</v>
       </c>
       <c r="H58" s="3">
-        <v>638400</v>
+        <v>610500</v>
       </c>
       <c r="I58" s="3">
-        <v>925100</v>
+        <v>644500</v>
       </c>
       <c r="J58" s="3">
+        <v>933900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1333700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1454100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1393900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>834900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>639300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>677900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>573100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1330300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1711600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1579800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1561900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1185000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1012600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1534200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2011700</v>
+        <v>1853900</v>
       </c>
       <c r="E59" s="3">
-        <v>1157200</v>
+        <v>2030800</v>
       </c>
       <c r="F59" s="3">
-        <v>1134200</v>
+        <v>1168200</v>
       </c>
       <c r="G59" s="3">
-        <v>1231000</v>
+        <v>1145000</v>
       </c>
       <c r="H59" s="3">
-        <v>1379300</v>
+        <v>1242800</v>
       </c>
       <c r="I59" s="3">
-        <v>936800</v>
+        <v>1392500</v>
       </c>
       <c r="J59" s="3">
+        <v>945700</v>
+      </c>
+      <c r="K59" s="3">
         <v>944000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>830100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1057600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>774100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>872500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>807700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1148500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>850600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>930700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>875200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1064900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>785700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1111100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>967000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3033000</v>
+        <v>3045300</v>
       </c>
       <c r="E60" s="3">
-        <v>2802000</v>
+        <v>3061900</v>
       </c>
       <c r="F60" s="3">
-        <v>2791700</v>
+        <v>2828700</v>
       </c>
       <c r="G60" s="3">
-        <v>2110500</v>
+        <v>2818300</v>
       </c>
       <c r="H60" s="3">
-        <v>2323100</v>
+        <v>2130600</v>
       </c>
       <c r="I60" s="3">
-        <v>2180200</v>
+        <v>2345200</v>
       </c>
       <c r="J60" s="3">
+        <v>2201000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2594400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2521900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2693100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1846800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1750500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1715300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1968000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2413600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2854100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2669200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2842200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2180600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2347200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2721000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1988700</v>
+        <v>2006700</v>
       </c>
       <c r="E61" s="3">
-        <v>1164100</v>
+        <v>2007700</v>
       </c>
       <c r="F61" s="3">
-        <v>1063200</v>
+        <v>1175200</v>
       </c>
       <c r="G61" s="3">
-        <v>1949600</v>
+        <v>1073300</v>
       </c>
       <c r="H61" s="3">
-        <v>2100800</v>
+        <v>1968100</v>
       </c>
       <c r="I61" s="3">
-        <v>1888100</v>
+        <v>2120800</v>
       </c>
       <c r="J61" s="3">
+        <v>1906100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1903500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2169100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1775100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2473700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2353300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2249800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2253800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1749900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1728100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1696900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1660600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2032000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1980400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1294100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1453700</v>
+        <v>1114200</v>
       </c>
       <c r="E62" s="3">
-        <v>1192800</v>
+        <v>1467600</v>
       </c>
       <c r="F62" s="3">
-        <v>1202500</v>
+        <v>1204200</v>
       </c>
       <c r="G62" s="3">
-        <v>1196600</v>
+        <v>1213900</v>
       </c>
       <c r="H62" s="3">
-        <v>1225800</v>
+        <v>1208000</v>
       </c>
       <c r="I62" s="3">
-        <v>1270800</v>
+        <v>1237500</v>
       </c>
       <c r="J62" s="3">
+        <v>1282900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1316900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1369400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1397900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1444000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1441300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1374600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1435900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1469000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1253700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1135100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1091800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1092900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1148100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1070700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6479200</v>
+        <v>6171800</v>
       </c>
       <c r="E66" s="3">
-        <v>5162400</v>
+        <v>6540900</v>
       </c>
       <c r="F66" s="3">
-        <v>5061400</v>
+        <v>5211500</v>
       </c>
       <c r="G66" s="3">
-        <v>5262200</v>
+        <v>5109700</v>
       </c>
       <c r="H66" s="3">
-        <v>5652300</v>
+        <v>5312300</v>
       </c>
       <c r="I66" s="3">
-        <v>5341500</v>
+        <v>5706200</v>
       </c>
       <c r="J66" s="3">
+        <v>5392400</v>
+      </c>
+      <c r="K66" s="3">
         <v>5829500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6074900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5881100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5780400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5561400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5356200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5678100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5639300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5866800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5535000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5624800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5336500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5546200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5138300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2938700</v>
+        <v>3611000</v>
       </c>
       <c r="E72" s="3">
-        <v>3223500</v>
+        <v>2966700</v>
       </c>
       <c r="F72" s="3">
-        <v>2860700</v>
+        <v>3254200</v>
       </c>
       <c r="G72" s="3">
-        <v>2495900</v>
+        <v>2888000</v>
       </c>
       <c r="H72" s="3">
-        <v>2173100</v>
+        <v>2519700</v>
       </c>
       <c r="I72" s="3">
-        <v>2378000</v>
+        <v>2193800</v>
       </c>
       <c r="J72" s="3">
+        <v>2400700</v>
+      </c>
+      <c r="K72" s="3">
         <v>2181900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2072300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1935700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2153400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2160500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2158800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2129100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2307700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1557800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1529000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1457800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1603500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1554000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1561100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>8566300</v>
+        <v>9273300</v>
       </c>
       <c r="E76" s="3">
-        <v>8904900</v>
+        <v>8647900</v>
       </c>
       <c r="F76" s="3">
-        <v>8408300</v>
+        <v>8989800</v>
       </c>
       <c r="G76" s="3">
-        <v>7876800</v>
+        <v>8488500</v>
       </c>
       <c r="H76" s="3">
-        <v>7461600</v>
+        <v>7951800</v>
       </c>
       <c r="I76" s="3">
-        <v>7519600</v>
+        <v>7532800</v>
       </c>
       <c r="J76" s="3">
+        <v>7591300</v>
+      </c>
+      <c r="K76" s="3">
         <v>7378800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7338400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7048200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7344400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7228900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7072400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6990300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7184400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6905900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6916000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6879500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7035100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7062700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7089100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>426100</v>
+        <v>628900</v>
       </c>
       <c r="E81" s="3">
-        <v>372100</v>
+        <v>430200</v>
       </c>
       <c r="F81" s="3">
-        <v>399500</v>
+        <v>375600</v>
       </c>
       <c r="G81" s="3">
-        <v>324900</v>
+        <v>403300</v>
       </c>
       <c r="H81" s="3">
-        <v>238400</v>
+        <v>328000</v>
       </c>
       <c r="I81" s="3">
-        <v>78700</v>
+        <v>240600</v>
       </c>
       <c r="J81" s="3">
+        <v>79500</v>
+      </c>
+      <c r="K81" s="3">
         <v>136900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>105000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>60800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>42100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-59900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>57400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>121700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>113100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>57400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>112500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>68000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>74500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>83100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>416400</v>
+        <v>423400</v>
       </c>
       <c r="E83" s="3">
-        <v>422200</v>
+        <v>420400</v>
       </c>
       <c r="F83" s="3">
-        <v>427900</v>
+        <v>426200</v>
       </c>
       <c r="G83" s="3">
-        <v>434200</v>
+        <v>432000</v>
       </c>
       <c r="H83" s="3">
-        <v>437000</v>
+        <v>438300</v>
       </c>
       <c r="I83" s="3">
-        <v>445900</v>
+        <v>441200</v>
       </c>
       <c r="J83" s="3">
+        <v>450100</v>
+      </c>
+      <c r="K83" s="3">
         <v>455800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>432100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>425900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>434300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>435500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>432700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>444800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>442000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>428700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>437100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>424300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>433500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>436200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>420700</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>825000</v>
+        <v>797000</v>
       </c>
       <c r="E89" s="3">
-        <v>652300</v>
+        <v>832900</v>
       </c>
       <c r="F89" s="3">
-        <v>573500</v>
+        <v>658500</v>
       </c>
       <c r="G89" s="3">
-        <v>661400</v>
+        <v>578900</v>
       </c>
       <c r="H89" s="3">
-        <v>585300</v>
+        <v>667700</v>
       </c>
       <c r="I89" s="3">
-        <v>525600</v>
+        <v>590800</v>
       </c>
       <c r="J89" s="3">
+        <v>530600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1339200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-110400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>428800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>287100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>425300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>526000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>474400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>291900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>418100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>371000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>480200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>434100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>507000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-304000</v>
+        <v>-628800</v>
       </c>
       <c r="E91" s="3">
-        <v>-262300</v>
+        <v>-306900</v>
       </c>
       <c r="F91" s="3">
-        <v>-418800</v>
+        <v>-264800</v>
       </c>
       <c r="G91" s="3">
-        <v>-239300</v>
+        <v>-422800</v>
       </c>
       <c r="H91" s="3">
-        <v>-152300</v>
+        <v>-241600</v>
       </c>
       <c r="I91" s="3">
-        <v>-129600</v>
+        <v>-153800</v>
       </c>
       <c r="J91" s="3">
+        <v>-130800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-124900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-127300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-136400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-195100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-153000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-187200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-129700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-190100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-355300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-236200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-270100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-588000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-724600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-666200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-659400</v>
+        <v>-836500</v>
       </c>
       <c r="E94" s="3">
-        <v>-254000</v>
+        <v>-665700</v>
       </c>
       <c r="F94" s="3">
-        <v>-622200</v>
+        <v>-256500</v>
       </c>
       <c r="G94" s="3">
-        <v>-202900</v>
+        <v>-628100</v>
       </c>
       <c r="H94" s="3">
-        <v>-281100</v>
+        <v>-204800</v>
       </c>
       <c r="I94" s="3">
-        <v>-325100</v>
+        <v>-283800</v>
       </c>
       <c r="J94" s="3">
+        <v>-328200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-636700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-142300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-146400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-199400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-161800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-182600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-202100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>22200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-195500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-161500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-262700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-531300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-597400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-502200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5808,11 +6042,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5832,11 +6066,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -5847,10 +6081,13 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-225200</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>472300</v>
+        <v>-349200</v>
       </c>
       <c r="E100" s="3">
-        <v>92000</v>
+        <v>476800</v>
       </c>
       <c r="F100" s="3">
-        <v>-112500</v>
+        <v>92900</v>
       </c>
       <c r="G100" s="3">
-        <v>-487100</v>
+        <v>-113600</v>
       </c>
       <c r="H100" s="3">
-        <v>-105200</v>
+        <v>-491800</v>
       </c>
       <c r="I100" s="3">
-        <v>-208700</v>
+        <v>-106200</v>
       </c>
       <c r="J100" s="3">
+        <v>-210700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-346700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>148300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-226000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>76500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-108500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-359000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-456100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>169000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-149200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>22900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>255800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>137600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-41500</v>
+        <v>-3800</v>
       </c>
       <c r="E101" s="3">
-        <v>-18000</v>
+        <v>-41900</v>
       </c>
       <c r="F101" s="3">
-        <v>-9800</v>
+        <v>-18100</v>
       </c>
       <c r="G101" s="3">
-        <v>-8300</v>
+        <v>-9900</v>
       </c>
       <c r="H101" s="3">
-        <v>-31100</v>
+        <v>-8400</v>
       </c>
       <c r="I101" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="J101" s="3">
         <v>-3500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-44200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-24800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>13900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>12500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-23900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>21900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-8700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-11100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-53200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>28300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-49900</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>596400</v>
+        <v>-392500</v>
       </c>
       <c r="E102" s="3">
-        <v>472300</v>
+        <v>602100</v>
       </c>
       <c r="F102" s="3">
-        <v>-170900</v>
+        <v>476800</v>
       </c>
       <c r="G102" s="3">
-        <v>-36800</v>
+        <v>-172600</v>
       </c>
       <c r="H102" s="3">
-        <v>167900</v>
+        <v>-37200</v>
       </c>
       <c r="I102" s="3">
-        <v>-11600</v>
+        <v>169500</v>
       </c>
       <c r="J102" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K102" s="3">
         <v>311700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-129200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>56700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>178100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>75100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>211000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-64900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-150700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>380400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>58500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>237300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>105400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>75400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>190500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>UMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2013800</v>
+        <v>2080900</v>
       </c>
       <c r="E8" s="3">
-        <v>1833700</v>
+        <v>1968500</v>
       </c>
       <c r="F8" s="3">
-        <v>1696400</v>
+        <v>1792500</v>
       </c>
       <c r="G8" s="3">
-        <v>1631600</v>
+        <v>1658300</v>
       </c>
       <c r="H8" s="3">
-        <v>1616200</v>
+        <v>1594900</v>
       </c>
       <c r="I8" s="3">
-        <v>1598800</v>
+        <v>1579900</v>
       </c>
       <c r="J8" s="3">
+        <v>1562800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1522500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1493200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1353300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1259300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1143000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1245900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1313500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1292200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1247200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1187200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1221800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1216600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1220200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1249200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1244500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1273800</v>
+        <v>1267400</v>
       </c>
       <c r="E9" s="3">
-        <v>1260700</v>
+        <v>1245100</v>
       </c>
       <c r="F9" s="3">
-        <v>1246400</v>
+        <v>1232300</v>
       </c>
       <c r="G9" s="3">
-        <v>1240800</v>
+        <v>1218400</v>
       </c>
       <c r="H9" s="3">
-        <v>1264300</v>
+        <v>1212900</v>
       </c>
       <c r="I9" s="3">
-        <v>1229300</v>
+        <v>1235900</v>
       </c>
       <c r="J9" s="3">
+        <v>1201700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1229900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1244500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1122600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1061800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1063700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1084500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1082700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1070200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1092800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>983100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1008100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>998200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>978000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>963500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>740000</v>
+        <v>813500</v>
       </c>
       <c r="E10" s="3">
-        <v>573000</v>
+        <v>723400</v>
       </c>
       <c r="F10" s="3">
-        <v>450000</v>
+        <v>560100</v>
       </c>
       <c r="G10" s="3">
-        <v>390700</v>
+        <v>439900</v>
       </c>
       <c r="H10" s="3">
-        <v>351900</v>
+        <v>382000</v>
       </c>
       <c r="I10" s="3">
-        <v>369500</v>
+        <v>344000</v>
       </c>
       <c r="J10" s="3">
+        <v>361200</v>
+      </c>
+      <c r="K10" s="3">
         <v>292600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>248600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>230700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>197500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>79400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>161400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>230800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>222000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>154400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>204100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>213700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>218400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>242200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>285600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>270700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>119000</v>
+        <v>120200</v>
       </c>
       <c r="E12" s="3">
-        <v>114100</v>
+        <v>116300</v>
       </c>
       <c r="F12" s="3">
-        <v>109800</v>
+        <v>111600</v>
       </c>
       <c r="G12" s="3">
-        <v>115000</v>
+        <v>107400</v>
       </c>
       <c r="H12" s="3">
-        <v>119400</v>
+        <v>112500</v>
       </c>
       <c r="I12" s="3">
-        <v>115400</v>
+        <v>116700</v>
       </c>
       <c r="J12" s="3">
+        <v>112800</v>
+      </c>
+      <c r="K12" s="3">
         <v>114700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>123200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>97400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>98500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>131400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>111000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>100700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>97300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>100100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>108400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>105200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>130100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>124700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1141,11 +1160,11 @@
       <c r="F14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>91</v>
@@ -1153,24 +1172,24 @@
       <c r="J14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="3">
         <v>-4900</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1178,25 +1197,28 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>8200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>34900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1468600</v>
+        <v>1460600</v>
       </c>
       <c r="E17" s="3">
-        <v>1426200</v>
+        <v>1435600</v>
       </c>
       <c r="F17" s="3">
-        <v>1421900</v>
+        <v>1394100</v>
       </c>
       <c r="G17" s="3">
-        <v>1429300</v>
+        <v>1389900</v>
       </c>
       <c r="H17" s="3">
-        <v>1359300</v>
+        <v>1397200</v>
       </c>
       <c r="I17" s="3">
-        <v>1388200</v>
+        <v>1328700</v>
       </c>
       <c r="J17" s="3">
+        <v>1357000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1399500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1416000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1263300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1197700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1199000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1268200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1232300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1186400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1221600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1133800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1178700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1165900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1184800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1209800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1198300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>545200</v>
+        <v>620300</v>
       </c>
       <c r="E18" s="3">
-        <v>407500</v>
+        <v>532900</v>
       </c>
       <c r="F18" s="3">
-        <v>274500</v>
+        <v>398300</v>
       </c>
       <c r="G18" s="3">
-        <v>202200</v>
+        <v>268400</v>
       </c>
       <c r="H18" s="3">
-        <v>256900</v>
+        <v>197700</v>
       </c>
       <c r="I18" s="3">
-        <v>210600</v>
+        <v>251200</v>
       </c>
       <c r="J18" s="3">
+        <v>205800</v>
+      </c>
+      <c r="K18" s="3">
         <v>123000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>77200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>90000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>61500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-56000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-22300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>81200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>105800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>25600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>53400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>43100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>50700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>35400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>39300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>174200</v>
+        <v>37100</v>
       </c>
       <c r="E20" s="3">
-        <v>84400</v>
+        <v>170300</v>
       </c>
       <c r="F20" s="3">
-        <v>135100</v>
+        <v>82500</v>
       </c>
       <c r="G20" s="3">
-        <v>217000</v>
+        <v>132000</v>
       </c>
       <c r="H20" s="3">
-        <v>91200</v>
+        <v>212100</v>
       </c>
       <c r="I20" s="3">
-        <v>48300</v>
+        <v>89200</v>
       </c>
       <c r="J20" s="3">
+        <v>47200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-71100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>54100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>68700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-44200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-30300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>58400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>25000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>70200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>36700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>16600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>11300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1142700</v>
+        <v>1073500</v>
       </c>
       <c r="E21" s="3">
-        <v>912300</v>
+        <v>1117000</v>
       </c>
       <c r="F21" s="3">
-        <v>835800</v>
+        <v>891800</v>
       </c>
       <c r="G21" s="3">
-        <v>851200</v>
+        <v>817100</v>
       </c>
       <c r="H21" s="3">
-        <v>786500</v>
+        <v>832100</v>
       </c>
       <c r="I21" s="3">
-        <v>700000</v>
+        <v>768800</v>
       </c>
       <c r="J21" s="3">
+        <v>684300</v>
+      </c>
+      <c r="K21" s="3">
         <v>502000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>587100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>529800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>492400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>446900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>369000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>483500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>537800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>526000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>507000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>550400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>511800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>485400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>486800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>496600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>18700</v>
+        <v>17500</v>
       </c>
       <c r="E22" s="3">
-        <v>16700</v>
+        <v>18300</v>
       </c>
       <c r="F22" s="3">
-        <v>14000</v>
+        <v>16300</v>
       </c>
       <c r="G22" s="3">
-        <v>14600</v>
+        <v>13700</v>
       </c>
       <c r="H22" s="3">
-        <v>16500</v>
+        <v>14300</v>
       </c>
       <c r="I22" s="3">
+        <v>16200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K22" s="3">
+        <v>22300</v>
+      </c>
+      <c r="L22" s="3">
+        <v>25500</v>
+      </c>
+      <c r="M22" s="3">
+        <v>26800</v>
+      </c>
+      <c r="N22" s="3">
+        <v>26600</v>
+      </c>
+      <c r="O22" s="3">
+        <v>24900</v>
+      </c>
+      <c r="P22" s="3">
+        <v>24300</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>23300</v>
+      </c>
+      <c r="R22" s="3">
+        <v>23600</v>
+      </c>
+      <c r="S22" s="3">
+        <v>22300</v>
+      </c>
+      <c r="T22" s="3">
+        <v>21700</v>
+      </c>
+      <c r="U22" s="3">
+        <v>20400</v>
+      </c>
+      <c r="V22" s="3">
         <v>18800</v>
       </c>
-      <c r="J22" s="3">
-        <v>22300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>25500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>26800</v>
-      </c>
-      <c r="M22" s="3">
-        <v>26600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>24900</v>
-      </c>
-      <c r="O22" s="3">
-        <v>24300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>23300</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>23600</v>
-      </c>
-      <c r="R22" s="3">
-        <v>22300</v>
-      </c>
-      <c r="S22" s="3">
-        <v>21700</v>
-      </c>
-      <c r="T22" s="3">
-        <v>20400</v>
-      </c>
-      <c r="U22" s="3">
-        <v>18800</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>17200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>15800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>700700</v>
+        <v>639900</v>
       </c>
       <c r="E23" s="3">
-        <v>475300</v>
+        <v>684900</v>
       </c>
       <c r="F23" s="3">
-        <v>395600</v>
+        <v>464600</v>
       </c>
       <c r="G23" s="3">
-        <v>404600</v>
+        <v>386700</v>
       </c>
       <c r="H23" s="3">
-        <v>331600</v>
+        <v>395500</v>
       </c>
       <c r="I23" s="3">
-        <v>240000</v>
+        <v>324200</v>
       </c>
       <c r="J23" s="3">
+        <v>234600</v>
+      </c>
+      <c r="K23" s="3">
         <v>29600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>105800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>70900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>40000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-90700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>27600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>69400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>61800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>56700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>92900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>68600</v>
-      </c>
-      <c r="V23" s="3">
-        <v>34800</v>
       </c>
       <c r="W23" s="3">
         <v>34800</v>
       </c>
       <c r="X23" s="3">
+        <v>34800</v>
+      </c>
+      <c r="Y23" s="3">
         <v>63600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>75600</v>
+        <v>76400</v>
       </c>
       <c r="E24" s="3">
-        <v>47800</v>
+        <v>73900</v>
       </c>
       <c r="F24" s="3">
-        <v>39400</v>
+        <v>46800</v>
       </c>
       <c r="G24" s="3">
-        <v>12400</v>
+        <v>38500</v>
       </c>
       <c r="H24" s="3">
-        <v>7100</v>
+        <v>12100</v>
       </c>
       <c r="I24" s="3">
-        <v>22100</v>
+        <v>6900</v>
       </c>
       <c r="J24" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-14700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-15500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-11000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-39000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>20700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-14000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>20100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>625000</v>
+        <v>563500</v>
       </c>
       <c r="E26" s="3">
-        <v>427400</v>
+        <v>611000</v>
       </c>
       <c r="F26" s="3">
-        <v>356200</v>
+        <v>417800</v>
       </c>
       <c r="G26" s="3">
-        <v>392200</v>
+        <v>348200</v>
       </c>
       <c r="H26" s="3">
-        <v>324500</v>
+        <v>383400</v>
       </c>
       <c r="I26" s="3">
-        <v>218000</v>
+        <v>317200</v>
       </c>
       <c r="J26" s="3">
+        <v>213100</v>
+      </c>
+      <c r="K26" s="3">
         <v>44300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>112600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>69500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>32900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-105200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>80400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>38700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>79900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>47900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>48800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>14600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>628900</v>
+        <v>561600</v>
       </c>
       <c r="E27" s="3">
-        <v>430200</v>
+        <v>614800</v>
       </c>
       <c r="F27" s="3">
-        <v>375600</v>
+        <v>420500</v>
       </c>
       <c r="G27" s="3">
-        <v>403300</v>
+        <v>367200</v>
       </c>
       <c r="H27" s="3">
-        <v>328000</v>
+        <v>394200</v>
       </c>
       <c r="I27" s="3">
-        <v>240600</v>
+        <v>320600</v>
       </c>
       <c r="J27" s="3">
+        <v>235200</v>
+      </c>
+      <c r="K27" s="3">
         <v>79500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>136900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>105000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>60800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>42100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-59900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>57400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>121700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>113100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>57400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>112500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>68000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>74500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>83100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-174200</v>
+        <v>-37100</v>
       </c>
       <c r="E32" s="3">
-        <v>-84400</v>
+        <v>-170300</v>
       </c>
       <c r="F32" s="3">
-        <v>-135100</v>
+        <v>-82500</v>
       </c>
       <c r="G32" s="3">
-        <v>-217000</v>
+        <v>-132000</v>
       </c>
       <c r="H32" s="3">
-        <v>-91200</v>
+        <v>-212100</v>
       </c>
       <c r="I32" s="3">
-        <v>-48300</v>
+        <v>-89200</v>
       </c>
       <c r="J32" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="K32" s="3">
         <v>71100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-54100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-68700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>44200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>30300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-58400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-25000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-70200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-36700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-16600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-11300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>628900</v>
+        <v>561600</v>
       </c>
       <c r="E33" s="3">
-        <v>430200</v>
+        <v>614800</v>
       </c>
       <c r="F33" s="3">
-        <v>375600</v>
+        <v>420500</v>
       </c>
       <c r="G33" s="3">
-        <v>403300</v>
+        <v>367200</v>
       </c>
       <c r="H33" s="3">
-        <v>328000</v>
+        <v>394200</v>
       </c>
       <c r="I33" s="3">
-        <v>240600</v>
+        <v>320600</v>
       </c>
       <c r="J33" s="3">
+        <v>235200</v>
+      </c>
+      <c r="K33" s="3">
         <v>79500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>136900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>105000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>60800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>42100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-59900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>57400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>121700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>113100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>57400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>112500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>68000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>74500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>83100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>628900</v>
+        <v>561600</v>
       </c>
       <c r="E35" s="3">
-        <v>430200</v>
+        <v>614800</v>
       </c>
       <c r="F35" s="3">
-        <v>375600</v>
+        <v>420500</v>
       </c>
       <c r="G35" s="3">
-        <v>403300</v>
+        <v>367200</v>
       </c>
       <c r="H35" s="3">
-        <v>328000</v>
+        <v>394200</v>
       </c>
       <c r="I35" s="3">
-        <v>240600</v>
+        <v>320600</v>
       </c>
       <c r="J35" s="3">
+        <v>235200</v>
+      </c>
+      <c r="K35" s="3">
         <v>79500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>136900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>105000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>60800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>42100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-59900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>57400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>121700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>113100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>57400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>112500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>68000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>74500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>83100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2661,620 +2746,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4074000</v>
+        <v>4669600</v>
       </c>
       <c r="E41" s="3">
-        <v>4466500</v>
+        <v>3982400</v>
       </c>
       <c r="F41" s="3">
-        <v>3864400</v>
+        <v>4366100</v>
       </c>
       <c r="G41" s="3">
-        <v>3387600</v>
+        <v>3777500</v>
       </c>
       <c r="H41" s="3">
-        <v>3560200</v>
+        <v>3311400</v>
       </c>
       <c r="I41" s="3">
-        <v>3597400</v>
+        <v>3480100</v>
       </c>
       <c r="J41" s="3">
+        <v>3516500</v>
+      </c>
+      <c r="K41" s="3">
         <v>3427900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3407200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3111000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3157900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3112900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2934900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2718700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2500900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2565800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2647100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2266700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2208200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1983100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1877700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1802200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>266200</v>
+        <v>332600</v>
       </c>
       <c r="E42" s="3">
-        <v>36800</v>
+        <v>260300</v>
       </c>
       <c r="F42" s="3">
-        <v>37200</v>
+        <v>36000</v>
       </c>
       <c r="G42" s="3">
-        <v>43800</v>
+        <v>36300</v>
       </c>
       <c r="H42" s="3">
-        <v>33000</v>
+        <v>42800</v>
       </c>
       <c r="I42" s="3">
-        <v>36500</v>
+        <v>32300</v>
       </c>
       <c r="J42" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K42" s="3">
         <v>27100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>25800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>21400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>18500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>15600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>17400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>23200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>27400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>25900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>28300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>23300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1238300</v>
+        <v>1280600</v>
       </c>
       <c r="E43" s="3">
-        <v>1139000</v>
+        <v>1210400</v>
       </c>
       <c r="F43" s="3">
-        <v>1117100</v>
+        <v>1113400</v>
       </c>
       <c r="G43" s="3">
-        <v>1053100</v>
+        <v>1092000</v>
       </c>
       <c r="H43" s="3">
-        <v>1011400</v>
+        <v>1029500</v>
       </c>
       <c r="I43" s="3">
-        <v>1023100</v>
+        <v>988700</v>
       </c>
       <c r="J43" s="3">
+        <v>1000100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1084200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>949900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>871600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>898200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>832500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>866400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>908900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>959500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>886600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>734300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>785600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>748200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>705300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>782700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>761800</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>833900</v>
+        <v>810200</v>
       </c>
       <c r="E44" s="3">
-        <v>808300</v>
+        <v>815100</v>
       </c>
       <c r="F44" s="3">
-        <v>800600</v>
+        <v>790100</v>
       </c>
       <c r="G44" s="3">
-        <v>812300</v>
+        <v>782600</v>
       </c>
       <c r="H44" s="3">
-        <v>823500</v>
+        <v>794100</v>
       </c>
       <c r="I44" s="3">
-        <v>840800</v>
+        <v>805000</v>
       </c>
       <c r="J44" s="3">
+        <v>821900</v>
+      </c>
+      <c r="K44" s="3">
         <v>797000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>774800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>716800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>686000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>662100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>638600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>586600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>587300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>570000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>591700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>554300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>527800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>530300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>554300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>559800</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1209500</v>
+        <v>1120500</v>
       </c>
       <c r="E45" s="3">
-        <v>1035600</v>
+        <v>1182300</v>
       </c>
       <c r="F45" s="3">
-        <v>631300</v>
+        <v>1012300</v>
       </c>
       <c r="G45" s="3">
-        <v>621400</v>
+        <v>617100</v>
       </c>
       <c r="H45" s="3">
-        <v>460300</v>
+        <v>607400</v>
       </c>
       <c r="I45" s="3">
-        <v>551900</v>
+        <v>449900</v>
       </c>
       <c r="J45" s="3">
+        <v>539500</v>
+      </c>
+      <c r="K45" s="3">
         <v>412500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>328400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1140600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>496600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>522700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>494800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>445900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>496100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>497500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>513800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>407900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>381500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>390200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>364400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>340000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7622000</v>
+        <v>8213600</v>
       </c>
       <c r="E46" s="3">
-        <v>7486200</v>
+        <v>7450600</v>
       </c>
       <c r="F46" s="3">
-        <v>6450600</v>
+        <v>7317800</v>
       </c>
       <c r="G46" s="3">
-        <v>5918300</v>
+        <v>6305500</v>
       </c>
       <c r="H46" s="3">
-        <v>5888400</v>
+        <v>5785200</v>
       </c>
       <c r="I46" s="3">
-        <v>6049700</v>
+        <v>5756000</v>
       </c>
       <c r="J46" s="3">
+        <v>5913700</v>
+      </c>
+      <c r="K46" s="3">
         <v>5748600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5486100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5862800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5260200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5149600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4953100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4674100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4559400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4537400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4510200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4041800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3891700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3637200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3602400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3488300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2262700</v>
+        <v>2554400</v>
       </c>
       <c r="E47" s="3">
-        <v>2397300</v>
+        <v>2211800</v>
       </c>
       <c r="F47" s="3">
-        <v>2335400</v>
+        <v>2343400</v>
       </c>
       <c r="G47" s="3">
-        <v>2037900</v>
+        <v>2282900</v>
       </c>
       <c r="H47" s="3">
-        <v>1690600</v>
+        <v>1992100</v>
       </c>
       <c r="I47" s="3">
-        <v>1510500</v>
+        <v>1652600</v>
       </c>
       <c r="J47" s="3">
+        <v>1476500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1291600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1475200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1446500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1322600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1305600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1175400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1209300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1241200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1199400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1102700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1125500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1163800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1138100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1133700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1232600</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>5060200</v>
+        <v>5119200</v>
       </c>
       <c r="E48" s="3">
-        <v>4832200</v>
+        <v>4946400</v>
       </c>
       <c r="F48" s="3">
-        <v>4900600</v>
+        <v>4723500</v>
       </c>
       <c r="G48" s="3">
-        <v>5082700</v>
+        <v>4790400</v>
       </c>
       <c r="H48" s="3">
-        <v>5092400</v>
+        <v>4968400</v>
       </c>
       <c r="I48" s="3">
-        <v>5086600</v>
+        <v>4977900</v>
       </c>
       <c r="J48" s="3">
+        <v>4972200</v>
+      </c>
+      <c r="K48" s="3">
         <v>5388900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5669000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5641600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5850300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6191600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6086700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5969600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6308800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6577800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6677400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6764100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6921700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7101400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7375100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7060600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>151000</v>
+        <v>128300</v>
       </c>
       <c r="E49" s="3">
-        <v>167800</v>
+        <v>147600</v>
       </c>
       <c r="F49" s="3">
-        <v>167800</v>
+        <v>164000</v>
       </c>
       <c r="G49" s="3">
-        <v>175700</v>
+        <v>164000</v>
       </c>
       <c r="H49" s="3">
-        <v>178400</v>
+        <v>171800</v>
       </c>
       <c r="I49" s="3">
         <v>174400</v>
       </c>
       <c r="J49" s="3">
+        <v>170400</v>
+      </c>
+      <c r="K49" s="3">
         <v>172000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>185500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>130600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>145100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>117600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>105000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>106900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>119100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>122700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>122800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>125500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>123900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>120300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>133300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>349300</v>
+        <v>337000</v>
       </c>
       <c r="E52" s="3">
-        <v>305400</v>
+        <v>341400</v>
       </c>
       <c r="F52" s="3">
-        <v>347000</v>
+        <v>298500</v>
       </c>
       <c r="G52" s="3">
-        <v>383500</v>
+        <v>339200</v>
       </c>
       <c r="H52" s="3">
-        <v>414300</v>
+        <v>374800</v>
       </c>
       <c r="I52" s="3">
-        <v>417700</v>
+        <v>405000</v>
       </c>
       <c r="J52" s="3">
+        <v>408300</v>
+      </c>
+      <c r="K52" s="3">
         <v>382600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>392600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>331700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>351000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>360400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>470300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>468600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>439900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>386500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>359800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>394100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>403200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>374500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>364200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>307400</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>15445100</v>
+        <v>16352500</v>
       </c>
       <c r="E54" s="3">
-        <v>15188800</v>
+        <v>15097800</v>
       </c>
       <c r="F54" s="3">
-        <v>14201300</v>
+        <v>14847300</v>
       </c>
       <c r="G54" s="3">
-        <v>13598100</v>
+        <v>13882000</v>
       </c>
       <c r="H54" s="3">
-        <v>13264100</v>
+        <v>13292400</v>
       </c>
       <c r="I54" s="3">
-        <v>13238900</v>
+        <v>12965900</v>
       </c>
       <c r="J54" s="3">
+        <v>12941200</v>
+      </c>
+      <c r="K54" s="3">
         <v>12983600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13208300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13413200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12929200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13124700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12790300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12428500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12668400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12823700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12772800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12451000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12504300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12371600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12608800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12227400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>297600</v>
+        <v>294500</v>
       </c>
       <c r="E57" s="3">
-        <v>303300</v>
+        <v>291000</v>
       </c>
       <c r="F57" s="3">
-        <v>297600</v>
+        <v>296500</v>
       </c>
       <c r="G57" s="3">
-        <v>283200</v>
+        <v>290900</v>
       </c>
       <c r="H57" s="3">
-        <v>277300</v>
+        <v>276800</v>
       </c>
       <c r="I57" s="3">
-        <v>308200</v>
+        <v>271100</v>
       </c>
       <c r="J57" s="3">
+        <v>301300</v>
+      </c>
+      <c r="K57" s="3">
         <v>321400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>316700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>237700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>241600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>237800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>238600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>229600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>246400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>232700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>211800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>214200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>215400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>210000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>223500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>219900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>893700</v>
+        <v>1401800</v>
       </c>
       <c r="E58" s="3">
-        <v>727700</v>
+        <v>873600</v>
       </c>
       <c r="F58" s="3">
-        <v>1362900</v>
+        <v>711400</v>
       </c>
       <c r="G58" s="3">
-        <v>1390100</v>
+        <v>1332200</v>
       </c>
       <c r="H58" s="3">
-        <v>610500</v>
+        <v>1358800</v>
       </c>
       <c r="I58" s="3">
-        <v>644500</v>
+        <v>596800</v>
       </c>
       <c r="J58" s="3">
+        <v>630000</v>
+      </c>
+      <c r="K58" s="3">
         <v>933900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1333700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1454100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1393900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>834900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>639300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>677900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>573100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1330300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1711600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1579800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1561900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1185000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1012600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1534200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1853900</v>
+        <v>2016700</v>
       </c>
       <c r="E59" s="3">
-        <v>2030800</v>
+        <v>1812300</v>
       </c>
       <c r="F59" s="3">
-        <v>1168200</v>
+        <v>1985200</v>
       </c>
       <c r="G59" s="3">
-        <v>1145000</v>
+        <v>1142000</v>
       </c>
       <c r="H59" s="3">
-        <v>1242800</v>
+        <v>1119300</v>
       </c>
       <c r="I59" s="3">
-        <v>1392500</v>
+        <v>1214800</v>
       </c>
       <c r="J59" s="3">
+        <v>1361200</v>
+      </c>
+      <c r="K59" s="3">
         <v>945700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>944000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>830100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1057600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>774100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>872500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>807700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1148500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>850600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>930700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>875200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1064900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>785700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1111100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>967000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3045300</v>
+        <v>3713000</v>
       </c>
       <c r="E60" s="3">
-        <v>3061900</v>
+        <v>2976800</v>
       </c>
       <c r="F60" s="3">
-        <v>2828700</v>
+        <v>2993000</v>
       </c>
       <c r="G60" s="3">
-        <v>2818300</v>
+        <v>2765100</v>
       </c>
       <c r="H60" s="3">
-        <v>2130600</v>
+        <v>2755000</v>
       </c>
       <c r="I60" s="3">
-        <v>2345200</v>
+        <v>2082700</v>
       </c>
       <c r="J60" s="3">
+        <v>2292500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2201000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2594400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2521900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2693100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1846800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1750500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1715300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1968000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2413600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2854100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2669200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2842200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2180600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2347200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2721000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>2006700</v>
+        <v>1561200</v>
       </c>
       <c r="E61" s="3">
-        <v>2007700</v>
+        <v>1961600</v>
       </c>
       <c r="F61" s="3">
-        <v>1175200</v>
+        <v>1962500</v>
       </c>
       <c r="G61" s="3">
-        <v>1073300</v>
+        <v>1148800</v>
       </c>
       <c r="H61" s="3">
-        <v>1968100</v>
+        <v>1049200</v>
       </c>
       <c r="I61" s="3">
-        <v>2120800</v>
+        <v>1923900</v>
       </c>
       <c r="J61" s="3">
+        <v>2073100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1906100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1903500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2169100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1775100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2473700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2353300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2249800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2253800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1749900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1728100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1696900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1660600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2032000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1980400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1294100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1114200</v>
+        <v>1177100</v>
       </c>
       <c r="E62" s="3">
-        <v>1467600</v>
+        <v>1089100</v>
       </c>
       <c r="F62" s="3">
-        <v>1204200</v>
+        <v>1434600</v>
       </c>
       <c r="G62" s="3">
-        <v>1213900</v>
+        <v>1177100</v>
       </c>
       <c r="H62" s="3">
-        <v>1208000</v>
+        <v>1186600</v>
       </c>
       <c r="I62" s="3">
-        <v>1237500</v>
+        <v>1180900</v>
       </c>
       <c r="J62" s="3">
+        <v>1209700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1282900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1316900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1369400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1397900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1444000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1441300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1374600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1435900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1469000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1253700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1135100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1091800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1092900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1148100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1070700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6171800</v>
+        <v>6459200</v>
       </c>
       <c r="E66" s="3">
-        <v>6540900</v>
+        <v>6033000</v>
       </c>
       <c r="F66" s="3">
-        <v>5211500</v>
+        <v>6393800</v>
       </c>
       <c r="G66" s="3">
-        <v>5109700</v>
+        <v>5094400</v>
       </c>
       <c r="H66" s="3">
-        <v>5312300</v>
+        <v>4994800</v>
       </c>
       <c r="I66" s="3">
-        <v>5706200</v>
+        <v>5192900</v>
       </c>
       <c r="J66" s="3">
+        <v>5577900</v>
+      </c>
+      <c r="K66" s="3">
         <v>5392400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5829500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6074900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5881100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5780400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5561400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5356200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5678100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5639300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5866800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5535000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5624800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5336500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5546200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5138300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>3611000</v>
+        <v>4062400</v>
       </c>
       <c r="E72" s="3">
-        <v>2966700</v>
+        <v>3529800</v>
       </c>
       <c r="F72" s="3">
-        <v>3254200</v>
+        <v>2900000</v>
       </c>
       <c r="G72" s="3">
-        <v>2888000</v>
+        <v>3181000</v>
       </c>
       <c r="H72" s="3">
-        <v>2519700</v>
+        <v>2823000</v>
       </c>
       <c r="I72" s="3">
-        <v>2193800</v>
+        <v>2463000</v>
       </c>
       <c r="J72" s="3">
+        <v>2144500</v>
+      </c>
+      <c r="K72" s="3">
         <v>2400700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2181900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2072300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1935700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2153400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2160500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2158800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2129100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2307700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1557800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1529000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1457800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1603500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1554000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1561100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>9273300</v>
+        <v>9893300</v>
       </c>
       <c r="E76" s="3">
-        <v>8647900</v>
+        <v>9064800</v>
       </c>
       <c r="F76" s="3">
-        <v>8989800</v>
+        <v>8453400</v>
       </c>
       <c r="G76" s="3">
-        <v>8488500</v>
+        <v>8787600</v>
       </c>
       <c r="H76" s="3">
-        <v>7951800</v>
+        <v>8297600</v>
       </c>
       <c r="I76" s="3">
-        <v>7532800</v>
+        <v>7773000</v>
       </c>
       <c r="J76" s="3">
+        <v>7363400</v>
+      </c>
+      <c r="K76" s="3">
         <v>7591300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7378800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7338400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7048200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7344400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7228900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7072400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6990300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7184400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6905900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6916000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6879500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7035100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7062700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7089100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>628900</v>
+        <v>561600</v>
       </c>
       <c r="E81" s="3">
-        <v>430200</v>
+        <v>614800</v>
       </c>
       <c r="F81" s="3">
-        <v>375600</v>
+        <v>420500</v>
       </c>
       <c r="G81" s="3">
-        <v>403300</v>
+        <v>367200</v>
       </c>
       <c r="H81" s="3">
-        <v>328000</v>
+        <v>394200</v>
       </c>
       <c r="I81" s="3">
-        <v>240600</v>
+        <v>320600</v>
       </c>
       <c r="J81" s="3">
+        <v>235200</v>
+      </c>
+      <c r="K81" s="3">
         <v>79500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>136900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>105000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>60800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>42100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-59900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>57400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>121700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>113100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>57400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>112500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>68000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>74500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>83100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>423400</v>
+        <v>416100</v>
       </c>
       <c r="E83" s="3">
-        <v>420400</v>
+        <v>413800</v>
       </c>
       <c r="F83" s="3">
-        <v>426200</v>
+        <v>410900</v>
       </c>
       <c r="G83" s="3">
-        <v>432000</v>
+        <v>416700</v>
       </c>
       <c r="H83" s="3">
-        <v>438300</v>
+        <v>422300</v>
       </c>
       <c r="I83" s="3">
-        <v>441200</v>
+        <v>428500</v>
       </c>
       <c r="J83" s="3">
+        <v>431300</v>
+      </c>
+      <c r="K83" s="3">
         <v>450100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>455800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>432100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>425900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>434300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>435500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>432700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>444800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>442000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>428700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>437100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>424300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>433500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>436200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>420700</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>797000</v>
+        <v>944400</v>
       </c>
       <c r="E89" s="3">
-        <v>832900</v>
+        <v>779000</v>
       </c>
       <c r="F89" s="3">
-        <v>658500</v>
+        <v>814200</v>
       </c>
       <c r="G89" s="3">
-        <v>578900</v>
+        <v>643700</v>
       </c>
       <c r="H89" s="3">
-        <v>667700</v>
+        <v>565900</v>
       </c>
       <c r="I89" s="3">
-        <v>590800</v>
+        <v>652700</v>
       </c>
       <c r="J89" s="3">
+        <v>577500</v>
+      </c>
+      <c r="K89" s="3">
         <v>530600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1339200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-110400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>428800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>287100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>425300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>526000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>474400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>291900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>418100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>371000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>480200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>434100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>507000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-628800</v>
+        <v>-517800</v>
       </c>
       <c r="E91" s="3">
-        <v>-306900</v>
+        <v>-614600</v>
       </c>
       <c r="F91" s="3">
-        <v>-264800</v>
+        <v>-300000</v>
       </c>
       <c r="G91" s="3">
-        <v>-422800</v>
+        <v>-258900</v>
       </c>
       <c r="H91" s="3">
-        <v>-241600</v>
+        <v>-413300</v>
       </c>
       <c r="I91" s="3">
-        <v>-153800</v>
+        <v>-236200</v>
       </c>
       <c r="J91" s="3">
+        <v>-150300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-130800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-124900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-127300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-136400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-195100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-153000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-187200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-129700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-190100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-355300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-236200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-270100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-588000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-724600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-666200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-836500</v>
+        <v>-469700</v>
       </c>
       <c r="E94" s="3">
-        <v>-665700</v>
+        <v>-817700</v>
       </c>
       <c r="F94" s="3">
-        <v>-256500</v>
+        <v>-650800</v>
       </c>
       <c r="G94" s="3">
-        <v>-628100</v>
+        <v>-250700</v>
       </c>
       <c r="H94" s="3">
-        <v>-204800</v>
+        <v>-614000</v>
       </c>
       <c r="I94" s="3">
-        <v>-283800</v>
+        <v>-200200</v>
       </c>
       <c r="J94" s="3">
+        <v>-277400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-328200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-636700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-142300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-146400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-199400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-161800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-182600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-202100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>22200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-195500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-161500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-262700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-531300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-597400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-502200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6045,11 +6278,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -6069,11 +6302,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>300</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -6084,10 +6317,13 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-225200</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-349200</v>
+        <v>224200</v>
       </c>
       <c r="E100" s="3">
-        <v>476800</v>
+        <v>-341300</v>
       </c>
       <c r="F100" s="3">
-        <v>92900</v>
+        <v>466100</v>
       </c>
       <c r="G100" s="3">
-        <v>-113600</v>
+        <v>90800</v>
       </c>
       <c r="H100" s="3">
-        <v>-491800</v>
+        <v>-111000</v>
       </c>
       <c r="I100" s="3">
-        <v>-106200</v>
+        <v>-480700</v>
       </c>
       <c r="J100" s="3">
+        <v>-103800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-210700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-346700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>148300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-226000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>76500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-108500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-359000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-456100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>169000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-149200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>22900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>255800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>137600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-3800</v>
+        <v>-11700</v>
       </c>
       <c r="E101" s="3">
-        <v>-41900</v>
+        <v>-3700</v>
       </c>
       <c r="F101" s="3">
-        <v>-18100</v>
+        <v>-41000</v>
       </c>
       <c r="G101" s="3">
-        <v>-9900</v>
+        <v>-17700</v>
       </c>
       <c r="H101" s="3">
-        <v>-8400</v>
+        <v>-9600</v>
       </c>
       <c r="I101" s="3">
-        <v>-31400</v>
+        <v>-8200</v>
       </c>
       <c r="J101" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-44200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-24800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>12500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>21900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-8700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-11100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-53200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>28300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-49900</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-392500</v>
+        <v>687200</v>
       </c>
       <c r="E102" s="3">
-        <v>602100</v>
+        <v>-383600</v>
       </c>
       <c r="F102" s="3">
-        <v>476800</v>
+        <v>588500</v>
       </c>
       <c r="G102" s="3">
-        <v>-172600</v>
+        <v>466100</v>
       </c>
       <c r="H102" s="3">
-        <v>-37200</v>
+        <v>-168700</v>
       </c>
       <c r="I102" s="3">
-        <v>169500</v>
+        <v>-36400</v>
       </c>
       <c r="J102" s="3">
+        <v>165700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-11700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>311700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-129200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>56700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>178100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>75100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>211000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-64900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-150700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>380400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>58500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>237300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>105400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>75400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>190500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>UMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2080900</v>
+        <v>2123400</v>
       </c>
       <c r="E8" s="3">
-        <v>1968500</v>
+        <v>1978700</v>
       </c>
       <c r="F8" s="3">
-        <v>1792500</v>
+        <v>1871800</v>
       </c>
       <c r="G8" s="3">
-        <v>1658300</v>
+        <v>1704400</v>
       </c>
       <c r="H8" s="3">
-        <v>1594900</v>
+        <v>1576800</v>
       </c>
       <c r="I8" s="3">
-        <v>1579900</v>
+        <v>1516500</v>
       </c>
       <c r="J8" s="3">
+        <v>1502300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1562800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1522500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1493200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1353300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1259300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1143000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1245900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1313500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1292200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1247200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1187200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1221800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1216600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1220200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1249200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1244500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1267400</v>
+        <v>1202600</v>
       </c>
       <c r="E9" s="3">
-        <v>1245100</v>
+        <v>1205200</v>
       </c>
       <c r="F9" s="3">
-        <v>1232300</v>
+        <v>1183900</v>
       </c>
       <c r="G9" s="3">
-        <v>1218400</v>
+        <v>1171800</v>
       </c>
       <c r="H9" s="3">
-        <v>1212900</v>
+        <v>1158500</v>
       </c>
       <c r="I9" s="3">
-        <v>1235900</v>
+        <v>1153300</v>
       </c>
       <c r="J9" s="3">
+        <v>1175200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1201700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1229900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1244500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1122600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1061800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1063700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1084500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1082700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1070200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1092800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>983100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1008100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>998200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>978000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>963500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>813500</v>
+        <v>920800</v>
       </c>
       <c r="E10" s="3">
-        <v>723400</v>
+        <v>773500</v>
       </c>
       <c r="F10" s="3">
-        <v>560100</v>
+        <v>687800</v>
       </c>
       <c r="G10" s="3">
-        <v>439900</v>
+        <v>532600</v>
       </c>
       <c r="H10" s="3">
-        <v>382000</v>
+        <v>418300</v>
       </c>
       <c r="I10" s="3">
-        <v>344000</v>
+        <v>363200</v>
       </c>
       <c r="J10" s="3">
+        <v>327100</v>
+      </c>
+      <c r="K10" s="3">
         <v>361200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>292600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>248600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>230700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>197500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>79400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>161400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>230800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>222000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>154400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>204100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>213700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>218400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>242200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>285600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>270700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>120200</v>
+        <v>101500</v>
       </c>
       <c r="E12" s="3">
-        <v>116300</v>
+        <v>114300</v>
       </c>
       <c r="F12" s="3">
-        <v>111600</v>
+        <v>110600</v>
       </c>
       <c r="G12" s="3">
-        <v>107400</v>
+        <v>106100</v>
       </c>
       <c r="H12" s="3">
-        <v>112500</v>
+        <v>102100</v>
       </c>
       <c r="I12" s="3">
-        <v>116700</v>
+        <v>106900</v>
       </c>
       <c r="J12" s="3">
+        <v>111000</v>
+      </c>
+      <c r="K12" s="3">
         <v>112800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>114700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>123200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>97400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>98500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>131400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>111000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>100700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>97300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>100100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>108400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>105200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>130100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>124700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1163,11 +1183,11 @@
       <c r="G14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>91</v>
@@ -1175,24 +1195,24 @@
       <c r="K14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="3">
         <v>-4900</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1200,25 +1220,28 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>8200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>9400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>34900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1460600</v>
+        <v>1375600</v>
       </c>
       <c r="E17" s="3">
-        <v>1435600</v>
+        <v>1388900</v>
       </c>
       <c r="F17" s="3">
-        <v>1394100</v>
+        <v>1365000</v>
       </c>
       <c r="G17" s="3">
-        <v>1389900</v>
+        <v>1325600</v>
       </c>
       <c r="H17" s="3">
-        <v>1397200</v>
+        <v>1321600</v>
       </c>
       <c r="I17" s="3">
-        <v>1328700</v>
+        <v>1328500</v>
       </c>
       <c r="J17" s="3">
+        <v>1263500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1357000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1399500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1416000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1263300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1197700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1199000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1268200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1232300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1186400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1221600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1133800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1178700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1165900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1184800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1209800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1198300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>620300</v>
+        <v>747700</v>
       </c>
       <c r="E18" s="3">
-        <v>532900</v>
+        <v>589800</v>
       </c>
       <c r="F18" s="3">
-        <v>398300</v>
+        <v>506700</v>
       </c>
       <c r="G18" s="3">
-        <v>268400</v>
+        <v>378800</v>
       </c>
       <c r="H18" s="3">
-        <v>197700</v>
+        <v>255200</v>
       </c>
       <c r="I18" s="3">
-        <v>251200</v>
+        <v>188000</v>
       </c>
       <c r="J18" s="3">
+        <v>238800</v>
+      </c>
+      <c r="K18" s="3">
         <v>205800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>123000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>77200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>90000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>61500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-56000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>81200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>105800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>25600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>53400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>43100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>50700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>35400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>39300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>37100</v>
+        <v>60400</v>
       </c>
       <c r="E20" s="3">
-        <v>170300</v>
+        <v>35300</v>
       </c>
       <c r="F20" s="3">
-        <v>82500</v>
+        <v>161900</v>
       </c>
       <c r="G20" s="3">
-        <v>132000</v>
+        <v>78500</v>
       </c>
       <c r="H20" s="3">
-        <v>212100</v>
+        <v>125500</v>
       </c>
       <c r="I20" s="3">
-        <v>89200</v>
+        <v>201700</v>
       </c>
       <c r="J20" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K20" s="3">
         <v>47200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-71100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>54100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>68700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-44200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-30300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>58400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>25000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>70200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>36700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>16600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>11300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1073500</v>
+        <v>1189500</v>
       </c>
       <c r="E21" s="3">
-        <v>1117000</v>
+        <v>1020700</v>
       </c>
       <c r="F21" s="3">
-        <v>891800</v>
+        <v>1062200</v>
       </c>
       <c r="G21" s="3">
-        <v>817100</v>
+        <v>848000</v>
       </c>
       <c r="H21" s="3">
-        <v>832100</v>
+        <v>776900</v>
       </c>
       <c r="I21" s="3">
-        <v>768800</v>
+        <v>791200</v>
       </c>
       <c r="J21" s="3">
+        <v>731000</v>
+      </c>
+      <c r="K21" s="3">
         <v>684300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>502000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>587100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>529800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>492400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>446900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>369000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>483500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>537800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>526000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>507000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>550400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>511800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>485400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>486800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>496600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="E22" s="3">
-        <v>18300</v>
+        <v>16600</v>
       </c>
       <c r="F22" s="3">
-        <v>16300</v>
+        <v>17400</v>
       </c>
       <c r="G22" s="3">
-        <v>13700</v>
+        <v>15500</v>
       </c>
       <c r="H22" s="3">
-        <v>14300</v>
+        <v>13000</v>
       </c>
       <c r="I22" s="3">
-        <v>16200</v>
+        <v>13600</v>
       </c>
       <c r="J22" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K22" s="3">
         <v>18400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>22300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>26800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>26600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>24900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>23300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>22300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>21700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>20400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>18800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>17200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>15800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>639900</v>
+        <v>791700</v>
       </c>
       <c r="E23" s="3">
-        <v>684900</v>
+        <v>608500</v>
       </c>
       <c r="F23" s="3">
-        <v>464600</v>
+        <v>651200</v>
       </c>
       <c r="G23" s="3">
-        <v>386700</v>
+        <v>441700</v>
       </c>
       <c r="H23" s="3">
-        <v>395500</v>
+        <v>367700</v>
       </c>
       <c r="I23" s="3">
-        <v>324200</v>
+        <v>376100</v>
       </c>
       <c r="J23" s="3">
+        <v>308200</v>
+      </c>
+      <c r="K23" s="3">
         <v>234600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>29600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>105800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>70900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>40000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-90700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>27600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>69400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>61800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>56700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>92900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>68600</v>
-      </c>
-      <c r="W23" s="3">
-        <v>34800</v>
       </c>
       <c r="X23" s="3">
         <v>34800</v>
       </c>
       <c r="Y23" s="3">
+        <v>34800</v>
+      </c>
+      <c r="Z23" s="3">
         <v>63600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>76400</v>
+        <v>119900</v>
       </c>
       <c r="E24" s="3">
-        <v>73900</v>
+        <v>72600</v>
       </c>
       <c r="F24" s="3">
-        <v>46800</v>
+        <v>70300</v>
       </c>
       <c r="G24" s="3">
-        <v>38500</v>
+        <v>44500</v>
       </c>
       <c r="H24" s="3">
-        <v>12100</v>
+        <v>36600</v>
       </c>
       <c r="I24" s="3">
-        <v>6900</v>
+        <v>11500</v>
       </c>
       <c r="J24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K24" s="3">
         <v>21600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-14700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-15500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-11000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-39000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>18000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>20700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-14000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>20100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>563500</v>
+        <v>671800</v>
       </c>
       <c r="E26" s="3">
-        <v>611000</v>
+        <v>535800</v>
       </c>
       <c r="F26" s="3">
-        <v>417800</v>
+        <v>580900</v>
       </c>
       <c r="G26" s="3">
-        <v>348200</v>
+        <v>397300</v>
       </c>
       <c r="H26" s="3">
-        <v>383400</v>
+        <v>331100</v>
       </c>
       <c r="I26" s="3">
-        <v>317200</v>
+        <v>364600</v>
       </c>
       <c r="J26" s="3">
+        <v>301600</v>
+      </c>
+      <c r="K26" s="3">
         <v>213100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>44300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>112600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>69500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>32900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-105200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>80400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>100800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>38700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>79900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>47900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>48800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>14600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>561600</v>
+        <v>663200</v>
       </c>
       <c r="E27" s="3">
-        <v>614800</v>
+        <v>534000</v>
       </c>
       <c r="F27" s="3">
-        <v>420500</v>
+        <v>584600</v>
       </c>
       <c r="G27" s="3">
-        <v>367200</v>
+        <v>399900</v>
       </c>
       <c r="H27" s="3">
-        <v>394200</v>
+        <v>349100</v>
       </c>
       <c r="I27" s="3">
-        <v>320600</v>
+        <v>374800</v>
       </c>
       <c r="J27" s="3">
+        <v>304900</v>
+      </c>
+      <c r="K27" s="3">
         <v>235200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>79500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>136900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>105000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>60800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>42100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-59900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>57400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>121700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>113100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>57400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>112500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>68000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>74500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>83100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-37100</v>
+        <v>-60400</v>
       </c>
       <c r="E32" s="3">
-        <v>-170300</v>
+        <v>-35300</v>
       </c>
       <c r="F32" s="3">
-        <v>-82500</v>
+        <v>-161900</v>
       </c>
       <c r="G32" s="3">
-        <v>-132000</v>
+        <v>-78500</v>
       </c>
       <c r="H32" s="3">
-        <v>-212100</v>
+        <v>-125500</v>
       </c>
       <c r="I32" s="3">
-        <v>-89200</v>
+        <v>-201700</v>
       </c>
       <c r="J32" s="3">
+        <v>-84800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-47200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>71100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-54100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-68700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>44200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>30300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-58400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-25000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-70200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-36700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-16600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>561600</v>
+        <v>663200</v>
       </c>
       <c r="E33" s="3">
-        <v>614800</v>
+        <v>534000</v>
       </c>
       <c r="F33" s="3">
-        <v>420500</v>
+        <v>584600</v>
       </c>
       <c r="G33" s="3">
-        <v>367200</v>
+        <v>399900</v>
       </c>
       <c r="H33" s="3">
-        <v>394200</v>
+        <v>349100</v>
       </c>
       <c r="I33" s="3">
-        <v>320600</v>
+        <v>374800</v>
       </c>
       <c r="J33" s="3">
+        <v>304900</v>
+      </c>
+      <c r="K33" s="3">
         <v>235200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>79500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>136900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>105000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>60800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>42100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-59900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>57400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>121700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>113100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>57400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>112500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>68000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>74500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>83100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>561600</v>
+        <v>663200</v>
       </c>
       <c r="E35" s="3">
-        <v>614800</v>
+        <v>534000</v>
       </c>
       <c r="F35" s="3">
-        <v>420500</v>
+        <v>584600</v>
       </c>
       <c r="G35" s="3">
-        <v>367200</v>
+        <v>399900</v>
       </c>
       <c r="H35" s="3">
-        <v>394200</v>
+        <v>349100</v>
       </c>
       <c r="I35" s="3">
-        <v>320600</v>
+        <v>374800</v>
       </c>
       <c r="J35" s="3">
+        <v>304900</v>
+      </c>
+      <c r="K35" s="3">
         <v>235200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>79500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>136900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>105000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>60800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>42100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-59900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>57400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>121700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>113100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>57400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>112500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>68000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>74500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>83100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2747,647 +2833,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4669600</v>
+        <v>5764300</v>
       </c>
       <c r="E41" s="3">
-        <v>3982400</v>
+        <v>4440200</v>
       </c>
       <c r="F41" s="3">
-        <v>4366100</v>
+        <v>3786800</v>
       </c>
       <c r="G41" s="3">
-        <v>3777500</v>
+        <v>4151500</v>
       </c>
       <c r="H41" s="3">
-        <v>3311400</v>
+        <v>3591900</v>
       </c>
       <c r="I41" s="3">
-        <v>3480100</v>
+        <v>3148700</v>
       </c>
       <c r="J41" s="3">
+        <v>3309100</v>
+      </c>
+      <c r="K41" s="3">
         <v>3516500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3427900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3407200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3111000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3157900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3112900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2934900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2718700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2500900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2565800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2647100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2266700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2208200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1983100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1877700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1802200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>332600</v>
+        <v>230300</v>
       </c>
       <c r="E42" s="3">
-        <v>260300</v>
+        <v>316300</v>
       </c>
       <c r="F42" s="3">
-        <v>36000</v>
+        <v>247500</v>
       </c>
       <c r="G42" s="3">
-        <v>36300</v>
+        <v>34200</v>
       </c>
       <c r="H42" s="3">
-        <v>42800</v>
+        <v>34500</v>
       </c>
       <c r="I42" s="3">
-        <v>32300</v>
+        <v>40700</v>
       </c>
       <c r="J42" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K42" s="3">
         <v>35700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>27100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>25800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>22700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>21400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>18500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>15600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>17400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>23200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>27400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>25900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>28300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>23300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1280600</v>
+        <v>1311500</v>
       </c>
       <c r="E43" s="3">
-        <v>1210400</v>
+        <v>1217700</v>
       </c>
       <c r="F43" s="3">
-        <v>1113400</v>
+        <v>1151000</v>
       </c>
       <c r="G43" s="3">
-        <v>1092000</v>
+        <v>1058700</v>
       </c>
       <c r="H43" s="3">
-        <v>1029500</v>
+        <v>1038300</v>
       </c>
       <c r="I43" s="3">
-        <v>988700</v>
+        <v>978900</v>
       </c>
       <c r="J43" s="3">
+        <v>940100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1000100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1084200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>949900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>871600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>898200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>832500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>866400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>908900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>959500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>886600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>734300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>785600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>748200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>705300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>782700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>761800</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>810200</v>
+        <v>850400</v>
       </c>
       <c r="E44" s="3">
-        <v>815100</v>
+        <v>770400</v>
       </c>
       <c r="F44" s="3">
-        <v>790100</v>
+        <v>775100</v>
       </c>
       <c r="G44" s="3">
-        <v>782600</v>
+        <v>751300</v>
       </c>
       <c r="H44" s="3">
-        <v>794100</v>
+        <v>744100</v>
       </c>
       <c r="I44" s="3">
-        <v>805000</v>
+        <v>755100</v>
       </c>
       <c r="J44" s="3">
+        <v>765500</v>
+      </c>
+      <c r="K44" s="3">
         <v>821900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>797000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>774800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>716800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>686000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>662100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>638600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>586600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>587300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>570000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>591700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>554300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>527800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>530300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>554300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>559800</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1120500</v>
+        <v>202900</v>
       </c>
       <c r="E45" s="3">
-        <v>1182300</v>
+        <v>1065400</v>
       </c>
       <c r="F45" s="3">
-        <v>1012300</v>
+        <v>1124300</v>
       </c>
       <c r="G45" s="3">
-        <v>617100</v>
+        <v>962600</v>
       </c>
       <c r="H45" s="3">
-        <v>607400</v>
+        <v>586800</v>
       </c>
       <c r="I45" s="3">
-        <v>449900</v>
+        <v>577600</v>
       </c>
       <c r="J45" s="3">
+        <v>427800</v>
+      </c>
+      <c r="K45" s="3">
         <v>539500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>412500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>328400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1140600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>496600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>522700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>494800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>445900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>496100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>497500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>513800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>407900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>381500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>390200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>364400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>340000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>8213600</v>
+        <v>8359400</v>
       </c>
       <c r="E46" s="3">
-        <v>7450600</v>
+        <v>7810000</v>
       </c>
       <c r="F46" s="3">
-        <v>7317800</v>
+        <v>7084500</v>
       </c>
       <c r="G46" s="3">
-        <v>6305500</v>
+        <v>6958300</v>
       </c>
       <c r="H46" s="3">
-        <v>5785200</v>
+        <v>5995700</v>
       </c>
       <c r="I46" s="3">
-        <v>5756000</v>
+        <v>5501000</v>
       </c>
       <c r="J46" s="3">
+        <v>5473200</v>
+      </c>
+      <c r="K46" s="3">
         <v>5913700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5748600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5486100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5862800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5260200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5149600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4953100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4674100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4559400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4537400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4510200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4041800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3891700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3637200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3602400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3488300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2554400</v>
+        <v>2423700</v>
       </c>
       <c r="E47" s="3">
-        <v>2211800</v>
+        <v>2428900</v>
       </c>
       <c r="F47" s="3">
-        <v>2343400</v>
+        <v>2103100</v>
       </c>
       <c r="G47" s="3">
-        <v>2282900</v>
+        <v>2228200</v>
       </c>
       <c r="H47" s="3">
-        <v>1992100</v>
+        <v>2170700</v>
       </c>
       <c r="I47" s="3">
-        <v>1652600</v>
+        <v>1894200</v>
       </c>
       <c r="J47" s="3">
+        <v>1571400</v>
+      </c>
+      <c r="K47" s="3">
         <v>1476500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1291600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1475200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1446500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1322600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1305600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1175400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1209300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1241200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1199400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1102700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1125500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1163800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1138100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1133700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1232600</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>5119200</v>
+        <v>4929500</v>
       </c>
       <c r="E48" s="3">
-        <v>4946400</v>
+        <v>4867700</v>
       </c>
       <c r="F48" s="3">
-        <v>4723500</v>
+        <v>4703400</v>
       </c>
       <c r="G48" s="3">
-        <v>4790400</v>
+        <v>4491400</v>
       </c>
       <c r="H48" s="3">
-        <v>4968400</v>
+        <v>4555100</v>
       </c>
       <c r="I48" s="3">
-        <v>4977900</v>
+        <v>4724300</v>
       </c>
       <c r="J48" s="3">
+        <v>4733300</v>
+      </c>
+      <c r="K48" s="3">
         <v>4972200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5388900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5669000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5641600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5850300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6191600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6086700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5969600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6308800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6577800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6677400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6764100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6921700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7101400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7375100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7060600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>128300</v>
+        <v>120600</v>
       </c>
       <c r="E49" s="3">
-        <v>147600</v>
+        <v>122000</v>
       </c>
       <c r="F49" s="3">
-        <v>164000</v>
+        <v>140300</v>
       </c>
       <c r="G49" s="3">
-        <v>164000</v>
+        <v>156000</v>
       </c>
       <c r="H49" s="3">
-        <v>171800</v>
+        <v>155900</v>
       </c>
       <c r="I49" s="3">
-        <v>174400</v>
+        <v>163300</v>
       </c>
       <c r="J49" s="3">
+        <v>165800</v>
+      </c>
+      <c r="K49" s="3">
         <v>170400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>172000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>185500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>130600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>145100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>117600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>105000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>106900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>119100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>122700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>122800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>125500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>123900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>120300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>133300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>337000</v>
+        <v>334600</v>
       </c>
       <c r="E52" s="3">
-        <v>341400</v>
+        <v>320400</v>
       </c>
       <c r="F52" s="3">
-        <v>298500</v>
+        <v>324700</v>
       </c>
       <c r="G52" s="3">
-        <v>339200</v>
+        <v>283900</v>
       </c>
       <c r="H52" s="3">
-        <v>374800</v>
+        <v>322500</v>
       </c>
       <c r="I52" s="3">
-        <v>405000</v>
+        <v>356400</v>
       </c>
       <c r="J52" s="3">
+        <v>385100</v>
+      </c>
+      <c r="K52" s="3">
         <v>408300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>382600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>392600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>331700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>351000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>360400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>470300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>468600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>439900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>386500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>359800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>394100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>403200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>374500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>364200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>307400</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>16352500</v>
+        <v>16167800</v>
       </c>
       <c r="E54" s="3">
-        <v>15097800</v>
+        <v>15549000</v>
       </c>
       <c r="F54" s="3">
-        <v>14847300</v>
+        <v>14356000</v>
       </c>
       <c r="G54" s="3">
-        <v>13882000</v>
+        <v>14117800</v>
       </c>
       <c r="H54" s="3">
-        <v>13292400</v>
+        <v>13199900</v>
       </c>
       <c r="I54" s="3">
-        <v>12965900</v>
+        <v>12639200</v>
       </c>
       <c r="J54" s="3">
+        <v>12328800</v>
+      </c>
+      <c r="K54" s="3">
         <v>12941200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12983600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13208300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13413200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12929200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13124700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12790300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12428500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12668400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12823700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12772800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12451000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12504300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12371600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12608800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12227400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>294500</v>
+        <v>303400</v>
       </c>
       <c r="E57" s="3">
-        <v>291000</v>
+        <v>280000</v>
       </c>
       <c r="F57" s="3">
-        <v>296500</v>
+        <v>276700</v>
       </c>
       <c r="G57" s="3">
-        <v>290900</v>
+        <v>281900</v>
       </c>
       <c r="H57" s="3">
-        <v>276800</v>
+        <v>276600</v>
       </c>
       <c r="I57" s="3">
-        <v>271100</v>
+        <v>263200</v>
       </c>
       <c r="J57" s="3">
+        <v>257800</v>
+      </c>
+      <c r="K57" s="3">
         <v>301300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>321400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>316700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>237700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>241600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>237800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>238600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>229600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>246400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>232700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>211800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>214200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>215400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>210000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>223500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>219900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1401800</v>
+        <v>774900</v>
       </c>
       <c r="E58" s="3">
-        <v>873600</v>
+        <v>1333000</v>
       </c>
       <c r="F58" s="3">
-        <v>711400</v>
+        <v>830700</v>
       </c>
       <c r="G58" s="3">
-        <v>1332200</v>
+        <v>676400</v>
       </c>
       <c r="H58" s="3">
-        <v>1358800</v>
+        <v>1266800</v>
       </c>
       <c r="I58" s="3">
-        <v>596800</v>
+        <v>1292100</v>
       </c>
       <c r="J58" s="3">
+        <v>567500</v>
+      </c>
+      <c r="K58" s="3">
         <v>630000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>933900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1333700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1454100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1393900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>834900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>639300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>677900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>573100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1330300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1711600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1579800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1561900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1185000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1012600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1534200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2016700</v>
+        <v>2039400</v>
       </c>
       <c r="E59" s="3">
-        <v>1812300</v>
+        <v>1917600</v>
       </c>
       <c r="F59" s="3">
-        <v>1985200</v>
+        <v>1723200</v>
       </c>
       <c r="G59" s="3">
-        <v>1142000</v>
+        <v>1887600</v>
       </c>
       <c r="H59" s="3">
-        <v>1119300</v>
+        <v>1085900</v>
       </c>
       <c r="I59" s="3">
-        <v>1214800</v>
+        <v>1064300</v>
       </c>
       <c r="J59" s="3">
+        <v>1155100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1361200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>945700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>944000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>830100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1057600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>774100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>872500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>807700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1148500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>850600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>930700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>875200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1064900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>785700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1111100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>967000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3713000</v>
+        <v>3117700</v>
       </c>
       <c r="E60" s="3">
-        <v>2976800</v>
+        <v>3530600</v>
       </c>
       <c r="F60" s="3">
-        <v>2993000</v>
+        <v>2830600</v>
       </c>
       <c r="G60" s="3">
-        <v>2765100</v>
+        <v>2846000</v>
       </c>
       <c r="H60" s="3">
-        <v>2755000</v>
+        <v>2629200</v>
       </c>
       <c r="I60" s="3">
-        <v>2082700</v>
+        <v>2619600</v>
       </c>
       <c r="J60" s="3">
+        <v>1980400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2292500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2201000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2594400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2521900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2693100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1846800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1750500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1715300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1968000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2413600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2854100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2669200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2842200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2180600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2347200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2721000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1561200</v>
+        <v>1826300</v>
       </c>
       <c r="E61" s="3">
-        <v>1961600</v>
+        <v>1484500</v>
       </c>
       <c r="F61" s="3">
-        <v>1962500</v>
+        <v>1865200</v>
       </c>
       <c r="G61" s="3">
-        <v>1148800</v>
+        <v>1866100</v>
       </c>
       <c r="H61" s="3">
-        <v>1049200</v>
+        <v>1092400</v>
       </c>
       <c r="I61" s="3">
-        <v>1923900</v>
+        <v>997600</v>
       </c>
       <c r="J61" s="3">
+        <v>1829400</v>
+      </c>
+      <c r="K61" s="3">
         <v>2073100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1906100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1903500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2169100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1775100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2473700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2353300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2249800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2253800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1749900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1728100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1696900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1660600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2032000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1980400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1294100</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1177100</v>
+        <v>1103300</v>
       </c>
       <c r="E62" s="3">
-        <v>1089100</v>
+        <v>1119200</v>
       </c>
       <c r="F62" s="3">
-        <v>1434600</v>
+        <v>1035600</v>
       </c>
       <c r="G62" s="3">
-        <v>1177100</v>
+        <v>1364100</v>
       </c>
       <c r="H62" s="3">
-        <v>1186600</v>
+        <v>1119300</v>
       </c>
       <c r="I62" s="3">
-        <v>1180900</v>
+        <v>1128300</v>
       </c>
       <c r="J62" s="3">
+        <v>1122900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1209700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1282900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1316900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1369400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1397900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1444000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1441300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1374600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1435900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1469000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1253700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1135100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1091800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1092900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1148100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1070700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6459200</v>
+        <v>6057100</v>
       </c>
       <c r="E66" s="3">
-        <v>6033000</v>
+        <v>6141800</v>
       </c>
       <c r="F66" s="3">
-        <v>6393800</v>
+        <v>5736600</v>
       </c>
       <c r="G66" s="3">
-        <v>5094400</v>
+        <v>6079700</v>
       </c>
       <c r="H66" s="3">
-        <v>4994800</v>
+        <v>4844000</v>
       </c>
       <c r="I66" s="3">
-        <v>5192900</v>
+        <v>4749400</v>
       </c>
       <c r="J66" s="3">
+        <v>4937700</v>
+      </c>
+      <c r="K66" s="3">
         <v>5577900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5392400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5829500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6074900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5881100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5780400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5561400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5356200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5678100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5639300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5866800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5535000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5624800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5336500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5546200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5138300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4062400</v>
+        <v>4520800</v>
       </c>
       <c r="E72" s="3">
-        <v>3529800</v>
+        <v>3862800</v>
       </c>
       <c r="F72" s="3">
-        <v>2900000</v>
+        <v>3356400</v>
       </c>
       <c r="G72" s="3">
-        <v>3181000</v>
+        <v>2757500</v>
       </c>
       <c r="H72" s="3">
-        <v>2823000</v>
+        <v>3024700</v>
       </c>
       <c r="I72" s="3">
-        <v>2463000</v>
+        <v>2684300</v>
       </c>
       <c r="J72" s="3">
+        <v>2342000</v>
+      </c>
+      <c r="K72" s="3">
         <v>2144500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2400700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2181900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2072300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1935700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2153400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2160500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2158800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2129100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2307700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1557800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1529000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1457800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1603500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1554000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1561100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>9893300</v>
+        <v>10110700</v>
       </c>
       <c r="E76" s="3">
-        <v>9064800</v>
+        <v>9407200</v>
       </c>
       <c r="F76" s="3">
-        <v>8453400</v>
+        <v>8619400</v>
       </c>
       <c r="G76" s="3">
-        <v>8787600</v>
+        <v>8038100</v>
       </c>
       <c r="H76" s="3">
-        <v>8297600</v>
+        <v>8355900</v>
       </c>
       <c r="I76" s="3">
-        <v>7773000</v>
+        <v>7889900</v>
       </c>
       <c r="J76" s="3">
+        <v>7391100</v>
+      </c>
+      <c r="K76" s="3">
         <v>7363400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7591300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7378800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7338400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7048200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7344400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7228900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7072400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6990300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7184400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6905900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6916000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6879500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7035100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7062700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7089100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>561600</v>
+        <v>663200</v>
       </c>
       <c r="E81" s="3">
-        <v>614800</v>
+        <v>534000</v>
       </c>
       <c r="F81" s="3">
-        <v>420500</v>
+        <v>584600</v>
       </c>
       <c r="G81" s="3">
-        <v>367200</v>
+        <v>399900</v>
       </c>
       <c r="H81" s="3">
-        <v>394200</v>
+        <v>349100</v>
       </c>
       <c r="I81" s="3">
-        <v>320600</v>
+        <v>374800</v>
       </c>
       <c r="J81" s="3">
+        <v>304900</v>
+      </c>
+      <c r="K81" s="3">
         <v>235200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>79500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>136900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>105000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>60800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>42100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-59900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>57400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>121700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>113100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>57400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>112500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>68000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>74500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>83100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>416100</v>
+        <v>381300</v>
       </c>
       <c r="E83" s="3">
-        <v>413800</v>
+        <v>395600</v>
       </c>
       <c r="F83" s="3">
-        <v>410900</v>
+        <v>393500</v>
       </c>
       <c r="G83" s="3">
-        <v>416700</v>
+        <v>390700</v>
       </c>
       <c r="H83" s="3">
-        <v>422300</v>
+        <v>396200</v>
       </c>
       <c r="I83" s="3">
-        <v>428500</v>
+        <v>401500</v>
       </c>
       <c r="J83" s="3">
+        <v>407400</v>
+      </c>
+      <c r="K83" s="3">
         <v>431300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>450100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>455800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>432100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>425900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>434300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>435500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>432700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>444800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>442000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>428700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>437100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>424300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>433500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>436200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>420700</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>944400</v>
+        <v>1008300</v>
       </c>
       <c r="E89" s="3">
-        <v>779000</v>
+        <v>898000</v>
       </c>
       <c r="F89" s="3">
-        <v>814200</v>
+        <v>740800</v>
       </c>
       <c r="G89" s="3">
-        <v>643700</v>
+        <v>774200</v>
       </c>
       <c r="H89" s="3">
-        <v>565900</v>
+        <v>612000</v>
       </c>
       <c r="I89" s="3">
-        <v>652700</v>
+        <v>538100</v>
       </c>
       <c r="J89" s="3">
+        <v>620700</v>
+      </c>
+      <c r="K89" s="3">
         <v>577500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>530600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1339200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-110400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>428800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>287100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>425300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>526000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>474400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>291900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>418100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>371000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>480200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>434100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>507000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-517800</v>
+        <v>-361700</v>
       </c>
       <c r="E91" s="3">
-        <v>-614600</v>
+        <v>-492400</v>
       </c>
       <c r="F91" s="3">
-        <v>-300000</v>
+        <v>-584400</v>
       </c>
       <c r="G91" s="3">
-        <v>-258900</v>
+        <v>-285200</v>
       </c>
       <c r="H91" s="3">
-        <v>-413300</v>
+        <v>-246100</v>
       </c>
       <c r="I91" s="3">
+        <v>-393000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-224500</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-150300</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-130800</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-124900</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-127300</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-136400</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-195100</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-187200</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-129700</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-190100</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-355300</v>
+      </c>
+      <c r="V91" s="3">
         <v>-236200</v>
       </c>
-      <c r="J91" s="3">
-        <v>-150300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-130800</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-124900</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-127300</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-136400</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-195100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-153000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-187200</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-129700</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-190100</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-355300</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-236200</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-270100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-588000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-724600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-666200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-469700</v>
+        <v>493900</v>
       </c>
       <c r="E94" s="3">
-        <v>-817700</v>
+        <v>-446600</v>
       </c>
       <c r="F94" s="3">
-        <v>-650800</v>
+        <v>-777500</v>
       </c>
       <c r="G94" s="3">
-        <v>-250700</v>
+        <v>-618800</v>
       </c>
       <c r="H94" s="3">
-        <v>-614000</v>
+        <v>-238400</v>
       </c>
       <c r="I94" s="3">
-        <v>-200200</v>
+        <v>-583800</v>
       </c>
       <c r="J94" s="3">
+        <v>-190400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-277400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-328200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-636700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-142300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-146400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-199400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-161800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-182600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-202100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>22200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-195500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-161500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-262700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-531300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-597400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-502200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6281,11 +6515,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -6305,11 +6539,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>300</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -6320,10 +6554,13 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-225200</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>224200</v>
+        <v>-266500</v>
       </c>
       <c r="E100" s="3">
-        <v>-341300</v>
+        <v>213200</v>
       </c>
       <c r="F100" s="3">
-        <v>466100</v>
+        <v>-324600</v>
       </c>
       <c r="G100" s="3">
-        <v>90800</v>
+        <v>443200</v>
       </c>
       <c r="H100" s="3">
-        <v>-111000</v>
+        <v>86400</v>
       </c>
       <c r="I100" s="3">
-        <v>-480700</v>
+        <v>-105500</v>
       </c>
       <c r="J100" s="3">
+        <v>-457100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-103800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-210700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-346700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>148300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-226000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>76500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-108500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-359000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-456100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>169000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-149200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>22900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>255800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>137600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-11700</v>
+        <v>88300</v>
       </c>
       <c r="E101" s="3">
-        <v>-3700</v>
+        <v>-11100</v>
       </c>
       <c r="F101" s="3">
-        <v>-41000</v>
+        <v>-3500</v>
       </c>
       <c r="G101" s="3">
-        <v>-17700</v>
+        <v>-39000</v>
       </c>
       <c r="H101" s="3">
-        <v>-9600</v>
+        <v>-16900</v>
       </c>
       <c r="I101" s="3">
-        <v>-8200</v>
+        <v>-9200</v>
       </c>
       <c r="J101" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-30700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-44200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-24800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>13900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>12500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-23900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>21900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-8700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-11100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-53200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>28300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-49900</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>687200</v>
+        <v>1324100</v>
       </c>
       <c r="E102" s="3">
-        <v>-383600</v>
+        <v>653400</v>
       </c>
       <c r="F102" s="3">
-        <v>588500</v>
+        <v>-364800</v>
       </c>
       <c r="G102" s="3">
-        <v>466100</v>
+        <v>559600</v>
       </c>
       <c r="H102" s="3">
-        <v>-168700</v>
+        <v>443200</v>
       </c>
       <c r="I102" s="3">
-        <v>-36400</v>
+        <v>-160400</v>
       </c>
       <c r="J102" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="K102" s="3">
         <v>165700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>311700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-129200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>56700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>178100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>75100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>211000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-64900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-150700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>380400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>58500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>237300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>105400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>75400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>190500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>UMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2123400</v>
+        <v>2385000</v>
       </c>
       <c r="E8" s="3">
-        <v>1978700</v>
+        <v>2099300</v>
       </c>
       <c r="F8" s="3">
-        <v>1871800</v>
+        <v>1956200</v>
       </c>
       <c r="G8" s="3">
-        <v>1704400</v>
+        <v>1850500</v>
       </c>
       <c r="H8" s="3">
-        <v>1576800</v>
+        <v>1685000</v>
       </c>
       <c r="I8" s="3">
-        <v>1516500</v>
+        <v>1558900</v>
       </c>
       <c r="J8" s="3">
+        <v>1499300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1502300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1562800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1522500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1493200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1353300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1259300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1143000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1245900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1313500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1292200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1247200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1187200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1221800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1216600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1220200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1249200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1244500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1202600</v>
+        <v>1277100</v>
       </c>
       <c r="E9" s="3">
-        <v>1205200</v>
+        <v>1188900</v>
       </c>
       <c r="F9" s="3">
-        <v>1183900</v>
+        <v>1191500</v>
       </c>
       <c r="G9" s="3">
-        <v>1171800</v>
+        <v>1170500</v>
       </c>
       <c r="H9" s="3">
         <v>1158500</v>
       </c>
       <c r="I9" s="3">
-        <v>1153300</v>
+        <v>1145300</v>
       </c>
       <c r="J9" s="3">
+        <v>1140200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1175200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1201700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1229900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1244500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1122600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1061800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1063700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1084500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1082700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1070200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1092800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>983100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1008100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>998200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>978000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>963500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>920800</v>
+        <v>1107900</v>
       </c>
       <c r="E10" s="3">
-        <v>773500</v>
+        <v>910400</v>
       </c>
       <c r="F10" s="3">
-        <v>687800</v>
+        <v>764700</v>
       </c>
       <c r="G10" s="3">
-        <v>532600</v>
+        <v>680000</v>
       </c>
       <c r="H10" s="3">
-        <v>418300</v>
+        <v>526600</v>
       </c>
       <c r="I10" s="3">
-        <v>363200</v>
+        <v>413600</v>
       </c>
       <c r="J10" s="3">
+        <v>359100</v>
+      </c>
+      <c r="K10" s="3">
         <v>327100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>361200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>292600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>248600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>230700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>197500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>79400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>161400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>230800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>222000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>154400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>204100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>213700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>218400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>242200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>285600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>270700</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>101500</v>
+        <v>106200</v>
       </c>
       <c r="E12" s="3">
-        <v>114300</v>
+        <v>100400</v>
       </c>
       <c r="F12" s="3">
-        <v>110600</v>
+        <v>113000</v>
       </c>
       <c r="G12" s="3">
-        <v>106100</v>
+        <v>109300</v>
       </c>
       <c r="H12" s="3">
-        <v>102100</v>
+        <v>104900</v>
       </c>
       <c r="I12" s="3">
-        <v>106900</v>
+        <v>100900</v>
       </c>
       <c r="J12" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K12" s="3">
         <v>111000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>112800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>114700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>123200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>100900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>97400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>98500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>131400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>111000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>100700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>97300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>100100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>108400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>105200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>130100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>124700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,11 +1206,11 @@
       <c r="H14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>91</v>
@@ -1198,24 +1218,24 @@
       <c r="L14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="3">
         <v>-4900</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1600</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1223,25 +1243,28 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>8200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>9400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>34900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
-        <v>1375600</v>
+      <c r="D17" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E17" s="3">
-        <v>1388900</v>
+        <v>1360000</v>
       </c>
       <c r="F17" s="3">
-        <v>1365000</v>
+        <v>1373100</v>
       </c>
       <c r="G17" s="3">
-        <v>1325600</v>
+        <v>1349500</v>
       </c>
       <c r="H17" s="3">
-        <v>1321600</v>
+        <v>1310600</v>
       </c>
       <c r="I17" s="3">
-        <v>1328500</v>
+        <v>1306600</v>
       </c>
       <c r="J17" s="3">
+        <v>1313500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1263500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1357000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1399500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1416000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1263300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1197700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1199000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1268200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1232300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1186400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1221600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1133800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1178700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1165900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1184800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1209800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1198300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
-        <v>747700</v>
+      <c r="D18" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E18" s="3">
-        <v>589800</v>
+        <v>739300</v>
       </c>
       <c r="F18" s="3">
-        <v>506700</v>
+        <v>583100</v>
       </c>
       <c r="G18" s="3">
-        <v>378800</v>
+        <v>501000</v>
       </c>
       <c r="H18" s="3">
-        <v>255200</v>
+        <v>374500</v>
       </c>
       <c r="I18" s="3">
-        <v>188000</v>
+        <v>252300</v>
       </c>
       <c r="J18" s="3">
+        <v>185900</v>
+      </c>
+      <c r="K18" s="3">
         <v>238800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>205800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>123000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>77200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>90000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>61500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-22300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>81200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>105800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>25600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>53400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>43100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>50700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>35400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>39300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
-        <v>60400</v>
+      <c r="D20" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E20" s="3">
-        <v>35300</v>
+        <v>59800</v>
       </c>
       <c r="F20" s="3">
-        <v>161900</v>
+        <v>34900</v>
       </c>
       <c r="G20" s="3">
-        <v>78500</v>
+        <v>160100</v>
       </c>
       <c r="H20" s="3">
-        <v>125500</v>
+        <v>77600</v>
       </c>
       <c r="I20" s="3">
-        <v>201700</v>
+        <v>124100</v>
       </c>
       <c r="J20" s="3">
+        <v>199400</v>
+      </c>
+      <c r="K20" s="3">
         <v>84800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>47200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-71100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>54100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>68700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-44200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-30300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-12800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>58400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>25000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>70200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>36700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>16600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>11300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>1189500</v>
+      <c r="D21" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E21" s="3">
-        <v>1020700</v>
+        <v>1176000</v>
       </c>
       <c r="F21" s="3">
-        <v>1062200</v>
+        <v>1009200</v>
       </c>
       <c r="G21" s="3">
-        <v>848000</v>
+        <v>1050100</v>
       </c>
       <c r="H21" s="3">
-        <v>776900</v>
+        <v>838400</v>
       </c>
       <c r="I21" s="3">
-        <v>791200</v>
+        <v>768100</v>
       </c>
       <c r="J21" s="3">
+        <v>782200</v>
+      </c>
+      <c r="K21" s="3">
         <v>731000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>684300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>502000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>587100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>529800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>492400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>446900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>369000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>483500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>537800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>526000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>507000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>550400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>511800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>485400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>486800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>496600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F22" s="3">
         <v>16500</v>
       </c>
-      <c r="E22" s="3">
-        <v>16600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>17400</v>
-      </c>
       <c r="G22" s="3">
-        <v>15500</v>
+        <v>17200</v>
       </c>
       <c r="H22" s="3">
-        <v>13000</v>
+        <v>15300</v>
       </c>
       <c r="I22" s="3">
-        <v>13600</v>
+        <v>12900</v>
       </c>
       <c r="J22" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K22" s="3">
         <v>15400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>22300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>26800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>26600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>24300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>23600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>22300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>21700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>20400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>18800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>17200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>15800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>791700</v>
+        <v>846600</v>
       </c>
       <c r="E23" s="3">
-        <v>608500</v>
+        <v>782700</v>
       </c>
       <c r="F23" s="3">
-        <v>651200</v>
+        <v>601600</v>
       </c>
       <c r="G23" s="3">
-        <v>441700</v>
+        <v>643900</v>
       </c>
       <c r="H23" s="3">
-        <v>367700</v>
+        <v>436700</v>
       </c>
       <c r="I23" s="3">
-        <v>376100</v>
+        <v>363500</v>
       </c>
       <c r="J23" s="3">
+        <v>371800</v>
+      </c>
+      <c r="K23" s="3">
         <v>308200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>234600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>29600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>105800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>70900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>40000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-90700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>27600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>69400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>61800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>56700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>92900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>68600</v>
-      </c>
-      <c r="X23" s="3">
-        <v>34800</v>
       </c>
       <c r="Y23" s="3">
         <v>34800</v>
       </c>
       <c r="Z23" s="3">
+        <v>34800</v>
+      </c>
+      <c r="AA23" s="3">
         <v>63600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>119900</v>
+        <v>135300</v>
       </c>
       <c r="E24" s="3">
-        <v>72600</v>
+        <v>118600</v>
       </c>
       <c r="F24" s="3">
-        <v>70300</v>
+        <v>71800</v>
       </c>
       <c r="G24" s="3">
-        <v>44500</v>
+        <v>69500</v>
       </c>
       <c r="H24" s="3">
-        <v>36600</v>
+        <v>43900</v>
       </c>
       <c r="I24" s="3">
-        <v>11500</v>
+        <v>36200</v>
       </c>
       <c r="J24" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K24" s="3">
         <v>6600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-14700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-11000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-39000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>20700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-14000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>20100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3">
-        <v>671800</v>
+      <c r="D26" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E26" s="3">
-        <v>535800</v>
+        <v>664200</v>
       </c>
       <c r="F26" s="3">
-        <v>580900</v>
+        <v>529800</v>
       </c>
       <c r="G26" s="3">
-        <v>397300</v>
+        <v>574300</v>
       </c>
       <c r="H26" s="3">
-        <v>331100</v>
+        <v>392800</v>
       </c>
       <c r="I26" s="3">
-        <v>364600</v>
+        <v>327300</v>
       </c>
       <c r="J26" s="3">
+        <v>360400</v>
+      </c>
+      <c r="K26" s="3">
         <v>301600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>213100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>44300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>112600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>69500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>32900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-105200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>80400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>100800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>38700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>79900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>47900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>48800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>14600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3">
-        <v>663200</v>
+      <c r="D27" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E27" s="3">
-        <v>534000</v>
+        <v>655600</v>
       </c>
       <c r="F27" s="3">
-        <v>584600</v>
+        <v>527900</v>
       </c>
       <c r="G27" s="3">
-        <v>399900</v>
+        <v>577900</v>
       </c>
       <c r="H27" s="3">
-        <v>349100</v>
+        <v>395300</v>
       </c>
       <c r="I27" s="3">
-        <v>374800</v>
+        <v>345200</v>
       </c>
       <c r="J27" s="3">
+        <v>370600</v>
+      </c>
+      <c r="K27" s="3">
         <v>304900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>235200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>79500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>136900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>105000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>60800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>42100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-59900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>57400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>121700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>113100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>57400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>112500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>68000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>74500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>83100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3">
-        <v>-60400</v>
+      <c r="D32" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E32" s="3">
-        <v>-35300</v>
+        <v>-59800</v>
       </c>
       <c r="F32" s="3">
-        <v>-161900</v>
+        <v>-34900</v>
       </c>
       <c r="G32" s="3">
-        <v>-78500</v>
+        <v>-160100</v>
       </c>
       <c r="H32" s="3">
-        <v>-125500</v>
+        <v>-77600</v>
       </c>
       <c r="I32" s="3">
-        <v>-201700</v>
+        <v>-124100</v>
       </c>
       <c r="J32" s="3">
+        <v>-199400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-84800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-47200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>71100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-54100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-68700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>44200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>30300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-58400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-25000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-70200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-36700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-16600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-11300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3">
-        <v>663200</v>
+      <c r="D33" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E33" s="3">
-        <v>534000</v>
+        <v>655600</v>
       </c>
       <c r="F33" s="3">
-        <v>584600</v>
+        <v>527900</v>
       </c>
       <c r="G33" s="3">
-        <v>399900</v>
+        <v>577900</v>
       </c>
       <c r="H33" s="3">
-        <v>349100</v>
+        <v>395300</v>
       </c>
       <c r="I33" s="3">
-        <v>374800</v>
+        <v>345200</v>
       </c>
       <c r="J33" s="3">
+        <v>370600</v>
+      </c>
+      <c r="K33" s="3">
         <v>304900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>235200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>79500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>136900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>105000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>60800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>42100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-59900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>57400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>121700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>113100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>57400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>112500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>68000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>74500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>83100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3">
-        <v>663200</v>
+      <c r="D35" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E35" s="3">
-        <v>534000</v>
+        <v>655600</v>
       </c>
       <c r="F35" s="3">
-        <v>584600</v>
+        <v>527900</v>
       </c>
       <c r="G35" s="3">
-        <v>399900</v>
+        <v>577900</v>
       </c>
       <c r="H35" s="3">
-        <v>349100</v>
+        <v>395300</v>
       </c>
       <c r="I35" s="3">
-        <v>374800</v>
+        <v>345200</v>
       </c>
       <c r="J35" s="3">
+        <v>370600</v>
+      </c>
+      <c r="K35" s="3">
         <v>304900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>235200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>79500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>136900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>105000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>60800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>42100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-59900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>57400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>121700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>113100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>57400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>112500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>68000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>74500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>83100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2834,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>5764300</v>
+        <v>6081200</v>
       </c>
       <c r="E41" s="3">
-        <v>4440200</v>
+        <v>5698800</v>
       </c>
       <c r="F41" s="3">
-        <v>3786800</v>
+        <v>4389800</v>
       </c>
       <c r="G41" s="3">
-        <v>4151500</v>
+        <v>3743800</v>
       </c>
       <c r="H41" s="3">
-        <v>3591900</v>
+        <v>4104400</v>
       </c>
       <c r="I41" s="3">
-        <v>3148700</v>
+        <v>3551100</v>
       </c>
       <c r="J41" s="3">
+        <v>3113000</v>
+      </c>
+      <c r="K41" s="3">
         <v>3309100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3516500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3427900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3407200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3111000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3157900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3112900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2934900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2718700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2500900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2565800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2647100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2266700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2208200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1983100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1877700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1802200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>230300</v>
+        <v>223900</v>
       </c>
       <c r="E42" s="3">
-        <v>316300</v>
+        <v>227700</v>
       </c>
       <c r="F42" s="3">
-        <v>247500</v>
+        <v>312700</v>
       </c>
       <c r="G42" s="3">
+        <v>244700</v>
+      </c>
+      <c r="H42" s="3">
+        <v>33800</v>
+      </c>
+      <c r="I42" s="3">
         <v>34200</v>
       </c>
-      <c r="H42" s="3">
-        <v>34500</v>
-      </c>
-      <c r="I42" s="3">
-        <v>40700</v>
-      </c>
       <c r="J42" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K42" s="3">
         <v>30700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>35700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>27100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>25800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>22700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>21400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>18500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>15600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>17400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>23200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>27400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>25900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>28300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>23300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1311500</v>
+        <v>1470000</v>
       </c>
       <c r="E43" s="3">
-        <v>1217700</v>
+        <v>1296600</v>
       </c>
       <c r="F43" s="3">
-        <v>1151000</v>
+        <v>1203800</v>
       </c>
       <c r="G43" s="3">
-        <v>1058700</v>
+        <v>1137900</v>
       </c>
       <c r="H43" s="3">
-        <v>1038300</v>
+        <v>1046700</v>
       </c>
       <c r="I43" s="3">
-        <v>978900</v>
+        <v>1026500</v>
       </c>
       <c r="J43" s="3">
+        <v>967800</v>
+      </c>
+      <c r="K43" s="3">
         <v>940100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1084200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>949900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>871600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>898200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>832500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>866400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>908900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>959500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>886600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>734300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>785600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>748200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>705300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>782700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>761800</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>850400</v>
+        <v>905000</v>
       </c>
       <c r="E44" s="3">
-        <v>770400</v>
+        <v>840800</v>
       </c>
       <c r="F44" s="3">
-        <v>775100</v>
+        <v>761700</v>
       </c>
       <c r="G44" s="3">
-        <v>751300</v>
+        <v>766300</v>
       </c>
       <c r="H44" s="3">
-        <v>744100</v>
+        <v>742700</v>
       </c>
       <c r="I44" s="3">
-        <v>755100</v>
+        <v>735700</v>
       </c>
       <c r="J44" s="3">
+        <v>746500</v>
+      </c>
+      <c r="K44" s="3">
         <v>765500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>821900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>797000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>774800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>716800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>686000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>662100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>638600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>586600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>587300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>570000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>591700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>554300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>527800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>530300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>554300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>559800</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>202900</v>
+        <v>117100</v>
       </c>
       <c r="E45" s="3">
-        <v>1065400</v>
+        <v>200600</v>
       </c>
       <c r="F45" s="3">
-        <v>1124300</v>
+        <v>1053300</v>
       </c>
       <c r="G45" s="3">
-        <v>962600</v>
+        <v>1111500</v>
       </c>
       <c r="H45" s="3">
-        <v>586800</v>
+        <v>951700</v>
       </c>
       <c r="I45" s="3">
-        <v>577600</v>
+        <v>580200</v>
       </c>
       <c r="J45" s="3">
+        <v>571000</v>
+      </c>
+      <c r="K45" s="3">
         <v>427800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>539500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>412500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>328400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1140600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>496600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>522700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>494800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>445900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>496100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>497500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>513800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>407900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>381500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>390200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>364400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>340000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>8359400</v>
+        <v>8797300</v>
       </c>
       <c r="E46" s="3">
-        <v>7810000</v>
+        <v>8264500</v>
       </c>
       <c r="F46" s="3">
-        <v>7084500</v>
+        <v>7721400</v>
       </c>
       <c r="G46" s="3">
-        <v>6958300</v>
+        <v>7004100</v>
       </c>
       <c r="H46" s="3">
-        <v>5995700</v>
+        <v>6879300</v>
       </c>
       <c r="I46" s="3">
-        <v>5501000</v>
+        <v>5927700</v>
       </c>
       <c r="J46" s="3">
+        <v>5438500</v>
+      </c>
+      <c r="K46" s="3">
         <v>5473200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5913700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5748600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5486100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5862800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5260200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5149600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4953100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4674100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4559400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4537400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4510200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4041800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3891700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3637200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3602400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3488300</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2423700</v>
+        <v>2196900</v>
       </c>
       <c r="E47" s="3">
-        <v>2428900</v>
+        <v>2396200</v>
       </c>
       <c r="F47" s="3">
-        <v>2103100</v>
+        <v>2401300</v>
       </c>
       <c r="G47" s="3">
-        <v>2228200</v>
+        <v>2079300</v>
       </c>
       <c r="H47" s="3">
-        <v>2170700</v>
+        <v>2202900</v>
       </c>
       <c r="I47" s="3">
-        <v>1894200</v>
+        <v>2146100</v>
       </c>
       <c r="J47" s="3">
+        <v>1872700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1571400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1476500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1291600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1475200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1446500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1322600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1305600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1175400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1209300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1241200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1199400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1102700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1125500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1163800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1138100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1133700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1232600</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>4929500</v>
+        <v>4704900</v>
       </c>
       <c r="E48" s="3">
-        <v>4867700</v>
+        <v>4873500</v>
       </c>
       <c r="F48" s="3">
-        <v>4703400</v>
+        <v>4812500</v>
       </c>
       <c r="G48" s="3">
-        <v>4491400</v>
+        <v>4650000</v>
       </c>
       <c r="H48" s="3">
-        <v>4555100</v>
+        <v>4440500</v>
       </c>
       <c r="I48" s="3">
-        <v>4724300</v>
+        <v>4503400</v>
       </c>
       <c r="J48" s="3">
+        <v>4670700</v>
+      </c>
+      <c r="K48" s="3">
         <v>4733300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4972200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5388900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5669000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5641600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5850300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6191600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6086700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5969600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6308800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6577800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6677400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6764100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6921700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7101400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7375100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7060600</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>136300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>119300</v>
+      </c>
+      <c r="F49" s="3">
         <v>120600</v>
       </c>
-      <c r="E49" s="3">
-        <v>122000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>140300</v>
-      </c>
       <c r="G49" s="3">
-        <v>156000</v>
+        <v>138700</v>
       </c>
       <c r="H49" s="3">
-        <v>155900</v>
+        <v>154200</v>
       </c>
       <c r="I49" s="3">
-        <v>163300</v>
+        <v>154200</v>
       </c>
       <c r="J49" s="3">
+        <v>161500</v>
+      </c>
+      <c r="K49" s="3">
         <v>165800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>170400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>172000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>185500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>130600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>145100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>117600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>105000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>106900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>119100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>122700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>122800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>125500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>123900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>120300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>133300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>334600</v>
+        <v>706500</v>
       </c>
       <c r="E52" s="3">
-        <v>320400</v>
+        <v>330800</v>
       </c>
       <c r="F52" s="3">
-        <v>324700</v>
+        <v>316800</v>
       </c>
       <c r="G52" s="3">
-        <v>283900</v>
+        <v>321000</v>
       </c>
       <c r="H52" s="3">
-        <v>322500</v>
+        <v>280600</v>
       </c>
       <c r="I52" s="3">
-        <v>356400</v>
+        <v>318800</v>
       </c>
       <c r="J52" s="3">
+        <v>352400</v>
+      </c>
+      <c r="K52" s="3">
         <v>385100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>408300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>382600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>392600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>331700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>351000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>360400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>470300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>468600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>439900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>386500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>359800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>394100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>403200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>374500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>364200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>307400</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>16167800</v>
+        <v>16541900</v>
       </c>
       <c r="E54" s="3">
-        <v>15549000</v>
+        <v>15984300</v>
       </c>
       <c r="F54" s="3">
-        <v>14356000</v>
+        <v>15372500</v>
       </c>
       <c r="G54" s="3">
-        <v>14117800</v>
+        <v>14193000</v>
       </c>
       <c r="H54" s="3">
-        <v>13199900</v>
+        <v>13957500</v>
       </c>
       <c r="I54" s="3">
-        <v>12639200</v>
+        <v>13050100</v>
       </c>
       <c r="J54" s="3">
+        <v>12495800</v>
+      </c>
+      <c r="K54" s="3">
         <v>12328800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12941200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12983600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13208300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13413200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12929200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13124700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12790300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12428500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12668400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12823700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12772800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12451000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12504300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12371600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12608800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12227400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>303400</v>
+        <v>329300</v>
       </c>
       <c r="E57" s="3">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="F57" s="3">
-        <v>276700</v>
+        <v>276900</v>
       </c>
       <c r="G57" s="3">
-        <v>281900</v>
+        <v>273500</v>
       </c>
       <c r="H57" s="3">
-        <v>276600</v>
+        <v>278700</v>
       </c>
       <c r="I57" s="3">
-        <v>263200</v>
+        <v>273400</v>
       </c>
       <c r="J57" s="3">
+        <v>260200</v>
+      </c>
+      <c r="K57" s="3">
         <v>257800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>301300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>321400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>316700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>237700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>241600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>237800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>238600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>229600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>246400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>232700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>211800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>214200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>215400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>210000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>223500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>219900</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>774900</v>
+        <v>37400</v>
       </c>
       <c r="E58" s="3">
-        <v>1333000</v>
+        <v>766100</v>
       </c>
       <c r="F58" s="3">
-        <v>830700</v>
+        <v>1317800</v>
       </c>
       <c r="G58" s="3">
-        <v>676400</v>
+        <v>821300</v>
       </c>
       <c r="H58" s="3">
-        <v>1266800</v>
+        <v>668700</v>
       </c>
       <c r="I58" s="3">
-        <v>1292100</v>
+        <v>1252400</v>
       </c>
       <c r="J58" s="3">
+        <v>1277400</v>
+      </c>
+      <c r="K58" s="3">
         <v>567500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>630000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>933900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1333700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1454100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1393900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>834900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>639300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>677900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>573100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1330300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1711600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1579800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1561900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1185000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1012600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1534200</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2039400</v>
+        <v>6551500</v>
       </c>
       <c r="E59" s="3">
-        <v>1917600</v>
+        <v>2016200</v>
       </c>
       <c r="F59" s="3">
-        <v>1723200</v>
+        <v>1895800</v>
       </c>
       <c r="G59" s="3">
-        <v>1887600</v>
+        <v>1703600</v>
       </c>
       <c r="H59" s="3">
-        <v>1085900</v>
+        <v>1866200</v>
       </c>
       <c r="I59" s="3">
-        <v>1064300</v>
+        <v>1073500</v>
       </c>
       <c r="J59" s="3">
+        <v>1052200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1155100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1361200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>945700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>944000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>830100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1057600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>774100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>872500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>807700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1148500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>850600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>930700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>875200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1064900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>785700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1111100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>967000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3117700</v>
+        <v>4363000</v>
       </c>
       <c r="E60" s="3">
-        <v>3530600</v>
+        <v>3082300</v>
       </c>
       <c r="F60" s="3">
-        <v>2830600</v>
+        <v>3490500</v>
       </c>
       <c r="G60" s="3">
-        <v>2846000</v>
+        <v>2798500</v>
       </c>
       <c r="H60" s="3">
-        <v>2629200</v>
+        <v>2813600</v>
       </c>
       <c r="I60" s="3">
-        <v>2619600</v>
+        <v>2599400</v>
       </c>
       <c r="J60" s="3">
+        <v>2589900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1980400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2292500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2201000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2594400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2521900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2693100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1846800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1750500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1715300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1968000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2413600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2854100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2669200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2842200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2180600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2347200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2721000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1826300</v>
+        <v>1689600</v>
       </c>
       <c r="E61" s="3">
-        <v>1484500</v>
+        <v>1805600</v>
       </c>
       <c r="F61" s="3">
-        <v>1865200</v>
+        <v>1467700</v>
       </c>
       <c r="G61" s="3">
-        <v>1866100</v>
+        <v>1844000</v>
       </c>
       <c r="H61" s="3">
-        <v>1092400</v>
+        <v>1844900</v>
       </c>
       <c r="I61" s="3">
-        <v>997600</v>
+        <v>1080000</v>
       </c>
       <c r="J61" s="3">
+        <v>986300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1829400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2073100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1906100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1903500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2169100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1775100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2473700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2353300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2249800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2253800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1749900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1728100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1696900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1660600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2032000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1980400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1294100</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1103300</v>
+        <v>1113800</v>
       </c>
       <c r="E62" s="3">
-        <v>1119200</v>
+        <v>1090800</v>
       </c>
       <c r="F62" s="3">
-        <v>1035600</v>
+        <v>1106500</v>
       </c>
       <c r="G62" s="3">
-        <v>1364100</v>
+        <v>1023900</v>
       </c>
       <c r="H62" s="3">
-        <v>1119300</v>
+        <v>1348600</v>
       </c>
       <c r="I62" s="3">
-        <v>1128300</v>
+        <v>1106600</v>
       </c>
       <c r="J62" s="3">
+        <v>1115500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1122900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1209700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1282900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1316900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1369400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1397900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1444000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1441300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1374600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1435900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1469000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1253700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1135100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1091800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1092900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1148100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1070700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6057100</v>
+        <v>7178500</v>
       </c>
       <c r="E66" s="3">
-        <v>6141800</v>
+        <v>5988400</v>
       </c>
       <c r="F66" s="3">
-        <v>5736600</v>
+        <v>6072100</v>
       </c>
       <c r="G66" s="3">
-        <v>6079700</v>
+        <v>5671500</v>
       </c>
       <c r="H66" s="3">
-        <v>4844000</v>
+        <v>6010700</v>
       </c>
       <c r="I66" s="3">
-        <v>4749400</v>
+        <v>4789100</v>
       </c>
       <c r="J66" s="3">
+        <v>4695500</v>
+      </c>
+      <c r="K66" s="3">
         <v>4937700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5577900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5392400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5829500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6074900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5881100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5780400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5561400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5356200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5678100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5639300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5866800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5535000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5624800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5336500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5546200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5138300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4520800</v>
+        <v>5175400</v>
       </c>
       <c r="E72" s="3">
-        <v>3862800</v>
+        <v>4469500</v>
       </c>
       <c r="F72" s="3">
-        <v>3356400</v>
+        <v>3818900</v>
       </c>
       <c r="G72" s="3">
-        <v>2757500</v>
+        <v>3318300</v>
       </c>
       <c r="H72" s="3">
-        <v>3024700</v>
+        <v>2726200</v>
       </c>
       <c r="I72" s="3">
-        <v>2684300</v>
+        <v>2990400</v>
       </c>
       <c r="J72" s="3">
+        <v>2653800</v>
+      </c>
+      <c r="K72" s="3">
         <v>2342000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2144500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2400700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2181900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2072300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1935700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2153400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2160500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2158800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2129100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2307700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1557800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1529000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1457800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1603500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1554000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1561100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>10110700</v>
+        <v>9363400</v>
       </c>
       <c r="E76" s="3">
-        <v>9407200</v>
+        <v>9995900</v>
       </c>
       <c r="F76" s="3">
-        <v>8619400</v>
+        <v>9300400</v>
       </c>
       <c r="G76" s="3">
-        <v>8038100</v>
+        <v>8521600</v>
       </c>
       <c r="H76" s="3">
-        <v>8355900</v>
+        <v>7946800</v>
       </c>
       <c r="I76" s="3">
-        <v>7889900</v>
+        <v>8261000</v>
       </c>
       <c r="J76" s="3">
+        <v>7800300</v>
+      </c>
+      <c r="K76" s="3">
         <v>7391100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7363400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7591300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7378800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7338400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7048200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7344400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7228900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7072400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6990300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7184400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6905900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6916000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6879500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7035100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7062700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7089100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3">
-        <v>663200</v>
+      <c r="D81" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E81" s="3">
-        <v>534000</v>
+        <v>655600</v>
       </c>
       <c r="F81" s="3">
-        <v>584600</v>
+        <v>527900</v>
       </c>
       <c r="G81" s="3">
-        <v>399900</v>
+        <v>577900</v>
       </c>
       <c r="H81" s="3">
-        <v>349100</v>
+        <v>395300</v>
       </c>
       <c r="I81" s="3">
-        <v>374800</v>
+        <v>345200</v>
       </c>
       <c r="J81" s="3">
+        <v>370600</v>
+      </c>
+      <c r="K81" s="3">
         <v>304900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>235200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>79500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>136900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>105000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>60800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>42100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-59900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>57400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>121700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>113100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>57400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>112500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>68000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>74500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>83100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>381300</v>
+        <v>367700</v>
       </c>
       <c r="E83" s="3">
-        <v>395600</v>
+        <v>377000</v>
       </c>
       <c r="F83" s="3">
-        <v>393500</v>
+        <v>391100</v>
       </c>
       <c r="G83" s="3">
-        <v>390700</v>
+        <v>389000</v>
       </c>
       <c r="H83" s="3">
-        <v>396200</v>
+        <v>386300</v>
       </c>
       <c r="I83" s="3">
-        <v>401500</v>
+        <v>391700</v>
       </c>
       <c r="J83" s="3">
+        <v>397000</v>
+      </c>
+      <c r="K83" s="3">
         <v>407400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>431300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>450100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>455800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>432100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>425900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>434300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>435500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>432700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>444800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>442000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>428700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>437100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>424300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>433500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>436200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>420700</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1008300</v>
+        <v>1161500</v>
       </c>
       <c r="E89" s="3">
-        <v>898000</v>
+        <v>996900</v>
       </c>
       <c r="F89" s="3">
-        <v>740800</v>
+        <v>887800</v>
       </c>
       <c r="G89" s="3">
-        <v>774200</v>
+        <v>732400</v>
       </c>
       <c r="H89" s="3">
-        <v>612000</v>
+        <v>765400</v>
       </c>
       <c r="I89" s="3">
-        <v>538100</v>
+        <v>605100</v>
       </c>
       <c r="J89" s="3">
+        <v>532000</v>
+      </c>
+      <c r="K89" s="3">
         <v>620700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>577500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>530600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1339200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-110400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>428800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>287100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>425300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>526000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>474400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>291900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>418100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>371000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>480200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>434100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>507000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-361700</v>
+        <v>-361000</v>
       </c>
       <c r="E91" s="3">
-        <v>-492400</v>
+        <v>-357600</v>
       </c>
       <c r="F91" s="3">
-        <v>-584400</v>
+        <v>-486800</v>
       </c>
       <c r="G91" s="3">
-        <v>-285200</v>
+        <v>-577800</v>
       </c>
       <c r="H91" s="3">
-        <v>-246100</v>
+        <v>-282000</v>
       </c>
       <c r="I91" s="3">
-        <v>-393000</v>
+        <v>-243300</v>
       </c>
       <c r="J91" s="3">
+        <v>-388500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-224500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-150300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-130800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-124900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-127300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-136400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-195100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-153000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-187200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-129700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-190100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-355300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-236200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-270100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-588000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-724600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-666200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>493900</v>
+        <v>-387800</v>
       </c>
       <c r="E94" s="3">
-        <v>-446600</v>
+        <v>488300</v>
       </c>
       <c r="F94" s="3">
-        <v>-777500</v>
+        <v>-441500</v>
       </c>
       <c r="G94" s="3">
-        <v>-618800</v>
+        <v>-768700</v>
       </c>
       <c r="H94" s="3">
-        <v>-238400</v>
+        <v>-611800</v>
       </c>
       <c r="I94" s="3">
-        <v>-583800</v>
+        <v>-235700</v>
       </c>
       <c r="J94" s="3">
+        <v>-577200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-190400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-277400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-328200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-636700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-142300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-146400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-199400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-161800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-182600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-202100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>22200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-195500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-161500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-262700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-531300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-597400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-502200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6518,11 +6752,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -6542,11 +6776,11 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>300</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -6557,10 +6791,13 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-225200</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-266500</v>
+        <v>-444300</v>
       </c>
       <c r="E100" s="3">
-        <v>213200</v>
+        <v>-263500</v>
       </c>
       <c r="F100" s="3">
-        <v>-324600</v>
+        <v>210700</v>
       </c>
       <c r="G100" s="3">
-        <v>443200</v>
+        <v>-320900</v>
       </c>
       <c r="H100" s="3">
-        <v>86400</v>
+        <v>438200</v>
       </c>
       <c r="I100" s="3">
-        <v>-105500</v>
+        <v>85400</v>
       </c>
       <c r="J100" s="3">
+        <v>-104300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-457100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-103800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-210700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-346700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>148300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-226000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>76500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-108500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-359000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-456100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>169000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-149200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>22900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>255800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>137600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>88300</v>
+        <v>53000</v>
       </c>
       <c r="E101" s="3">
+        <v>87300</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="P101" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>13900</v>
+      </c>
+      <c r="R101" s="3">
+        <v>12500</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="T101" s="3">
+        <v>21900</v>
+      </c>
+      <c r="U101" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="V101" s="3">
         <v>-11100</v>
       </c>
-      <c r="F101" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-39000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-16900</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-30700</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-44200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-24800</v>
-      </c>
-      <c r="O101" s="3">
-        <v>300</v>
-      </c>
-      <c r="P101" s="3">
-        <v>13900</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>12500</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-23900</v>
-      </c>
-      <c r="S101" s="3">
-        <v>21900</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-53200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>28300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-49900</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1324100</v>
+        <v>382400</v>
       </c>
       <c r="E102" s="3">
-        <v>653400</v>
+        <v>1309000</v>
       </c>
       <c r="F102" s="3">
-        <v>-364800</v>
+        <v>646000</v>
       </c>
       <c r="G102" s="3">
-        <v>559600</v>
+        <v>-360600</v>
       </c>
       <c r="H102" s="3">
-        <v>443200</v>
+        <v>553300</v>
       </c>
       <c r="I102" s="3">
-        <v>-160400</v>
+        <v>438100</v>
       </c>
       <c r="J102" s="3">
+        <v>-158600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-34600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>165700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>311700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-129200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>56700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>178100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>75100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>211000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-64900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-150700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>380400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>58500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>237300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>105400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>75400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>190500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>UMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2385000</v>
+        <v>2403500</v>
       </c>
       <c r="E8" s="3">
-        <v>2099300</v>
+        <v>2297100</v>
       </c>
       <c r="F8" s="3">
-        <v>1956200</v>
+        <v>2021900</v>
       </c>
       <c r="G8" s="3">
-        <v>1850500</v>
+        <v>1884100</v>
       </c>
       <c r="H8" s="3">
-        <v>1685000</v>
+        <v>1782300</v>
       </c>
       <c r="I8" s="3">
-        <v>1558900</v>
+        <v>1622900</v>
       </c>
       <c r="J8" s="3">
+        <v>1501500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1499300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1502300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1562800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1522500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1493200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1353300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1259300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1143000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1245900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1313500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1292200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1247200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1187200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1221800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1216600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1220200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1249200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1244500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1277100</v>
+        <v>1266500</v>
       </c>
       <c r="E9" s="3">
-        <v>1188900</v>
+        <v>1230000</v>
       </c>
       <c r="F9" s="3">
-        <v>1191500</v>
+        <v>1145100</v>
       </c>
       <c r="G9" s="3">
-        <v>1170500</v>
+        <v>1147600</v>
       </c>
       <c r="H9" s="3">
-        <v>1158500</v>
+        <v>1127400</v>
       </c>
       <c r="I9" s="3">
-        <v>1145300</v>
+        <v>1115800</v>
       </c>
       <c r="J9" s="3">
+        <v>1103100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1140200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1175200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1201700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1229900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1244500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1122600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1061800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1063700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1084500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1082700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1070200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1092800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>983100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1008100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>998200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>978000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>963500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1107900</v>
+        <v>1137000</v>
       </c>
       <c r="E10" s="3">
-        <v>910400</v>
+        <v>1067100</v>
       </c>
       <c r="F10" s="3">
-        <v>764700</v>
+        <v>876800</v>
       </c>
       <c r="G10" s="3">
-        <v>680000</v>
+        <v>736500</v>
       </c>
       <c r="H10" s="3">
-        <v>526600</v>
+        <v>654900</v>
       </c>
       <c r="I10" s="3">
-        <v>413600</v>
+        <v>507100</v>
       </c>
       <c r="J10" s="3">
+        <v>398300</v>
+      </c>
+      <c r="K10" s="3">
         <v>359100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>327100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>361200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>292600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>248600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>230700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>197500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>79400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>161400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>230800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>222000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>154400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>204100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>213700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>218400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>242200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>285600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>270700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>106200</v>
+        <v>105300</v>
       </c>
       <c r="E12" s="3">
-        <v>100400</v>
+        <v>102300</v>
       </c>
       <c r="F12" s="3">
-        <v>113000</v>
+        <v>96700</v>
       </c>
       <c r="G12" s="3">
-        <v>109300</v>
+        <v>108800</v>
       </c>
       <c r="H12" s="3">
-        <v>104900</v>
+        <v>105300</v>
       </c>
       <c r="I12" s="3">
+        <v>101000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>97200</v>
+      </c>
+      <c r="K12" s="3">
+        <v>105700</v>
+      </c>
+      <c r="L12" s="3">
+        <v>111000</v>
+      </c>
+      <c r="M12" s="3">
+        <v>112800</v>
+      </c>
+      <c r="N12" s="3">
+        <v>114700</v>
+      </c>
+      <c r="O12" s="3">
+        <v>123200</v>
+      </c>
+      <c r="P12" s="3">
         <v>100900</v>
       </c>
-      <c r="J12" s="3">
-        <v>105700</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="Q12" s="3">
+        <v>97400</v>
+      </c>
+      <c r="R12" s="3">
+        <v>98500</v>
+      </c>
+      <c r="S12" s="3">
+        <v>131400</v>
+      </c>
+      <c r="T12" s="3">
         <v>111000</v>
       </c>
-      <c r="L12" s="3">
-        <v>112800</v>
-      </c>
-      <c r="M12" s="3">
-        <v>114700</v>
-      </c>
-      <c r="N12" s="3">
-        <v>123200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>100900</v>
-      </c>
-      <c r="P12" s="3">
-        <v>97400</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>98500</v>
-      </c>
-      <c r="R12" s="3">
-        <v>131400</v>
-      </c>
-      <c r="S12" s="3">
-        <v>111000</v>
-      </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>100700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>97300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>100100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>108400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>105200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>130100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>124700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1209,11 +1229,11 @@
       <c r="I14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>91</v>
@@ -1221,24 +1241,24 @@
       <c r="M14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" s="3">
         <v>-4900</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1600</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1246,25 +1266,28 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>8200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>9700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>9400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>34900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>91</v>
+      <c r="D17" s="3">
+        <v>1442100</v>
       </c>
       <c r="E17" s="3">
-        <v>1360000</v>
+        <v>1399200</v>
       </c>
       <c r="F17" s="3">
-        <v>1373100</v>
+        <v>1309900</v>
       </c>
       <c r="G17" s="3">
-        <v>1349500</v>
+        <v>1322500</v>
       </c>
       <c r="H17" s="3">
-        <v>1310600</v>
+        <v>1299800</v>
       </c>
       <c r="I17" s="3">
-        <v>1306600</v>
+        <v>1262300</v>
       </c>
       <c r="J17" s="3">
+        <v>1258500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1313500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1263500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1357000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1399500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1416000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1263300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1197700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1199000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1268200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1232300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1186400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1221600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1133800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1178700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1165900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1184800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1209800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1198300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>91</v>
+      <c r="D18" s="3">
+        <v>961400</v>
       </c>
       <c r="E18" s="3">
-        <v>739300</v>
+        <v>897900</v>
       </c>
       <c r="F18" s="3">
-        <v>583100</v>
+        <v>712000</v>
       </c>
       <c r="G18" s="3">
-        <v>501000</v>
+        <v>561600</v>
       </c>
       <c r="H18" s="3">
-        <v>374500</v>
+        <v>482500</v>
       </c>
       <c r="I18" s="3">
-        <v>252300</v>
+        <v>360700</v>
       </c>
       <c r="J18" s="3">
+        <v>243000</v>
+      </c>
+      <c r="K18" s="3">
         <v>185900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>238800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>205800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>123000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>77200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>90000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>61500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-56000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-22300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>81200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>105800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>25600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>53400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>43100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>50700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>35400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>39300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>91</v>
+      <c r="D20" s="3">
+        <v>83400</v>
       </c>
       <c r="E20" s="3">
-        <v>59800</v>
+        <v>-68200</v>
       </c>
       <c r="F20" s="3">
-        <v>34900</v>
+        <v>57600</v>
       </c>
       <c r="G20" s="3">
-        <v>160100</v>
+        <v>33600</v>
       </c>
       <c r="H20" s="3">
-        <v>77600</v>
+        <v>154200</v>
       </c>
       <c r="I20" s="3">
-        <v>124100</v>
+        <v>74700</v>
       </c>
       <c r="J20" s="3">
+        <v>119500</v>
+      </c>
+      <c r="K20" s="3">
         <v>199400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>84800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>47200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-71100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>54100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>68700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-44200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-30300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-12800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>58400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>25000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>70200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>36700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>16600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>11300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>91</v>
+      <c r="D21" s="3">
+        <v>1401800</v>
       </c>
       <c r="E21" s="3">
-        <v>1176000</v>
+        <v>1183800</v>
       </c>
       <c r="F21" s="3">
-        <v>1009200</v>
+        <v>1132700</v>
       </c>
       <c r="G21" s="3">
-        <v>1050100</v>
+        <v>972000</v>
       </c>
       <c r="H21" s="3">
-        <v>838400</v>
+        <v>1011400</v>
       </c>
       <c r="I21" s="3">
-        <v>768100</v>
+        <v>807500</v>
       </c>
       <c r="J21" s="3">
+        <v>739800</v>
+      </c>
+      <c r="K21" s="3">
         <v>782200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>731000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>684300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>502000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>587100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>529800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>492400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>446900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>369000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>483500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>537800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>526000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>507000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>550400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>511800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>485400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>486800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>496600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>91</v>
+      <c r="D22" s="3">
+        <v>13700</v>
       </c>
       <c r="E22" s="3">
-        <v>16300</v>
+        <v>14300</v>
       </c>
       <c r="F22" s="3">
-        <v>16500</v>
+        <v>15700</v>
       </c>
       <c r="G22" s="3">
+        <v>15800</v>
+      </c>
+      <c r="H22" s="3">
+        <v>16600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>14800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K22" s="3">
+        <v>13400</v>
+      </c>
+      <c r="L22" s="3">
+        <v>15400</v>
+      </c>
+      <c r="M22" s="3">
+        <v>18400</v>
+      </c>
+      <c r="N22" s="3">
+        <v>22300</v>
+      </c>
+      <c r="O22" s="3">
+        <v>25500</v>
+      </c>
+      <c r="P22" s="3">
+        <v>26800</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>26600</v>
+      </c>
+      <c r="R22" s="3">
+        <v>24900</v>
+      </c>
+      <c r="S22" s="3">
+        <v>24300</v>
+      </c>
+      <c r="T22" s="3">
+        <v>23300</v>
+      </c>
+      <c r="U22" s="3">
+        <v>23600</v>
+      </c>
+      <c r="V22" s="3">
+        <v>22300</v>
+      </c>
+      <c r="W22" s="3">
+        <v>21700</v>
+      </c>
+      <c r="X22" s="3">
+        <v>20400</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>18800</v>
+      </c>
+      <c r="Z22" s="3">
         <v>17200</v>
       </c>
-      <c r="H22" s="3">
-        <v>15300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>12900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>13400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>15400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>18400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>22300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>25500</v>
-      </c>
-      <c r="O22" s="3">
-        <v>26800</v>
-      </c>
-      <c r="P22" s="3">
-        <v>26600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>24900</v>
-      </c>
-      <c r="R22" s="3">
-        <v>24300</v>
-      </c>
-      <c r="S22" s="3">
-        <v>23300</v>
-      </c>
-      <c r="T22" s="3">
-        <v>23600</v>
-      </c>
-      <c r="U22" s="3">
-        <v>22300</v>
-      </c>
-      <c r="V22" s="3">
-        <v>21700</v>
-      </c>
-      <c r="W22" s="3">
-        <v>20400</v>
-      </c>
-      <c r="X22" s="3">
-        <v>18800</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>17200</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>15800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>846600</v>
+        <v>1031200</v>
       </c>
       <c r="E23" s="3">
-        <v>782700</v>
+        <v>815400</v>
       </c>
       <c r="F23" s="3">
-        <v>601600</v>
+        <v>753900</v>
       </c>
       <c r="G23" s="3">
-        <v>643900</v>
+        <v>579400</v>
       </c>
       <c r="H23" s="3">
-        <v>436700</v>
+        <v>620100</v>
       </c>
       <c r="I23" s="3">
-        <v>363500</v>
+        <v>420600</v>
       </c>
       <c r="J23" s="3">
+        <v>350100</v>
+      </c>
+      <c r="K23" s="3">
         <v>371800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>308200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>234600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>105800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>70900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>40000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-90700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>27600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>69400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>61800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>56700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>92900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>68600</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>34800</v>
       </c>
       <c r="Z23" s="3">
         <v>34800</v>
       </c>
       <c r="AA23" s="3">
+        <v>34800</v>
+      </c>
+      <c r="AB23" s="3">
         <v>63600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>135300</v>
+        <v>159500</v>
       </c>
       <c r="E24" s="3">
-        <v>118600</v>
+        <v>130300</v>
       </c>
       <c r="F24" s="3">
-        <v>71800</v>
+        <v>114200</v>
       </c>
       <c r="G24" s="3">
-        <v>69500</v>
+        <v>69200</v>
       </c>
       <c r="H24" s="3">
-        <v>43900</v>
+        <v>66900</v>
       </c>
       <c r="I24" s="3">
-        <v>36200</v>
+        <v>42300</v>
       </c>
       <c r="J24" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K24" s="3">
         <v>11400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-14700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-15500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-11000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-39000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>13000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>20700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>20100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>91</v>
+      <c r="D26" s="3">
+        <v>871700</v>
       </c>
       <c r="E26" s="3">
-        <v>664200</v>
+        <v>685100</v>
       </c>
       <c r="F26" s="3">
-        <v>529800</v>
+        <v>639700</v>
       </c>
       <c r="G26" s="3">
-        <v>574300</v>
+        <v>510200</v>
       </c>
       <c r="H26" s="3">
-        <v>392800</v>
+        <v>553200</v>
       </c>
       <c r="I26" s="3">
-        <v>327300</v>
+        <v>378300</v>
       </c>
       <c r="J26" s="3">
+        <v>315300</v>
+      </c>
+      <c r="K26" s="3">
         <v>360400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>301600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>213100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>44300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>112600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>69500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>32900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-105200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>80400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>100800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>38700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>79900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>47900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>48800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>14600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>91</v>
+      <c r="D27" s="3">
+        <v>860600</v>
       </c>
       <c r="E27" s="3">
-        <v>655600</v>
+        <v>679900</v>
       </c>
       <c r="F27" s="3">
-        <v>527900</v>
+        <v>631500</v>
       </c>
       <c r="G27" s="3">
-        <v>577900</v>
+        <v>508500</v>
       </c>
       <c r="H27" s="3">
-        <v>395300</v>
+        <v>556600</v>
       </c>
       <c r="I27" s="3">
-        <v>345200</v>
+        <v>380700</v>
       </c>
       <c r="J27" s="3">
+        <v>332400</v>
+      </c>
+      <c r="K27" s="3">
         <v>370600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>304900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>235200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>79500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>136900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>105000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>60800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>42100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-59900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>57400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>121700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>113100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>57400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>112500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>68000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>74500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>83100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>91</v>
+      <c r="D32" s="3">
+        <v>-83400</v>
       </c>
       <c r="E32" s="3">
-        <v>-59800</v>
+        <v>68200</v>
       </c>
       <c r="F32" s="3">
-        <v>-34900</v>
+        <v>-57600</v>
       </c>
       <c r="G32" s="3">
-        <v>-160100</v>
+        <v>-33600</v>
       </c>
       <c r="H32" s="3">
-        <v>-77600</v>
+        <v>-154200</v>
       </c>
       <c r="I32" s="3">
-        <v>-124100</v>
+        <v>-74700</v>
       </c>
       <c r="J32" s="3">
+        <v>-119500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-199400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-84800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-47200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>71100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-54100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-68700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>44200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>30300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>12800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-58400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-25000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-70200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-36700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-16600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-11300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>91</v>
+      <c r="D33" s="3">
+        <v>860600</v>
       </c>
       <c r="E33" s="3">
-        <v>655600</v>
+        <v>679900</v>
       </c>
       <c r="F33" s="3">
-        <v>527900</v>
+        <v>631500</v>
       </c>
       <c r="G33" s="3">
-        <v>577900</v>
+        <v>508500</v>
       </c>
       <c r="H33" s="3">
-        <v>395300</v>
+        <v>556600</v>
       </c>
       <c r="I33" s="3">
-        <v>345200</v>
+        <v>380700</v>
       </c>
       <c r="J33" s="3">
+        <v>332400</v>
+      </c>
+      <c r="K33" s="3">
         <v>370600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>304900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>235200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>79500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>136900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>105000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>60800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>42100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-59900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>57400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>121700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>113100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>57400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>112500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>68000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>74500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>83100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>91</v>
+      <c r="D35" s="3">
+        <v>860600</v>
       </c>
       <c r="E35" s="3">
-        <v>655600</v>
+        <v>679900</v>
       </c>
       <c r="F35" s="3">
-        <v>527900</v>
+        <v>631500</v>
       </c>
       <c r="G35" s="3">
-        <v>577900</v>
+        <v>508500</v>
       </c>
       <c r="H35" s="3">
-        <v>395300</v>
+        <v>556600</v>
       </c>
       <c r="I35" s="3">
-        <v>345200</v>
+        <v>380700</v>
       </c>
       <c r="J35" s="3">
+        <v>332400</v>
+      </c>
+      <c r="K35" s="3">
         <v>370600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>304900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>235200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>79500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>136900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>105000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>60800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>42100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-59900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>57400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>121700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>113100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>57400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>112500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>68000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>74500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>83100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2921,701 +3007,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>6081200</v>
+        <v>5759100</v>
       </c>
       <c r="E41" s="3">
-        <v>5698800</v>
+        <v>5857100</v>
       </c>
       <c r="F41" s="3">
-        <v>4389800</v>
+        <v>5488800</v>
       </c>
       <c r="G41" s="3">
-        <v>3743800</v>
+        <v>4228000</v>
       </c>
       <c r="H41" s="3">
-        <v>4104400</v>
+        <v>3605800</v>
       </c>
       <c r="I41" s="3">
-        <v>3551100</v>
+        <v>3953100</v>
       </c>
       <c r="J41" s="3">
+        <v>3420300</v>
+      </c>
+      <c r="K41" s="3">
         <v>3113000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3309100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3516500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3427900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3407200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3111000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3157900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3112900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2934900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2718700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2500900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2565800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2647100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2266700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2208200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1983100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1877700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1802200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>223900</v>
+        <v>128100</v>
       </c>
       <c r="E42" s="3">
-        <v>227700</v>
+        <v>215700</v>
       </c>
       <c r="F42" s="3">
-        <v>312700</v>
+        <v>219300</v>
       </c>
       <c r="G42" s="3">
-        <v>244700</v>
+        <v>301200</v>
       </c>
       <c r="H42" s="3">
-        <v>33800</v>
+        <v>235600</v>
       </c>
       <c r="I42" s="3">
-        <v>34200</v>
+        <v>32600</v>
       </c>
       <c r="J42" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K42" s="3">
         <v>40300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>30700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>35700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>27100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>25800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>22700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>21400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>19400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>18500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>15600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>17400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>23200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>27400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>25900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>28300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>23300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1470000</v>
+        <v>1493900</v>
       </c>
       <c r="E43" s="3">
-        <v>1296600</v>
+        <v>1415800</v>
       </c>
       <c r="F43" s="3">
-        <v>1203800</v>
+        <v>1248900</v>
       </c>
       <c r="G43" s="3">
-        <v>1137900</v>
+        <v>1159500</v>
       </c>
       <c r="H43" s="3">
-        <v>1046700</v>
+        <v>1096000</v>
       </c>
       <c r="I43" s="3">
-        <v>1026500</v>
+        <v>1008100</v>
       </c>
       <c r="J43" s="3">
+        <v>988700</v>
+      </c>
+      <c r="K43" s="3">
         <v>967800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>940100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1084200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>949900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>871600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>898200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>832500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>866400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>908900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>959500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>886600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>734300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>785600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>748200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>705300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>782700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>761800</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>905000</v>
+        <v>959600</v>
       </c>
       <c r="E44" s="3">
-        <v>840800</v>
+        <v>871600</v>
       </c>
       <c r="F44" s="3">
-        <v>761700</v>
+        <v>809800</v>
       </c>
       <c r="G44" s="3">
-        <v>766300</v>
+        <v>733600</v>
       </c>
       <c r="H44" s="3">
-        <v>742700</v>
+        <v>738000</v>
       </c>
       <c r="I44" s="3">
-        <v>735700</v>
+        <v>715400</v>
       </c>
       <c r="J44" s="3">
+        <v>708500</v>
+      </c>
+      <c r="K44" s="3">
         <v>746500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>765500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>821900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>797000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>774800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>716800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>686000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>662100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>638600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>586600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>587300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>570000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>591700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>554300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>527800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>530300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>554300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>559800</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>117100</v>
+        <v>169500</v>
       </c>
       <c r="E45" s="3">
-        <v>200600</v>
+        <v>112800</v>
       </c>
       <c r="F45" s="3">
-        <v>1053300</v>
+        <v>193200</v>
       </c>
       <c r="G45" s="3">
-        <v>1111500</v>
+        <v>1014500</v>
       </c>
       <c r="H45" s="3">
-        <v>951700</v>
+        <v>1070500</v>
       </c>
       <c r="I45" s="3">
-        <v>580200</v>
+        <v>916600</v>
       </c>
       <c r="J45" s="3">
+        <v>558800</v>
+      </c>
+      <c r="K45" s="3">
         <v>571000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>427800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>539500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>412500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>328400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1140600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>496600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>522700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>494800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>445900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>496100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>497500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>513800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>407900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>381500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>390200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>364400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>340000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>8797300</v>
+        <v>8510200</v>
       </c>
       <c r="E46" s="3">
-        <v>8264500</v>
+        <v>8473000</v>
       </c>
       <c r="F46" s="3">
-        <v>7721400</v>
+        <v>7959900</v>
       </c>
       <c r="G46" s="3">
-        <v>7004100</v>
+        <v>7436800</v>
       </c>
       <c r="H46" s="3">
-        <v>6879300</v>
+        <v>6745900</v>
       </c>
       <c r="I46" s="3">
-        <v>5927700</v>
+        <v>6625700</v>
       </c>
       <c r="J46" s="3">
+        <v>5709200</v>
+      </c>
+      <c r="K46" s="3">
         <v>5438500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5473200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5913700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5748600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5486100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5862800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5260200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5149600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4953100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4674100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4559400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4537400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4510200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4041800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3891700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3637200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3602400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3488300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2196900</v>
+        <v>1974500</v>
       </c>
       <c r="E47" s="3">
-        <v>2396200</v>
+        <v>2116000</v>
       </c>
       <c r="F47" s="3">
-        <v>2401300</v>
+        <v>2307800</v>
       </c>
       <c r="G47" s="3">
-        <v>2079300</v>
+        <v>2312800</v>
       </c>
       <c r="H47" s="3">
-        <v>2202900</v>
+        <v>2002600</v>
       </c>
       <c r="I47" s="3">
-        <v>2146100</v>
+        <v>2121700</v>
       </c>
       <c r="J47" s="3">
+        <v>2067000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1872700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1571400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1476500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1291600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1475200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1446500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1322600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1305600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1175400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1209300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1241200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1199400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1102700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1125500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1163800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1138100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1133700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1232600</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>4704900</v>
+        <v>5529600</v>
       </c>
       <c r="E48" s="3">
-        <v>4873500</v>
+        <v>4843300</v>
       </c>
       <c r="F48" s="3">
-        <v>4812500</v>
+        <v>4693900</v>
       </c>
       <c r="G48" s="3">
-        <v>4650000</v>
+        <v>4635100</v>
       </c>
       <c r="H48" s="3">
-        <v>4440500</v>
+        <v>4478600</v>
       </c>
       <c r="I48" s="3">
-        <v>4503400</v>
+        <v>4276800</v>
       </c>
       <c r="J48" s="3">
+        <v>4337400</v>
+      </c>
+      <c r="K48" s="3">
         <v>4670700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4733300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4972200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5388900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5669000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5641600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5850300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6191600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6086700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5969600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6308800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6577800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6677400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6764100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6921700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7101400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7375100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>7060600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>136300</v>
+        <v>133900</v>
       </c>
       <c r="E49" s="3">
-        <v>119300</v>
+        <v>131200</v>
       </c>
       <c r="F49" s="3">
-        <v>120600</v>
+        <v>114900</v>
       </c>
       <c r="G49" s="3">
-        <v>138700</v>
+        <v>116200</v>
       </c>
       <c r="H49" s="3">
-        <v>154200</v>
+        <v>133600</v>
       </c>
       <c r="I49" s="3">
-        <v>154200</v>
+        <v>148500</v>
       </c>
       <c r="J49" s="3">
+        <v>148500</v>
+      </c>
+      <c r="K49" s="3">
         <v>161500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>165800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>170400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>172000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>185500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>130600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>145100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>117600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>105000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>106900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>119100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>122700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>122800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>125500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>123900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>120300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>133300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>706500</v>
+        <v>410100</v>
       </c>
       <c r="E52" s="3">
-        <v>330800</v>
+        <v>368700</v>
       </c>
       <c r="F52" s="3">
-        <v>316800</v>
+        <v>318600</v>
       </c>
       <c r="G52" s="3">
-        <v>321000</v>
+        <v>305100</v>
       </c>
       <c r="H52" s="3">
-        <v>280600</v>
+        <v>309200</v>
       </c>
       <c r="I52" s="3">
-        <v>318800</v>
+        <v>270300</v>
       </c>
       <c r="J52" s="3">
+        <v>307100</v>
+      </c>
+      <c r="K52" s="3">
         <v>352400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>385100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>408300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>382600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>392600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>331700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>351000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>360400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>470300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>468600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>439900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>386500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>359800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>394100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>403200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>374500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>364200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>307400</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>16541900</v>
+        <v>16558300</v>
       </c>
       <c r="E54" s="3">
-        <v>15984300</v>
+        <v>15932200</v>
       </c>
       <c r="F54" s="3">
-        <v>15372500</v>
+        <v>15395100</v>
       </c>
       <c r="G54" s="3">
-        <v>14193000</v>
+        <v>14805900</v>
       </c>
       <c r="H54" s="3">
-        <v>13957500</v>
+        <v>13669900</v>
       </c>
       <c r="I54" s="3">
-        <v>13050100</v>
+        <v>13443100</v>
       </c>
       <c r="J54" s="3">
+        <v>12569100</v>
+      </c>
+      <c r="K54" s="3">
         <v>12495800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12328800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12941200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12983600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13208300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13413200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12929200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13124700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12790300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12428500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12668400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12823700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12772800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12451000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12504300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12371600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12608800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>12227400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>329300</v>
+        <v>320000</v>
       </c>
       <c r="E57" s="3">
-        <v>300000</v>
+        <v>317200</v>
       </c>
       <c r="F57" s="3">
-        <v>276900</v>
+        <v>288900</v>
       </c>
       <c r="G57" s="3">
-        <v>273500</v>
+        <v>266600</v>
       </c>
       <c r="H57" s="3">
-        <v>278700</v>
+        <v>263400</v>
       </c>
       <c r="I57" s="3">
-        <v>273400</v>
+        <v>268500</v>
       </c>
       <c r="J57" s="3">
+        <v>263400</v>
+      </c>
+      <c r="K57" s="3">
         <v>260200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>257800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>301300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>321400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>316700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>237700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>241600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>237800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>238600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>229600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>246400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>232700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>211800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>214200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>215400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>210000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>223500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>219900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>37400</v>
+        <v>406500</v>
       </c>
       <c r="E58" s="3">
-        <v>766100</v>
+        <v>437500</v>
       </c>
       <c r="F58" s="3">
-        <v>1317800</v>
+        <v>737900</v>
       </c>
       <c r="G58" s="3">
-        <v>821300</v>
+        <v>1269300</v>
       </c>
       <c r="H58" s="3">
-        <v>668700</v>
+        <v>791000</v>
       </c>
       <c r="I58" s="3">
-        <v>1252400</v>
+        <v>644100</v>
       </c>
       <c r="J58" s="3">
+        <v>1206200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1277400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>567500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>630000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>933900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1333700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1454100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1393900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>834900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>639300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>677900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>573100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1330300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1711600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1579800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1561900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1185000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1012600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1534200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>6551500</v>
+        <v>2716800</v>
       </c>
       <c r="E59" s="3">
-        <v>2016200</v>
+        <v>3447500</v>
       </c>
       <c r="F59" s="3">
-        <v>1895800</v>
+        <v>1941900</v>
       </c>
       <c r="G59" s="3">
-        <v>1703600</v>
+        <v>1825900</v>
       </c>
       <c r="H59" s="3">
-        <v>1866200</v>
+        <v>1640900</v>
       </c>
       <c r="I59" s="3">
-        <v>1073500</v>
+        <v>1797400</v>
       </c>
       <c r="J59" s="3">
+        <v>1034000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1052200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1155100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1361200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>945700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>944000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>830100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1057600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>774100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>872500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>807700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1148500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>850600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>930700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>875200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1064900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>785700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1111100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>967000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>4363000</v>
+        <v>3443300</v>
       </c>
       <c r="E60" s="3">
-        <v>3082300</v>
+        <v>4202200</v>
       </c>
       <c r="F60" s="3">
-        <v>3490500</v>
+        <v>2968700</v>
       </c>
       <c r="G60" s="3">
-        <v>2798500</v>
+        <v>3361900</v>
       </c>
       <c r="H60" s="3">
-        <v>2813600</v>
+        <v>2695300</v>
       </c>
       <c r="I60" s="3">
-        <v>2599400</v>
+        <v>2709900</v>
       </c>
       <c r="J60" s="3">
+        <v>2503600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2589900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1980400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2292500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2201000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2594400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2521900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2693100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1846800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1750500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1715300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1968000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2413600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2854100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2669200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2842200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2180600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2347200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2721000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1689600</v>
+        <v>1639600</v>
       </c>
       <c r="E61" s="3">
-        <v>1805600</v>
+        <v>1627300</v>
       </c>
       <c r="F61" s="3">
-        <v>1467700</v>
+        <v>1739000</v>
       </c>
       <c r="G61" s="3">
-        <v>1844000</v>
+        <v>1413600</v>
       </c>
       <c r="H61" s="3">
-        <v>1844900</v>
+        <v>1776100</v>
       </c>
       <c r="I61" s="3">
-        <v>1080000</v>
+        <v>1776900</v>
       </c>
       <c r="J61" s="3">
+        <v>1040200</v>
+      </c>
+      <c r="K61" s="3">
         <v>986300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1829400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2073100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1906100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1903500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2169100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1775100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2473700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2353300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2249800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2253800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1749900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1728100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1696900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1660600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2032000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1980400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1294100</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1113800</v>
+        <v>1427200</v>
       </c>
       <c r="E62" s="3">
-        <v>1090800</v>
+        <v>1072700</v>
       </c>
       <c r="F62" s="3">
-        <v>1106500</v>
+        <v>1050600</v>
       </c>
       <c r="G62" s="3">
-        <v>1023900</v>
+        <v>1065700</v>
       </c>
       <c r="H62" s="3">
-        <v>1348600</v>
+        <v>986100</v>
       </c>
       <c r="I62" s="3">
-        <v>1106600</v>
+        <v>1298900</v>
       </c>
       <c r="J62" s="3">
+        <v>1065800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1115500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1122900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1209700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1282900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1316900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1369400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1397900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1444000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1441300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1374600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1435900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1469000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1253700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1135100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1091800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1092900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1148100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1070700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>7178500</v>
+        <v>6522100</v>
       </c>
       <c r="E66" s="3">
-        <v>5988400</v>
+        <v>6913900</v>
       </c>
       <c r="F66" s="3">
-        <v>6072100</v>
+        <v>5767700</v>
       </c>
       <c r="G66" s="3">
-        <v>5671500</v>
+        <v>5848300</v>
       </c>
       <c r="H66" s="3">
-        <v>6010700</v>
+        <v>5462400</v>
       </c>
       <c r="I66" s="3">
-        <v>4789100</v>
+        <v>5789100</v>
       </c>
       <c r="J66" s="3">
+        <v>4612600</v>
+      </c>
+      <c r="K66" s="3">
         <v>4695500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4937700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5577900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5392400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5829500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6074900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5881100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5780400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5561400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5356200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5678100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5639300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5866800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5535000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5624800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5336500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5546200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5138300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>5175400</v>
+        <v>5845300</v>
       </c>
       <c r="E72" s="3">
-        <v>4469500</v>
+        <v>4984600</v>
       </c>
       <c r="F72" s="3">
-        <v>3818900</v>
+        <v>4304700</v>
       </c>
       <c r="G72" s="3">
-        <v>3318300</v>
+        <v>3678200</v>
       </c>
       <c r="H72" s="3">
-        <v>2726200</v>
+        <v>3196000</v>
       </c>
       <c r="I72" s="3">
-        <v>2990400</v>
+        <v>2625800</v>
       </c>
       <c r="J72" s="3">
+        <v>2880200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2653800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2342000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2144500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2400700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2181900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2072300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1935700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2153400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2160500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2158800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2129100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2307700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1557800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1529000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1457800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1603500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1554000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1561100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>9363400</v>
+        <v>10036200</v>
       </c>
       <c r="E76" s="3">
-        <v>9995900</v>
+        <v>9018300</v>
       </c>
       <c r="F76" s="3">
-        <v>9300400</v>
+        <v>9627500</v>
       </c>
       <c r="G76" s="3">
-        <v>8521600</v>
+        <v>8957600</v>
       </c>
       <c r="H76" s="3">
-        <v>7946800</v>
+        <v>8207500</v>
       </c>
       <c r="I76" s="3">
-        <v>8261000</v>
+        <v>7653900</v>
       </c>
       <c r="J76" s="3">
+        <v>7956500</v>
+      </c>
+      <c r="K76" s="3">
         <v>7800300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7391100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7363400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7591300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7378800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7338400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7048200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7344400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7228900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7072400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6990300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7184400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6905900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6916000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6879500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7035100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7062700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7089100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>91</v>
+      <c r="D81" s="3">
+        <v>860600</v>
       </c>
       <c r="E81" s="3">
-        <v>655600</v>
+        <v>679900</v>
       </c>
       <c r="F81" s="3">
-        <v>527900</v>
+        <v>631500</v>
       </c>
       <c r="G81" s="3">
-        <v>577900</v>
+        <v>508500</v>
       </c>
       <c r="H81" s="3">
-        <v>395300</v>
+        <v>556600</v>
       </c>
       <c r="I81" s="3">
-        <v>345200</v>
+        <v>380700</v>
       </c>
       <c r="J81" s="3">
+        <v>332400</v>
+      </c>
+      <c r="K81" s="3">
         <v>370600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>304900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>235200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>79500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>136900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>105000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>60800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>42100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-59900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>57400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>121700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>113100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>57400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>112500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>68000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>74500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>83100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>367700</v>
+        <v>356900</v>
       </c>
       <c r="E83" s="3">
-        <v>377000</v>
+        <v>354100</v>
       </c>
       <c r="F83" s="3">
-        <v>391100</v>
+        <v>363100</v>
       </c>
       <c r="G83" s="3">
-        <v>389000</v>
+        <v>376700</v>
       </c>
       <c r="H83" s="3">
-        <v>386300</v>
+        <v>374700</v>
       </c>
       <c r="I83" s="3">
-        <v>391700</v>
+        <v>372100</v>
       </c>
       <c r="J83" s="3">
+        <v>377300</v>
+      </c>
+      <c r="K83" s="3">
         <v>397000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>407400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>431300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>450100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>455800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>432100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>425900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>434300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>435500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>432700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>444800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>442000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>428700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>437100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>424300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>433500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>436200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>420700</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1161500</v>
+        <v>1265500</v>
       </c>
       <c r="E89" s="3">
-        <v>996900</v>
+        <v>1118700</v>
       </c>
       <c r="F89" s="3">
-        <v>887800</v>
+        <v>960200</v>
       </c>
       <c r="G89" s="3">
-        <v>732400</v>
+        <v>855100</v>
       </c>
       <c r="H89" s="3">
-        <v>765400</v>
+        <v>705400</v>
       </c>
       <c r="I89" s="3">
-        <v>605100</v>
+        <v>737200</v>
       </c>
       <c r="J89" s="3">
+        <v>582800</v>
+      </c>
+      <c r="K89" s="3">
         <v>532000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>620700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>577500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>530600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1339200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-110400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>428800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>287100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>425300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>526000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>474400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>291900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>418100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>371000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>480200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>434100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>507000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-361000</v>
+        <v>-716200</v>
       </c>
       <c r="E91" s="3">
-        <v>-357600</v>
+        <v>-347700</v>
       </c>
       <c r="F91" s="3">
-        <v>-486800</v>
+        <v>-344400</v>
       </c>
       <c r="G91" s="3">
-        <v>-577800</v>
+        <v>-468800</v>
       </c>
       <c r="H91" s="3">
-        <v>-282000</v>
+        <v>-556500</v>
       </c>
       <c r="I91" s="3">
-        <v>-243300</v>
+        <v>-271600</v>
       </c>
       <c r="J91" s="3">
+        <v>-234400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-388500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-224500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-150300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-130800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-124900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-127300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-136400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-195100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-153000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-187200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-129700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-190100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-355300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-236200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-270100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-588000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-724600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-666200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-387800</v>
+        <v>-682800</v>
       </c>
       <c r="E94" s="3">
-        <v>488300</v>
+        <v>-373500</v>
       </c>
       <c r="F94" s="3">
-        <v>-441500</v>
+        <v>470300</v>
       </c>
       <c r="G94" s="3">
-        <v>-768700</v>
+        <v>-425200</v>
       </c>
       <c r="H94" s="3">
-        <v>-611800</v>
+        <v>-740300</v>
       </c>
       <c r="I94" s="3">
-        <v>-235700</v>
+        <v>-589200</v>
       </c>
       <c r="J94" s="3">
+        <v>-227000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-577200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-190400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-277400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-328200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-636700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-142300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-146400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-199400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-161800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-182600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-202100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>22200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-195500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-161500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-262700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-531300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-597400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-502200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6755,11 +6989,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6779,11 +7013,11 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>300</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -6794,10 +7028,13 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-225200</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-444300</v>
+        <v>-850800</v>
       </c>
       <c r="E100" s="3">
-        <v>-263500</v>
+        <v>-427900</v>
       </c>
       <c r="F100" s="3">
-        <v>210700</v>
+        <v>-253700</v>
       </c>
       <c r="G100" s="3">
-        <v>-320900</v>
+        <v>203000</v>
       </c>
       <c r="H100" s="3">
-        <v>438200</v>
+        <v>-309100</v>
       </c>
       <c r="I100" s="3">
-        <v>85400</v>
+        <v>422000</v>
       </c>
       <c r="J100" s="3">
+        <v>82200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-104300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-457100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-103800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-210700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-346700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>148300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-226000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>76500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-200800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-108500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-359000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-456100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>169000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-149200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>22900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>255800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>137600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>53000</v>
+        <v>170100</v>
       </c>
       <c r="E101" s="3">
-        <v>87300</v>
+        <v>51000</v>
       </c>
       <c r="F101" s="3">
-        <v>-11000</v>
+        <v>84100</v>
       </c>
       <c r="G101" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="N101" s="3">
         <v>-3500</v>
       </c>
-      <c r="H101" s="3">
-        <v>-38500</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-30700</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-44200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-24800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>13900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>12500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-23900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>21900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-8700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-11100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-53200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>28300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-49900</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>382400</v>
+        <v>-98000</v>
       </c>
       <c r="E102" s="3">
-        <v>1309000</v>
+        <v>368300</v>
       </c>
       <c r="F102" s="3">
-        <v>646000</v>
+        <v>1260800</v>
       </c>
       <c r="G102" s="3">
-        <v>-360600</v>
+        <v>622200</v>
       </c>
       <c r="H102" s="3">
-        <v>553300</v>
+        <v>-347400</v>
       </c>
       <c r="I102" s="3">
-        <v>438100</v>
+        <v>532900</v>
       </c>
       <c r="J102" s="3">
+        <v>422000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-158600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-34600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>165700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>311700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-129200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>56700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>178100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>75100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>211000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-64900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-150700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>380400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>58500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>237300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>105400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>75400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>190500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>UMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2403500</v>
+        <v>2199900</v>
       </c>
       <c r="E8" s="3">
-        <v>2297100</v>
+        <v>2444900</v>
       </c>
       <c r="F8" s="3">
-        <v>2021900</v>
+        <v>2336700</v>
       </c>
       <c r="G8" s="3">
-        <v>1884100</v>
+        <v>2056800</v>
       </c>
       <c r="H8" s="3">
-        <v>1782300</v>
+        <v>1916600</v>
       </c>
       <c r="I8" s="3">
-        <v>1622900</v>
+        <v>1813100</v>
       </c>
       <c r="J8" s="3">
+        <v>1650900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1501500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1499300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1502300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1562800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1522500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1493200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1353300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1259300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1143000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1245900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1313500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1292200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1247200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1187200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1221800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1216600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1220200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1249200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1244500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1266500</v>
+        <v>1255400</v>
       </c>
       <c r="E9" s="3">
-        <v>1230000</v>
+        <v>1288400</v>
       </c>
       <c r="F9" s="3">
-        <v>1145100</v>
+        <v>1251200</v>
       </c>
       <c r="G9" s="3">
-        <v>1147600</v>
+        <v>1164800</v>
       </c>
       <c r="H9" s="3">
-        <v>1127400</v>
+        <v>1167400</v>
       </c>
       <c r="I9" s="3">
-        <v>1115800</v>
+        <v>1146800</v>
       </c>
       <c r="J9" s="3">
+        <v>1135000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1103100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1140200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1175200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1201700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1229900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1244500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1122600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1061800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1063700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1084500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1082700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1070200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1092800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>983100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1008100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>998200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>978000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>963500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1137000</v>
+        <v>944500</v>
       </c>
       <c r="E10" s="3">
-        <v>1067100</v>
+        <v>1156600</v>
       </c>
       <c r="F10" s="3">
-        <v>876800</v>
+        <v>1085500</v>
       </c>
       <c r="G10" s="3">
-        <v>736500</v>
+        <v>892000</v>
       </c>
       <c r="H10" s="3">
-        <v>654900</v>
+        <v>749200</v>
       </c>
       <c r="I10" s="3">
-        <v>507100</v>
+        <v>666200</v>
       </c>
       <c r="J10" s="3">
+        <v>515900</v>
+      </c>
+      <c r="K10" s="3">
         <v>398300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>359100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>327100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>361200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>292600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>248600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>230700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>197500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>79400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>161400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>230800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>222000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>154400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>204100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>213700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>218400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>242200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>285600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>270700</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>105300</v>
+        <v>110500</v>
       </c>
       <c r="E12" s="3">
-        <v>102300</v>
+        <v>107200</v>
       </c>
       <c r="F12" s="3">
-        <v>96700</v>
+        <v>104100</v>
       </c>
       <c r="G12" s="3">
-        <v>108800</v>
+        <v>98400</v>
       </c>
       <c r="H12" s="3">
-        <v>105300</v>
+        <v>110700</v>
       </c>
       <c r="I12" s="3">
-        <v>101000</v>
+        <v>107100</v>
       </c>
       <c r="J12" s="3">
+        <v>102700</v>
+      </c>
+      <c r="K12" s="3">
         <v>97200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>105700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>111000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>112800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>114700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>123200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>100900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>97400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>98500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>131400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>111000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>100700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>97300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>100100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>108400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>105200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>130100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>124700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1232,11 +1251,11 @@
       <c r="J14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>91</v>
@@ -1244,24 +1263,24 @@
       <c r="N14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="3">
         <v>-4900</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>1600</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1269,25 +1288,28 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>8200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>9700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>9400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>34900</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1442100</v>
+        <v>1433400</v>
       </c>
       <c r="E17" s="3">
-        <v>1399200</v>
+        <v>1466900</v>
       </c>
       <c r="F17" s="3">
-        <v>1309900</v>
+        <v>1423400</v>
       </c>
       <c r="G17" s="3">
-        <v>1322500</v>
+        <v>1332500</v>
       </c>
       <c r="H17" s="3">
-        <v>1299800</v>
+        <v>1345300</v>
       </c>
       <c r="I17" s="3">
-        <v>1262300</v>
+        <v>1322200</v>
       </c>
       <c r="J17" s="3">
+        <v>1284100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1258500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1313500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1263500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1357000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1399500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1416000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1263300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1197700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1199000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1268200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1232300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1186400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1221600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1133800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1178700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1165900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1184800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1209800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1198300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>961400</v>
+        <v>766500</v>
       </c>
       <c r="E18" s="3">
-        <v>897900</v>
+        <v>978000</v>
       </c>
       <c r="F18" s="3">
-        <v>712000</v>
+        <v>913400</v>
       </c>
       <c r="G18" s="3">
-        <v>561600</v>
+        <v>724300</v>
       </c>
       <c r="H18" s="3">
-        <v>482500</v>
+        <v>571300</v>
       </c>
       <c r="I18" s="3">
-        <v>360700</v>
+        <v>490800</v>
       </c>
       <c r="J18" s="3">
+        <v>366900</v>
+      </c>
+      <c r="K18" s="3">
         <v>243000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>185900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>238800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>205800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>123000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>77200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>90000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>61500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-56000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-22300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>81200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>105800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>25600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>53400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>43100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>50700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>35400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>39300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,408 +1615,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>83400</v>
+        <v>42300</v>
       </c>
       <c r="E20" s="3">
-        <v>-68200</v>
+        <v>84900</v>
       </c>
       <c r="F20" s="3">
-        <v>57600</v>
+        <v>-69300</v>
       </c>
       <c r="G20" s="3">
-        <v>33600</v>
+        <v>58600</v>
       </c>
       <c r="H20" s="3">
-        <v>154200</v>
+        <v>34200</v>
       </c>
       <c r="I20" s="3">
-        <v>74700</v>
+        <v>156800</v>
       </c>
       <c r="J20" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K20" s="3">
         <v>119500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>199400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>84800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>47200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-71100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>54100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>68700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-44200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-30300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-12800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>58400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>25000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>70200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>36700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>16600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>11300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1401800</v>
+        <v>1148700</v>
       </c>
       <c r="E21" s="3">
-        <v>1183800</v>
+        <v>1425900</v>
       </c>
       <c r="F21" s="3">
-        <v>1132700</v>
+        <v>1204200</v>
       </c>
       <c r="G21" s="3">
-        <v>972000</v>
+        <v>1152200</v>
       </c>
       <c r="H21" s="3">
-        <v>1011400</v>
+        <v>988700</v>
       </c>
       <c r="I21" s="3">
-        <v>807500</v>
+        <v>1028800</v>
       </c>
       <c r="J21" s="3">
+        <v>821400</v>
+      </c>
+      <c r="K21" s="3">
         <v>739800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>782200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>731000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>684300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>502000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>587100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>529800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>492400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>446900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>369000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>483500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>537800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>526000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>507000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>550400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>511800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>485400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>486800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>496600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="E22" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="F22" s="3">
-        <v>15700</v>
+        <v>14500</v>
       </c>
       <c r="G22" s="3">
+        <v>15900</v>
+      </c>
+      <c r="H22" s="3">
+        <v>16100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>12400</v>
+      </c>
+      <c r="L22" s="3">
+        <v>13400</v>
+      </c>
+      <c r="M22" s="3">
+        <v>15400</v>
+      </c>
+      <c r="N22" s="3">
+        <v>18400</v>
+      </c>
+      <c r="O22" s="3">
+        <v>22300</v>
+      </c>
+      <c r="P22" s="3">
+        <v>25500</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>26800</v>
+      </c>
+      <c r="R22" s="3">
+        <v>26600</v>
+      </c>
+      <c r="S22" s="3">
+        <v>24900</v>
+      </c>
+      <c r="T22" s="3">
+        <v>24300</v>
+      </c>
+      <c r="U22" s="3">
+        <v>23300</v>
+      </c>
+      <c r="V22" s="3">
+        <v>23600</v>
+      </c>
+      <c r="W22" s="3">
+        <v>22300</v>
+      </c>
+      <c r="X22" s="3">
+        <v>21700</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>20400</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>18800</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>17200</v>
+      </c>
+      <c r="AB22" s="3">
         <v>15800</v>
       </c>
-      <c r="H22" s="3">
-        <v>16600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>14800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>12400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>13400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>15400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>18400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>22300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>25500</v>
-      </c>
-      <c r="P22" s="3">
-        <v>26800</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>26600</v>
-      </c>
-      <c r="R22" s="3">
-        <v>24900</v>
-      </c>
-      <c r="S22" s="3">
-        <v>24300</v>
-      </c>
-      <c r="T22" s="3">
-        <v>23300</v>
-      </c>
-      <c r="U22" s="3">
-        <v>23600</v>
-      </c>
-      <c r="V22" s="3">
-        <v>22300</v>
-      </c>
-      <c r="W22" s="3">
-        <v>21700</v>
-      </c>
-      <c r="X22" s="3">
-        <v>20400</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>18800</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>17200</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>15800</v>
-      </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1031200</v>
+        <v>795400</v>
       </c>
       <c r="E23" s="3">
-        <v>815400</v>
+        <v>1049000</v>
       </c>
       <c r="F23" s="3">
-        <v>753900</v>
+        <v>829500</v>
       </c>
       <c r="G23" s="3">
-        <v>579400</v>
+        <v>766900</v>
       </c>
       <c r="H23" s="3">
-        <v>620100</v>
+        <v>589400</v>
       </c>
       <c r="I23" s="3">
-        <v>420600</v>
+        <v>630800</v>
       </c>
       <c r="J23" s="3">
+        <v>427900</v>
+      </c>
+      <c r="K23" s="3">
         <v>350100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>371800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>308200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>234600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>29600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>105800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>70900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>40000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-12300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-90700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>27600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>69400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>61800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>56700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>92900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>68600</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>34800</v>
       </c>
       <c r="AA23" s="3">
         <v>34800</v>
       </c>
       <c r="AB23" s="3">
+        <v>34800</v>
+      </c>
+      <c r="AC23" s="3">
         <v>63600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>159500</v>
+        <v>175300</v>
       </c>
       <c r="E24" s="3">
-        <v>130300</v>
+        <v>162300</v>
       </c>
       <c r="F24" s="3">
-        <v>114200</v>
+        <v>132500</v>
       </c>
       <c r="G24" s="3">
-        <v>69200</v>
+        <v>116200</v>
       </c>
       <c r="H24" s="3">
-        <v>66900</v>
+        <v>70400</v>
       </c>
       <c r="I24" s="3">
-        <v>42300</v>
+        <v>68100</v>
       </c>
       <c r="J24" s="3">
+        <v>43100</v>
+      </c>
+      <c r="K24" s="3">
         <v>34900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-14700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-6800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-15500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-11000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-39000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>18000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>13000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>20700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-14000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>20100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>871700</v>
+        <v>620100</v>
       </c>
       <c r="E26" s="3">
-        <v>685100</v>
+        <v>886700</v>
       </c>
       <c r="F26" s="3">
-        <v>639700</v>
+        <v>696900</v>
       </c>
       <c r="G26" s="3">
-        <v>510200</v>
+        <v>650700</v>
       </c>
       <c r="H26" s="3">
-        <v>553200</v>
+        <v>519000</v>
       </c>
       <c r="I26" s="3">
-        <v>378300</v>
+        <v>562700</v>
       </c>
       <c r="J26" s="3">
+        <v>384800</v>
+      </c>
+      <c r="K26" s="3">
         <v>315300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>360400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>301600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>213100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>44300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>112600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>69500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>32900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-105200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>80400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>100800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>38700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>79900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>47900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>48800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>14600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>860600</v>
+        <v>618400</v>
       </c>
       <c r="E27" s="3">
-        <v>679900</v>
+        <v>875500</v>
       </c>
       <c r="F27" s="3">
-        <v>631500</v>
+        <v>691600</v>
       </c>
       <c r="G27" s="3">
-        <v>508500</v>
+        <v>642400</v>
       </c>
       <c r="H27" s="3">
-        <v>556600</v>
+        <v>517200</v>
       </c>
       <c r="I27" s="3">
-        <v>380700</v>
+        <v>566200</v>
       </c>
       <c r="J27" s="3">
+        <v>387300</v>
+      </c>
+      <c r="K27" s="3">
         <v>332400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>370600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>304900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>235200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>79500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>136900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>105000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>60800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>42100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-59900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>57400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>121700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>113100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>57400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>112500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>68000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>74500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>83100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-83400</v>
+        <v>-42300</v>
       </c>
       <c r="E32" s="3">
-        <v>68200</v>
+        <v>-84900</v>
       </c>
       <c r="F32" s="3">
-        <v>-57600</v>
+        <v>69300</v>
       </c>
       <c r="G32" s="3">
-        <v>-33600</v>
+        <v>-58600</v>
       </c>
       <c r="H32" s="3">
-        <v>-154200</v>
+        <v>-34200</v>
       </c>
       <c r="I32" s="3">
-        <v>-74700</v>
+        <v>-156800</v>
       </c>
       <c r="J32" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-119500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-199400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-84800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-47200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>71100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-54100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-68700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>44200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>30300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>12800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-58400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-25000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-70200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-36700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-16600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-11300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>860600</v>
+        <v>618400</v>
       </c>
       <c r="E33" s="3">
-        <v>679900</v>
+        <v>875500</v>
       </c>
       <c r="F33" s="3">
-        <v>631500</v>
+        <v>691600</v>
       </c>
       <c r="G33" s="3">
-        <v>508500</v>
+        <v>642400</v>
       </c>
       <c r="H33" s="3">
-        <v>556600</v>
+        <v>517200</v>
       </c>
       <c r="I33" s="3">
-        <v>380700</v>
+        <v>566200</v>
       </c>
       <c r="J33" s="3">
+        <v>387300</v>
+      </c>
+      <c r="K33" s="3">
         <v>332400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>370600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>304900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>235200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>79500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>136900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>105000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>60800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>42100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-59900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>57400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>121700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>113100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>57400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>112500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>68000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>74500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>83100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>860600</v>
+        <v>618400</v>
       </c>
       <c r="E35" s="3">
-        <v>679900</v>
+        <v>875500</v>
       </c>
       <c r="F35" s="3">
-        <v>631500</v>
+        <v>691600</v>
       </c>
       <c r="G35" s="3">
-        <v>508500</v>
+        <v>642400</v>
       </c>
       <c r="H35" s="3">
-        <v>556600</v>
+        <v>517200</v>
       </c>
       <c r="I35" s="3">
-        <v>380700</v>
+        <v>566200</v>
       </c>
       <c r="J35" s="3">
+        <v>387300</v>
+      </c>
+      <c r="K35" s="3">
         <v>332400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>370600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>304900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>235200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>79500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>136900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>105000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>60800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>42100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-59900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>57400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>121700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>113100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>57400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>112500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>68000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>74500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>83100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3008,728 +3093,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>5759100</v>
+        <v>5636900</v>
       </c>
       <c r="E41" s="3">
-        <v>5857100</v>
+        <v>5858500</v>
       </c>
       <c r="F41" s="3">
-        <v>5488800</v>
+        <v>5958100</v>
       </c>
       <c r="G41" s="3">
-        <v>4228000</v>
+        <v>5583500</v>
       </c>
       <c r="H41" s="3">
-        <v>3605800</v>
+        <v>4300900</v>
       </c>
       <c r="I41" s="3">
-        <v>3953100</v>
+        <v>3668000</v>
       </c>
       <c r="J41" s="3">
+        <v>4021300</v>
+      </c>
+      <c r="K41" s="3">
         <v>3420300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3113000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3309100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3516500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3427900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3407200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3111000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3157900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3112900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2934900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2718700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2500900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2565800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2647100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2266700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2208200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1983100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1877700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1802200</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>128100</v>
+        <v>155000</v>
       </c>
       <c r="E42" s="3">
-        <v>215700</v>
+        <v>130300</v>
       </c>
       <c r="F42" s="3">
-        <v>219300</v>
+        <v>219400</v>
       </c>
       <c r="G42" s="3">
-        <v>301200</v>
+        <v>223000</v>
       </c>
       <c r="H42" s="3">
-        <v>235600</v>
+        <v>306400</v>
       </c>
       <c r="I42" s="3">
-        <v>32600</v>
+        <v>239700</v>
       </c>
       <c r="J42" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K42" s="3">
         <v>32900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>40300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>30700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>35700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>27100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>25800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>22700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>21400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>19400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>18500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>15600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>17400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>23200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>27400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>25900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>28300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>23300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1493900</v>
+        <v>1271100</v>
       </c>
       <c r="E43" s="3">
-        <v>1415800</v>
+        <v>1519700</v>
       </c>
       <c r="F43" s="3">
-        <v>1248900</v>
+        <v>1440200</v>
       </c>
       <c r="G43" s="3">
-        <v>1159500</v>
+        <v>1270400</v>
       </c>
       <c r="H43" s="3">
-        <v>1096000</v>
+        <v>1179500</v>
       </c>
       <c r="I43" s="3">
-        <v>1008100</v>
+        <v>1114900</v>
       </c>
       <c r="J43" s="3">
+        <v>1025500</v>
+      </c>
+      <c r="K43" s="3">
         <v>988700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>967800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>940100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1084200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>949900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>871600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>898200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>832500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>866400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>908900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>959500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>886600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>734300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>785600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>748200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>705300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>782700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>761800</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>959600</v>
+        <v>1007600</v>
       </c>
       <c r="E44" s="3">
-        <v>871600</v>
+        <v>976200</v>
       </c>
       <c r="F44" s="3">
-        <v>809800</v>
+        <v>886700</v>
       </c>
       <c r="G44" s="3">
-        <v>733600</v>
+        <v>823700</v>
       </c>
       <c r="H44" s="3">
-        <v>738000</v>
+        <v>746300</v>
       </c>
       <c r="I44" s="3">
-        <v>715400</v>
+        <v>750700</v>
       </c>
       <c r="J44" s="3">
+        <v>727700</v>
+      </c>
+      <c r="K44" s="3">
         <v>708500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>746500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>765500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>821900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>797000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>774800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>716800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>686000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>662100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>638600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>586600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>587300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>570000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>591700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>554300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>527800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>530300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>554300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>559800</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>169500</v>
+        <v>113700</v>
       </c>
       <c r="E45" s="3">
-        <v>112800</v>
+        <v>172400</v>
       </c>
       <c r="F45" s="3">
-        <v>193200</v>
+        <v>114800</v>
       </c>
       <c r="G45" s="3">
-        <v>1014500</v>
+        <v>196600</v>
       </c>
       <c r="H45" s="3">
-        <v>1070500</v>
+        <v>1032000</v>
       </c>
       <c r="I45" s="3">
-        <v>916600</v>
+        <v>1089000</v>
       </c>
       <c r="J45" s="3">
+        <v>932400</v>
+      </c>
+      <c r="K45" s="3">
         <v>558800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>571000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>427800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>539500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>412500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>328400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1140600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>496600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>522700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>494800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>445900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>496100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>497500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>513800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>407900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>381500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>390200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>364400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>340000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>8510200</v>
+        <v>8184400</v>
       </c>
       <c r="E46" s="3">
-        <v>8473000</v>
+        <v>8657000</v>
       </c>
       <c r="F46" s="3">
-        <v>7959900</v>
+        <v>8619200</v>
       </c>
       <c r="G46" s="3">
-        <v>7436800</v>
+        <v>8097200</v>
       </c>
       <c r="H46" s="3">
-        <v>6745900</v>
+        <v>7565100</v>
       </c>
       <c r="I46" s="3">
-        <v>6625700</v>
+        <v>6862300</v>
       </c>
       <c r="J46" s="3">
+        <v>6740000</v>
+      </c>
+      <c r="K46" s="3">
         <v>5709200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5438500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5473200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5913700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5748600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5486100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5862800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5260200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5149600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4953100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4674100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4559400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4537400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4510200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4041800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3891700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3637200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3602400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3488300</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1974500</v>
+        <v>2103200</v>
       </c>
       <c r="E47" s="3">
-        <v>2116000</v>
+        <v>2008600</v>
       </c>
       <c r="F47" s="3">
-        <v>2307800</v>
+        <v>2152500</v>
       </c>
       <c r="G47" s="3">
-        <v>2312800</v>
+        <v>2347700</v>
       </c>
       <c r="H47" s="3">
-        <v>2002600</v>
+        <v>2352700</v>
       </c>
       <c r="I47" s="3">
-        <v>2121700</v>
+        <v>2037200</v>
       </c>
       <c r="J47" s="3">
+        <v>2158400</v>
+      </c>
+      <c r="K47" s="3">
         <v>2067000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1872700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1571400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1476500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1291600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1475200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1446500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1322600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1305600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1175400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1209300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1241200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1199400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1102700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1125500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1163800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1138100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1133700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1232600</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>5529600</v>
+        <v>6422200</v>
       </c>
       <c r="E48" s="3">
-        <v>4843300</v>
+        <v>5625000</v>
       </c>
       <c r="F48" s="3">
-        <v>4693900</v>
+        <v>4926800</v>
       </c>
       <c r="G48" s="3">
-        <v>4635100</v>
+        <v>4774900</v>
       </c>
       <c r="H48" s="3">
-        <v>4478600</v>
+        <v>4715000</v>
       </c>
       <c r="I48" s="3">
-        <v>4276800</v>
+        <v>4555900</v>
       </c>
       <c r="J48" s="3">
+        <v>4350600</v>
+      </c>
+      <c r="K48" s="3">
         <v>4337400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4670700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4733300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4972200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5388900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5669000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5641600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5850300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6191600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6086700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5969600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6308800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6577800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6677400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6764100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6921700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7101400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>7375100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>7060600</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>133900</v>
+        <v>138600</v>
       </c>
       <c r="E49" s="3">
-        <v>131200</v>
+        <v>136200</v>
       </c>
       <c r="F49" s="3">
-        <v>114900</v>
+        <v>133500</v>
       </c>
       <c r="G49" s="3">
-        <v>116200</v>
+        <v>116800</v>
       </c>
       <c r="H49" s="3">
-        <v>133600</v>
+        <v>118200</v>
       </c>
       <c r="I49" s="3">
+        <v>135900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>151100</v>
+      </c>
+      <c r="K49" s="3">
         <v>148500</v>
       </c>
-      <c r="J49" s="3">
-        <v>148500</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>161500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>165800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>170400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>172000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>185500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>130600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>145100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>117600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>105000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>106900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>119100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>122700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>122800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>125500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>123900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>120300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>133300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>410100</v>
+        <v>438400</v>
       </c>
       <c r="E52" s="3">
-        <v>368700</v>
+        <v>417200</v>
       </c>
       <c r="F52" s="3">
-        <v>318600</v>
+        <v>375000</v>
       </c>
       <c r="G52" s="3">
-        <v>305100</v>
+        <v>324100</v>
       </c>
       <c r="H52" s="3">
-        <v>309200</v>
+        <v>310400</v>
       </c>
       <c r="I52" s="3">
-        <v>270300</v>
+        <v>314500</v>
       </c>
       <c r="J52" s="3">
+        <v>275000</v>
+      </c>
+      <c r="K52" s="3">
         <v>307100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>352400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>385100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>408300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>382600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>392600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>331700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>351000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>360400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>470300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>468600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>439900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>386500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>359800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>394100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>403200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>374500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>364200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>307400</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>16558300</v>
+        <v>17286900</v>
       </c>
       <c r="E54" s="3">
-        <v>15932200</v>
+        <v>16843900</v>
       </c>
       <c r="F54" s="3">
-        <v>15395100</v>
+        <v>16207000</v>
       </c>
       <c r="G54" s="3">
-        <v>14805900</v>
+        <v>15660700</v>
       </c>
       <c r="H54" s="3">
-        <v>13669900</v>
+        <v>15061400</v>
       </c>
       <c r="I54" s="3">
-        <v>13443100</v>
+        <v>13905700</v>
       </c>
       <c r="J54" s="3">
+        <v>13675000</v>
+      </c>
+      <c r="K54" s="3">
         <v>12569100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12495800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12328800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12941200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12983600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13208300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13413200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12929200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13124700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12790300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12428500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12668400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12823700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12772800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12451000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12504300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12371600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>12608800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>12227400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>320000</v>
+        <v>291300</v>
       </c>
       <c r="E57" s="3">
-        <v>317200</v>
+        <v>325500</v>
       </c>
       <c r="F57" s="3">
-        <v>288900</v>
+        <v>322700</v>
       </c>
       <c r="G57" s="3">
-        <v>266600</v>
+        <v>293900</v>
       </c>
       <c r="H57" s="3">
+        <v>271200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>268000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>273100</v>
+      </c>
+      <c r="K57" s="3">
         <v>263400</v>
       </c>
-      <c r="I57" s="3">
-        <v>268500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>263400</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>260200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>257800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>301300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>321400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>316700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>237700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>241600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>237800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>238600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>229600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>246400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>232700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>211800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>214200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>215400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>210000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>223500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>219900</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>406500</v>
+        <v>263500</v>
       </c>
       <c r="E58" s="3">
-        <v>437500</v>
+        <v>413500</v>
       </c>
       <c r="F58" s="3">
-        <v>737900</v>
+        <v>445100</v>
       </c>
       <c r="G58" s="3">
-        <v>1269300</v>
+        <v>750600</v>
       </c>
       <c r="H58" s="3">
-        <v>791000</v>
+        <v>1291200</v>
       </c>
       <c r="I58" s="3">
-        <v>644100</v>
+        <v>804700</v>
       </c>
       <c r="J58" s="3">
+        <v>655200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1206200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1277400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>567500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>630000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>933900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1333700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1454100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1393900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>834900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>639300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>677900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>573100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1330300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1711600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1579800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1561900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1185000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1012600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1534200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2716800</v>
+        <v>2966000</v>
       </c>
       <c r="E59" s="3">
-        <v>3447500</v>
+        <v>2763700</v>
       </c>
       <c r="F59" s="3">
-        <v>1941900</v>
+        <v>3507000</v>
       </c>
       <c r="G59" s="3">
-        <v>1825900</v>
+        <v>1975400</v>
       </c>
       <c r="H59" s="3">
-        <v>1640900</v>
+        <v>1857400</v>
       </c>
       <c r="I59" s="3">
-        <v>1797400</v>
+        <v>1669200</v>
       </c>
       <c r="J59" s="3">
+        <v>1828400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1034000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1052200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1155100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1361200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>945700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>944000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>830100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1057600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>774100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>872500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>807700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1148500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>850600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>930700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>875200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1064900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>785700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1111100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>967000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3443300</v>
+        <v>3520800</v>
       </c>
       <c r="E60" s="3">
-        <v>4202200</v>
+        <v>3502700</v>
       </c>
       <c r="F60" s="3">
-        <v>2968700</v>
+        <v>4274700</v>
       </c>
       <c r="G60" s="3">
-        <v>3361900</v>
+        <v>3019900</v>
       </c>
       <c r="H60" s="3">
-        <v>2695300</v>
+        <v>3419900</v>
       </c>
       <c r="I60" s="3">
-        <v>2709900</v>
+        <v>2741800</v>
       </c>
       <c r="J60" s="3">
+        <v>2756700</v>
+      </c>
+      <c r="K60" s="3">
         <v>2503600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2589900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1980400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2292500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2201000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2594400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2521900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2693100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1846800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1750500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1715300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1968000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2413600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2854100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2669200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2842200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2180600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2347200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2721000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1639600</v>
+        <v>1461900</v>
       </c>
       <c r="E61" s="3">
-        <v>1627300</v>
+        <v>1667800</v>
       </c>
       <c r="F61" s="3">
-        <v>1739000</v>
+        <v>1655400</v>
       </c>
       <c r="G61" s="3">
-        <v>1413600</v>
+        <v>1769000</v>
       </c>
       <c r="H61" s="3">
-        <v>1776100</v>
+        <v>1438000</v>
       </c>
       <c r="I61" s="3">
-        <v>1776900</v>
+        <v>1806700</v>
       </c>
       <c r="J61" s="3">
+        <v>1807600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1040200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>986300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1829400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2073100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1906100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1903500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2169100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1775100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2473700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2353300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2249800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2253800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1749900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1728100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1696900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1660600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2032000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1980400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1294100</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1427200</v>
+        <v>1425600</v>
       </c>
       <c r="E62" s="3">
-        <v>1072700</v>
+        <v>1451800</v>
       </c>
       <c r="F62" s="3">
-        <v>1050600</v>
+        <v>1091200</v>
       </c>
       <c r="G62" s="3">
-        <v>1065700</v>
+        <v>1068700</v>
       </c>
       <c r="H62" s="3">
-        <v>986100</v>
+        <v>1084100</v>
       </c>
       <c r="I62" s="3">
-        <v>1298900</v>
+        <v>1003100</v>
       </c>
       <c r="J62" s="3">
+        <v>1321300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1065800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1115500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1122900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1209700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1282900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1316900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1369400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1397900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1444000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1441300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1374600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1435900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1469000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1253700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1135100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1091800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1092900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1148100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1070700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6522100</v>
+        <v>6419400</v>
       </c>
       <c r="E66" s="3">
-        <v>6913900</v>
+        <v>6634600</v>
       </c>
       <c r="F66" s="3">
-        <v>5767700</v>
+        <v>7033200</v>
       </c>
       <c r="G66" s="3">
-        <v>5848300</v>
+        <v>5867200</v>
       </c>
       <c r="H66" s="3">
-        <v>5462400</v>
+        <v>5949200</v>
       </c>
       <c r="I66" s="3">
-        <v>5789100</v>
+        <v>5556700</v>
       </c>
       <c r="J66" s="3">
+        <v>5889000</v>
+      </c>
+      <c r="K66" s="3">
         <v>4612600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4695500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4937700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5577900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5392400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5829500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6074900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5881100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5780400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5561400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5356200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5678100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5639300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5866800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5535000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5624800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5336500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5546200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5138300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>5845300</v>
+        <v>6558900</v>
       </c>
       <c r="E72" s="3">
-        <v>4984600</v>
+        <v>5946100</v>
       </c>
       <c r="F72" s="3">
-        <v>4304700</v>
+        <v>5070600</v>
       </c>
       <c r="G72" s="3">
-        <v>3678200</v>
+        <v>4379000</v>
       </c>
       <c r="H72" s="3">
-        <v>3196000</v>
+        <v>3741600</v>
       </c>
       <c r="I72" s="3">
-        <v>2625800</v>
+        <v>3251100</v>
       </c>
       <c r="J72" s="3">
+        <v>2671100</v>
+      </c>
+      <c r="K72" s="3">
         <v>2880200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2653800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2342000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2144500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2400700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2181900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2072300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1935700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2153400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2160500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2158800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2129100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2307700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1557800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1529000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1457800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1603500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1554000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1561100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>10036200</v>
+        <v>10867500</v>
       </c>
       <c r="E76" s="3">
-        <v>9018300</v>
+        <v>10209300</v>
       </c>
       <c r="F76" s="3">
-        <v>9627500</v>
+        <v>9173900</v>
       </c>
       <c r="G76" s="3">
-        <v>8957600</v>
+        <v>9793600</v>
       </c>
       <c r="H76" s="3">
-        <v>8207500</v>
+        <v>9112200</v>
       </c>
       <c r="I76" s="3">
-        <v>7653900</v>
+        <v>8349100</v>
       </c>
       <c r="J76" s="3">
+        <v>7786000</v>
+      </c>
+      <c r="K76" s="3">
         <v>7956500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7800300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7391100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7363400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7591300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7378800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7338400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7048200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7344400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7228900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7072400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6990300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7184400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6905900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6916000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6879500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7035100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7062700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7089100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>860600</v>
+        <v>618400</v>
       </c>
       <c r="E81" s="3">
-        <v>679900</v>
+        <v>875500</v>
       </c>
       <c r="F81" s="3">
-        <v>631500</v>
+        <v>691600</v>
       </c>
       <c r="G81" s="3">
-        <v>508500</v>
+        <v>642400</v>
       </c>
       <c r="H81" s="3">
-        <v>556600</v>
+        <v>517200</v>
       </c>
       <c r="I81" s="3">
-        <v>380700</v>
+        <v>566200</v>
       </c>
       <c r="J81" s="3">
+        <v>387300</v>
+      </c>
+      <c r="K81" s="3">
         <v>332400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>370600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>304900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>235200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>79500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>136900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>105000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>60800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>42100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-59900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>57400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>121700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>113100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>57400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>112500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>68000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>74500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>83100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>356900</v>
+        <v>339800</v>
       </c>
       <c r="E83" s="3">
-        <v>354100</v>
+        <v>363100</v>
       </c>
       <c r="F83" s="3">
-        <v>363100</v>
+        <v>360200</v>
       </c>
       <c r="G83" s="3">
-        <v>376700</v>
+        <v>369400</v>
       </c>
       <c r="H83" s="3">
-        <v>374700</v>
+        <v>383200</v>
       </c>
       <c r="I83" s="3">
-        <v>372100</v>
+        <v>381200</v>
       </c>
       <c r="J83" s="3">
+        <v>378500</v>
+      </c>
+      <c r="K83" s="3">
         <v>377300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>397000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>407400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>431300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>450100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>455800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>432100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>425900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>434300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>435500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>432700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>444800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>442000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>428700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>437100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>424300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>433500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>436200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>420700</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1265500</v>
+        <v>1328200</v>
       </c>
       <c r="E89" s="3">
-        <v>1118700</v>
+        <v>1287300</v>
       </c>
       <c r="F89" s="3">
-        <v>960200</v>
+        <v>1138000</v>
       </c>
       <c r="G89" s="3">
-        <v>855100</v>
+        <v>976700</v>
       </c>
       <c r="H89" s="3">
-        <v>705400</v>
+        <v>869800</v>
       </c>
       <c r="I89" s="3">
-        <v>737200</v>
+        <v>717500</v>
       </c>
       <c r="J89" s="3">
+        <v>749900</v>
+      </c>
+      <c r="K89" s="3">
         <v>582800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>532000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>620700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>577500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>530600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1339200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-110400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>428800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>287100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>425300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>526000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>474400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>291900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>418100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>371000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>480200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>434100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>507000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-716200</v>
+        <v>-1165900</v>
       </c>
       <c r="E91" s="3">
-        <v>-347700</v>
+        <v>-728600</v>
       </c>
       <c r="F91" s="3">
-        <v>-344400</v>
+        <v>-353700</v>
       </c>
       <c r="G91" s="3">
-        <v>-468800</v>
+        <v>-350300</v>
       </c>
       <c r="H91" s="3">
-        <v>-556500</v>
+        <v>-476900</v>
       </c>
       <c r="I91" s="3">
-        <v>-271600</v>
+        <v>-566100</v>
       </c>
       <c r="J91" s="3">
+        <v>-276300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-234400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-388500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-224500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-150300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-130800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-124900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-127300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-136400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-195100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-153000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-187200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-129700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-190100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-355300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-236200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-270100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-588000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-724600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-666200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-682800</v>
+        <v>-1168900</v>
       </c>
       <c r="E94" s="3">
-        <v>-373500</v>
+        <v>-694600</v>
       </c>
       <c r="F94" s="3">
-        <v>470300</v>
+        <v>-380000</v>
       </c>
       <c r="G94" s="3">
-        <v>-425200</v>
+        <v>478400</v>
       </c>
       <c r="H94" s="3">
-        <v>-740300</v>
+        <v>-432600</v>
       </c>
       <c r="I94" s="3">
-        <v>-589200</v>
+        <v>-753100</v>
       </c>
       <c r="J94" s="3">
+        <v>-599400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-227000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-577200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-190400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-277400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-328200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-636700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-142300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-146400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-199400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-161800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-182600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-202100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>22200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-195500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-161500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-262700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-531300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-597400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-502200</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6953,13 +7185,14 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6992,11 +7225,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -7016,11 +7249,11 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>300</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
@@ -7031,10 +7264,13 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-225200</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-850800</v>
+        <v>-297900</v>
       </c>
       <c r="E100" s="3">
-        <v>-427900</v>
+        <v>-865500</v>
       </c>
       <c r="F100" s="3">
-        <v>-253700</v>
+        <v>-435300</v>
       </c>
       <c r="G100" s="3">
-        <v>203000</v>
+        <v>-258100</v>
       </c>
       <c r="H100" s="3">
-        <v>-309100</v>
+        <v>206500</v>
       </c>
       <c r="I100" s="3">
-        <v>422000</v>
+        <v>-314400</v>
       </c>
       <c r="J100" s="3">
+        <v>429300</v>
+      </c>
+      <c r="K100" s="3">
         <v>82200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-104300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-457100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-103800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-210700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-346700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>148300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-226000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>76500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-200800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-108500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-359000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-456100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>169000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-149200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>22900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>255800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>137600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>170100</v>
+        <v>-82900</v>
       </c>
       <c r="E101" s="3">
-        <v>51000</v>
+        <v>173100</v>
       </c>
       <c r="F101" s="3">
-        <v>84100</v>
+        <v>51900</v>
       </c>
       <c r="G101" s="3">
-        <v>-10600</v>
+        <v>85500</v>
       </c>
       <c r="H101" s="3">
-        <v>-3300</v>
+        <v>-10800</v>
       </c>
       <c r="I101" s="3">
-        <v>-37100</v>
+        <v>-3400</v>
       </c>
       <c r="J101" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-16000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-30700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-44200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-24800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>13900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>12500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-23900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>21900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-8700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-11100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-53200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>28300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-49900</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-98000</v>
+        <v>-221500</v>
       </c>
       <c r="E102" s="3">
-        <v>368300</v>
+        <v>-99700</v>
       </c>
       <c r="F102" s="3">
-        <v>1260800</v>
+        <v>374700</v>
       </c>
       <c r="G102" s="3">
-        <v>622200</v>
+        <v>1282500</v>
       </c>
       <c r="H102" s="3">
-        <v>-347400</v>
+        <v>632900</v>
       </c>
       <c r="I102" s="3">
-        <v>532900</v>
+        <v>-353300</v>
       </c>
       <c r="J102" s="3">
+        <v>542100</v>
+      </c>
+      <c r="K102" s="3">
         <v>422000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-158600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-34600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>165700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>311700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-129200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>56700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>178100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>75100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>211000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-64900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-150700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>380400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>58500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>237300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>105400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>75400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>190500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>UMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,380 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2199900</v>
+        <v>1764500</v>
       </c>
       <c r="E8" s="3">
-        <v>2444900</v>
+        <v>2208100</v>
       </c>
       <c r="F8" s="3">
-        <v>2336700</v>
+        <v>2454000</v>
       </c>
       <c r="G8" s="3">
-        <v>2056800</v>
+        <v>2345400</v>
       </c>
       <c r="H8" s="3">
-        <v>1916600</v>
+        <v>2064400</v>
       </c>
       <c r="I8" s="3">
-        <v>1813100</v>
+        <v>1923700</v>
       </c>
       <c r="J8" s="3">
+        <v>1819800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1650900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1501500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1499300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1502300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1562800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1522500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1493200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1353300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1259300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1143000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1245900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1313500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1292200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1247200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1187200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1221800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1216600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1220200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1249200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1244500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1255400</v>
+        <v>1138800</v>
       </c>
       <c r="E9" s="3">
-        <v>1288400</v>
+        <v>1260100</v>
       </c>
       <c r="F9" s="3">
-        <v>1251200</v>
+        <v>1293100</v>
       </c>
       <c r="G9" s="3">
-        <v>1164800</v>
+        <v>1255900</v>
       </c>
       <c r="H9" s="3">
-        <v>1167400</v>
+        <v>1169100</v>
       </c>
       <c r="I9" s="3">
-        <v>1146800</v>
+        <v>1171700</v>
       </c>
       <c r="J9" s="3">
+        <v>1151100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1135000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1103100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1140200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1175200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1201700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1229900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1244500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1122600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1061800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1063700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1084500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1082700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1070200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1092800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>983100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1008100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>998200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>978000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>963500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>944500</v>
+        <v>625800</v>
       </c>
       <c r="E10" s="3">
-        <v>1156600</v>
+        <v>948000</v>
       </c>
       <c r="F10" s="3">
-        <v>1085500</v>
+        <v>1160900</v>
       </c>
       <c r="G10" s="3">
-        <v>892000</v>
+        <v>1089500</v>
       </c>
       <c r="H10" s="3">
-        <v>749200</v>
+        <v>895300</v>
       </c>
       <c r="I10" s="3">
-        <v>666200</v>
+        <v>752000</v>
       </c>
       <c r="J10" s="3">
+        <v>668700</v>
+      </c>
+      <c r="K10" s="3">
         <v>515900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>398300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>359100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>327100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>361200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>292600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>248600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>230700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>197500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>79400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>161400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>230800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>222000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>154400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>204100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>213700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>218400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>242200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>285600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>270700</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1068,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>110500</v>
+        <v>90100</v>
       </c>
       <c r="E12" s="3">
-        <v>107200</v>
+        <v>110900</v>
       </c>
       <c r="F12" s="3">
-        <v>104100</v>
+        <v>107600</v>
       </c>
       <c r="G12" s="3">
-        <v>98400</v>
+        <v>104500</v>
       </c>
       <c r="H12" s="3">
-        <v>110700</v>
+        <v>98700</v>
       </c>
       <c r="I12" s="3">
-        <v>107100</v>
+        <v>111100</v>
       </c>
       <c r="J12" s="3">
+        <v>107500</v>
+      </c>
+      <c r="K12" s="3">
         <v>102700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>97200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>105700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>111000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>112800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>114700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>123200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>100900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>97400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>98500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>131400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>111000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>100700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>97300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>100100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>108400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>105200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>130100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>124700</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,40 +1238,43 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>91</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>91</v>
@@ -1266,24 +1282,24 @@
       <c r="O14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>1600</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1291,25 +1307,28 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>8200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>9700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>3400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>9400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>34900</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1391,8 +1410,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1441,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1433400</v>
+        <v>1293200</v>
       </c>
       <c r="E17" s="3">
-        <v>1466900</v>
+        <v>1438700</v>
       </c>
       <c r="F17" s="3">
-        <v>1423400</v>
+        <v>1472400</v>
       </c>
       <c r="G17" s="3">
-        <v>1332500</v>
+        <v>1428700</v>
       </c>
       <c r="H17" s="3">
-        <v>1345300</v>
+        <v>1337400</v>
       </c>
       <c r="I17" s="3">
-        <v>1322200</v>
+        <v>1350300</v>
       </c>
       <c r="J17" s="3">
+        <v>1327100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1284100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1258500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1313500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1263500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1357000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1399500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1416000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1263300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1197700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1199000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1268200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1232300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1186400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1221600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1133800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1178700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1165900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1184800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1209800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1198300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>766500</v>
+        <v>471300</v>
       </c>
       <c r="E18" s="3">
-        <v>978000</v>
+        <v>769400</v>
       </c>
       <c r="F18" s="3">
-        <v>913400</v>
+        <v>981600</v>
       </c>
       <c r="G18" s="3">
-        <v>724300</v>
+        <v>916700</v>
       </c>
       <c r="H18" s="3">
-        <v>571300</v>
+        <v>727000</v>
       </c>
       <c r="I18" s="3">
-        <v>490800</v>
+        <v>573400</v>
       </c>
       <c r="J18" s="3">
+        <v>492600</v>
+      </c>
+      <c r="K18" s="3">
         <v>366900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>243000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>185900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>238800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>205800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>123000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>77200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>90000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>61500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-56000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-22300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>81200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>105800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>25600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>53400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>43100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>50700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>35400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>39300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,423 +1645,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>42300</v>
+        <v>161800</v>
       </c>
       <c r="E20" s="3">
-        <v>84900</v>
+        <v>42500</v>
       </c>
       <c r="F20" s="3">
-        <v>-69300</v>
+        <v>85200</v>
       </c>
       <c r="G20" s="3">
-        <v>58600</v>
+        <v>-69600</v>
       </c>
       <c r="H20" s="3">
-        <v>34200</v>
+        <v>58800</v>
       </c>
       <c r="I20" s="3">
-        <v>156800</v>
+        <v>34300</v>
       </c>
       <c r="J20" s="3">
+        <v>157400</v>
+      </c>
+      <c r="K20" s="3">
         <v>76000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>119500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>199400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>84800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>47200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-71100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>54100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>68700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-44200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-30300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-12800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>58400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>25000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>70200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>36700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>16600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>11300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1148700</v>
+        <v>955400</v>
       </c>
       <c r="E21" s="3">
-        <v>1425900</v>
+        <v>1152900</v>
       </c>
       <c r="F21" s="3">
-        <v>1204200</v>
+        <v>1431200</v>
       </c>
       <c r="G21" s="3">
-        <v>1152200</v>
+        <v>1208700</v>
       </c>
       <c r="H21" s="3">
-        <v>988700</v>
+        <v>1156500</v>
       </c>
       <c r="I21" s="3">
-        <v>1028800</v>
+        <v>992400</v>
       </c>
       <c r="J21" s="3">
+        <v>1032600</v>
+      </c>
+      <c r="K21" s="3">
         <v>821400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>739800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>782200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>731000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>684300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>502000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>587100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>529800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>492400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>446900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>369000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>483500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>537800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>526000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>507000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>550400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>511800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>485400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>486800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>496600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="E22" s="3">
-        <v>13900</v>
+        <v>13600</v>
       </c>
       <c r="F22" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="G22" s="3">
-        <v>15900</v>
+        <v>14600</v>
       </c>
       <c r="H22" s="3">
-        <v>16100</v>
+        <v>16000</v>
       </c>
       <c r="I22" s="3">
-        <v>16800</v>
+        <v>16200</v>
       </c>
       <c r="J22" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K22" s="3">
         <v>15000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>13400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>22300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>25500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>26800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>26600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>24900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>24300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>23300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>23600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>22300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>21700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>20400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>18800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>17200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>15800</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>795400</v>
+        <v>622600</v>
       </c>
       <c r="E23" s="3">
-        <v>1049000</v>
+        <v>798300</v>
       </c>
       <c r="F23" s="3">
-        <v>829500</v>
+        <v>1052900</v>
       </c>
       <c r="G23" s="3">
-        <v>766900</v>
+        <v>832500</v>
       </c>
       <c r="H23" s="3">
-        <v>589400</v>
+        <v>769700</v>
       </c>
       <c r="I23" s="3">
-        <v>630800</v>
+        <v>591600</v>
       </c>
       <c r="J23" s="3">
+        <v>633200</v>
+      </c>
+      <c r="K23" s="3">
         <v>427900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>350100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>371800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>308200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>234600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>29600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>105800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>70900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>40000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-12300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-90700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>27600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>69400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>61800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>56700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>92900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>68600</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>34800</v>
       </c>
       <c r="AB23" s="3">
         <v>34800</v>
       </c>
       <c r="AC23" s="3">
+        <v>34800</v>
+      </c>
+      <c r="AD23" s="3">
         <v>63600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>175300</v>
+        <v>89300</v>
       </c>
       <c r="E24" s="3">
-        <v>162300</v>
+        <v>176000</v>
       </c>
       <c r="F24" s="3">
-        <v>132500</v>
+        <v>162900</v>
       </c>
       <c r="G24" s="3">
-        <v>116200</v>
+        <v>133000</v>
       </c>
       <c r="H24" s="3">
-        <v>70400</v>
+        <v>116600</v>
       </c>
       <c r="I24" s="3">
-        <v>68100</v>
+        <v>70600</v>
       </c>
       <c r="J24" s="3">
+        <v>68400</v>
+      </c>
+      <c r="K24" s="3">
         <v>43100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>34900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-14700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-15500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>14500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-11000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-39000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>18000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>13000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>20700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-14000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>20100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2114,174 +2159,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>620100</v>
+        <v>533300</v>
       </c>
       <c r="E26" s="3">
-        <v>886700</v>
+        <v>622400</v>
       </c>
       <c r="F26" s="3">
-        <v>696900</v>
+        <v>890000</v>
       </c>
       <c r="G26" s="3">
-        <v>650700</v>
+        <v>699500</v>
       </c>
       <c r="H26" s="3">
-        <v>519000</v>
+        <v>653100</v>
       </c>
       <c r="I26" s="3">
-        <v>562700</v>
+        <v>520900</v>
       </c>
       <c r="J26" s="3">
+        <v>564800</v>
+      </c>
+      <c r="K26" s="3">
         <v>384800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>315300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>360400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>301600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>213100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>44300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>112600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>69500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>32900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-105200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>80400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>100800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>38700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>79900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>47900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>48800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>14600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>618400</v>
+        <v>526800</v>
       </c>
       <c r="E27" s="3">
-        <v>875500</v>
+        <v>620700</v>
       </c>
       <c r="F27" s="3">
-        <v>691600</v>
+        <v>878700</v>
       </c>
       <c r="G27" s="3">
-        <v>642400</v>
+        <v>694200</v>
       </c>
       <c r="H27" s="3">
-        <v>517200</v>
+        <v>644700</v>
       </c>
       <c r="I27" s="3">
-        <v>566200</v>
+        <v>519100</v>
       </c>
       <c r="J27" s="3">
+        <v>568300</v>
+      </c>
+      <c r="K27" s="3">
         <v>387300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>332400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>370600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>304900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>235200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>79500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>136900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>105000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>60800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>42100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-59900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>57400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>121700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>113100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>57400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>112500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>68000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>74500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>83100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2363,8 +2417,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2446,8 +2503,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2529,8 +2589,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2612,174 +2675,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-42300</v>
+        <v>-161800</v>
       </c>
       <c r="E32" s="3">
-        <v>-84900</v>
+        <v>-42500</v>
       </c>
       <c r="F32" s="3">
-        <v>69300</v>
+        <v>-85200</v>
       </c>
       <c r="G32" s="3">
-        <v>-58600</v>
+        <v>69600</v>
       </c>
       <c r="H32" s="3">
-        <v>-34200</v>
+        <v>-58800</v>
       </c>
       <c r="I32" s="3">
-        <v>-156800</v>
+        <v>-34300</v>
       </c>
       <c r="J32" s="3">
+        <v>-157400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-76000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-119500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-199400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-84800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-47200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>71100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-54100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-68700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>44200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>30300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>12800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-58400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-25000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-70200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-36700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-16600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-11300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>618400</v>
+        <v>526800</v>
       </c>
       <c r="E33" s="3">
-        <v>875500</v>
+        <v>620700</v>
       </c>
       <c r="F33" s="3">
-        <v>691600</v>
+        <v>878700</v>
       </c>
       <c r="G33" s="3">
-        <v>642400</v>
+        <v>694200</v>
       </c>
       <c r="H33" s="3">
-        <v>517200</v>
+        <v>644700</v>
       </c>
       <c r="I33" s="3">
-        <v>566200</v>
+        <v>519100</v>
       </c>
       <c r="J33" s="3">
+        <v>568300</v>
+      </c>
+      <c r="K33" s="3">
         <v>387300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>332400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>370600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>304900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>235200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>79500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>136900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>105000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>60800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>42100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-59900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>57400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>121700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>113100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>57400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>112500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>68000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>74500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>83100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2861,179 +2933,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>618400</v>
+        <v>526800</v>
       </c>
       <c r="E35" s="3">
-        <v>875500</v>
+        <v>620700</v>
       </c>
       <c r="F35" s="3">
-        <v>691600</v>
+        <v>878700</v>
       </c>
       <c r="G35" s="3">
-        <v>642400</v>
+        <v>694200</v>
       </c>
       <c r="H35" s="3">
-        <v>517200</v>
+        <v>644700</v>
       </c>
       <c r="I35" s="3">
-        <v>566200</v>
+        <v>519100</v>
       </c>
       <c r="J35" s="3">
+        <v>568300</v>
+      </c>
+      <c r="K35" s="3">
         <v>387300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>332400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>370600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>304900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>235200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>79500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>136900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>105000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>60800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>42100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-59900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>57400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>121700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>113100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>57400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>112500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>68000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>74500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>83100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3063,8 +3144,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3094,755 +3176,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>5636900</v>
+        <v>5593200</v>
       </c>
       <c r="E41" s="3">
-        <v>5858500</v>
+        <v>5657800</v>
       </c>
       <c r="F41" s="3">
-        <v>5958100</v>
+        <v>5880100</v>
       </c>
       <c r="G41" s="3">
-        <v>5583500</v>
+        <v>5980200</v>
       </c>
       <c r="H41" s="3">
-        <v>4300900</v>
+        <v>5604100</v>
       </c>
       <c r="I41" s="3">
-        <v>3668000</v>
+        <v>4316900</v>
       </c>
       <c r="J41" s="3">
+        <v>3681600</v>
+      </c>
+      <c r="K41" s="3">
         <v>4021300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3420300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3113000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3309100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3516500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3427900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3407200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3111000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3157900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3112900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2934900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2718700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2500900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2565800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2647100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2266700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2208200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1983100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1877700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1802200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>155000</v>
+        <v>175900</v>
       </c>
       <c r="E42" s="3">
-        <v>130300</v>
+        <v>155600</v>
       </c>
       <c r="F42" s="3">
-        <v>219400</v>
+        <v>130800</v>
       </c>
       <c r="G42" s="3">
-        <v>223000</v>
+        <v>220200</v>
       </c>
       <c r="H42" s="3">
-        <v>306400</v>
+        <v>223900</v>
       </c>
       <c r="I42" s="3">
-        <v>239700</v>
+        <v>307500</v>
       </c>
       <c r="J42" s="3">
+        <v>240600</v>
+      </c>
+      <c r="K42" s="3">
         <v>33100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>32900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>40300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>30700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>35700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>27100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>25800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>22700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>21400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>19400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>18500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>14100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>15600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>17400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>23200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>27400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>25900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>28300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>23300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1271100</v>
+        <v>953900</v>
       </c>
       <c r="E43" s="3">
-        <v>1519700</v>
+        <v>1275900</v>
       </c>
       <c r="F43" s="3">
-        <v>1440200</v>
+        <v>1525300</v>
       </c>
       <c r="G43" s="3">
-        <v>1270400</v>
+        <v>1445500</v>
       </c>
       <c r="H43" s="3">
-        <v>1179500</v>
+        <v>1275100</v>
       </c>
       <c r="I43" s="3">
-        <v>1114900</v>
+        <v>1183800</v>
       </c>
       <c r="J43" s="3">
+        <v>1119000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1025500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>988700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>967800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>940100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1000100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1084200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>949900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>871600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>898200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>832500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>866400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>908900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>959500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>886600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>734300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>785600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>748200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>705300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>782700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>761800</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1007600</v>
+        <v>1063700</v>
       </c>
       <c r="E44" s="3">
-        <v>976200</v>
+        <v>1011300</v>
       </c>
       <c r="F44" s="3">
-        <v>886700</v>
+        <v>979800</v>
       </c>
       <c r="G44" s="3">
-        <v>823700</v>
+        <v>889900</v>
       </c>
       <c r="H44" s="3">
-        <v>746300</v>
+        <v>826800</v>
       </c>
       <c r="I44" s="3">
-        <v>750700</v>
+        <v>749000</v>
       </c>
       <c r="J44" s="3">
+        <v>753500</v>
+      </c>
+      <c r="K44" s="3">
         <v>727700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>708500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>746500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>765500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>821900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>797000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>774800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>716800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>686000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>662100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>638600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>586600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>587300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>570000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>591700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>554300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>527800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>530300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>554300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>559800</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>113700</v>
+        <v>89300</v>
       </c>
       <c r="E45" s="3">
-        <v>172400</v>
+        <v>114100</v>
       </c>
       <c r="F45" s="3">
-        <v>114800</v>
+        <v>173100</v>
       </c>
       <c r="G45" s="3">
-        <v>196600</v>
+        <v>115200</v>
       </c>
       <c r="H45" s="3">
-        <v>1032000</v>
+        <v>197300</v>
       </c>
       <c r="I45" s="3">
-        <v>1089000</v>
+        <v>1035800</v>
       </c>
       <c r="J45" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="K45" s="3">
         <v>932400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>558800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>571000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>427800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>539500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>412500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>328400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1140600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>496600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>522700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>494800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>445900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>496100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>497500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>513800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>407900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>381500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>390200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>364400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>340000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>8184400</v>
+        <v>7876000</v>
       </c>
       <c r="E46" s="3">
-        <v>8657000</v>
+        <v>8214700</v>
       </c>
       <c r="F46" s="3">
-        <v>8619200</v>
+        <v>8689000</v>
       </c>
       <c r="G46" s="3">
-        <v>8097200</v>
+        <v>8651100</v>
       </c>
       <c r="H46" s="3">
-        <v>7565100</v>
+        <v>8127200</v>
       </c>
       <c r="I46" s="3">
-        <v>6862300</v>
+        <v>7593100</v>
       </c>
       <c r="J46" s="3">
+        <v>6887700</v>
+      </c>
+      <c r="K46" s="3">
         <v>6740000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5709200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5438500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5473200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5913700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5748600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5486100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5862800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5260200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5149600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4953100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4674100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4559400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4537400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4510200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4041800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3891700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3637200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3602400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3488300</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2103200</v>
+        <v>2346400</v>
       </c>
       <c r="E47" s="3">
-        <v>2008600</v>
+        <v>2111000</v>
       </c>
       <c r="F47" s="3">
-        <v>2152500</v>
+        <v>2016000</v>
       </c>
       <c r="G47" s="3">
-        <v>2347700</v>
+        <v>2160400</v>
       </c>
       <c r="H47" s="3">
-        <v>2352700</v>
+        <v>2356400</v>
       </c>
       <c r="I47" s="3">
-        <v>2037200</v>
+        <v>2361400</v>
       </c>
       <c r="J47" s="3">
+        <v>2044700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2158400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2067000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1872700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1571400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1476500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1291600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1475200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1446500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1322600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1305600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1175400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1209300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1241200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1199400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1102700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1125500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1163800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1138100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1133700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1232600</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>6422200</v>
+        <v>7103300</v>
       </c>
       <c r="E48" s="3">
-        <v>5625000</v>
+        <v>6446000</v>
       </c>
       <c r="F48" s="3">
-        <v>4926800</v>
+        <v>5645800</v>
       </c>
       <c r="G48" s="3">
-        <v>4774900</v>
+        <v>4945100</v>
       </c>
       <c r="H48" s="3">
-        <v>4715000</v>
+        <v>4792500</v>
       </c>
       <c r="I48" s="3">
-        <v>4555900</v>
+        <v>4732500</v>
       </c>
       <c r="J48" s="3">
+        <v>4572700</v>
+      </c>
+      <c r="K48" s="3">
         <v>4350600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4337400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4670700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4733300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4972200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5388900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5669000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5641600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5850300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6191600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6086700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5969600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6308800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6577800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6677400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6764100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6921700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>7101400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>7375100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>7060600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>138600</v>
+        <v>129300</v>
       </c>
       <c r="E49" s="3">
-        <v>136200</v>
+        <v>139200</v>
       </c>
       <c r="F49" s="3">
-        <v>133500</v>
+        <v>136700</v>
       </c>
       <c r="G49" s="3">
-        <v>116800</v>
+        <v>134000</v>
       </c>
       <c r="H49" s="3">
-        <v>118200</v>
+        <v>117300</v>
       </c>
       <c r="I49" s="3">
-        <v>135900</v>
+        <v>118600</v>
       </c>
       <c r="J49" s="3">
+        <v>136400</v>
+      </c>
+      <c r="K49" s="3">
         <v>151100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>148500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>161500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>165800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>170400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>172000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>185500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>130600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>145100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>117600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>105000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>106900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>119100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>122700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>122800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>125500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>123900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>120300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>133300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3924,8 +4034,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4007,91 +4120,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>438400</v>
+        <v>435500</v>
       </c>
       <c r="E52" s="3">
-        <v>417200</v>
+        <v>440000</v>
       </c>
       <c r="F52" s="3">
-        <v>375000</v>
+        <v>418700</v>
       </c>
       <c r="G52" s="3">
-        <v>324100</v>
+        <v>376400</v>
       </c>
       <c r="H52" s="3">
-        <v>310400</v>
+        <v>325300</v>
       </c>
       <c r="I52" s="3">
-        <v>314500</v>
+        <v>311500</v>
       </c>
       <c r="J52" s="3">
+        <v>315700</v>
+      </c>
+      <c r="K52" s="3">
         <v>275000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>307100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>352400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>385100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>408300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>382600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>392600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>331700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>351000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>360400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>470300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>468600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>439900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>386500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>359800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>394100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>403200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>374500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>364200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>307400</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4173,91 +4292,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>17286900</v>
+        <v>17890500</v>
       </c>
       <c r="E54" s="3">
-        <v>16843900</v>
+        <v>17350800</v>
       </c>
       <c r="F54" s="3">
-        <v>16207000</v>
+        <v>16906300</v>
       </c>
       <c r="G54" s="3">
-        <v>15660700</v>
+        <v>16267000</v>
       </c>
       <c r="H54" s="3">
-        <v>15061400</v>
+        <v>15718700</v>
       </c>
       <c r="I54" s="3">
-        <v>13905700</v>
+        <v>15117100</v>
       </c>
       <c r="J54" s="3">
+        <v>13957200</v>
+      </c>
+      <c r="K54" s="3">
         <v>13675000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12569100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12495800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12328800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12941200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12983600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13208300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13413200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12929200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13124700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12790300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12428500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12668400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12823700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12772800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12451000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12504300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>12371600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>12608800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>12227400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4287,8 +4412,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4318,506 +4444,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>291300</v>
+        <v>299900</v>
       </c>
       <c r="E57" s="3">
-        <v>325500</v>
+        <v>292400</v>
       </c>
       <c r="F57" s="3">
-        <v>322700</v>
+        <v>326700</v>
       </c>
       <c r="G57" s="3">
-        <v>293900</v>
+        <v>323800</v>
       </c>
       <c r="H57" s="3">
-        <v>271200</v>
+        <v>295000</v>
       </c>
       <c r="I57" s="3">
-        <v>268000</v>
+        <v>272300</v>
       </c>
       <c r="J57" s="3">
+        <v>269000</v>
+      </c>
+      <c r="K57" s="3">
         <v>273100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>263400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>260200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>257800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>301300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>321400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>316700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>237700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>241600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>237800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>238600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>229600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>246400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>232700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>211800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>214200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>215400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>210000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>223500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>219900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>263500</v>
+        <v>335800</v>
       </c>
       <c r="E58" s="3">
-        <v>413500</v>
+        <v>264400</v>
       </c>
       <c r="F58" s="3">
-        <v>445100</v>
+        <v>415100</v>
       </c>
       <c r="G58" s="3">
-        <v>750600</v>
+        <v>446700</v>
       </c>
       <c r="H58" s="3">
-        <v>1291200</v>
+        <v>753400</v>
       </c>
       <c r="I58" s="3">
-        <v>804700</v>
+        <v>1295900</v>
       </c>
       <c r="J58" s="3">
+        <v>807600</v>
+      </c>
+      <c r="K58" s="3">
         <v>655200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1206200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1277400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>567500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>630000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>933900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1333700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1454100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1393900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>834900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>639300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>677900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>573100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1330300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1711600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1579800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1561900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1185000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1012600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1534200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2966000</v>
+        <v>2810900</v>
       </c>
       <c r="E59" s="3">
-        <v>2763700</v>
+        <v>2977000</v>
       </c>
       <c r="F59" s="3">
-        <v>3507000</v>
+        <v>2773900</v>
       </c>
       <c r="G59" s="3">
-        <v>1975400</v>
+        <v>3520000</v>
       </c>
       <c r="H59" s="3">
-        <v>1857400</v>
+        <v>1982700</v>
       </c>
       <c r="I59" s="3">
-        <v>1669200</v>
+        <v>1864300</v>
       </c>
       <c r="J59" s="3">
+        <v>1675300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1828400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1034000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1052200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1155100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1361200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>945700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>944000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>830100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1057600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>774100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>872500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>807700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1148500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>850600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>930700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>875200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1064900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>785700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1111100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>967000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3520800</v>
+        <v>3446600</v>
       </c>
       <c r="E60" s="3">
-        <v>3502700</v>
+        <v>3533800</v>
       </c>
       <c r="F60" s="3">
-        <v>4274700</v>
+        <v>3515700</v>
       </c>
       <c r="G60" s="3">
-        <v>3019900</v>
+        <v>4290500</v>
       </c>
       <c r="H60" s="3">
-        <v>3419900</v>
+        <v>3031100</v>
       </c>
       <c r="I60" s="3">
-        <v>2741800</v>
+        <v>3432500</v>
       </c>
       <c r="J60" s="3">
+        <v>2752000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2756700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2503600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2589900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1980400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2292500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2201000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2594400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2521900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2693100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1846800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1750500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1715300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1968000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2413600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2854100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2669200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2842200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2180600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2347200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2721000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1461900</v>
+        <v>1383000</v>
       </c>
       <c r="E61" s="3">
-        <v>1667800</v>
+        <v>1467300</v>
       </c>
       <c r="F61" s="3">
-        <v>1655400</v>
+        <v>1674000</v>
       </c>
       <c r="G61" s="3">
-        <v>1769000</v>
+        <v>1661500</v>
       </c>
       <c r="H61" s="3">
-        <v>1438000</v>
+        <v>1775600</v>
       </c>
       <c r="I61" s="3">
-        <v>1806700</v>
+        <v>1443300</v>
       </c>
       <c r="J61" s="3">
+        <v>1813400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1807600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1040200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>986300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1829400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2073100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1906100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1903500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2169100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1775100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2473700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2353300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2249800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2253800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1749900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1728100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1696900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1660600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2032000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1980400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1294100</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1425600</v>
+        <v>1487700</v>
       </c>
       <c r="E62" s="3">
-        <v>1451800</v>
+        <v>1430900</v>
       </c>
       <c r="F62" s="3">
-        <v>1091200</v>
+        <v>1457200</v>
       </c>
       <c r="G62" s="3">
-        <v>1068700</v>
+        <v>1095200</v>
       </c>
       <c r="H62" s="3">
-        <v>1084100</v>
+        <v>1072700</v>
       </c>
       <c r="I62" s="3">
-        <v>1003100</v>
+        <v>1088100</v>
       </c>
       <c r="J62" s="3">
+        <v>1006900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1321300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1065800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1115500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1122900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1209700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1282900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1316900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1369400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1397900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1444000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1441300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1374600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1435900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1469000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1253700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1135100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1091800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1092900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1148100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1070700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4899,8 +5044,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4982,8 +5130,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5065,91 +5216,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6419400</v>
+        <v>6328500</v>
       </c>
       <c r="E66" s="3">
-        <v>6634600</v>
+        <v>6443100</v>
       </c>
       <c r="F66" s="3">
-        <v>7033200</v>
+        <v>6659200</v>
       </c>
       <c r="G66" s="3">
-        <v>5867200</v>
+        <v>7059200</v>
       </c>
       <c r="H66" s="3">
-        <v>5949200</v>
+        <v>5888900</v>
       </c>
       <c r="I66" s="3">
-        <v>5556700</v>
+        <v>5971200</v>
       </c>
       <c r="J66" s="3">
+        <v>5577200</v>
+      </c>
+      <c r="K66" s="3">
         <v>5889000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4612600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4695500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4937700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5577900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5392400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5829500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6074900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5881100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5780400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5561400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5356200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5678100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5639300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5866800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5535000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5624800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5336500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5546200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>5138300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5179,8 +5336,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5262,8 +5420,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5345,8 +5506,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5428,8 +5592,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5511,91 +5678,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>6558900</v>
+        <v>7100800</v>
       </c>
       <c r="E72" s="3">
-        <v>5946100</v>
+        <v>6583100</v>
       </c>
       <c r="F72" s="3">
-        <v>5070600</v>
+        <v>5968100</v>
       </c>
       <c r="G72" s="3">
-        <v>4379000</v>
+        <v>5089400</v>
       </c>
       <c r="H72" s="3">
-        <v>3741600</v>
+        <v>4395200</v>
       </c>
       <c r="I72" s="3">
-        <v>3251100</v>
+        <v>3755500</v>
       </c>
       <c r="J72" s="3">
+        <v>3263200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2671100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2880200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2653800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2342000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2144500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2400700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2181900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2072300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1935700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2153400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2160500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2158800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2129100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2307700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1557800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1529000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1457800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1603500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1554000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1561100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5677,8 +5850,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5760,8 +5936,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5843,91 +6022,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>10867500</v>
+        <v>11561900</v>
       </c>
       <c r="E76" s="3">
-        <v>10209300</v>
+        <v>10907700</v>
       </c>
       <c r="F76" s="3">
-        <v>9173900</v>
+        <v>10247100</v>
       </c>
       <c r="G76" s="3">
-        <v>9793600</v>
+        <v>9207800</v>
       </c>
       <c r="H76" s="3">
-        <v>9112200</v>
+        <v>9829800</v>
       </c>
       <c r="I76" s="3">
-        <v>8349100</v>
+        <v>9145900</v>
       </c>
       <c r="J76" s="3">
+        <v>8380000</v>
+      </c>
+      <c r="K76" s="3">
         <v>7786000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7956500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7800300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7391100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7363400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7591300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7378800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7338400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7048200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7344400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7228900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7072400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6990300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7184400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6905900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6916000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6879500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7035100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7062700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>7089100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6009,179 +6194,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>618400</v>
+        <v>526800</v>
       </c>
       <c r="E81" s="3">
-        <v>875500</v>
+        <v>620700</v>
       </c>
       <c r="F81" s="3">
-        <v>691600</v>
+        <v>878700</v>
       </c>
       <c r="G81" s="3">
-        <v>642400</v>
+        <v>694200</v>
       </c>
       <c r="H81" s="3">
-        <v>517200</v>
+        <v>644700</v>
       </c>
       <c r="I81" s="3">
-        <v>566200</v>
+        <v>519100</v>
       </c>
       <c r="J81" s="3">
+        <v>568300</v>
+      </c>
+      <c r="K81" s="3">
         <v>387300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>332400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>370600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>304900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>235200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>79500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>136900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>105000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>60800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>42100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-59900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>57400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>121700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>113100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>57400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>112500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>68000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>74500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>83100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6211,91 +6405,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>339800</v>
+        <v>322300</v>
       </c>
       <c r="E83" s="3">
-        <v>363100</v>
+        <v>341000</v>
       </c>
       <c r="F83" s="3">
-        <v>360200</v>
+        <v>364400</v>
       </c>
       <c r="G83" s="3">
-        <v>369400</v>
+        <v>361500</v>
       </c>
       <c r="H83" s="3">
-        <v>383200</v>
+        <v>370700</v>
       </c>
       <c r="I83" s="3">
-        <v>381200</v>
+        <v>384600</v>
       </c>
       <c r="J83" s="3">
+        <v>382600</v>
+      </c>
+      <c r="K83" s="3">
         <v>378500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>377300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>397000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>407400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>431300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>450100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>455800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>432100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>425900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>434300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>435500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>432700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>444800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>442000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>428700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>437100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>424300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>433500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>436200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>420700</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6377,8 +6575,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6460,8 +6661,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6543,8 +6747,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6626,8 +6833,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6709,91 +6919,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1328200</v>
+        <v>877700</v>
       </c>
       <c r="E89" s="3">
-        <v>1287300</v>
+        <v>1333100</v>
       </c>
       <c r="F89" s="3">
-        <v>1138000</v>
+        <v>1292100</v>
       </c>
       <c r="G89" s="3">
-        <v>976700</v>
+        <v>1142200</v>
       </c>
       <c r="H89" s="3">
-        <v>869800</v>
+        <v>980300</v>
       </c>
       <c r="I89" s="3">
-        <v>717500</v>
+        <v>873100</v>
       </c>
       <c r="J89" s="3">
+        <v>720200</v>
+      </c>
+      <c r="K89" s="3">
         <v>749900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>582800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>532000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>620700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>577500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>530600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1339200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-110400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>428800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>287100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>425300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>526000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>474400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>291900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>418100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>371000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>480200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>434100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>507000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6823,91 +7039,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-1165900</v>
+        <v>-30283800</v>
       </c>
       <c r="E91" s="3">
-        <v>-728600</v>
+        <v>-36391900</v>
       </c>
       <c r="F91" s="3">
-        <v>-353700</v>
+        <v>-23546300</v>
       </c>
       <c r="G91" s="3">
-        <v>-350300</v>
+        <v>-11722400</v>
       </c>
       <c r="H91" s="3">
-        <v>-476900</v>
+        <v>-11223100</v>
       </c>
       <c r="I91" s="3">
-        <v>-566100</v>
+        <v>-14806900</v>
       </c>
       <c r="J91" s="3">
+        <v>-17827500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-276300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-234400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-388500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-224500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-150300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-130800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-124900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-127300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-136400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-195100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-153000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-187200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-129700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-190100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-355300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-236200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-270100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-588000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-724600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-666200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6989,8 +7209,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7072,91 +7295,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1168900</v>
+        <v>-963000</v>
       </c>
       <c r="E94" s="3">
-        <v>-694600</v>
+        <v>-1173300</v>
       </c>
       <c r="F94" s="3">
-        <v>-380000</v>
+        <v>-697200</v>
       </c>
       <c r="G94" s="3">
-        <v>478400</v>
+        <v>-381400</v>
       </c>
       <c r="H94" s="3">
-        <v>-432600</v>
+        <v>480200</v>
       </c>
       <c r="I94" s="3">
-        <v>-753100</v>
+        <v>-434200</v>
       </c>
       <c r="J94" s="3">
+        <v>-755900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-599400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-227000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-577200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-190400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-277400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-328200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-636700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-142300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-146400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-199400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-161800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-182600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-202100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>22200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-195500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-161500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-262700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-531300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-597400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-502200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7186,17 +7415,18 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>100</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -7228,11 +7458,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -7252,11 +7482,11 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>300</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
@@ -7267,10 +7497,13 @@
         <v>0</v>
       </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-225200</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7352,8 +7585,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7435,8 +7671,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7518,253 +7757,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-297900</v>
+        <v>43800</v>
       </c>
       <c r="E100" s="3">
-        <v>-865500</v>
+        <v>-299000</v>
       </c>
       <c r="F100" s="3">
-        <v>-435300</v>
+        <v>-868700</v>
       </c>
       <c r="G100" s="3">
-        <v>-258100</v>
+        <v>-436900</v>
       </c>
       <c r="H100" s="3">
-        <v>206500</v>
+        <v>-259100</v>
       </c>
       <c r="I100" s="3">
-        <v>-314400</v>
+        <v>207200</v>
       </c>
       <c r="J100" s="3">
+        <v>-315500</v>
+      </c>
+      <c r="K100" s="3">
         <v>429300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>82200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-104300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-457100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-103800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-210700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-346700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>148300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-226000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>76500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-200800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-108500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-359000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-456100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>169000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-149200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>22900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>255800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>137600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-82900</v>
+        <v>-23100</v>
       </c>
       <c r="E101" s="3">
-        <v>173100</v>
+        <v>-83200</v>
       </c>
       <c r="F101" s="3">
-        <v>51900</v>
+        <v>173700</v>
       </c>
       <c r="G101" s="3">
-        <v>85500</v>
+        <v>52100</v>
       </c>
       <c r="H101" s="3">
+        <v>85900</v>
+      </c>
+      <c r="I101" s="3">
         <v>-10800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-37800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-16000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-30700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-44200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-24800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>13900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>12500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-23900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>21900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-8700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-11100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-53200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>28300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-49900</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-221500</v>
+        <v>-64600</v>
       </c>
       <c r="E102" s="3">
-        <v>-99700</v>
+        <v>-222300</v>
       </c>
       <c r="F102" s="3">
-        <v>374700</v>
+        <v>-100100</v>
       </c>
       <c r="G102" s="3">
-        <v>1282500</v>
+        <v>376100</v>
       </c>
       <c r="H102" s="3">
-        <v>632900</v>
+        <v>1287300</v>
       </c>
       <c r="I102" s="3">
-        <v>-353300</v>
+        <v>635300</v>
       </c>
       <c r="J102" s="3">
+        <v>-354700</v>
+      </c>
+      <c r="K102" s="3">
         <v>542100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>422000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-158600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-34600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>165700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>311700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-129200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>56700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>178100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>75100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>211000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-64900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-150700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>380400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>58500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>237300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>105400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>75400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>190500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,380 +665,392 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1764500</v>
+        <v>1767700</v>
       </c>
       <c r="E8" s="3">
-        <v>2208100</v>
+        <v>1702200</v>
       </c>
       <c r="F8" s="3">
-        <v>2454000</v>
+        <v>2130000</v>
       </c>
       <c r="G8" s="3">
-        <v>2345400</v>
+        <v>2367300</v>
       </c>
       <c r="H8" s="3">
-        <v>2064400</v>
+        <v>2262500</v>
       </c>
       <c r="I8" s="3">
-        <v>1923700</v>
+        <v>1991500</v>
       </c>
       <c r="J8" s="3">
+        <v>1855700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1819800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1650900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1501500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1499300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1502300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1562800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1522500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1493200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1353300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1259300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1143000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1245900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1313500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1292200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1247200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1187200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1221800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1216600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1220200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1249200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1244500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1138800</v>
+        <v>1131800</v>
       </c>
       <c r="E9" s="3">
-        <v>1260100</v>
+        <v>1098500</v>
       </c>
       <c r="F9" s="3">
-        <v>1293100</v>
+        <v>1215500</v>
       </c>
       <c r="G9" s="3">
-        <v>1255900</v>
+        <v>1247400</v>
       </c>
       <c r="H9" s="3">
-        <v>1169100</v>
+        <v>1211500</v>
       </c>
       <c r="I9" s="3">
-        <v>1171700</v>
+        <v>1127800</v>
       </c>
       <c r="J9" s="3">
+        <v>1130300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1151100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1135000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1103100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1140200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1175200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1201700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1229900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1244500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1122600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1061800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1063700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1084500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1082700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1070200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1092800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>983100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1008100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>998200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>978000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>963500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>625800</v>
+        <v>635900</v>
       </c>
       <c r="E10" s="3">
-        <v>948000</v>
+        <v>603600</v>
       </c>
       <c r="F10" s="3">
-        <v>1160900</v>
+        <v>914500</v>
       </c>
       <c r="G10" s="3">
-        <v>1089500</v>
+        <v>1119800</v>
       </c>
       <c r="H10" s="3">
-        <v>895300</v>
+        <v>1051000</v>
       </c>
       <c r="I10" s="3">
-        <v>752000</v>
+        <v>863600</v>
       </c>
       <c r="J10" s="3">
+        <v>725400</v>
+      </c>
+      <c r="K10" s="3">
         <v>668700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>515900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>398300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>359100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>327100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>361200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>292600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>248600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>230700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>197500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>79400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>161400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>230800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>222000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>154400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>204100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>213700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>218400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>242200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>285600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>270700</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1069,94 +1081,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>90100</v>
+        <v>104200</v>
       </c>
       <c r="E12" s="3">
-        <v>110900</v>
+        <v>86900</v>
       </c>
       <c r="F12" s="3">
-        <v>107600</v>
+        <v>107000</v>
       </c>
       <c r="G12" s="3">
-        <v>104500</v>
+        <v>103800</v>
       </c>
       <c r="H12" s="3">
-        <v>98700</v>
+        <v>100800</v>
       </c>
       <c r="I12" s="3">
-        <v>111100</v>
+        <v>95200</v>
       </c>
       <c r="J12" s="3">
+        <v>107200</v>
+      </c>
+      <c r="K12" s="3">
         <v>107500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>102700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>97200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>105700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>111000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>112800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>114700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>123200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>100900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>97400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>98500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>131400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>111000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>100700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>97300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>100100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>108400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>105200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>130100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>124700</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1241,8 +1257,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1267,17 +1286,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>91</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>91</v>
@@ -1285,24 +1304,24 @@
       <c r="P14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R14" s="3">
         <v>-4900</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>1600</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1310,25 +1329,28 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>8200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>9700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>3400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>9400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>34900</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1413,8 +1435,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1442,180 +1467,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1293200</v>
+        <v>1275500</v>
       </c>
       <c r="E17" s="3">
-        <v>1438700</v>
+        <v>1247500</v>
       </c>
       <c r="F17" s="3">
-        <v>1472400</v>
+        <v>1387800</v>
       </c>
       <c r="G17" s="3">
-        <v>1428700</v>
+        <v>1420400</v>
       </c>
       <c r="H17" s="3">
-        <v>1337400</v>
+        <v>1378200</v>
       </c>
       <c r="I17" s="3">
-        <v>1350300</v>
+        <v>1290200</v>
       </c>
       <c r="J17" s="3">
+        <v>1302600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1327100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1284100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1258500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1313500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1263500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1357000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1399500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1416000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1263300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1197700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1199000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1268200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1232300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1186400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1221600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1133800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1178700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1165900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1184800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1209800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1198300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>471300</v>
+        <v>492200</v>
       </c>
       <c r="E18" s="3">
-        <v>769400</v>
+        <v>454700</v>
       </c>
       <c r="F18" s="3">
-        <v>981600</v>
+        <v>742200</v>
       </c>
       <c r="G18" s="3">
-        <v>916700</v>
+        <v>946900</v>
       </c>
       <c r="H18" s="3">
-        <v>727000</v>
+        <v>884300</v>
       </c>
       <c r="I18" s="3">
-        <v>573400</v>
+        <v>701300</v>
       </c>
       <c r="J18" s="3">
+        <v>553200</v>
+      </c>
+      <c r="K18" s="3">
         <v>492600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>366900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>243000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>185900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>238800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>205800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>123000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>77200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>90000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>61500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-56000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-22300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>81200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>105800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>25600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>53400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>43100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>50700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>35400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>39300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1646,438 +1678,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>161800</v>
+        <v>98100</v>
       </c>
       <c r="E20" s="3">
-        <v>42500</v>
+        <v>156000</v>
       </c>
       <c r="F20" s="3">
-        <v>85200</v>
+        <v>41000</v>
       </c>
       <c r="G20" s="3">
-        <v>-69600</v>
+        <v>82200</v>
       </c>
       <c r="H20" s="3">
-        <v>58800</v>
+        <v>-67100</v>
       </c>
       <c r="I20" s="3">
-        <v>34300</v>
+        <v>56700</v>
       </c>
       <c r="J20" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K20" s="3">
         <v>157400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>76000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>119500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>199400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>84800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>47200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-71100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>54100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>68700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-44200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-30300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-12800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>58400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>25000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>70200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>36700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>16600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>11300</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>955400</v>
+        <v>902200</v>
       </c>
       <c r="E21" s="3">
-        <v>1152900</v>
+        <v>921700</v>
       </c>
       <c r="F21" s="3">
-        <v>1431200</v>
+        <v>1112200</v>
       </c>
       <c r="G21" s="3">
-        <v>1208700</v>
+        <v>1380700</v>
       </c>
       <c r="H21" s="3">
-        <v>1156500</v>
+        <v>1166000</v>
       </c>
       <c r="I21" s="3">
-        <v>992400</v>
+        <v>1115600</v>
       </c>
       <c r="J21" s="3">
+        <v>957300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1032600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>821400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>739800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>782200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>731000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>684300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>502000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>587100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>529800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>492400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>446900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>369000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>483500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>537800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>526000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>507000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>550400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>511800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>485400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>486800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>496600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>10500</v>
+        <v>9900</v>
       </c>
       <c r="E22" s="3">
-        <v>13600</v>
+        <v>10100</v>
       </c>
       <c r="F22" s="3">
-        <v>14000</v>
+        <v>13100</v>
       </c>
       <c r="G22" s="3">
-        <v>14600</v>
+        <v>13500</v>
       </c>
       <c r="H22" s="3">
-        <v>16000</v>
+        <v>14100</v>
       </c>
       <c r="I22" s="3">
-        <v>16200</v>
+        <v>15400</v>
       </c>
       <c r="J22" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K22" s="3">
         <v>16900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>18400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>22300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>25500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>26800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>26600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>24900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>24300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>23300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>23600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>22300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>21700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>20400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>18800</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>17200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>15800</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>622600</v>
+        <v>580400</v>
       </c>
       <c r="E23" s="3">
-        <v>798300</v>
+        <v>600600</v>
       </c>
       <c r="F23" s="3">
-        <v>1052900</v>
+        <v>770100</v>
       </c>
       <c r="G23" s="3">
-        <v>832500</v>
+        <v>1015700</v>
       </c>
       <c r="H23" s="3">
-        <v>769700</v>
+        <v>803100</v>
       </c>
       <c r="I23" s="3">
-        <v>591600</v>
+        <v>742500</v>
       </c>
       <c r="J23" s="3">
+        <v>570700</v>
+      </c>
+      <c r="K23" s="3">
         <v>633200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>427900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>350100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>371800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>308200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>234600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>29600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>105800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>70900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>40000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-12300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-90700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>27600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>69400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>61800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>56700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>92900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>68600</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>34800</v>
       </c>
       <c r="AC23" s="3">
         <v>34800</v>
       </c>
       <c r="AD23" s="3">
+        <v>34800</v>
+      </c>
+      <c r="AE23" s="3">
         <v>63600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>89300</v>
+        <v>81300</v>
       </c>
       <c r="E24" s="3">
-        <v>176000</v>
+        <v>86200</v>
       </c>
       <c r="F24" s="3">
-        <v>162900</v>
+        <v>169800</v>
       </c>
       <c r="G24" s="3">
-        <v>133000</v>
+        <v>157100</v>
       </c>
       <c r="H24" s="3">
-        <v>116600</v>
+        <v>128300</v>
       </c>
       <c r="I24" s="3">
-        <v>70600</v>
+        <v>112500</v>
       </c>
       <c r="J24" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K24" s="3">
         <v>68400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>43100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>34900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-6800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-15500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>14500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-11000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-39000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>18000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>13000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>20700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-14000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>20100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2162,180 +2210,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>533300</v>
+        <v>499200</v>
       </c>
       <c r="E26" s="3">
-        <v>622400</v>
+        <v>514500</v>
       </c>
       <c r="F26" s="3">
-        <v>890000</v>
+        <v>600400</v>
       </c>
       <c r="G26" s="3">
-        <v>699500</v>
+        <v>858600</v>
       </c>
       <c r="H26" s="3">
-        <v>653100</v>
+        <v>674800</v>
       </c>
       <c r="I26" s="3">
-        <v>520900</v>
+        <v>630100</v>
       </c>
       <c r="J26" s="3">
+        <v>502500</v>
+      </c>
+      <c r="K26" s="3">
         <v>564800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>384800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>315300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>360400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>301600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>213100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>44300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>112600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>69500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>32900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-105200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>80400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>100800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>38700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>79900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>47900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>48800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>14600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>526800</v>
+        <v>491100</v>
       </c>
       <c r="E27" s="3">
-        <v>620700</v>
+        <v>508100</v>
       </c>
       <c r="F27" s="3">
-        <v>878700</v>
+        <v>598700</v>
       </c>
       <c r="G27" s="3">
-        <v>694200</v>
+        <v>847700</v>
       </c>
       <c r="H27" s="3">
-        <v>644700</v>
+        <v>669700</v>
       </c>
       <c r="I27" s="3">
-        <v>519100</v>
+        <v>622000</v>
       </c>
       <c r="J27" s="3">
+        <v>500800</v>
+      </c>
+      <c r="K27" s="3">
         <v>568300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>387300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>332400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>370600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>304900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>235200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>79500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>136900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>105000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>60800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>42100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-59900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>57400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>121700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>113100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>57400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>112500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>68000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>74500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>83100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2420,8 +2477,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2506,8 +2566,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2592,8 +2655,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2678,180 +2744,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-161800</v>
+        <v>-98100</v>
       </c>
       <c r="E32" s="3">
-        <v>-42500</v>
+        <v>-156000</v>
       </c>
       <c r="F32" s="3">
-        <v>-85200</v>
+        <v>-41000</v>
       </c>
       <c r="G32" s="3">
-        <v>69600</v>
+        <v>-82200</v>
       </c>
       <c r="H32" s="3">
-        <v>-58800</v>
+        <v>67100</v>
       </c>
       <c r="I32" s="3">
-        <v>-34300</v>
+        <v>-56700</v>
       </c>
       <c r="J32" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-157400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-76000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-119500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-199400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-84800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-47200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>71100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-54100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-68700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>44200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>30300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>12800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-58400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-25000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-70200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-36700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-16600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-11300</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>526800</v>
+        <v>491100</v>
       </c>
       <c r="E33" s="3">
-        <v>620700</v>
+        <v>508100</v>
       </c>
       <c r="F33" s="3">
-        <v>878700</v>
+        <v>598700</v>
       </c>
       <c r="G33" s="3">
-        <v>694200</v>
+        <v>847700</v>
       </c>
       <c r="H33" s="3">
-        <v>644700</v>
+        <v>669700</v>
       </c>
       <c r="I33" s="3">
-        <v>519100</v>
+        <v>622000</v>
       </c>
       <c r="J33" s="3">
+        <v>500800</v>
+      </c>
+      <c r="K33" s="3">
         <v>568300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>387300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>332400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>370600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>304900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>235200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>79500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>136900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>105000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>60800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>42100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-59900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>57400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>121700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>113100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>57400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>112500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>68000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>74500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>83100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2936,185 +3011,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>526800</v>
+        <v>491100</v>
       </c>
       <c r="E35" s="3">
-        <v>620700</v>
+        <v>508100</v>
       </c>
       <c r="F35" s="3">
-        <v>878700</v>
+        <v>598700</v>
       </c>
       <c r="G35" s="3">
-        <v>694200</v>
+        <v>847700</v>
       </c>
       <c r="H35" s="3">
-        <v>644700</v>
+        <v>669700</v>
       </c>
       <c r="I35" s="3">
-        <v>519100</v>
+        <v>622000</v>
       </c>
       <c r="J35" s="3">
+        <v>500800</v>
+      </c>
+      <c r="K35" s="3">
         <v>568300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>387300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>332400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>370600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>304900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>235200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>79500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>136900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>105000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>60800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>42100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-59900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>57400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>121700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>113100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>57400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>112500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>68000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>74500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>83100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3145,8 +3229,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3177,782 +3262,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>5593200</v>
+        <v>5121200</v>
       </c>
       <c r="E41" s="3">
-        <v>5657800</v>
+        <v>5395600</v>
       </c>
       <c r="F41" s="3">
-        <v>5880100</v>
+        <v>5457900</v>
       </c>
       <c r="G41" s="3">
-        <v>5980200</v>
+        <v>5672400</v>
       </c>
       <c r="H41" s="3">
-        <v>5604100</v>
+        <v>5768900</v>
       </c>
       <c r="I41" s="3">
-        <v>4316900</v>
+        <v>5406100</v>
       </c>
       <c r="J41" s="3">
+        <v>4164300</v>
+      </c>
+      <c r="K41" s="3">
         <v>3681600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4021300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3420300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3113000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3309100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3516500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3427900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3407200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3111000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3157900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3112900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2934900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2718700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2500900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2565800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2647100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2266700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2208200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1983100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1877700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1802200</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>175900</v>
+        <v>161200</v>
       </c>
       <c r="E42" s="3">
-        <v>155600</v>
+        <v>169700</v>
       </c>
       <c r="F42" s="3">
-        <v>130800</v>
+        <v>150100</v>
       </c>
       <c r="G42" s="3">
-        <v>220200</v>
+        <v>126100</v>
       </c>
       <c r="H42" s="3">
-        <v>223900</v>
+        <v>212400</v>
       </c>
       <c r="I42" s="3">
-        <v>307500</v>
+        <v>216000</v>
       </c>
       <c r="J42" s="3">
+        <v>296600</v>
+      </c>
+      <c r="K42" s="3">
         <v>240600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>33100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>32900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>40300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>30700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>35700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>27100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>25800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>22700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>21400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>19400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>18500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>14100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>15600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>17400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>23200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>27400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>25900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>28300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>23300</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>953900</v>
+        <v>1052000</v>
       </c>
       <c r="E43" s="3">
-        <v>1275900</v>
+        <v>920200</v>
       </c>
       <c r="F43" s="3">
-        <v>1525300</v>
+        <v>1230800</v>
       </c>
       <c r="G43" s="3">
-        <v>1445500</v>
+        <v>1471400</v>
       </c>
       <c r="H43" s="3">
-        <v>1275100</v>
+        <v>1394500</v>
       </c>
       <c r="I43" s="3">
-        <v>1183800</v>
+        <v>1230100</v>
       </c>
       <c r="J43" s="3">
+        <v>1142000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1119000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1025500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>988700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>967800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>940100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1000100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1084200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>949900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>871600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>898200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>832500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>866400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>908900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>959500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>886600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>734300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>785600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>748200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>705300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>782700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>761800</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1063700</v>
+        <v>1085000</v>
       </c>
       <c r="E44" s="3">
-        <v>1011300</v>
+        <v>1026100</v>
       </c>
       <c r="F44" s="3">
-        <v>979800</v>
+        <v>975600</v>
       </c>
       <c r="G44" s="3">
-        <v>889900</v>
+        <v>945200</v>
       </c>
       <c r="H44" s="3">
-        <v>826800</v>
+        <v>858500</v>
       </c>
       <c r="I44" s="3">
-        <v>749000</v>
+        <v>797600</v>
       </c>
       <c r="J44" s="3">
+        <v>722600</v>
+      </c>
+      <c r="K44" s="3">
         <v>753500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>727700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>708500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>746500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>765500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>821900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>797000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>774800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>716800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>686000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>662100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>638600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>586600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>587300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>570000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>591700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>554300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>527800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>530300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>554300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>559800</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>89300</v>
+        <v>86300</v>
       </c>
       <c r="E45" s="3">
-        <v>114100</v>
+        <v>86200</v>
       </c>
       <c r="F45" s="3">
-        <v>173100</v>
+        <v>110100</v>
       </c>
       <c r="G45" s="3">
-        <v>115200</v>
+        <v>166900</v>
       </c>
       <c r="H45" s="3">
-        <v>197300</v>
+        <v>111100</v>
       </c>
       <c r="I45" s="3">
-        <v>1035800</v>
+        <v>190300</v>
       </c>
       <c r="J45" s="3">
+        <v>999200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1093000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>932400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>558800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>571000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>427800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>539500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>412500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>328400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1140600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>496600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>522700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>494800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>445900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>496100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>497500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>513800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>407900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>381500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>390200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>364400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>340000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7876000</v>
+        <v>7505600</v>
       </c>
       <c r="E46" s="3">
-        <v>8214700</v>
+        <v>7597800</v>
       </c>
       <c r="F46" s="3">
-        <v>8689000</v>
+        <v>7924500</v>
       </c>
       <c r="G46" s="3">
-        <v>8651100</v>
+        <v>8382100</v>
       </c>
       <c r="H46" s="3">
-        <v>8127200</v>
+        <v>8345400</v>
       </c>
       <c r="I46" s="3">
-        <v>7593100</v>
+        <v>7840100</v>
       </c>
       <c r="J46" s="3">
+        <v>7324800</v>
+      </c>
+      <c r="K46" s="3">
         <v>6887700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6740000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5709200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5438500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5473200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5913700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5748600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5486100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5862800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5260200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5149600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4953100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4674100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4559400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4537400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4510200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4041800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3891700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3637200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3602400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>3488300</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2346400</v>
+        <v>2212300</v>
       </c>
       <c r="E47" s="3">
-        <v>2111000</v>
+        <v>2263500</v>
       </c>
       <c r="F47" s="3">
-        <v>2016000</v>
+        <v>2036400</v>
       </c>
       <c r="G47" s="3">
-        <v>2160400</v>
+        <v>1944800</v>
       </c>
       <c r="H47" s="3">
-        <v>2356400</v>
+        <v>2084100</v>
       </c>
       <c r="I47" s="3">
-        <v>2361400</v>
+        <v>2273100</v>
       </c>
       <c r="J47" s="3">
+        <v>2278000</v>
+      </c>
+      <c r="K47" s="3">
         <v>2044700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2158400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2067000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1872700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1571400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1476500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1291600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1475200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1446500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1322600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1305600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1175400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1209300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1241200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1199400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1102700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1125500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1163800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1138100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1133700</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1232600</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>7103300</v>
+        <v>7115800</v>
       </c>
       <c r="E48" s="3">
-        <v>6446000</v>
+        <v>6852400</v>
       </c>
       <c r="F48" s="3">
-        <v>5645800</v>
+        <v>6218300</v>
       </c>
       <c r="G48" s="3">
-        <v>4945100</v>
+        <v>5446300</v>
       </c>
       <c r="H48" s="3">
-        <v>4792500</v>
+        <v>4770400</v>
       </c>
       <c r="I48" s="3">
-        <v>4732500</v>
+        <v>4623200</v>
       </c>
       <c r="J48" s="3">
+        <v>4565300</v>
+      </c>
+      <c r="K48" s="3">
         <v>4572700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4350600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4337400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4670700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4733300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4972200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5388900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5669000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5641600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5850300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6191600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6086700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5969600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6308800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6577800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6677400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6764100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6921700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>7101400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>7375100</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>7060600</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>116600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>124700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>134200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>131900</v>
+      </c>
+      <c r="H49" s="3">
         <v>129300</v>
       </c>
-      <c r="E49" s="3">
-        <v>139200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>136700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>134000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>117300</v>
-      </c>
       <c r="I49" s="3">
-        <v>118600</v>
+        <v>113100</v>
       </c>
       <c r="J49" s="3">
+        <v>114500</v>
+      </c>
+      <c r="K49" s="3">
         <v>136400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>151100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>148500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>161500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>165800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>170400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>172000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>185500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>130600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>145100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>117600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>105000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>106900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>119100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>122700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>122800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>125500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>123900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>120300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>133300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4037,8 +4150,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4123,94 +4239,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>435500</v>
+        <v>420100</v>
       </c>
       <c r="E52" s="3">
-        <v>440000</v>
+        <v>420100</v>
       </c>
       <c r="F52" s="3">
-        <v>418700</v>
+        <v>424400</v>
       </c>
       <c r="G52" s="3">
-        <v>376400</v>
+        <v>403900</v>
       </c>
       <c r="H52" s="3">
-        <v>325300</v>
+        <v>363100</v>
       </c>
       <c r="I52" s="3">
-        <v>311500</v>
+        <v>313800</v>
       </c>
       <c r="J52" s="3">
+        <v>300500</v>
+      </c>
+      <c r="K52" s="3">
         <v>315700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>275000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>307100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>352400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>385100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>408300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>382600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>392600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>331700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>351000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>360400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>470300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>468600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>439900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>386500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>359800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>394100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>403200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>374500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>364200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>307400</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4295,94 +4417,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>17890500</v>
+        <v>17370300</v>
       </c>
       <c r="E54" s="3">
-        <v>17350800</v>
+        <v>17258400</v>
       </c>
       <c r="F54" s="3">
-        <v>16906300</v>
+        <v>16737800</v>
       </c>
       <c r="G54" s="3">
-        <v>16267000</v>
+        <v>16309000</v>
       </c>
       <c r="H54" s="3">
-        <v>15718700</v>
+        <v>15692300</v>
       </c>
       <c r="I54" s="3">
-        <v>15117100</v>
+        <v>15163300</v>
       </c>
       <c r="J54" s="3">
+        <v>14583000</v>
+      </c>
+      <c r="K54" s="3">
         <v>13957200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13675000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12569100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12495800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12328800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12941200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12983600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13208300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13413200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12929200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13124700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12790300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12428500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12668400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12823700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12772800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12451000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>12504300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>12371600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>12608800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>12227400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4413,8 +4541,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4445,524 +4574,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>299900</v>
+        <v>277300</v>
       </c>
       <c r="E57" s="3">
-        <v>292400</v>
+        <v>289300</v>
       </c>
       <c r="F57" s="3">
-        <v>326700</v>
+        <v>282000</v>
       </c>
       <c r="G57" s="3">
-        <v>323800</v>
+        <v>315200</v>
       </c>
       <c r="H57" s="3">
-        <v>295000</v>
+        <v>312400</v>
       </c>
       <c r="I57" s="3">
-        <v>272300</v>
+        <v>284600</v>
       </c>
       <c r="J57" s="3">
+        <v>262600</v>
+      </c>
+      <c r="K57" s="3">
         <v>269000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>273100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>263400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>260200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>257800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>301300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>321400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>316700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>237700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>241600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>237800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>238600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>229600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>246400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>232700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>211800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>214200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>215400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>210000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>223500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>219900</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>335800</v>
+        <v>380600</v>
       </c>
       <c r="E58" s="3">
-        <v>264400</v>
+        <v>323900</v>
       </c>
       <c r="F58" s="3">
-        <v>415100</v>
+        <v>255100</v>
       </c>
       <c r="G58" s="3">
-        <v>446700</v>
+        <v>400400</v>
       </c>
       <c r="H58" s="3">
-        <v>753400</v>
+        <v>430900</v>
       </c>
       <c r="I58" s="3">
-        <v>1295900</v>
+        <v>726800</v>
       </c>
       <c r="J58" s="3">
+        <v>1250200</v>
+      </c>
+      <c r="K58" s="3">
         <v>807600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>655200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1206200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1277400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>567500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>630000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>933900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1333700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1454100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1393900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>834900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>639300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>677900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>573100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1330300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1711600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1579800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1561900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1185000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1012600</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1534200</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2810900</v>
+        <v>3831600</v>
       </c>
       <c r="E59" s="3">
-        <v>2977000</v>
+        <v>2711600</v>
       </c>
       <c r="F59" s="3">
-        <v>2773900</v>
+        <v>2871800</v>
       </c>
       <c r="G59" s="3">
-        <v>3520000</v>
+        <v>2675900</v>
       </c>
       <c r="H59" s="3">
-        <v>1982700</v>
+        <v>3395600</v>
       </c>
       <c r="I59" s="3">
-        <v>1864300</v>
+        <v>1912700</v>
       </c>
       <c r="J59" s="3">
+        <v>1798500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1675300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1828400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1034000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1052200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1155100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1361200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>945700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>944000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>830100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1057600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>774100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>872500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>807700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1148500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>850600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>930700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>875200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1064900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>785700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1111100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>967000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3446600</v>
+        <v>4489500</v>
       </c>
       <c r="E60" s="3">
-        <v>3533800</v>
+        <v>3324800</v>
       </c>
       <c r="F60" s="3">
-        <v>3515700</v>
+        <v>3408900</v>
       </c>
       <c r="G60" s="3">
-        <v>4290500</v>
+        <v>3391500</v>
       </c>
       <c r="H60" s="3">
-        <v>3031100</v>
+        <v>4138900</v>
       </c>
       <c r="I60" s="3">
-        <v>3432500</v>
+        <v>2924000</v>
       </c>
       <c r="J60" s="3">
+        <v>3311200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2752000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2756700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2503600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2589900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1980400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2292500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2201000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2594400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2521900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2693100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1846800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1750500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1715300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1968000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2413600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2854100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2669200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2842200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2180600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2347200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2721000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1383000</v>
+        <v>1290500</v>
       </c>
       <c r="E61" s="3">
-        <v>1467300</v>
+        <v>1334200</v>
       </c>
       <c r="F61" s="3">
-        <v>1674000</v>
+        <v>1415400</v>
       </c>
       <c r="G61" s="3">
-        <v>1661500</v>
+        <v>1614900</v>
       </c>
       <c r="H61" s="3">
-        <v>1775600</v>
+        <v>1602800</v>
       </c>
       <c r="I61" s="3">
-        <v>1443300</v>
+        <v>1712800</v>
       </c>
       <c r="J61" s="3">
+        <v>1392300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1813400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1807600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1040200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>986300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1829400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2073100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1906100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1903500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2169100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1775100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2473700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2353300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2249800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2253800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1749900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1728100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1696900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1660600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2032000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1980400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1294100</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1487700</v>
+        <v>1326000</v>
       </c>
       <c r="E62" s="3">
-        <v>1430900</v>
+        <v>1435100</v>
       </c>
       <c r="F62" s="3">
-        <v>1457200</v>
+        <v>1380300</v>
       </c>
       <c r="G62" s="3">
-        <v>1095200</v>
+        <v>1405700</v>
       </c>
       <c r="H62" s="3">
-        <v>1072700</v>
+        <v>1056600</v>
       </c>
       <c r="I62" s="3">
-        <v>1088100</v>
+        <v>1034800</v>
       </c>
       <c r="J62" s="3">
+        <v>1049700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1006900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1321300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1065800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1115500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1122900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1209700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1282900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1316900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1369400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1397900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1444000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1441300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1374600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1435900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1469000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1253700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1135100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1091800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1092900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1148100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1070700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5047,8 +5195,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5133,8 +5284,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5219,94 +5373,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6328500</v>
+        <v>7116800</v>
       </c>
       <c r="E66" s="3">
-        <v>6443100</v>
+        <v>6105000</v>
       </c>
       <c r="F66" s="3">
-        <v>6659200</v>
+        <v>6215500</v>
       </c>
       <c r="G66" s="3">
-        <v>7059200</v>
+        <v>6423900</v>
       </c>
       <c r="H66" s="3">
-        <v>5888900</v>
+        <v>6809800</v>
       </c>
       <c r="I66" s="3">
-        <v>5971200</v>
+        <v>5680800</v>
       </c>
       <c r="J66" s="3">
+        <v>5760200</v>
+      </c>
+      <c r="K66" s="3">
         <v>5577200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5889000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4612600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4695500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4937700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5577900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5392400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5829500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6074900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5881100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5780400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5561400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5356200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5678100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5639300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5866800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5535000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5624800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5336500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>5546200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>5138300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5337,8 +5497,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5423,8 +5584,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5509,8 +5673,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5595,8 +5762,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5681,94 +5851,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>7100800</v>
+        <v>5927500</v>
       </c>
       <c r="E72" s="3">
-        <v>6583100</v>
+        <v>6849900</v>
       </c>
       <c r="F72" s="3">
-        <v>5968100</v>
+        <v>6350600</v>
       </c>
       <c r="G72" s="3">
-        <v>5089400</v>
+        <v>5757200</v>
       </c>
       <c r="H72" s="3">
-        <v>4395200</v>
+        <v>4909600</v>
       </c>
       <c r="I72" s="3">
-        <v>3755500</v>
+        <v>4239900</v>
       </c>
       <c r="J72" s="3">
+        <v>3622800</v>
+      </c>
+      <c r="K72" s="3">
         <v>3263200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2671100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2880200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2653800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2342000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2144500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2400700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2181900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2072300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1935700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2153400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2160500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2158800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2129100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2307700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1557800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1529000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1457800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1603500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1554000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1561100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5853,8 +6029,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5939,8 +6118,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6025,94 +6207,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>11561900</v>
+        <v>10253500</v>
       </c>
       <c r="E76" s="3">
-        <v>10907700</v>
+        <v>11153500</v>
       </c>
       <c r="F76" s="3">
-        <v>10247100</v>
+        <v>10522400</v>
       </c>
       <c r="G76" s="3">
-        <v>9207800</v>
+        <v>9885000</v>
       </c>
       <c r="H76" s="3">
-        <v>9829800</v>
+        <v>8882500</v>
       </c>
       <c r="I76" s="3">
-        <v>9145900</v>
+        <v>9482500</v>
       </c>
       <c r="J76" s="3">
+        <v>8822800</v>
+      </c>
+      <c r="K76" s="3">
         <v>8380000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7786000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7956500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7800300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7391100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7363400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7591300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7378800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7338400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7048200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7344400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7228900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7072400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6990300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7184400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6905900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6916000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6879500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7035100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>7062700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>7089100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6197,185 +6385,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>526800</v>
+        <v>491100</v>
       </c>
       <c r="E81" s="3">
-        <v>620700</v>
+        <v>508100</v>
       </c>
       <c r="F81" s="3">
-        <v>878700</v>
+        <v>598700</v>
       </c>
       <c r="G81" s="3">
-        <v>694200</v>
+        <v>847700</v>
       </c>
       <c r="H81" s="3">
-        <v>644700</v>
+        <v>669700</v>
       </c>
       <c r="I81" s="3">
-        <v>519100</v>
+        <v>622000</v>
       </c>
       <c r="J81" s="3">
+        <v>500800</v>
+      </c>
+      <c r="K81" s="3">
         <v>568300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>387300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>332400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>370600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>304900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>235200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>79500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>136900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>105000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>60800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>42100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-59900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>57400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>121700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>113100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>57400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>112500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>68000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>74500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>83100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6406,94 +6603,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>322300</v>
+        <v>311900</v>
       </c>
       <c r="E83" s="3">
-        <v>341000</v>
+        <v>310900</v>
       </c>
       <c r="F83" s="3">
-        <v>364400</v>
+        <v>329000</v>
       </c>
       <c r="G83" s="3">
-        <v>361500</v>
+        <v>351500</v>
       </c>
       <c r="H83" s="3">
-        <v>370700</v>
+        <v>348800</v>
       </c>
       <c r="I83" s="3">
-        <v>384600</v>
+        <v>357600</v>
       </c>
       <c r="J83" s="3">
+        <v>371000</v>
+      </c>
+      <c r="K83" s="3">
         <v>382600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>378500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>377300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>397000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>407400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>431300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>450100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>455800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>432100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>425900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>434300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>435500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>432700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>444800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>442000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>428700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>437100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>424300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>433500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>436200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>420700</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6578,8 +6779,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6664,8 +6868,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6750,8 +6957,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6836,8 +7046,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6922,94 +7135,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>877700</v>
+        <v>432100</v>
       </c>
       <c r="E89" s="3">
-        <v>1333100</v>
+        <v>846700</v>
       </c>
       <c r="F89" s="3">
-        <v>1292100</v>
+        <v>1286000</v>
       </c>
       <c r="G89" s="3">
-        <v>1142200</v>
+        <v>1246400</v>
       </c>
       <c r="H89" s="3">
-        <v>980300</v>
+        <v>1101900</v>
       </c>
       <c r="I89" s="3">
-        <v>873100</v>
+        <v>945700</v>
       </c>
       <c r="J89" s="3">
+        <v>842200</v>
+      </c>
+      <c r="K89" s="3">
         <v>720200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>749900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>582800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>532000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>620700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>577500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>530600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1339200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-110400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>428800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>287100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>425300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>526000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>474400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>291900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>418100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>371000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>480200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>434100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>507000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7040,94 +7259,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-24823300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-30283800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-36391900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23546300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11722400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11223100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14806900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17827500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-276300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-234400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-388500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-224500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-150300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-130800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-124900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-127300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-136400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-195100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-153000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-187200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-129700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-190100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-355300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-236200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-270100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-588000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-724600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-666200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7212,8 +7435,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7298,94 +7524,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-963000</v>
+        <v>-743100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1173300</v>
+        <v>-929000</v>
       </c>
       <c r="F94" s="3">
-        <v>-697200</v>
+        <v>-1131800</v>
       </c>
       <c r="G94" s="3">
-        <v>-381400</v>
+        <v>-672500</v>
       </c>
       <c r="H94" s="3">
-        <v>480200</v>
+        <v>-367900</v>
       </c>
       <c r="I94" s="3">
-        <v>-434200</v>
+        <v>463200</v>
       </c>
       <c r="J94" s="3">
+        <v>-418800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-755900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-599400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-227000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-577200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-190400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-277400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-328200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-636700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-142300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-146400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-199400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-161800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-182600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-202100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>22200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-195500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-161500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-262700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-531300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-597400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-502200</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7416,8 +7648,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7425,11 +7658,11 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>100</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -7461,11 +7694,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -7485,11 +7718,11 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>300</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
@@ -7500,10 +7733,13 @@
         <v>0</v>
       </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-225200</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7588,8 +7824,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7674,8 +7913,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7760,262 +8002,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>43800</v>
+        <v>33300</v>
       </c>
       <c r="E100" s="3">
-        <v>-299000</v>
+        <v>42300</v>
       </c>
       <c r="F100" s="3">
-        <v>-868700</v>
+        <v>-288400</v>
       </c>
       <c r="G100" s="3">
-        <v>-436900</v>
+        <v>-838000</v>
       </c>
       <c r="H100" s="3">
-        <v>-259100</v>
+        <v>-421500</v>
       </c>
       <c r="I100" s="3">
-        <v>207200</v>
+        <v>-249900</v>
       </c>
       <c r="J100" s="3">
+        <v>199900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-315500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>429300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>82200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-104300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-457100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-103800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-210700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-346700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>148300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-226000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>76500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-200800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-108500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-359000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-456100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>169000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-149200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>22900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>255800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>137600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-23100</v>
+        <v>3400</v>
       </c>
       <c r="E101" s="3">
-        <v>-83200</v>
+        <v>-22300</v>
       </c>
       <c r="F101" s="3">
-        <v>173700</v>
+        <v>-80300</v>
       </c>
       <c r="G101" s="3">
-        <v>52100</v>
+        <v>167600</v>
       </c>
       <c r="H101" s="3">
-        <v>85900</v>
+        <v>50200</v>
       </c>
       <c r="I101" s="3">
-        <v>-10800</v>
+        <v>82800</v>
       </c>
       <c r="J101" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-37800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-16000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-7800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-30700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-44200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-24800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>13900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>12500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-23900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>21900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-11100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-53200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>28300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-49900</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-64600</v>
+        <v>-274400</v>
       </c>
       <c r="E102" s="3">
-        <v>-222300</v>
+        <v>-62300</v>
       </c>
       <c r="F102" s="3">
-        <v>-100100</v>
+        <v>-214500</v>
       </c>
       <c r="G102" s="3">
-        <v>376100</v>
+        <v>-96500</v>
       </c>
       <c r="H102" s="3">
-        <v>1287300</v>
+        <v>362800</v>
       </c>
       <c r="I102" s="3">
-        <v>635300</v>
+        <v>1241800</v>
       </c>
       <c r="J102" s="3">
+        <v>612800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-354700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>542100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>422000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-158600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-34600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>165700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>311700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-129200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>56700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>178100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>75100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>211000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-64900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-150700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>380400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>58500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>237300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>105400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>75400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>190500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>UMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,392 +665,404 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1767700</v>
+        <v>1789100</v>
       </c>
       <c r="E8" s="3">
-        <v>1702200</v>
+        <v>1764900</v>
       </c>
       <c r="F8" s="3">
-        <v>2130000</v>
+        <v>1699500</v>
       </c>
       <c r="G8" s="3">
-        <v>2367300</v>
+        <v>2126600</v>
       </c>
       <c r="H8" s="3">
-        <v>2262500</v>
+        <v>2363500</v>
       </c>
       <c r="I8" s="3">
-        <v>1991500</v>
+        <v>2258900</v>
       </c>
       <c r="J8" s="3">
+        <v>1988300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1855700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1819800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1650900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1501500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1499300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1502300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1562800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1522500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1493200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1353300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1259300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1143000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1245900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1313500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1292200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1247200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1187200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1221800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1216600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1220200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1249200</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1244500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1131800</v>
+        <v>1147700</v>
       </c>
       <c r="E9" s="3">
-        <v>1098500</v>
+        <v>1130000</v>
       </c>
       <c r="F9" s="3">
-        <v>1215500</v>
+        <v>1096800</v>
       </c>
       <c r="G9" s="3">
-        <v>1247400</v>
+        <v>1213600</v>
       </c>
       <c r="H9" s="3">
-        <v>1211500</v>
+        <v>1245500</v>
       </c>
       <c r="I9" s="3">
-        <v>1127800</v>
+        <v>1209600</v>
       </c>
       <c r="J9" s="3">
+        <v>1126000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1130300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1151100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1135000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1103100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1140200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1175200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1201700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1229900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1244500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1122600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1061800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1063700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1084500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1082700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1070200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1092800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>983100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1008100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>998200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>978000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>963500</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>973800</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>635900</v>
+        <v>641500</v>
       </c>
       <c r="E10" s="3">
-        <v>603600</v>
+        <v>634900</v>
       </c>
       <c r="F10" s="3">
-        <v>914500</v>
+        <v>602700</v>
       </c>
       <c r="G10" s="3">
-        <v>1119800</v>
+        <v>913000</v>
       </c>
       <c r="H10" s="3">
-        <v>1051000</v>
+        <v>1118100</v>
       </c>
       <c r="I10" s="3">
-        <v>863600</v>
+        <v>1049400</v>
       </c>
       <c r="J10" s="3">
+        <v>862300</v>
+      </c>
+      <c r="K10" s="3">
         <v>725400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>668700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>515900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>398300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>359100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>327100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>361200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>292600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>248600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>230700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>197500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>79400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>161400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>230800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>222000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>154400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>204100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>213700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>218400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>242200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>285600</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>270700</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1082,97 +1094,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>104200</v>
+        <v>102100</v>
       </c>
       <c r="E12" s="3">
-        <v>86900</v>
+        <v>104000</v>
       </c>
       <c r="F12" s="3">
-        <v>107000</v>
+        <v>86700</v>
       </c>
       <c r="G12" s="3">
-        <v>103800</v>
+        <v>106800</v>
       </c>
       <c r="H12" s="3">
-        <v>100800</v>
+        <v>103600</v>
       </c>
       <c r="I12" s="3">
-        <v>95200</v>
+        <v>100600</v>
       </c>
       <c r="J12" s="3">
+        <v>95100</v>
+      </c>
+      <c r="K12" s="3">
         <v>107200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>107500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>102700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>97200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>105700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>111000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>112800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>114700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>123200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>100900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>97400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>98500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>131400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>111000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>100700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>97300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>100100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>108400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>105200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>130100</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>124700</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>110800</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1260,46 +1276,49 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-15500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>91</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>91</v>
@@ -1307,24 +1326,24 @@
       <c r="Q14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S14" s="3">
         <v>-4900</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>1600</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1332,25 +1351,28 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>8200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>9700</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>3400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>9400</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>34900</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1438,8 +1460,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1468,186 +1493,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1275500</v>
+        <v>1293600</v>
       </c>
       <c r="E17" s="3">
-        <v>1247500</v>
+        <v>1273500</v>
       </c>
       <c r="F17" s="3">
-        <v>1387800</v>
+        <v>1245500</v>
       </c>
       <c r="G17" s="3">
-        <v>1420400</v>
+        <v>1385600</v>
       </c>
       <c r="H17" s="3">
-        <v>1378200</v>
+        <v>1418100</v>
       </c>
       <c r="I17" s="3">
-        <v>1290200</v>
+        <v>1376000</v>
       </c>
       <c r="J17" s="3">
+        <v>1288100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1302600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1327100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1284100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1258500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1313500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1263500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1357000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1399500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1416000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1263300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1197700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1199000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1268200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1232300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1186400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1221600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1133800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1178700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1165900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1184800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1209800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1198300</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>492200</v>
+        <v>495500</v>
       </c>
       <c r="E18" s="3">
-        <v>454700</v>
+        <v>491400</v>
       </c>
       <c r="F18" s="3">
-        <v>742200</v>
+        <v>454000</v>
       </c>
       <c r="G18" s="3">
-        <v>946900</v>
+        <v>741000</v>
       </c>
       <c r="H18" s="3">
-        <v>884300</v>
+        <v>945400</v>
       </c>
       <c r="I18" s="3">
-        <v>701300</v>
+        <v>882900</v>
       </c>
       <c r="J18" s="3">
+        <v>700200</v>
+      </c>
+      <c r="K18" s="3">
         <v>553200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>492600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>366900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>243000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>185900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>238800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>205800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>123000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>77200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>90000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>61500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-56000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-22300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>81200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>105800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>25600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>53400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>43100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>50700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>35400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>39300</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1679,453 +1711,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>98100</v>
+        <v>102400</v>
       </c>
       <c r="E20" s="3">
-        <v>156000</v>
+        <v>98000</v>
       </c>
       <c r="F20" s="3">
-        <v>41000</v>
+        <v>155800</v>
       </c>
       <c r="G20" s="3">
-        <v>82200</v>
+        <v>40900</v>
       </c>
       <c r="H20" s="3">
-        <v>-67100</v>
+        <v>82100</v>
       </c>
       <c r="I20" s="3">
-        <v>56700</v>
+        <v>-67000</v>
       </c>
       <c r="J20" s="3">
+        <v>56600</v>
+      </c>
+      <c r="K20" s="3">
         <v>33100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>157400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>76000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>119500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>199400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>84800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>47200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-71100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>54100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>68700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-44200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-30300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-12800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>58400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>25000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>70200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>36700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>16600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>11300</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>902200</v>
+        <v>909200</v>
       </c>
       <c r="E21" s="3">
-        <v>921700</v>
+        <v>900700</v>
       </c>
       <c r="F21" s="3">
-        <v>1112200</v>
+        <v>920200</v>
       </c>
       <c r="G21" s="3">
-        <v>1380700</v>
+        <v>1110400</v>
       </c>
       <c r="H21" s="3">
-        <v>1166000</v>
+        <v>1378500</v>
       </c>
       <c r="I21" s="3">
-        <v>1115600</v>
+        <v>1164100</v>
       </c>
       <c r="J21" s="3">
+        <v>1113800</v>
+      </c>
+      <c r="K21" s="3">
         <v>957300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1032600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>821400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>739800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>782200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>731000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>684300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>502000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>587100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>529800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>492400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>446900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>369000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>483500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>537800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>526000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>507000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>550400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>511800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>485400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>486800</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>496600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>9900</v>
+        <v>13300</v>
       </c>
       <c r="E22" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F22" s="3">
         <v>10100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13100</v>
       </c>
-      <c r="G22" s="3">
-        <v>13500</v>
-      </c>
       <c r="H22" s="3">
+        <v>13400</v>
+      </c>
+      <c r="I22" s="3">
         <v>14100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>18400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>22300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>25500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>26800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>26600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>24900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>24300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>23300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>23600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>22300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>21700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>20400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>18800</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>17200</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>15800</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>580400</v>
+        <v>584600</v>
       </c>
       <c r="E23" s="3">
-        <v>600600</v>
+        <v>579500</v>
       </c>
       <c r="F23" s="3">
-        <v>770100</v>
+        <v>599700</v>
       </c>
       <c r="G23" s="3">
-        <v>1015700</v>
+        <v>768900</v>
       </c>
       <c r="H23" s="3">
-        <v>803100</v>
+        <v>1014000</v>
       </c>
       <c r="I23" s="3">
-        <v>742500</v>
+        <v>801900</v>
       </c>
       <c r="J23" s="3">
+        <v>741400</v>
+      </c>
+      <c r="K23" s="3">
         <v>570700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>633200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>427900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>350100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>371800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>308200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>234600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>29600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>105800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>70900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>40000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-12300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-90700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>27600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>69400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>61800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>56700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>92900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>68600</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>34800</v>
       </c>
       <c r="AD23" s="3">
         <v>34800</v>
       </c>
       <c r="AE23" s="3">
+        <v>34800</v>
+      </c>
+      <c r="AF23" s="3">
         <v>63600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>81300</v>
+        <v>84100</v>
       </c>
       <c r="E24" s="3">
-        <v>86200</v>
+        <v>81200</v>
       </c>
       <c r="F24" s="3">
-        <v>169800</v>
+        <v>86000</v>
       </c>
       <c r="G24" s="3">
-        <v>157100</v>
+        <v>169500</v>
       </c>
       <c r="H24" s="3">
-        <v>128300</v>
+        <v>156900</v>
       </c>
       <c r="I24" s="3">
-        <v>112500</v>
+        <v>128100</v>
       </c>
       <c r="J24" s="3">
+        <v>112300</v>
+      </c>
+      <c r="K24" s="3">
         <v>68100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>68400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>43100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>34900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-14700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-6800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-15500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>14500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>21100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-39000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>18000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>13000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>20700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-14000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>20100</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2213,186 +2261,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>499200</v>
+        <v>500500</v>
       </c>
       <c r="E26" s="3">
-        <v>514500</v>
+        <v>498400</v>
       </c>
       <c r="F26" s="3">
-        <v>600400</v>
+        <v>513700</v>
       </c>
       <c r="G26" s="3">
-        <v>858600</v>
+        <v>599400</v>
       </c>
       <c r="H26" s="3">
-        <v>674800</v>
+        <v>857200</v>
       </c>
       <c r="I26" s="3">
-        <v>630100</v>
+        <v>673700</v>
       </c>
       <c r="J26" s="3">
+        <v>629100</v>
+      </c>
+      <c r="K26" s="3">
         <v>502500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>564800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>384800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>315300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>360400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>301600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>213100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>44300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>112600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>69500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>32900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-105200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>80400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>100800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>38700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>79900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>47900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>48800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>14600</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>57300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>491100</v>
+        <v>500700</v>
       </c>
       <c r="E27" s="3">
-        <v>508100</v>
+        <v>490300</v>
       </c>
       <c r="F27" s="3">
-        <v>598700</v>
+        <v>507300</v>
       </c>
       <c r="G27" s="3">
-        <v>847700</v>
+        <v>597800</v>
       </c>
       <c r="H27" s="3">
-        <v>669700</v>
+        <v>846300</v>
       </c>
       <c r="I27" s="3">
-        <v>622000</v>
+        <v>668600</v>
       </c>
       <c r="J27" s="3">
+        <v>621000</v>
+      </c>
+      <c r="K27" s="3">
         <v>500800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>568300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>387300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>332400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>370600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>304900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>235200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>79500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>136900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>105000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>60800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>42100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-59900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>57400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>121700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>113100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>57400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>112500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>68000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>74500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>83100</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2480,8 +2537,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2569,8 +2629,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2658,8 +2721,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2747,186 +2813,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-98100</v>
+        <v>-102400</v>
       </c>
       <c r="E32" s="3">
-        <v>-156000</v>
+        <v>-98000</v>
       </c>
       <c r="F32" s="3">
-        <v>-41000</v>
+        <v>-155800</v>
       </c>
       <c r="G32" s="3">
-        <v>-82200</v>
+        <v>-40900</v>
       </c>
       <c r="H32" s="3">
-        <v>67100</v>
+        <v>-82100</v>
       </c>
       <c r="I32" s="3">
-        <v>-56700</v>
+        <v>67000</v>
       </c>
       <c r="J32" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-33100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-157400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-76000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-119500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-199400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-84800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-47200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>71100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-54100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-68700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>44200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>30300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>12800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-58400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-25000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-70200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-36700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-16600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-11300</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-29700</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>491100</v>
+        <v>500700</v>
       </c>
       <c r="E33" s="3">
-        <v>508100</v>
+        <v>490300</v>
       </c>
       <c r="F33" s="3">
-        <v>598700</v>
+        <v>507300</v>
       </c>
       <c r="G33" s="3">
-        <v>847700</v>
+        <v>597800</v>
       </c>
       <c r="H33" s="3">
-        <v>669700</v>
+        <v>846300</v>
       </c>
       <c r="I33" s="3">
-        <v>622000</v>
+        <v>668600</v>
       </c>
       <c r="J33" s="3">
+        <v>621000</v>
+      </c>
+      <c r="K33" s="3">
         <v>500800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>568300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>387300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>332400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>370600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>304900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>235200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>79500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>136900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>105000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>60800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>42100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-59900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>57400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>121700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>113100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>57400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>112500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>68000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>74500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>83100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3014,191 +3089,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>491100</v>
+        <v>500700</v>
       </c>
       <c r="E35" s="3">
-        <v>508100</v>
+        <v>490300</v>
       </c>
       <c r="F35" s="3">
-        <v>598700</v>
+        <v>507300</v>
       </c>
       <c r="G35" s="3">
-        <v>847700</v>
+        <v>597800</v>
       </c>
       <c r="H35" s="3">
-        <v>669700</v>
+        <v>846300</v>
       </c>
       <c r="I35" s="3">
-        <v>622000</v>
+        <v>668600</v>
       </c>
       <c r="J35" s="3">
+        <v>621000</v>
+      </c>
+      <c r="K35" s="3">
         <v>500800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>568300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>387300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>332400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>370600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>304900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>235200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>79500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>136900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>105000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>60800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>42100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-59900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>57400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>121700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>113100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>57400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>112500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>68000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>74500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>83100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3230,8 +3314,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3263,809 +3348,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>5121200</v>
+        <v>4409100</v>
       </c>
       <c r="E41" s="3">
-        <v>5395600</v>
+        <v>5113100</v>
       </c>
       <c r="F41" s="3">
-        <v>5457900</v>
+        <v>5387000</v>
       </c>
       <c r="G41" s="3">
-        <v>5672400</v>
+        <v>5449200</v>
       </c>
       <c r="H41" s="3">
-        <v>5768900</v>
+        <v>5663400</v>
       </c>
       <c r="I41" s="3">
-        <v>5406100</v>
+        <v>5759700</v>
       </c>
       <c r="J41" s="3">
+        <v>5397500</v>
+      </c>
+      <c r="K41" s="3">
         <v>4164300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3681600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4021300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3420300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3113000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3309100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3516500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3427900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3407200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3111000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3157900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3112900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2934900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2718700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2500900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2565800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2647100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2266700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2208200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1983100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1877700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1802200</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>161200</v>
+        <v>163300</v>
       </c>
       <c r="E42" s="3">
-        <v>169700</v>
+        <v>160900</v>
       </c>
       <c r="F42" s="3">
-        <v>150100</v>
+        <v>169400</v>
       </c>
       <c r="G42" s="3">
-        <v>126100</v>
+        <v>149900</v>
       </c>
       <c r="H42" s="3">
-        <v>212400</v>
+        <v>125900</v>
       </c>
       <c r="I42" s="3">
-        <v>216000</v>
+        <v>212100</v>
       </c>
       <c r="J42" s="3">
+        <v>215600</v>
+      </c>
+      <c r="K42" s="3">
         <v>296600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>240600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>33100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>32900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>40300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>30700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>35700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>27100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>25800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>22700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>21400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>19400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>18500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>15600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>17400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>23200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>27400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>25900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>28300</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>23300</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1052000</v>
+        <v>1064000</v>
       </c>
       <c r="E43" s="3">
-        <v>920200</v>
+        <v>1050300</v>
       </c>
       <c r="F43" s="3">
-        <v>1230800</v>
+        <v>918700</v>
       </c>
       <c r="G43" s="3">
-        <v>1471400</v>
+        <v>1228800</v>
       </c>
       <c r="H43" s="3">
-        <v>1394500</v>
+        <v>1469100</v>
       </c>
       <c r="I43" s="3">
-        <v>1230100</v>
+        <v>1392300</v>
       </c>
       <c r="J43" s="3">
+        <v>1228100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1142000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1119000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1025500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>988700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>967800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>940100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1000100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1084200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>949900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>871600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>898200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>832500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>866400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>908900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>959500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>886600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>734300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>785600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>748200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>705300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>782700</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>761800</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1085000</v>
+        <v>1146200</v>
       </c>
       <c r="E44" s="3">
-        <v>1026100</v>
+        <v>1083200</v>
       </c>
       <c r="F44" s="3">
-        <v>975600</v>
+        <v>1024500</v>
       </c>
       <c r="G44" s="3">
-        <v>945200</v>
+        <v>974000</v>
       </c>
       <c r="H44" s="3">
-        <v>858500</v>
+        <v>943700</v>
       </c>
       <c r="I44" s="3">
-        <v>797600</v>
+        <v>857100</v>
       </c>
       <c r="J44" s="3">
+        <v>796300</v>
+      </c>
+      <c r="K44" s="3">
         <v>722600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>753500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>727700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>708500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>746500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>765500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>821900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>797000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>774800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>716800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>686000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>662100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>638600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>586600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>587300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>570000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>591700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>554300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>527800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>530300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>554300</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>559800</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>86300</v>
+        <v>91800</v>
       </c>
       <c r="E45" s="3">
         <v>86200</v>
       </c>
       <c r="F45" s="3">
-        <v>110100</v>
+        <v>86000</v>
       </c>
       <c r="G45" s="3">
-        <v>166900</v>
+        <v>109900</v>
       </c>
       <c r="H45" s="3">
-        <v>111100</v>
+        <v>166700</v>
       </c>
       <c r="I45" s="3">
-        <v>190300</v>
+        <v>110900</v>
       </c>
       <c r="J45" s="3">
+        <v>190000</v>
+      </c>
+      <c r="K45" s="3">
         <v>999200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1093000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>932400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>558800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>571000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>427800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>539500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>412500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>328400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1140600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>496600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>522700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>494800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>445900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>496100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>497500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>513800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>407900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>381500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>390200</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>364400</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>340000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7505600</v>
+        <v>6874400</v>
       </c>
       <c r="E46" s="3">
-        <v>7597800</v>
+        <v>7493700</v>
       </c>
       <c r="F46" s="3">
-        <v>7924500</v>
+        <v>7585700</v>
       </c>
       <c r="G46" s="3">
-        <v>8382100</v>
+        <v>7911800</v>
       </c>
       <c r="H46" s="3">
-        <v>8345400</v>
+        <v>8368700</v>
       </c>
       <c r="I46" s="3">
-        <v>7840100</v>
+        <v>8332100</v>
       </c>
       <c r="J46" s="3">
+        <v>7827600</v>
+      </c>
+      <c r="K46" s="3">
         <v>7324800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6887700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6740000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5709200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5438500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5473200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5913700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5748600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5486100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5862800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5260200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5149600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4953100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4674100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4559400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4537400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4510200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4041800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3891700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3637200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>3602400</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>3488300</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2212300</v>
+        <v>2222400</v>
       </c>
       <c r="E47" s="3">
-        <v>2263500</v>
+        <v>2208800</v>
       </c>
       <c r="F47" s="3">
-        <v>2036400</v>
+        <v>2259900</v>
       </c>
       <c r="G47" s="3">
-        <v>1944800</v>
+        <v>2033200</v>
       </c>
       <c r="H47" s="3">
-        <v>2084100</v>
+        <v>1941700</v>
       </c>
       <c r="I47" s="3">
-        <v>2273100</v>
+        <v>2080800</v>
       </c>
       <c r="J47" s="3">
+        <v>2269500</v>
+      </c>
+      <c r="K47" s="3">
         <v>2278000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2044700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2158400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2067000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1872700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1571400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1476500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1291600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1475200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1446500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1322600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1305600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1175400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1209300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1241200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1199400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1102700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1125500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1163800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1138100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1133700</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>1232600</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>7115800</v>
+        <v>7530400</v>
       </c>
       <c r="E48" s="3">
-        <v>6852400</v>
+        <v>7104400</v>
       </c>
       <c r="F48" s="3">
-        <v>6218300</v>
+        <v>6841400</v>
       </c>
       <c r="G48" s="3">
-        <v>5446300</v>
+        <v>6208400</v>
       </c>
       <c r="H48" s="3">
-        <v>4770400</v>
+        <v>5437600</v>
       </c>
       <c r="I48" s="3">
-        <v>4623200</v>
+        <v>4762800</v>
       </c>
       <c r="J48" s="3">
+        <v>4615900</v>
+      </c>
+      <c r="K48" s="3">
         <v>4565300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4572700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4350600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4337400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4670700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4733300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4972200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5388900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5669000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5641600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5850300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6191600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6086700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5969600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6308800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6577800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6677400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6764100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>6921700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>7101400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>7375100</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>7060600</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>116600</v>
+        <v>124800</v>
       </c>
       <c r="E49" s="3">
-        <v>124700</v>
+        <v>116400</v>
       </c>
       <c r="F49" s="3">
-        <v>134200</v>
+        <v>124500</v>
       </c>
       <c r="G49" s="3">
-        <v>131900</v>
+        <v>134000</v>
       </c>
       <c r="H49" s="3">
-        <v>129300</v>
+        <v>131700</v>
       </c>
       <c r="I49" s="3">
-        <v>113100</v>
+        <v>129100</v>
       </c>
       <c r="J49" s="3">
+        <v>112900</v>
+      </c>
+      <c r="K49" s="3">
         <v>114500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>136400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>151100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>148500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>161500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>165800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>170400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>172000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>185500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>130600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>145100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>117600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>105000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>106900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>119100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>122700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>122800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>125500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>123900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>120300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>133300</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>138400</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4153,8 +4266,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4242,97 +4358,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>420100</v>
+        <v>404900</v>
       </c>
       <c r="E52" s="3">
-        <v>420100</v>
+        <v>419400</v>
       </c>
       <c r="F52" s="3">
-        <v>424400</v>
+        <v>419400</v>
       </c>
       <c r="G52" s="3">
-        <v>403900</v>
+        <v>423800</v>
       </c>
       <c r="H52" s="3">
-        <v>363100</v>
+        <v>403300</v>
       </c>
       <c r="I52" s="3">
-        <v>313800</v>
+        <v>362500</v>
       </c>
       <c r="J52" s="3">
+        <v>313300</v>
+      </c>
+      <c r="K52" s="3">
         <v>300500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>315700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>275000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>307100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>352400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>385100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>408300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>382600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>392600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>331700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>351000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>360400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>470300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>468600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>439900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>386500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>359800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>394100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>403200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>374500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>364200</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>307400</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4420,97 +4542,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>17370300</v>
+        <v>17156900</v>
       </c>
       <c r="E54" s="3">
-        <v>17258400</v>
+        <v>17342700</v>
       </c>
       <c r="F54" s="3">
-        <v>16737800</v>
+        <v>17230900</v>
       </c>
       <c r="G54" s="3">
-        <v>16309000</v>
+        <v>16711200</v>
       </c>
       <c r="H54" s="3">
-        <v>15692300</v>
+        <v>16283000</v>
       </c>
       <c r="I54" s="3">
-        <v>15163300</v>
+        <v>15667300</v>
       </c>
       <c r="J54" s="3">
+        <v>15139200</v>
+      </c>
+      <c r="K54" s="3">
         <v>14583000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13957200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13675000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12569100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12495800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12328800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12941200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12983600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13208300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13413200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12929200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13124700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12790300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12428500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12668400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12823700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12772800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>12451000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>12504300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>12371600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>12608800</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>12227400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4542,8 +4670,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4575,542 +4704,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>277300</v>
+        <v>262400</v>
       </c>
       <c r="E57" s="3">
-        <v>289300</v>
+        <v>276900</v>
       </c>
       <c r="F57" s="3">
-        <v>282000</v>
+        <v>288800</v>
       </c>
       <c r="G57" s="3">
-        <v>315200</v>
+        <v>281600</v>
       </c>
       <c r="H57" s="3">
-        <v>312400</v>
+        <v>314700</v>
       </c>
       <c r="I57" s="3">
-        <v>284600</v>
+        <v>311900</v>
       </c>
       <c r="J57" s="3">
+        <v>284100</v>
+      </c>
+      <c r="K57" s="3">
         <v>262600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>269000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>273100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>263400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>260200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>257800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>301300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>321400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>316700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>237700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>241600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>237800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>238600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>229600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>246400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>232700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>211800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>214200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>215400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>210000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>223500</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>219900</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>380600</v>
+        <v>959200</v>
       </c>
       <c r="E58" s="3">
-        <v>323900</v>
+        <v>380000</v>
       </c>
       <c r="F58" s="3">
-        <v>255100</v>
+        <v>323400</v>
       </c>
       <c r="G58" s="3">
-        <v>400400</v>
+        <v>254700</v>
       </c>
       <c r="H58" s="3">
-        <v>430900</v>
+        <v>399800</v>
       </c>
       <c r="I58" s="3">
-        <v>726800</v>
+        <v>430200</v>
       </c>
       <c r="J58" s="3">
+        <v>725600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1250200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>807600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>655200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1206200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1277400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>567500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>630000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>933900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1333700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1454100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1393900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>834900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>639300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>677900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>573100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1330300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1711600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1579800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1561900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1185000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1012600</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1534200</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3831600</v>
+        <v>1664700</v>
       </c>
       <c r="E59" s="3">
-        <v>2711600</v>
+        <v>3825500</v>
       </c>
       <c r="F59" s="3">
-        <v>2871800</v>
+        <v>2707300</v>
       </c>
       <c r="G59" s="3">
-        <v>2675900</v>
+        <v>2867200</v>
       </c>
       <c r="H59" s="3">
-        <v>3395600</v>
+        <v>2671600</v>
       </c>
       <c r="I59" s="3">
-        <v>1912700</v>
+        <v>3390200</v>
       </c>
       <c r="J59" s="3">
+        <v>1909600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1798500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1675300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1828400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1034000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1052200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1155100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1361200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>945700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>944000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>830100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1057600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>774100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>872500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>807700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1148500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>850600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>930700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>875200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1064900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>785700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1111100</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>967000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>4489500</v>
+        <v>2886400</v>
       </c>
       <c r="E60" s="3">
-        <v>3324800</v>
+        <v>4482400</v>
       </c>
       <c r="F60" s="3">
-        <v>3408900</v>
+        <v>3319500</v>
       </c>
       <c r="G60" s="3">
-        <v>3391500</v>
+        <v>3403500</v>
       </c>
       <c r="H60" s="3">
-        <v>4138900</v>
+        <v>3386100</v>
       </c>
       <c r="I60" s="3">
-        <v>2924000</v>
+        <v>4132400</v>
       </c>
       <c r="J60" s="3">
+        <v>2919300</v>
+      </c>
+      <c r="K60" s="3">
         <v>3311200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2752000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2756700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2503600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2589900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1980400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2292500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2201000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2594400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2521900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2693100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1846800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1750500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1715300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1968000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2413600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2854100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2669200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2842200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2180600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2347200</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>2721000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1290500</v>
+        <v>1705100</v>
       </c>
       <c r="E61" s="3">
-        <v>1334200</v>
+        <v>1288500</v>
       </c>
       <c r="F61" s="3">
-        <v>1415400</v>
+        <v>1332100</v>
       </c>
       <c r="G61" s="3">
-        <v>1614900</v>
+        <v>1413200</v>
       </c>
       <c r="H61" s="3">
-        <v>1602800</v>
+        <v>1612300</v>
       </c>
       <c r="I61" s="3">
-        <v>1712800</v>
+        <v>1600300</v>
       </c>
       <c r="J61" s="3">
+        <v>1710100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1392300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1813400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1807600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1040200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>986300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1829400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2073100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1906100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1903500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2169100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1775100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2473700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2353300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2249800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2253800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1749900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1728100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1696900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1660600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2032000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1980400</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>1294100</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1326000</v>
+        <v>1592400</v>
       </c>
       <c r="E62" s="3">
-        <v>1435100</v>
+        <v>1323900</v>
       </c>
       <c r="F62" s="3">
-        <v>1380300</v>
+        <v>1432900</v>
       </c>
       <c r="G62" s="3">
-        <v>1405700</v>
+        <v>1378100</v>
       </c>
       <c r="H62" s="3">
-        <v>1056600</v>
+        <v>1403500</v>
       </c>
       <c r="I62" s="3">
-        <v>1034800</v>
+        <v>1054900</v>
       </c>
       <c r="J62" s="3">
+        <v>1033100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1049700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1006900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1321300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1065800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1115500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1122900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1209700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1282900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1316900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1369400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1397900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1444000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1441300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1374600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1435900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1469000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1253700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1135100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1091800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1092900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1148100</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1070700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5198,8 +5346,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5287,8 +5438,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5376,97 +5530,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>7116800</v>
+        <v>6194600</v>
       </c>
       <c r="E66" s="3">
-        <v>6105000</v>
+        <v>7105500</v>
       </c>
       <c r="F66" s="3">
-        <v>6215500</v>
+        <v>6095200</v>
       </c>
       <c r="G66" s="3">
-        <v>6423900</v>
+        <v>6205600</v>
       </c>
       <c r="H66" s="3">
-        <v>6809800</v>
+        <v>6413700</v>
       </c>
       <c r="I66" s="3">
-        <v>5680800</v>
+        <v>6798900</v>
       </c>
       <c r="J66" s="3">
+        <v>5671800</v>
+      </c>
+      <c r="K66" s="3">
         <v>5760200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5577200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5889000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4612600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4695500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4937700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5577900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5392400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5829500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6074900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5881100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5780400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5561400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5356200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5678100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5639300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5866800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5535000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5624800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>5336500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>5546200</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>5138300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5498,8 +5658,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5587,8 +5748,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5676,8 +5840,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5765,8 +5932,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5854,97 +6024,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>5927500</v>
+        <v>6380700</v>
       </c>
       <c r="E72" s="3">
-        <v>6849900</v>
+        <v>5918100</v>
       </c>
       <c r="F72" s="3">
-        <v>6350600</v>
+        <v>6839000</v>
       </c>
       <c r="G72" s="3">
-        <v>5757200</v>
+        <v>6340400</v>
       </c>
       <c r="H72" s="3">
-        <v>4909600</v>
+        <v>5748100</v>
       </c>
       <c r="I72" s="3">
-        <v>4239900</v>
+        <v>4901700</v>
       </c>
       <c r="J72" s="3">
+        <v>4233200</v>
+      </c>
+      <c r="K72" s="3">
         <v>3622800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3263200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2671100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2880200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2653800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2342000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2144500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2400700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2181900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2072300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1935700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2153400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2160500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2158800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2129100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2307700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1557800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1529000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1457800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1603500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1554000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1561100</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -6032,8 +6208,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -6121,8 +6300,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6210,97 +6392,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>10253500</v>
+        <v>10962400</v>
       </c>
       <c r="E76" s="3">
-        <v>11153500</v>
+        <v>10237200</v>
       </c>
       <c r="F76" s="3">
-        <v>10522400</v>
+        <v>11135700</v>
       </c>
       <c r="G76" s="3">
-        <v>9885000</v>
+        <v>10505600</v>
       </c>
       <c r="H76" s="3">
-        <v>8882500</v>
+        <v>9869300</v>
       </c>
       <c r="I76" s="3">
-        <v>9482500</v>
+        <v>8868400</v>
       </c>
       <c r="J76" s="3">
+        <v>9467400</v>
+      </c>
+      <c r="K76" s="3">
         <v>8822800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8380000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7786000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7956500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7800300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7391100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7363400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7591300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7378800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7338400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7048200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7344400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7228900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7072400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6990300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7184400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6905900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6916000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6879500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>7035100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>7062700</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>7089100</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6388,191 +6576,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>491100</v>
+        <v>500700</v>
       </c>
       <c r="E81" s="3">
-        <v>508100</v>
+        <v>490300</v>
       </c>
       <c r="F81" s="3">
-        <v>598700</v>
+        <v>507300</v>
       </c>
       <c r="G81" s="3">
-        <v>847700</v>
+        <v>597800</v>
       </c>
       <c r="H81" s="3">
-        <v>669700</v>
+        <v>846300</v>
       </c>
       <c r="I81" s="3">
-        <v>622000</v>
+        <v>668600</v>
       </c>
       <c r="J81" s="3">
+        <v>621000</v>
+      </c>
+      <c r="K81" s="3">
         <v>500800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>568300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>387300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>332400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>370600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>304900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>235200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>79500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>136900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>105000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>60800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>42100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-59900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>57400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>121700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>113100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>57400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>112500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>68000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>74500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>83100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>97000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6604,97 +6801,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>311900</v>
+        <v>311300</v>
       </c>
       <c r="E83" s="3">
-        <v>310900</v>
+        <v>311400</v>
       </c>
       <c r="F83" s="3">
-        <v>329000</v>
+        <v>310500</v>
       </c>
       <c r="G83" s="3">
-        <v>351500</v>
+        <v>328500</v>
       </c>
       <c r="H83" s="3">
-        <v>348800</v>
+        <v>351000</v>
       </c>
       <c r="I83" s="3">
-        <v>357600</v>
+        <v>348200</v>
       </c>
       <c r="J83" s="3">
+        <v>357100</v>
+      </c>
+      <c r="K83" s="3">
         <v>371000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>382600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>378500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>377300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>397000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>407400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>431300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>450100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>455800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>432100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>425900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>434300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>435500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>432700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>444800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>442000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>428700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>437100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>424300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>433500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>436200</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>420700</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6782,8 +6983,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6871,8 +7075,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6960,8 +7167,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -7049,8 +7259,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -7138,97 +7351,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>432100</v>
+        <v>597500</v>
       </c>
       <c r="E89" s="3">
-        <v>846700</v>
+        <v>431400</v>
       </c>
       <c r="F89" s="3">
-        <v>1286000</v>
+        <v>845300</v>
       </c>
       <c r="G89" s="3">
-        <v>1246400</v>
+        <v>1284000</v>
       </c>
       <c r="H89" s="3">
-        <v>1101900</v>
+        <v>1244500</v>
       </c>
       <c r="I89" s="3">
-        <v>945700</v>
+        <v>1100100</v>
       </c>
       <c r="J89" s="3">
+        <v>944200</v>
+      </c>
+      <c r="K89" s="3">
         <v>842200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>720200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>749900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>582800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>532000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>620700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>577500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>530600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1339200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-110400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>428800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>287100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>425300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>526000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>474400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>291900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>418100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>371000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>480200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>434100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>507000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>452900</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7260,97 +7479,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-17805000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-24823300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30283800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-36391900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23546300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11722400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11223100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14806900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17827500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-276300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-234400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-388500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-224500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-150300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-130800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-124900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-127300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-136400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-195100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-153000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-187200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-129700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-190100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-355300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-236200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-270100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-588000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-724600</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-666200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7438,8 +7661,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7527,97 +7753,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-743100</v>
+        <v>-555500</v>
       </c>
       <c r="E94" s="3">
-        <v>-929000</v>
+        <v>-741900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1131800</v>
+        <v>-927500</v>
       </c>
       <c r="G94" s="3">
-        <v>-672500</v>
+        <v>-1130000</v>
       </c>
       <c r="H94" s="3">
-        <v>-367900</v>
+        <v>-671500</v>
       </c>
       <c r="I94" s="3">
-        <v>463200</v>
+        <v>-367300</v>
       </c>
       <c r="J94" s="3">
+        <v>462500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-418800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-755900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-599400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-227000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-577200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-190400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-277400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-328200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-636700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-142300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-146400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-199400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-161800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-182600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-202100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>22200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-195500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-161500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-262700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-531300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-597400</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-502200</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7649,8 +7881,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7661,11 +7894,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>100</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -7697,11 +7930,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -7721,11 +7954,11 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>300</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
@@ -7736,10 +7969,13 @@
         <v>0</v>
       </c>
       <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-225200</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7827,8 +8063,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7916,8 +8155,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -8005,271 +8247,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-865300</v>
+      </c>
+      <c r="E100" s="3">
         <v>33300</v>
       </c>
-      <c r="E100" s="3">
-        <v>42300</v>
-      </c>
       <c r="F100" s="3">
-        <v>-288400</v>
+        <v>42200</v>
       </c>
       <c r="G100" s="3">
-        <v>-838000</v>
+        <v>-288000</v>
       </c>
       <c r="H100" s="3">
-        <v>-421500</v>
+        <v>-836700</v>
       </c>
       <c r="I100" s="3">
-        <v>-249900</v>
+        <v>-420800</v>
       </c>
       <c r="J100" s="3">
+        <v>-249500</v>
+      </c>
+      <c r="K100" s="3">
         <v>199900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-315500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>429300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>82200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-104300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-457100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-103800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-210700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-346700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>148300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-226000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>76500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-200800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-108500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-359000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-456100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>169000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-149200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>22900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>255800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>137600</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>289700</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>119400</v>
+      </c>
+      <c r="E101" s="3">
         <v>3400</v>
       </c>
-      <c r="E101" s="3">
-        <v>-22300</v>
-      </c>
       <c r="F101" s="3">
-        <v>-80300</v>
+        <v>-22200</v>
       </c>
       <c r="G101" s="3">
-        <v>167600</v>
+        <v>-80100</v>
       </c>
       <c r="H101" s="3">
+        <v>167300</v>
+      </c>
+      <c r="I101" s="3">
         <v>50200</v>
       </c>
-      <c r="I101" s="3">
-        <v>82800</v>
-      </c>
       <c r="J101" s="3">
+        <v>82700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-10400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-37800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-16000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-30700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-44200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-24800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>13900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>12500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-23900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>21900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-11100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-3100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-53200</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>28300</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-49900</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-274400</v>
+        <v>-704000</v>
       </c>
       <c r="E102" s="3">
-        <v>-62300</v>
+        <v>-273900</v>
       </c>
       <c r="F102" s="3">
-        <v>-214500</v>
+        <v>-62200</v>
       </c>
       <c r="G102" s="3">
-        <v>-96500</v>
+        <v>-214100</v>
       </c>
       <c r="H102" s="3">
-        <v>362800</v>
+        <v>-96400</v>
       </c>
       <c r="I102" s="3">
-        <v>1241800</v>
+        <v>362200</v>
       </c>
       <c r="J102" s="3">
+        <v>1239800</v>
+      </c>
+      <c r="K102" s="3">
         <v>612800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-354700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>542100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>422000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-158600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-34600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>165700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-11700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>311700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-129200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>56700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>178100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>75100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>211000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-64900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-150700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>380400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>58500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>237300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>105400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>75400</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>190500</v>
       </c>
     </row>
